--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ru-ru" sheetId="2" r:id="rId3"/>
+    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ru-ru</t>
+    <t>ja-jp</t>
   </si>
   <si>
     <t>PartialConfig1.jpg</t>
@@ -30,6 +30,9 @@
     <t>PartialConfigPullServer.jpg</t>
   </si>
   <si>
+    <t>Pull.png</t>
+  </si>
+  <si>
     <t>Push.png</t>
   </si>
   <si>
@@ -72,10 +75,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:04:17</t>
-  </si>
-  <si>
-    <t>2016-03-16 23:59:51</t>
+    <t>2016-03-11 01:02:12</t>
+  </si>
+  <si>
+    <t>2016-03-17 01:31:01</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -85,6 +88,9 @@
   </si>
   <si>
     <t>.png</t>
+  </si>
+  <si>
+    <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
   </si>
   <si>
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
@@ -144,7 +150,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ru-ru" displayName="ru_ru" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -167,7 +173,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ru-ru"/>
+    <tableColumn id="2" name="ja-jp"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -176,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -218,11 +224,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
     <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId3"/>
-    <hyperlink ref="A4" display="Push.png" r:id="rId4"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId4"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -233,7 +248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -254,37 +269,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -292,28 +307,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -321,28 +336,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -350,28 +365,57 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -386,11 +430,16 @@
     <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
     <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
     <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
-    <hyperlink ref="A4" display="Push.png" r:id="rId12"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
     <hyperlink ref="B4" display=".png" r:id="rId13"/>
-    <hyperlink ref="D4" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId14"/>
-    <hyperlink ref="F4" display="Push.png" r:id="rId15"/>
-    <hyperlink ref="G4" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId16"/>
+    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
+    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
+    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
+    <hyperlink ref="B5" display=".png" r:id="rId18"/>
+    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
+    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
+    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
+    <sheet name="it-it" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>ja-jp</t>
+    <t>it-it</t>
   </si>
   <si>
     <t>PartialConfig1.jpg</t>
@@ -75,10 +75,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:12</t>
-  </si>
-  <si>
-    <t>2016-03-17 01:31:01</t>
+    <t>2016-03-11 01:04:01</t>
+  </si>
+  <si>
+    <t>2016-03-17 01:40:10</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -173,7 +173,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ja-jp"/>
+    <tableColumn id="2" name="it-it"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="it-it" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>it-it</t>
+    <t>de-de</t>
   </si>
   <si>
     <t>PartialConfig1.jpg</t>
@@ -75,10 +75,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:04:01</t>
-  </si>
-  <si>
-    <t>2016-03-17 01:40:10</t>
+    <t>2016-03-11 01:02:28</t>
+  </si>
+  <si>
+    <t>2016-03-17 02:07:40</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -173,7 +173,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="it-it"/>
+    <tableColumn id="2" name="de-de"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-tw" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>zh-tw</t>
   </si>
   <si>
     <t>PartialConfig1.jpg</t>
@@ -75,10 +75,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:28</t>
-  </si>
-  <si>
-    <t>2016-03-17 02:07:40</t>
+    <t>2016-03-11 01:03:15</t>
+  </si>
+  <si>
+    <t>2016-03-17 04:12:10</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-tw" displayName="zh_tw" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -173,7 +173,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="de-de"/>
+    <tableColumn id="2" name="zh-tw"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="zh-tw" sheetId="2" r:id="rId3"/>
+    <sheet name="ru-ru" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>zh-tw</t>
+    <t>ru-ru</t>
   </si>
   <si>
     <t>PartialConfig1.jpg</t>
@@ -75,10 +75,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:03:15</t>
-  </si>
-  <si>
-    <t>2016-03-17 04:12:10</t>
+    <t>2016-03-11 01:04:17</t>
+  </si>
+  <si>
+    <t>2016-03-16 23:59:51</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
+  </si>
+  <si>
+    <t>2016-03-17 16:45:12</t>
   </si>
   <si>
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
@@ -150,7 +153,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-tw" displayName="zh_tw" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ru-ru" displayName="ru_ru" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -173,7 +176,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="zh-tw"/>
+    <tableColumn id="2" name="ru-ru"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -383,7 +386,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>22</v>
@@ -400,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -409,7 +412,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>21</v>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ru-ru" sheetId="2" r:id="rId3"/>
+    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ru-ru</t>
+    <t>fr-fr</t>
   </si>
   <si>
     <t>PartialConfig1.jpg</t>
@@ -75,10 +75,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:04:17</t>
-  </si>
-  <si>
-    <t>2016-03-16 23:59:51</t>
+    <t>2016-03-11 01:02:43</t>
+  </si>
+  <si>
+    <t>2016-03-17 17:12:56</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
-  </si>
-  <si>
-    <t>2016-03-17 16:45:12</t>
   </si>
   <si>
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
@@ -153,7 +150,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ru-ru" displayName="ru_ru" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -176,7 +173,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ru-ru"/>
+    <tableColumn id="2" name="fr-fr"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -386,7 +383,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>22</v>
@@ -403,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -412,7 +409,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>21</v>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>fr-fr</t>
+    <t>zh-cn</t>
   </si>
   <si>
     <t>PartialConfig1.jpg</t>
@@ -75,10 +75,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:43</t>
-  </si>
-  <si>
-    <t>2016-03-17 17:12:56</t>
+    <t>2016-03-11 01:02:59</t>
+  </si>
+  <si>
+    <t>2016-03-18 09:21:04</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -173,7 +173,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="fr-fr"/>
+    <tableColumn id="2" name="zh-cn"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="ko-kr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>zh-cn</t>
+    <t>ko-kr</t>
   </si>
   <si>
     <t>PartialConfig1.jpg</t>
@@ -75,10 +75,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:59</t>
-  </si>
-  <si>
-    <t>2016-03-18 09:21:04</t>
+    <t>2016-03-11 01:03:30</t>
+  </si>
+  <si>
+    <t>2016-03-19 01:30:54</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ko-kr" displayName="ko_kr" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -173,7 +173,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="zh-cn"/>
+    <tableColumn id="2" name="ko-kr"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,31 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ko-kr" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ko-kr</t>
+    <t>de-de</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>pullServer.md</t>
+  </si>
+  <si>
+    <t>troubleshooting.md</t>
   </si>
   <si>
     <t>PartialConfig1.jpg</t>
@@ -36,6 +48,12 @@
     <t>Push.png</t>
   </si>
   <si>
+    <t>metaConfig.md</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -69,16 +87,40 @@
     <t>Error Detail</t>
   </si>
   <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:20</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:14:51</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:11:44</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
+  </si>
+  <si>
     <t>.jpg</t>
   </si>
   <si>
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:03:30</t>
-  </si>
-  <si>
-    <t>2016-03-19 01:30:54</t>
+    <t>2016-03-11 01:02:28</t>
+  </si>
+  <si>
+    <t>2016-03-17 02:07:40</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -94,6 +136,12 @@
   </si>
   <si>
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -150,7 +198,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ko-kr" displayName="ko_kr" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -173,7 +221,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ko-kr"/>
+    <tableColumn id="2" name="de-de"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -182,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -229,15 +277,60 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
-    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId3"/>
-    <hyperlink ref="A4" display="Pull.png" r:id="rId4"/>
-    <hyperlink ref="A5" display="Push.png" r:id="rId5"/>
+    <hyperlink ref="A2" display="pullClientConfigNames.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="pullServer.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="troubleshooting.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="PartialConfig1.jpg" r:id="rId5"/>
+    <hyperlink ref="A6" display="PartialConfigPullServer.jpg" r:id="rId6"/>
+    <hyperlink ref="A7" display="Pull.png" r:id="rId7"/>
+    <hyperlink ref="A8" display="Push.png" r:id="rId8"/>
+    <hyperlink ref="A9" display="metaConfig.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="windowsfeatureResource.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -248,7 +341,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -269,37 +362,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -307,28 +400,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -336,28 +429,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -371,22 +464,22 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -394,52 +487,222 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>22</v>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
-    <hyperlink ref="B2" display=".jpg" r:id="rId3"/>
-    <hyperlink ref="D2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId4"/>
-    <hyperlink ref="F2" display="PartialConfig1.jpg" r:id="rId5"/>
-    <hyperlink ref="G2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId6"/>
-    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId7"/>
-    <hyperlink ref="B3" display=".jpg" r:id="rId8"/>
-    <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
-    <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
-    <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
-    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
-    <hyperlink ref="B4" display=".png" r:id="rId13"/>
-    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
-    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
-    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
-    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
-    <hyperlink ref="B5" display=".png" r:id="rId18"/>
-    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
-    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
-    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
+    <hyperlink ref="A2" display="pullClientConfigNames.md" r:id="rId2"/>
+    <hyperlink ref="B2" display=".md" r:id="rId3"/>
+    <hyperlink ref="D2" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="F2" display="pullClientConfigNames.md" r:id="rId5"/>
+    <hyperlink ref="G2" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId6"/>
+    <hyperlink ref="A3" display="pullServer.md" r:id="rId7"/>
+    <hyperlink ref="B3" display=".md" r:id="rId8"/>
+    <hyperlink ref="D3" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="F3" display="pullServer.md" r:id="rId10"/>
+    <hyperlink ref="G3" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A4" display="troubleshooting.md" r:id="rId12"/>
+    <hyperlink ref="B4" display=".md" r:id="rId13"/>
+    <hyperlink ref="D4" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="troubleshooting.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="PartialConfig1.jpg" r:id="rId17"/>
+    <hyperlink ref="B5" display=".jpg" r:id="rId18"/>
+    <hyperlink ref="D5" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId19"/>
+    <hyperlink ref="F5" display="PartialConfig1.jpg" r:id="rId20"/>
+    <hyperlink ref="G5" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId21"/>
+    <hyperlink ref="A6" display="PartialConfigPullServer.jpg" r:id="rId22"/>
+    <hyperlink ref="B6" display=".jpg" r:id="rId23"/>
+    <hyperlink ref="D6" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId24"/>
+    <hyperlink ref="F6" display="PartialConfigPullServer.jpg" r:id="rId25"/>
+    <hyperlink ref="G6" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId26"/>
+    <hyperlink ref="A7" display="Pull.png" r:id="rId27"/>
+    <hyperlink ref="B7" display=".png" r:id="rId28"/>
+    <hyperlink ref="D7" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId29"/>
+    <hyperlink ref="F7" display="Pull.png" r:id="rId30"/>
+    <hyperlink ref="G7" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId31"/>
+    <hyperlink ref="A8" display="Push.png" r:id="rId32"/>
+    <hyperlink ref="B8" display=".png" r:id="rId33"/>
+    <hyperlink ref="D8" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId34"/>
+    <hyperlink ref="F8" display="Push.png" r:id="rId35"/>
+    <hyperlink ref="G8" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId36"/>
+    <hyperlink ref="A9" display="metaConfig.md" r:id="rId37"/>
+    <hyperlink ref="B9" display=".md" r:id="rId38"/>
+    <hyperlink ref="D9" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="metaConfig.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="windowsfeatureResource.md" r:id="rId42"/>
+    <hyperlink ref="B10" display=".md" r:id="rId43"/>
+    <hyperlink ref="D10" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="windowsfeatureResource.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId46"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,39 +6,84 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="es-es" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>es-es</t>
+  </si>
+  <si>
+    <t>builtInResource.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>debugResource.md</t>
+  </si>
+  <si>
+    <t>decisionMaker.md</t>
+  </si>
+  <si>
+    <t>gettingStarted.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.md</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
   </si>
   <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>pullServer.md</t>
+    <t>secureMOF.md</t>
+  </si>
+  <si>
+    <t>TOC.md</t>
   </si>
   <si>
     <t>troubleshooting.md</t>
   </si>
   <si>
+    <t>archiveResource.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.md</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
+    <t>configurations.md</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>environmentResource.md</t>
+  </si>
+  <si>
+    <t>fileResource.md</t>
+  </si>
+  <si>
     <t>PartialConfig1.jpg</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>PartialConfigPullServer.jpg</t>
   </si>
   <si>
@@ -48,9 +93,75 @@
     <t>Push.png</t>
   </si>
   <si>
+    <t>lnxArchiveResource.md</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.md</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileResource.md</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.md</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.md</t>
+  </si>
+  <si>
+    <t>lnxUserResource.md</t>
+  </si>
+  <si>
+    <t>logResource.md</t>
+  </si>
+  <si>
     <t>metaConfig.md</t>
   </si>
   <si>
+    <t>overview.md</t>
+  </si>
+  <si>
+    <t>packageResource.md</t>
+  </si>
+  <si>
+    <t>partialConfigs.md</t>
+  </si>
+  <si>
+    <t>pullClient.md</t>
+  </si>
+  <si>
+    <t>queryServerNodes.md</t>
+  </si>
+  <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
+    <t>reportServer.md</t>
+  </si>
+  <si>
+    <t>resources.md</t>
+  </si>
+  <si>
+    <t>scriptResource.md</t>
+  </si>
+  <si>
+    <t>secureServer.md</t>
+  </si>
+  <si>
+    <t>serviceResource.md</t>
+  </si>
+  <si>
     <t>windowsfeatureResource.md</t>
   </si>
   <si>
@@ -90,25 +201,70 @@
     <t>.md</t>
   </si>
   <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:20</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:14:51</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:55</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:55:10</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:11:44</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:43:56</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -117,10 +273,7 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:28</t>
-  </si>
-  <si>
-    <t>2016-03-17 02:07:40</t>
+    <t>2016-03-11 01:03:45</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -138,10 +291,76 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf</t>
   </si>
 </sst>
 </file>
@@ -198,7 +417,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="es-es" displayName="es_es" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -221,7 +440,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="de-de"/>
+    <tableColumn id="2" name="es-es"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -230,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -277,60 +496,393 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>7</v>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="pullClientConfigNames.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="pullServer.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="troubleshooting.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="PartialConfig1.jpg" r:id="rId5"/>
-    <hyperlink ref="A6" display="PartialConfigPullServer.jpg" r:id="rId6"/>
-    <hyperlink ref="A7" display="Pull.png" r:id="rId7"/>
-    <hyperlink ref="A8" display="Push.png" r:id="rId8"/>
-    <hyperlink ref="A9" display="metaConfig.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="windowsfeatureResource.md" r:id="rId10"/>
+    <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="debugResource.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="pullClientConfigID4.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="pullClientConfigNames.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="secureMOF.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="TOC.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="troubleshooting.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="archiveResource.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="authoringResourceClass.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="authoringResourceComposite.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="authoringResourceMOF.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="authoringResourceMofDesigner.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="configurations.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="enactingConfigurations.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="environmentResource.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="fileResource.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="PartialConfig1.jpg" r:id="rId20"/>
+    <hyperlink ref="A21" display="PartialConfigPullServer.jpg" r:id="rId21"/>
+    <hyperlink ref="A22" display="Pull.png" r:id="rId22"/>
+    <hyperlink ref="A23" display="Push.png" r:id="rId23"/>
+    <hyperlink ref="A24" display="lnxArchiveResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="lnxBuiltInResources.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="lnxEnvironmentResource.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="lnxFileLineResource.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="lnxFileResource.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="lnxGroupResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="logResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="metaConfig.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="overview.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="queryServerNodes.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="registryResource.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="reportServer.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="resources.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="scriptResource.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="secureServer.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="serviceResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="windowsfeatureResource.md" r:id="rId47"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -341,7 +893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,37 +914,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -400,28 +952,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -429,28 +981,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -458,28 +1010,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -487,222 +1039,1480 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>28</v>
+      <c r="G40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="pullClientConfigNames.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId4"/>
-    <hyperlink ref="F2" display="pullClientConfigNames.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId6"/>
-    <hyperlink ref="A3" display="pullServer.md" r:id="rId7"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId4"/>
+    <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId6"/>
+    <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="F3" display="pullServer.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A4" display="troubleshooting.md" r:id="rId12"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId9"/>
+    <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId11"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId14"/>
-    <hyperlink ref="F4" display="troubleshooting.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId16"/>
-    <hyperlink ref="A5" display="PartialConfig1.jpg" r:id="rId17"/>
-    <hyperlink ref="B5" display=".jpg" r:id="rId18"/>
-    <hyperlink ref="D5" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId19"/>
-    <hyperlink ref="F5" display="PartialConfig1.jpg" r:id="rId20"/>
-    <hyperlink ref="G5" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId21"/>
-    <hyperlink ref="A6" display="PartialConfigPullServer.jpg" r:id="rId22"/>
-    <hyperlink ref="B6" display=".jpg" r:id="rId23"/>
-    <hyperlink ref="D6" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId24"/>
-    <hyperlink ref="F6" display="PartialConfigPullServer.jpg" r:id="rId25"/>
-    <hyperlink ref="G6" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId26"/>
-    <hyperlink ref="A7" display="Pull.png" r:id="rId27"/>
-    <hyperlink ref="B7" display=".png" r:id="rId28"/>
-    <hyperlink ref="D7" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId29"/>
-    <hyperlink ref="F7" display="Pull.png" r:id="rId30"/>
-    <hyperlink ref="G7" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId31"/>
-    <hyperlink ref="A8" display="Push.png" r:id="rId32"/>
-    <hyperlink ref="B8" display=".png" r:id="rId33"/>
-    <hyperlink ref="D8" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId34"/>
-    <hyperlink ref="F8" display="Push.png" r:id="rId35"/>
-    <hyperlink ref="G8" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId36"/>
-    <hyperlink ref="A9" display="metaConfig.md" r:id="rId37"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
+    <hyperlink ref="B5" display=".md" r:id="rId18"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId19"/>
+    <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId21"/>
+    <hyperlink ref="A6" display="pullClientConfigID4.md" r:id="rId22"/>
+    <hyperlink ref="B6" display=".md" r:id="rId23"/>
+    <hyperlink ref="D6" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId24"/>
+    <hyperlink ref="F6" display="pullClientConfigID4.md" r:id="rId25"/>
+    <hyperlink ref="G6" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId26"/>
+    <hyperlink ref="A7" display="pullClientConfigNames.md" r:id="rId27"/>
+    <hyperlink ref="B7" display=".md" r:id="rId28"/>
+    <hyperlink ref="D7" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId29"/>
+    <hyperlink ref="F7" display="pullClientConfigNames.md" r:id="rId30"/>
+    <hyperlink ref="G7" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId31"/>
+    <hyperlink ref="A8" display="secureMOF.md" r:id="rId32"/>
+    <hyperlink ref="B8" display=".md" r:id="rId33"/>
+    <hyperlink ref="D8" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId34"/>
+    <hyperlink ref="F8" display="secureMOF.md" r:id="rId35"/>
+    <hyperlink ref="G8" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId36"/>
+    <hyperlink ref="A9" display="TOC.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId39"/>
-    <hyperlink ref="F9" display="metaConfig.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId41"/>
-    <hyperlink ref="A10" display="windowsfeatureResource.md" r:id="rId42"/>
+    <hyperlink ref="D9" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="TOC.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="troubleshooting.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId44"/>
-    <hyperlink ref="F10" display="windowsfeatureResource.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId46"/>
+    <hyperlink ref="D10" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="troubleshooting.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="archiveResource.md" r:id="rId47"/>
+    <hyperlink ref="B11" display=".md" r:id="rId48"/>
+    <hyperlink ref="D11" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId49"/>
+    <hyperlink ref="F11" display="archiveResource.md" r:id="rId50"/>
+    <hyperlink ref="G11" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId51"/>
+    <hyperlink ref="A12" display="authoringResourceClass.md" r:id="rId52"/>
+    <hyperlink ref="B12" display=".md" r:id="rId53"/>
+    <hyperlink ref="D12" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId54"/>
+    <hyperlink ref="F12" display="authoringResourceClass.md" r:id="rId55"/>
+    <hyperlink ref="G12" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId56"/>
+    <hyperlink ref="A13" display="authoringResourceComposite.md" r:id="rId57"/>
+    <hyperlink ref="B13" display=".md" r:id="rId58"/>
+    <hyperlink ref="D13" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId59"/>
+    <hyperlink ref="F13" display="authoringResourceComposite.md" r:id="rId60"/>
+    <hyperlink ref="G13" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId61"/>
+    <hyperlink ref="A14" display="authoringResourceMOF.md" r:id="rId62"/>
+    <hyperlink ref="B14" display=".md" r:id="rId63"/>
+    <hyperlink ref="D14" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId64"/>
+    <hyperlink ref="F14" display="authoringResourceMOF.md" r:id="rId65"/>
+    <hyperlink ref="G14" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId66"/>
+    <hyperlink ref="A15" display="authoringResourceMofDesigner.md" r:id="rId67"/>
+    <hyperlink ref="B15" display=".md" r:id="rId68"/>
+    <hyperlink ref="D15" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId69"/>
+    <hyperlink ref="F15" display="authoringResourceMofDesigner.md" r:id="rId70"/>
+    <hyperlink ref="G15" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId71"/>
+    <hyperlink ref="A16" display="configurations.md" r:id="rId72"/>
+    <hyperlink ref="B16" display=".md" r:id="rId73"/>
+    <hyperlink ref="D16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId74"/>
+    <hyperlink ref="F16" display="configurations.md" r:id="rId75"/>
+    <hyperlink ref="G16" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId76"/>
+    <hyperlink ref="A17" display="enactingConfigurations.md" r:id="rId77"/>
+    <hyperlink ref="B17" display=".md" r:id="rId78"/>
+    <hyperlink ref="D17" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId79"/>
+    <hyperlink ref="F17" display="enactingConfigurations.md" r:id="rId80"/>
+    <hyperlink ref="G17" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId81"/>
+    <hyperlink ref="A18" display="environmentResource.md" r:id="rId82"/>
+    <hyperlink ref="B18" display=".md" r:id="rId83"/>
+    <hyperlink ref="D18" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId84"/>
+    <hyperlink ref="F18" display="environmentResource.md" r:id="rId85"/>
+    <hyperlink ref="G18" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="fileResource.md" r:id="rId87"/>
+    <hyperlink ref="B19" display=".md" r:id="rId88"/>
+    <hyperlink ref="D19" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="fileResource.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="PartialConfig1.jpg" r:id="rId92"/>
+    <hyperlink ref="B20" display=".jpg" r:id="rId93"/>
+    <hyperlink ref="D20" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId94"/>
+    <hyperlink ref="F20" display="PartialConfig1.jpg" r:id="rId95"/>
+    <hyperlink ref="G20" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId96"/>
+    <hyperlink ref="A21" display="PartialConfigPullServer.jpg" r:id="rId97"/>
+    <hyperlink ref="B21" display=".jpg" r:id="rId98"/>
+    <hyperlink ref="D21" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId99"/>
+    <hyperlink ref="F21" display="PartialConfigPullServer.jpg" r:id="rId100"/>
+    <hyperlink ref="G21" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId101"/>
+    <hyperlink ref="A22" display="Pull.png" r:id="rId102"/>
+    <hyperlink ref="B22" display=".png" r:id="rId103"/>
+    <hyperlink ref="D22" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId104"/>
+    <hyperlink ref="F22" display="Pull.png" r:id="rId105"/>
+    <hyperlink ref="G22" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId106"/>
+    <hyperlink ref="A23" display="Push.png" r:id="rId107"/>
+    <hyperlink ref="B23" display=".png" r:id="rId108"/>
+    <hyperlink ref="D23" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId109"/>
+    <hyperlink ref="F23" display="Push.png" r:id="rId110"/>
+    <hyperlink ref="G23" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId111"/>
+    <hyperlink ref="A24" display="lnxArchiveResource.md" r:id="rId112"/>
+    <hyperlink ref="B24" display=".md" r:id="rId113"/>
+    <hyperlink ref="D24" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="lnxArchiveResource.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="lnxBuiltInResources.md" r:id="rId117"/>
+    <hyperlink ref="B25" display=".md" r:id="rId118"/>
+    <hyperlink ref="D25" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId119"/>
+    <hyperlink ref="F25" display="lnxBuiltInResources.md" r:id="rId120"/>
+    <hyperlink ref="G25" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId121"/>
+    <hyperlink ref="A26" display="lnxEnvironmentResource.md" r:id="rId122"/>
+    <hyperlink ref="B26" display=".md" r:id="rId123"/>
+    <hyperlink ref="D26" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId124"/>
+    <hyperlink ref="F26" display="lnxEnvironmentResource.md" r:id="rId125"/>
+    <hyperlink ref="G26" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId126"/>
+    <hyperlink ref="A27" display="lnxFileLineResource.md" r:id="rId127"/>
+    <hyperlink ref="B27" display=".md" r:id="rId128"/>
+    <hyperlink ref="D27" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId129"/>
+    <hyperlink ref="F27" display="lnxFileLineResource.md" r:id="rId130"/>
+    <hyperlink ref="G27" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId131"/>
+    <hyperlink ref="A28" display="lnxFileResource.md" r:id="rId132"/>
+    <hyperlink ref="B28" display=".md" r:id="rId133"/>
+    <hyperlink ref="D28" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId134"/>
+    <hyperlink ref="F28" display="lnxFileResource.md" r:id="rId135"/>
+    <hyperlink ref="G28" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId136"/>
+    <hyperlink ref="A29" display="lnxGroupResource.md" r:id="rId137"/>
+    <hyperlink ref="B29" display=".md" r:id="rId138"/>
+    <hyperlink ref="D29" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId139"/>
+    <hyperlink ref="F29" display="lnxGroupResource.md" r:id="rId140"/>
+    <hyperlink ref="G29" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId141"/>
+    <hyperlink ref="A30" display="lnxScriptResource.md" r:id="rId142"/>
+    <hyperlink ref="B30" display=".md" r:id="rId143"/>
+    <hyperlink ref="D30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId144"/>
+    <hyperlink ref="F30" display="lnxScriptResource.md" r:id="rId145"/>
+    <hyperlink ref="G30" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId146"/>
+    <hyperlink ref="A31" display="lnxServiceResource.md" r:id="rId147"/>
+    <hyperlink ref="B31" display=".md" r:id="rId148"/>
+    <hyperlink ref="D31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="lnxServiceResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="lnxSshAuthorizedKeysResource.md" r:id="rId152"/>
+    <hyperlink ref="B32" display=".md" r:id="rId153"/>
+    <hyperlink ref="D32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="lnxSshAuthorizedKeysResource.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="lnxUserResource.md" r:id="rId157"/>
+    <hyperlink ref="B33" display=".md" r:id="rId158"/>
+    <hyperlink ref="D33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="lnxUserResource.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="logResource.md" r:id="rId162"/>
+    <hyperlink ref="B34" display=".md" r:id="rId163"/>
+    <hyperlink ref="D34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="logResource.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="metaConfig.md" r:id="rId167"/>
+    <hyperlink ref="B35" display=".md" r:id="rId168"/>
+    <hyperlink ref="D35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="metaConfig.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="overview.md" r:id="rId172"/>
+    <hyperlink ref="B36" display=".md" r:id="rId173"/>
+    <hyperlink ref="D36" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="overview.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="packageResource.md" r:id="rId177"/>
+    <hyperlink ref="B37" display=".md" r:id="rId178"/>
+    <hyperlink ref="D37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="packageResource.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="partialConfigs.md" r:id="rId182"/>
+    <hyperlink ref="B38" display=".md" r:id="rId183"/>
+    <hyperlink ref="D38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="partialConfigs.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="pullClient.md" r:id="rId187"/>
+    <hyperlink ref="B39" display=".md" r:id="rId188"/>
+    <hyperlink ref="D39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="pullClient.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="queryServerNodes.md" r:id="rId192"/>
+    <hyperlink ref="B40" display=".md" r:id="rId193"/>
+    <hyperlink ref="D40" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="queryServerNodes.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="registryResource.md" r:id="rId197"/>
+    <hyperlink ref="B41" display=".md" r:id="rId198"/>
+    <hyperlink ref="D41" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="registryResource.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="reportServer.md" r:id="rId202"/>
+    <hyperlink ref="B42" display=".md" r:id="rId203"/>
+    <hyperlink ref="D42" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="reportServer.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="resources.md" r:id="rId207"/>
+    <hyperlink ref="B43" display=".md" r:id="rId208"/>
+    <hyperlink ref="D43" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="resources.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="scriptResource.md" r:id="rId212"/>
+    <hyperlink ref="B44" display=".md" r:id="rId213"/>
+    <hyperlink ref="D44" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="scriptResource.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="secureServer.md" r:id="rId217"/>
+    <hyperlink ref="B45" display=".md" r:id="rId218"/>
+    <hyperlink ref="D45" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="secureServer.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="serviceResource.md" r:id="rId222"/>
+    <hyperlink ref="B46" display=".md" r:id="rId223"/>
+    <hyperlink ref="D46" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="serviceResource.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="windowsfeatureResource.md" r:id="rId227"/>
+    <hyperlink ref="B47" display=".md" r:id="rId228"/>
+    <hyperlink ref="D47" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="windowsfeatureResource.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId231"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,39 +6,105 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="es-es" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>es-es</t>
+  </si>
+  <si>
+    <t>builtInResource.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>debugResource.md</t>
+  </si>
+  <si>
+    <t>decisionMaker.md</t>
+  </si>
+  <si>
+    <t>gettingStarted.md</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.md</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
   </si>
   <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
     <t>pullServer.md</t>
   </si>
   <si>
+    <t>secureMOF.md</t>
+  </si>
+  <si>
+    <t>TOC.md</t>
+  </si>
+  <si>
     <t>troubleshooting.md</t>
   </si>
   <si>
+    <t>archiveResource.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>authoringResource.md</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.md</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
+    <t>configData.md</t>
+  </si>
+  <si>
+    <t>configDataCredentials.md</t>
+  </si>
+  <si>
+    <t>configurations.md</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>environmentResource.md</t>
+  </si>
+  <si>
+    <t>fileResource.md</t>
+  </si>
+  <si>
+    <t>groupResource.md</t>
+  </si>
+  <si>
     <t>PartialConfig1.jpg</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>PartialConfigPullServer.jpg</t>
   </si>
   <si>
@@ -48,15 +114,93 @@
     <t>Push.png</t>
   </si>
   <si>
+    <t>lnxArchiveResource.md</t>
+  </si>
+  <si>
     <t>lnxBuiltInResources.md</t>
   </si>
   <si>
+    <t>lnxEnvironmentResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileResource.md</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.md</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.md</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.md</t>
+  </si>
+  <si>
+    <t>lnxUserResource.md</t>
+  </si>
+  <si>
+    <t>logResource.md</t>
+  </si>
+  <si>
     <t>metaConfig.md</t>
   </si>
   <si>
+    <t>metaConfig4.md</t>
+  </si>
+  <si>
+    <t>overview.md</t>
+  </si>
+  <si>
+    <t>packageResource.md</t>
+  </si>
+  <si>
+    <t>partialConfigs.md</t>
+  </si>
+  <si>
+    <t>pullClient.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.md</t>
+  </si>
+  <si>
+    <t>queryServerNodes.md</t>
+  </si>
+  <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
+    <t>reportServer.md</t>
+  </si>
+  <si>
+    <t>resources.md</t>
+  </si>
+  <si>
+    <t>scriptResource.md</t>
+  </si>
+  <si>
+    <t>secureServer.md</t>
+  </si>
+  <si>
+    <t>serviceResource.md</t>
+  </si>
+  <si>
+    <t>userResource.md</t>
+  </si>
+  <si>
     <t>windowsfeatureResource.md</t>
   </si>
   <si>
+    <t>windowsProcessResource.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -93,25 +237,94 @@
     <t>.md</t>
   </si>
   <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:20</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:14:51</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:55</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:55:10</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:11:44</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 22:43:53</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:43:56</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -120,10 +333,7 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:28</t>
-  </si>
-  <si>
-    <t>2016-03-17 02:07:40</t>
+    <t>2016-03-11 01:03:45</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -141,16 +351,91 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 22:37:42</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf</t>
   </si>
 </sst>
 </file>
@@ -207,7 +492,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="es-es" displayName="es_es" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -230,7 +515,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="de-de"/>
+    <tableColumn id="2" name="es-es"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -239,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -286,69 +571,501 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>7</v>
+      <c r="B12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="pullClientConfigNames.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="pullServer.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="troubleshooting.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="PartialConfig1.jpg" r:id="rId5"/>
-    <hyperlink ref="A6" display="PartialConfigPullServer.jpg" r:id="rId6"/>
-    <hyperlink ref="A7" display="Pull.png" r:id="rId7"/>
-    <hyperlink ref="A8" display="Push.png" r:id="rId8"/>
-    <hyperlink ref="A9" display="lnxBuiltInResources.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="metaConfig.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="windowsfeatureResource.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="debugResource.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="pullServer.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="secureMOF.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="TOC.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="troubleshooting.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="archiveResource.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="authoringResource.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="configData.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="configurations.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="environmentResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="fileResource.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="groupResource.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId27"/>
+    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId28"/>
+    <hyperlink ref="A29" display="Pull.png" r:id="rId29"/>
+    <hyperlink ref="A30" display="Push.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="logResource.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="metaConfig.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="overview.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="packageResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="pullClient.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="reportServer.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -359,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -380,37 +1097,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -418,28 +1135,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -447,28 +1164,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -476,28 +1193,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -505,256 +1222,1888 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>29</v>
+      <c r="G43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="pullClientConfigNames.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId4"/>
-    <hyperlink ref="F2" display="pullClientConfigNames.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId6"/>
-    <hyperlink ref="A3" display="pullServer.md" r:id="rId7"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId4"/>
+    <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId6"/>
+    <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="F3" display="pullServer.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A4" display="troubleshooting.md" r:id="rId12"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId9"/>
+    <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId11"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId14"/>
-    <hyperlink ref="F4" display="troubleshooting.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId16"/>
-    <hyperlink ref="A5" display="PartialConfig1.jpg" r:id="rId17"/>
-    <hyperlink ref="B5" display=".jpg" r:id="rId18"/>
-    <hyperlink ref="D5" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId19"/>
-    <hyperlink ref="F5" display="PartialConfig1.jpg" r:id="rId20"/>
-    <hyperlink ref="G5" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId21"/>
-    <hyperlink ref="A6" display="PartialConfigPullServer.jpg" r:id="rId22"/>
-    <hyperlink ref="B6" display=".jpg" r:id="rId23"/>
-    <hyperlink ref="D6" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId24"/>
-    <hyperlink ref="F6" display="PartialConfigPullServer.jpg" r:id="rId25"/>
-    <hyperlink ref="G6" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId26"/>
-    <hyperlink ref="A7" display="Pull.png" r:id="rId27"/>
-    <hyperlink ref="B7" display=".png" r:id="rId28"/>
-    <hyperlink ref="D7" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId29"/>
-    <hyperlink ref="F7" display="Pull.png" r:id="rId30"/>
-    <hyperlink ref="G7" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId31"/>
-    <hyperlink ref="A8" display="Push.png" r:id="rId32"/>
-    <hyperlink ref="B8" display=".png" r:id="rId33"/>
-    <hyperlink ref="D8" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId34"/>
-    <hyperlink ref="F8" display="Push.png" r:id="rId35"/>
-    <hyperlink ref="G8" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId36"/>
-    <hyperlink ref="A9" display="lnxBuiltInResources.md" r:id="rId37"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
+    <hyperlink ref="B5" display=".md" r:id="rId18"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId19"/>
+    <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId21"/>
+    <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId22"/>
+    <hyperlink ref="B6" display=".md" r:id="rId23"/>
+    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId24"/>
+    <hyperlink ref="F6" display="lnxGettingStarted.md" r:id="rId25"/>
+    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId26"/>
+    <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId27"/>
+    <hyperlink ref="B7" display=".md" r:id="rId28"/>
+    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId29"/>
+    <hyperlink ref="F7" display="pullClientConfigID4.md" r:id="rId30"/>
+    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId31"/>
+    <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId32"/>
+    <hyperlink ref="B8" display=".md" r:id="rId33"/>
+    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId34"/>
+    <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId35"/>
+    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId36"/>
+    <hyperlink ref="A9" display="pullServer.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId39"/>
-    <hyperlink ref="F9" display="lnxBuiltInResources.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId41"/>
-    <hyperlink ref="A10" display="metaConfig.md" r:id="rId42"/>
+    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="pullServer.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="secureMOF.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId44"/>
-    <hyperlink ref="F10" display="metaConfig.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId46"/>
-    <hyperlink ref="A11" display="windowsfeatureResource.md" r:id="rId47"/>
+    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="secureMOF.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="TOC.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId49"/>
-    <hyperlink ref="F11" display="windowsfeatureResource.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId51"/>
+    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId49"/>
+    <hyperlink ref="F11" display="TOC.md" r:id="rId50"/>
+    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId51"/>
+    <hyperlink ref="A12" display="troubleshooting.md" r:id="rId52"/>
+    <hyperlink ref="B12" display=".md" r:id="rId53"/>
+    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId54"/>
+    <hyperlink ref="F12" display="troubleshooting.md" r:id="rId55"/>
+    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId56"/>
+    <hyperlink ref="A13" display="archiveResource.md" r:id="rId57"/>
+    <hyperlink ref="B13" display=".md" r:id="rId58"/>
+    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId59"/>
+    <hyperlink ref="F13" display="archiveResource.md" r:id="rId60"/>
+    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId61"/>
+    <hyperlink ref="A14" display="authoringResource.md" r:id="rId62"/>
+    <hyperlink ref="B14" display=".md" r:id="rId63"/>
+    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId64"/>
+    <hyperlink ref="F14" display="authoringResource.md" r:id="rId65"/>
+    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId66"/>
+    <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId67"/>
+    <hyperlink ref="B15" display=".md" r:id="rId68"/>
+    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId69"/>
+    <hyperlink ref="F15" display="authoringResourceClass.md" r:id="rId70"/>
+    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId71"/>
+    <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId72"/>
+    <hyperlink ref="B16" display=".md" r:id="rId73"/>
+    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId74"/>
+    <hyperlink ref="F16" display="authoringResourceComposite.md" r:id="rId75"/>
+    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId76"/>
+    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId77"/>
+    <hyperlink ref="B17" display=".md" r:id="rId78"/>
+    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId79"/>
+    <hyperlink ref="F17" display="authoringResourceMOF.md" r:id="rId80"/>
+    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId81"/>
+    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId82"/>
+    <hyperlink ref="B18" display=".md" r:id="rId83"/>
+    <hyperlink ref="D18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId84"/>
+    <hyperlink ref="F18" display="authoringResourceMofCS.md" r:id="rId85"/>
+    <hyperlink ref="G18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId87"/>
+    <hyperlink ref="B19" display=".md" r:id="rId88"/>
+    <hyperlink ref="D19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="authoringResourceMofDesigner.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="configData.md" r:id="rId92"/>
+    <hyperlink ref="B20" display=".md" r:id="rId93"/>
+    <hyperlink ref="D20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="configData.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId97"/>
+    <hyperlink ref="B21" display=".md" r:id="rId98"/>
+    <hyperlink ref="D21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="configDataCredentials.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="configurations.md" r:id="rId102"/>
+    <hyperlink ref="B22" display=".md" r:id="rId103"/>
+    <hyperlink ref="D22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="configurations.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId107"/>
+    <hyperlink ref="B23" display=".md" r:id="rId108"/>
+    <hyperlink ref="D23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="enactingConfigurations.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="environmentResource.md" r:id="rId112"/>
+    <hyperlink ref="B24" display=".md" r:id="rId113"/>
+    <hyperlink ref="D24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="environmentResource.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="fileResource.md" r:id="rId117"/>
+    <hyperlink ref="B25" display=".md" r:id="rId118"/>
+    <hyperlink ref="D25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId119"/>
+    <hyperlink ref="F25" display="fileResource.md" r:id="rId120"/>
+    <hyperlink ref="G25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId121"/>
+    <hyperlink ref="A26" display="groupResource.md" r:id="rId122"/>
+    <hyperlink ref="B26" display=".md" r:id="rId123"/>
+    <hyperlink ref="D26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId124"/>
+    <hyperlink ref="F26" display="groupResource.md" r:id="rId125"/>
+    <hyperlink ref="G26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId126"/>
+    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId127"/>
+    <hyperlink ref="B27" display=".jpg" r:id="rId128"/>
+    <hyperlink ref="D27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId129"/>
+    <hyperlink ref="F27" display="PartialConfig1.jpg" r:id="rId130"/>
+    <hyperlink ref="G27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId131"/>
+    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId132"/>
+    <hyperlink ref="B28" display=".jpg" r:id="rId133"/>
+    <hyperlink ref="D28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId134"/>
+    <hyperlink ref="F28" display="PartialConfigPullServer.jpg" r:id="rId135"/>
+    <hyperlink ref="G28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId136"/>
+    <hyperlink ref="A29" display="Pull.png" r:id="rId137"/>
+    <hyperlink ref="B29" display=".png" r:id="rId138"/>
+    <hyperlink ref="D29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId139"/>
+    <hyperlink ref="F29" display="Pull.png" r:id="rId140"/>
+    <hyperlink ref="G29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId141"/>
+    <hyperlink ref="A30" display="Push.png" r:id="rId142"/>
+    <hyperlink ref="B30" display=".png" r:id="rId143"/>
+    <hyperlink ref="D30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId144"/>
+    <hyperlink ref="F30" display="Push.png" r:id="rId145"/>
+    <hyperlink ref="G30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId146"/>
+    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId147"/>
+    <hyperlink ref="B31" display=".md" r:id="rId148"/>
+    <hyperlink ref="D31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="lnxArchiveResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId152"/>
+    <hyperlink ref="B32" display=".md" r:id="rId153"/>
+    <hyperlink ref="D32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="lnxBuiltInResources.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId157"/>
+    <hyperlink ref="B33" display=".md" r:id="rId158"/>
+    <hyperlink ref="D33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="lnxEnvironmentResource.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId162"/>
+    <hyperlink ref="B34" display=".md" r:id="rId163"/>
+    <hyperlink ref="D34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="lnxFileLineResource.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId167"/>
+    <hyperlink ref="B35" display=".md" r:id="rId168"/>
+    <hyperlink ref="D35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="lnxFileResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId172"/>
+    <hyperlink ref="B36" display=".md" r:id="rId173"/>
+    <hyperlink ref="D36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="lnxGroupResource.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId177"/>
+    <hyperlink ref="B37" display=".md" r:id="rId178"/>
+    <hyperlink ref="D37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="lnxPackageResource.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId182"/>
+    <hyperlink ref="B38" display=".md" r:id="rId183"/>
+    <hyperlink ref="D38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="lnxScriptResource.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId187"/>
+    <hyperlink ref="B39" display=".md" r:id="rId188"/>
+    <hyperlink ref="D39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="lnxServiceResource.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId192"/>
+    <hyperlink ref="B40" display=".md" r:id="rId193"/>
+    <hyperlink ref="D40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="lnxSshAuthorizedKeysResource.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId197"/>
+    <hyperlink ref="B41" display=".md" r:id="rId198"/>
+    <hyperlink ref="D41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="lnxUserResource.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="logResource.md" r:id="rId202"/>
+    <hyperlink ref="B42" display=".md" r:id="rId203"/>
+    <hyperlink ref="D42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="logResource.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="metaConfig.md" r:id="rId207"/>
+    <hyperlink ref="B43" display=".md" r:id="rId208"/>
+    <hyperlink ref="D43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="metaConfig.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId212"/>
+    <hyperlink ref="B44" display=".md" r:id="rId213"/>
+    <hyperlink ref="D44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="metaConfig4.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="overview.md" r:id="rId217"/>
+    <hyperlink ref="B45" display=".md" r:id="rId218"/>
+    <hyperlink ref="D45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="overview.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="packageResource.md" r:id="rId222"/>
+    <hyperlink ref="B46" display=".md" r:id="rId223"/>
+    <hyperlink ref="D46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="packageResource.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId227"/>
+    <hyperlink ref="B47" display=".md" r:id="rId228"/>
+    <hyperlink ref="D47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="partialConfigs.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId231"/>
+    <hyperlink ref="A48" display="pullClient.md" r:id="rId232"/>
+    <hyperlink ref="B48" display=".md" r:id="rId233"/>
+    <hyperlink ref="D48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId234"/>
+    <hyperlink ref="F48" display="pullClient.md" r:id="rId235"/>
+    <hyperlink ref="G48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId237"/>
+    <hyperlink ref="B49" display=".md" r:id="rId238"/>
+    <hyperlink ref="D49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="pullClientConfigID.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId241"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId242"/>
+    <hyperlink ref="B50" display=".md" r:id="rId243"/>
+    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId244"/>
+    <hyperlink ref="F50" display="queryServerNodes.md" r:id="rId245"/>
+    <hyperlink ref="G50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId246"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId247"/>
+    <hyperlink ref="B51" display=".md" r:id="rId248"/>
+    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId249"/>
+    <hyperlink ref="F51" display="registryResource.md" r:id="rId250"/>
+    <hyperlink ref="G51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId251"/>
+    <hyperlink ref="A52" display="reportServer.md" r:id="rId252"/>
+    <hyperlink ref="B52" display=".md" r:id="rId253"/>
+    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId254"/>
+    <hyperlink ref="F52" display="reportServer.md" r:id="rId255"/>
+    <hyperlink ref="G52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId256"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
+    <hyperlink ref="B53" display=".md" r:id="rId258"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId259"/>
+    <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId261"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
+    <hyperlink ref="B54" display=".md" r:id="rId263"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId264"/>
+    <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId266"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
+    <hyperlink ref="B55" display=".md" r:id="rId268"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId269"/>
+    <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId271"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
+    <hyperlink ref="B56" display=".md" r:id="rId273"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId274"/>
+    <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId276"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
+    <hyperlink ref="B57" display=".md" r:id="rId278"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId279"/>
+    <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId281"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
+    <hyperlink ref="B58" display=".md" r:id="rId283"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId284"/>
+    <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId286"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
+    <hyperlink ref="B59" display=".md" r:id="rId288"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId289"/>
+    <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId291"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -7,13 +7,22 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="3" r:id="rId4"/>
+    <sheet name="fr-fr" sheetId="4" r:id="rId5"/>
+    <sheet name="zh-cn" sheetId="5" r:id="rId6"/>
+    <sheet name="zh-tw" sheetId="6" r:id="rId7"/>
+    <sheet name="ko-kr" sheetId="7" r:id="rId8"/>
+    <sheet name="es-es" sheetId="8" r:id="rId9"/>
+    <sheet name="it-it" sheetId="9" r:id="rId10"/>
+    <sheet name="ru-ru" sheetId="10" r:id="rId11"/>
+    <sheet name="pt-br" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>File Name</t>
   </si>
@@ -21,12 +30,42 @@
     <t>ja-jp</t>
   </si>
   <si>
+    <t>es-es</t>
+  </si>
+  <si>
+    <t>it-it</t>
+  </si>
+  <si>
+    <t>de-de</t>
+  </si>
+  <si>
+    <t>fr-fr</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
+    <t>zh-tw</t>
+  </si>
+  <si>
+    <t>ko-kr</t>
+  </si>
+  <si>
+    <t>ru-ru</t>
+  </si>
+  <si>
+    <t>pt-br</t>
+  </si>
+  <si>
     <t>builtInResource.md</t>
   </si>
   <si>
     <t>Handed back: not in sync with en-US</t>
   </si>
   <si>
+    <t>N\A</t>
+  </si>
+  <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
@@ -132,6 +171,75 @@
     <t>windowsProcessResource.md</t>
   </si>
   <si>
+    <t>pullClientConfigNames.md</t>
+  </si>
+  <si>
+    <t>pullServer.md</t>
+  </si>
+  <si>
+    <t>debugResource.md</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.md</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
+    <t>configData.md</t>
+  </si>
+  <si>
+    <t>configDataCredentials.md</t>
+  </si>
+  <si>
+    <t>configurations.md</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>environmentResource.md</t>
+  </si>
+  <si>
+    <t>groupResource.md</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.md</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.md</t>
+  </si>
+  <si>
+    <t>lnxUserResource.md</t>
+  </si>
+  <si>
+    <t>packageResource.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.md</t>
+  </si>
+  <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
+    <t>reportServer.md</t>
+  </si>
+  <si>
+    <t>resources.md</t>
+  </si>
+  <si>
+    <t>serviceResource.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -298,6 +406,429 @@
   </si>
   <si>
     <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:20</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:14:51</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:11:44</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 01:02:28</t>
+  </si>
+  <si>
+    <t>2016-03-17 02:07:40</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 22:37:42</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 01:02:43</t>
+  </si>
+  <si>
+    <t>2016-03-17 17:12:56</t>
+  </si>
+  <si>
+    <t>2016-03-11 01:02:59</t>
+  </si>
+  <si>
+    <t>2016-03-18 09:21:04</t>
+  </si>
+  <si>
+    <t>2016-03-11 01:03:15</t>
+  </si>
+  <si>
+    <t>2016-03-17 04:12:10</t>
+  </si>
+  <si>
+    <t>2016-03-11 01:03:30</t>
+  </si>
+  <si>
+    <t>2016-03-19 01:30:54</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:55</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:55:10</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 22:43:53</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:43:56</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 01:03:45</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:03:15</t>
+  </si>
+  <si>
+    <t>2016-03-22 01:23:06</t>
+  </si>
+  <si>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:44:06</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 01:04:01</t>
+  </si>
+  <si>
+    <t>2016-03-17 01:40:10</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 01:04:17</t>
+  </si>
+  <si>
+    <t>2016-03-16 23:59:51</t>
+  </si>
+  <si>
+    <t>2016-03-17 16:45:12</t>
+  </si>
+  <si>
+    <t>2016-03-11 01:04:33</t>
+  </si>
+  <si>
+    <t>2016-03-16 23:23:18</t>
   </si>
 </sst>
 </file>
@@ -373,12 +904,201 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
-  <tableColumns count="3">
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="pt-br" displayName="pt_br" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Handoff Reason"/>
+    <tableColumn id="10" name="Dependency From"/>
+    <tableColumn id="11" name="Error Detail"/>
+    <tableColumn id="12" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Overview" displayName="Overview" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="ja-jp"/>
-    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="3" name="es-es"/>
+    <tableColumn id="4" name="it-it"/>
+    <tableColumn id="5" name="de-de"/>
+    <tableColumn id="6" name="fr-fr"/>
+    <tableColumn id="7" name="zh-cn"/>
+    <tableColumn id="8" name="zh-tw"/>
+    <tableColumn id="9" name="ko-kr"/>
+    <tableColumn id="10" name="ru-ru"/>
+    <tableColumn id="11" name="pt-br"/>
+    <tableColumn id="12" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Handoff Reason"/>
+    <tableColumn id="10" name="Dependency From"/>
+    <tableColumn id="11" name="Error Detail"/>
+    <tableColumn id="12" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Handoff Reason"/>
+    <tableColumn id="10" name="Dependency From"/>
+    <tableColumn id="11" name="Error Detail"/>
+    <tableColumn id="12" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="zh-cn" displayName="zh_cn" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Handoff Reason"/>
+    <tableColumn id="10" name="Dependency From"/>
+    <tableColumn id="11" name="Error Detail"/>
+    <tableColumn id="12" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="zh-tw" displayName="zh_tw" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Handoff Reason"/>
+    <tableColumn id="10" name="Dependency From"/>
+    <tableColumn id="11" name="Error Detail"/>
+    <tableColumn id="12" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ko-kr" displayName="ko_kr" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Handoff Reason"/>
+    <tableColumn id="10" name="Dependency From"/>
+    <tableColumn id="11" name="Error Detail"/>
+    <tableColumn id="12" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="es-es" displayName="es_es" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Handoff Reason"/>
+    <tableColumn id="10" name="Dependency From"/>
+    <tableColumn id="11" name="Error Detail"/>
+    <tableColumn id="12" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="it-it" displayName="it_it" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Handoff Reason"/>
+    <tableColumn id="10" name="Dependency From"/>
+    <tableColumn id="11" name="Error Detail"/>
+    <tableColumn id="12" name="Column12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="ru-ru" displayName="ru_ru" ref="A1:L1" headerRowCount="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Correspond Handoff File"/>
+    <tableColumn id="5" name="Correspond Handoff Datetime"/>
+    <tableColumn id="6" name="Target File"/>
+    <tableColumn id="7" name="Correspond Handback File"/>
+    <tableColumn id="8" name="Correspond Handback DateTime"/>
+    <tableColumn id="9" name="Handoff Reason"/>
+    <tableColumn id="10" name="Dependency From"/>
+    <tableColumn id="11" name="Error Detail"/>
+    <tableColumn id="12" name="Column12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -386,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -394,6 +1114,15 @@
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -403,285 +1132,2062 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -721,6 +3227,433 @@
     <hyperlink ref="A34" display="userResource.md" r:id="rId34"/>
     <hyperlink ref="A35" display="windowsfeatureResource.md" r:id="rId35"/>
     <hyperlink ref="A36" display="windowsProcessResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="pullClientConfigNames.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="pullServer.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="debugResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="lnxGettingStarted.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="authoringResourceComposite.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="authoringResourceMOF.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="authoringResourceMofCS.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="authoringResourceMofDesigner.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="configData.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="configDataCredentials.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="configurations.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="enactingConfigurations.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="environmentResource.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="groupResource.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="lnxPackageResource.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="lnxScriptResource.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="lnxUserResource.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="packageResource.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="pullClientConfigID.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="registryResource.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="reportServer.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="resources.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="serviceResource.md" r:id="rId59"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
+    <hyperlink ref="B2" display=".jpg" r:id="rId3"/>
+    <hyperlink ref="D2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId4"/>
+    <hyperlink ref="F2" display="PartialConfig1.jpg" r:id="rId5"/>
+    <hyperlink ref="G2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId6"/>
+    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId7"/>
+    <hyperlink ref="B3" display=".jpg" r:id="rId8"/>
+    <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
+    <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
+    <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
+    <hyperlink ref="B4" display=".png" r:id="rId13"/>
+    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
+    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
+    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
+    <hyperlink ref="B5" display=".png" r:id="rId18"/>
+    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
+    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
+    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
+    <hyperlink ref="B2" display=".jpg" r:id="rId3"/>
+    <hyperlink ref="D2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId4"/>
+    <hyperlink ref="F2" display="PartialConfig1.jpg" r:id="rId5"/>
+    <hyperlink ref="G2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId6"/>
+    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId7"/>
+    <hyperlink ref="B3" display=".jpg" r:id="rId8"/>
+    <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
+    <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
+    <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
+    <hyperlink ref="B4" display=".png" r:id="rId13"/>
+    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
+    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
+    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
+    <hyperlink ref="B5" display=".png" r:id="rId18"/>
+    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
+    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
+    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -752,1052 +3685,1052 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="I28" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1983,4 +4916,5226 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="pullClientConfigNames.md" r:id="rId2"/>
+    <hyperlink ref="B2" display=".md" r:id="rId3"/>
+    <hyperlink ref="D2" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="F2" display="pullClientConfigNames.md" r:id="rId5"/>
+    <hyperlink ref="G2" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId6"/>
+    <hyperlink ref="A3" display="pullServer.md" r:id="rId7"/>
+    <hyperlink ref="B3" display=".md" r:id="rId8"/>
+    <hyperlink ref="D3" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="F3" display="pullServer.md" r:id="rId10"/>
+    <hyperlink ref="G3" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A4" display="troubleshooting.md" r:id="rId12"/>
+    <hyperlink ref="B4" display=".md" r:id="rId13"/>
+    <hyperlink ref="D4" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="troubleshooting.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="PartialConfig1.jpg" r:id="rId17"/>
+    <hyperlink ref="B5" display=".jpg" r:id="rId18"/>
+    <hyperlink ref="D5" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId19"/>
+    <hyperlink ref="F5" display="PartialConfig1.jpg" r:id="rId20"/>
+    <hyperlink ref="G5" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId21"/>
+    <hyperlink ref="A6" display="PartialConfigPullServer.jpg" r:id="rId22"/>
+    <hyperlink ref="B6" display=".jpg" r:id="rId23"/>
+    <hyperlink ref="D6" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId24"/>
+    <hyperlink ref="F6" display="PartialConfigPullServer.jpg" r:id="rId25"/>
+    <hyperlink ref="G6" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId26"/>
+    <hyperlink ref="A7" display="Pull.png" r:id="rId27"/>
+    <hyperlink ref="B7" display=".png" r:id="rId28"/>
+    <hyperlink ref="D7" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId29"/>
+    <hyperlink ref="F7" display="Pull.png" r:id="rId30"/>
+    <hyperlink ref="G7" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId31"/>
+    <hyperlink ref="A8" display="Push.png" r:id="rId32"/>
+    <hyperlink ref="B8" display=".png" r:id="rId33"/>
+    <hyperlink ref="D8" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId34"/>
+    <hyperlink ref="F8" display="Push.png" r:id="rId35"/>
+    <hyperlink ref="G8" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId36"/>
+    <hyperlink ref="A9" display="lnxBuiltInResources.md" r:id="rId37"/>
+    <hyperlink ref="B9" display=".md" r:id="rId38"/>
+    <hyperlink ref="D9" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="lnxBuiltInResources.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="metaConfig.md" r:id="rId42"/>
+    <hyperlink ref="B10" display=".md" r:id="rId43"/>
+    <hyperlink ref="D10" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="metaConfig.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="windowsfeatureResource.md" r:id="rId47"/>
+    <hyperlink ref="B11" display=".md" r:id="rId48"/>
+    <hyperlink ref="D11" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId49"/>
+    <hyperlink ref="F11" display="windowsfeatureResource.md" r:id="rId50"/>
+    <hyperlink ref="G11" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId51"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
+    <hyperlink ref="B2" display=".jpg" r:id="rId3"/>
+    <hyperlink ref="D2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId4"/>
+    <hyperlink ref="F2" display="PartialConfig1.jpg" r:id="rId5"/>
+    <hyperlink ref="G2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId6"/>
+    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId7"/>
+    <hyperlink ref="B3" display=".jpg" r:id="rId8"/>
+    <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
+    <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
+    <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
+    <hyperlink ref="B4" display=".png" r:id="rId13"/>
+    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
+    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
+    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
+    <hyperlink ref="B5" display=".png" r:id="rId18"/>
+    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
+    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
+    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
+    <hyperlink ref="B2" display=".jpg" r:id="rId3"/>
+    <hyperlink ref="D2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId4"/>
+    <hyperlink ref="F2" display="PartialConfig1.jpg" r:id="rId5"/>
+    <hyperlink ref="G2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId6"/>
+    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId7"/>
+    <hyperlink ref="B3" display=".jpg" r:id="rId8"/>
+    <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
+    <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
+    <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
+    <hyperlink ref="B4" display=".png" r:id="rId13"/>
+    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
+    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
+    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
+    <hyperlink ref="B5" display=".png" r:id="rId18"/>
+    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
+    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
+    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
+    <hyperlink ref="B2" display=".jpg" r:id="rId3"/>
+    <hyperlink ref="D2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId4"/>
+    <hyperlink ref="F2" display="PartialConfig1.jpg" r:id="rId5"/>
+    <hyperlink ref="G2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId6"/>
+    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId7"/>
+    <hyperlink ref="B3" display=".jpg" r:id="rId8"/>
+    <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
+    <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
+    <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
+    <hyperlink ref="B4" display=".png" r:id="rId13"/>
+    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
+    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
+    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
+    <hyperlink ref="B5" display=".png" r:id="rId18"/>
+    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
+    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
+    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="PartialConfig1.jpg" r:id="rId2"/>
+    <hyperlink ref="B2" display=".jpg" r:id="rId3"/>
+    <hyperlink ref="D2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId4"/>
+    <hyperlink ref="F2" display="PartialConfig1.jpg" r:id="rId5"/>
+    <hyperlink ref="G2" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId6"/>
+    <hyperlink ref="A3" display="PartialConfigPullServer.jpg" r:id="rId7"/>
+    <hyperlink ref="B3" display=".jpg" r:id="rId8"/>
+    <hyperlink ref="D3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId9"/>
+    <hyperlink ref="F3" display="PartialConfigPullServer.jpg" r:id="rId10"/>
+    <hyperlink ref="G3" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId11"/>
+    <hyperlink ref="A4" display="Pull.png" r:id="rId12"/>
+    <hyperlink ref="B4" display=".png" r:id="rId13"/>
+    <hyperlink ref="D4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId14"/>
+    <hyperlink ref="F4" display="Pull.png" r:id="rId15"/>
+    <hyperlink ref="G4" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId16"/>
+    <hyperlink ref="A5" display="Push.png" r:id="rId17"/>
+    <hyperlink ref="B5" display=".png" r:id="rId18"/>
+    <hyperlink ref="D5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId19"/>
+    <hyperlink ref="F5" display="Push.png" r:id="rId20"/>
+    <hyperlink ref="G5" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId21"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
+    <hyperlink ref="B2" display=".md" r:id="rId3"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId4"/>
+    <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId6"/>
+    <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
+    <hyperlink ref="B3" display=".md" r:id="rId8"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId9"/>
+    <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId11"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
+    <hyperlink ref="B4" display=".md" r:id="rId13"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
+    <hyperlink ref="B5" display=".md" r:id="rId18"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId19"/>
+    <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId21"/>
+    <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId22"/>
+    <hyperlink ref="B6" display=".md" r:id="rId23"/>
+    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId24"/>
+    <hyperlink ref="F6" display="lnxGettingStarted.md" r:id="rId25"/>
+    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId26"/>
+    <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId27"/>
+    <hyperlink ref="B7" display=".md" r:id="rId28"/>
+    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId29"/>
+    <hyperlink ref="F7" display="pullClientConfigID4.md" r:id="rId30"/>
+    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId31"/>
+    <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId32"/>
+    <hyperlink ref="B8" display=".md" r:id="rId33"/>
+    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId34"/>
+    <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId35"/>
+    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId36"/>
+    <hyperlink ref="A9" display="pullServer.md" r:id="rId37"/>
+    <hyperlink ref="B9" display=".md" r:id="rId38"/>
+    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="pullServer.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="secureMOF.md" r:id="rId42"/>
+    <hyperlink ref="B10" display=".md" r:id="rId43"/>
+    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="secureMOF.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="TOC.md" r:id="rId47"/>
+    <hyperlink ref="B11" display=".md" r:id="rId48"/>
+    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId49"/>
+    <hyperlink ref="F11" display="TOC.md" r:id="rId50"/>
+    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId51"/>
+    <hyperlink ref="A12" display="troubleshooting.md" r:id="rId52"/>
+    <hyperlink ref="B12" display=".md" r:id="rId53"/>
+    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId54"/>
+    <hyperlink ref="F12" display="troubleshooting.md" r:id="rId55"/>
+    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId56"/>
+    <hyperlink ref="A13" display="archiveResource.md" r:id="rId57"/>
+    <hyperlink ref="B13" display=".md" r:id="rId58"/>
+    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId59"/>
+    <hyperlink ref="F13" display="archiveResource.md" r:id="rId60"/>
+    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId61"/>
+    <hyperlink ref="A14" display="authoringResource.md" r:id="rId62"/>
+    <hyperlink ref="B14" display=".md" r:id="rId63"/>
+    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId64"/>
+    <hyperlink ref="F14" display="authoringResource.md" r:id="rId65"/>
+    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId66"/>
+    <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId67"/>
+    <hyperlink ref="B15" display=".md" r:id="rId68"/>
+    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId69"/>
+    <hyperlink ref="F15" display="authoringResourceClass.md" r:id="rId70"/>
+    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId71"/>
+    <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId72"/>
+    <hyperlink ref="B16" display=".md" r:id="rId73"/>
+    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId74"/>
+    <hyperlink ref="F16" display="authoringResourceComposite.md" r:id="rId75"/>
+    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId76"/>
+    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId77"/>
+    <hyperlink ref="B17" display=".md" r:id="rId78"/>
+    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId79"/>
+    <hyperlink ref="F17" display="authoringResourceMOF.md" r:id="rId80"/>
+    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId81"/>
+    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId82"/>
+    <hyperlink ref="B18" display=".md" r:id="rId83"/>
+    <hyperlink ref="D18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId84"/>
+    <hyperlink ref="F18" display="authoringResourceMofCS.md" r:id="rId85"/>
+    <hyperlink ref="G18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId87"/>
+    <hyperlink ref="B19" display=".md" r:id="rId88"/>
+    <hyperlink ref="D19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="authoringResourceMofDesigner.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="configData.md" r:id="rId92"/>
+    <hyperlink ref="B20" display=".md" r:id="rId93"/>
+    <hyperlink ref="D20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="configData.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId97"/>
+    <hyperlink ref="B21" display=".md" r:id="rId98"/>
+    <hyperlink ref="D21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="configDataCredentials.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="configurations.md" r:id="rId102"/>
+    <hyperlink ref="B22" display=".md" r:id="rId103"/>
+    <hyperlink ref="D22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="configurations.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId107"/>
+    <hyperlink ref="B23" display=".md" r:id="rId108"/>
+    <hyperlink ref="D23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="enactingConfigurations.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="environmentResource.md" r:id="rId112"/>
+    <hyperlink ref="B24" display=".md" r:id="rId113"/>
+    <hyperlink ref="D24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="environmentResource.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="fileResource.md" r:id="rId117"/>
+    <hyperlink ref="B25" display=".md" r:id="rId118"/>
+    <hyperlink ref="D25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId119"/>
+    <hyperlink ref="F25" display="fileResource.md" r:id="rId120"/>
+    <hyperlink ref="G25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId121"/>
+    <hyperlink ref="A26" display="groupResource.md" r:id="rId122"/>
+    <hyperlink ref="B26" display=".md" r:id="rId123"/>
+    <hyperlink ref="D26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId124"/>
+    <hyperlink ref="F26" display="groupResource.md" r:id="rId125"/>
+    <hyperlink ref="G26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId126"/>
+    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId127"/>
+    <hyperlink ref="B27" display=".jpg" r:id="rId128"/>
+    <hyperlink ref="D27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId129"/>
+    <hyperlink ref="F27" display="PartialConfig1.jpg" r:id="rId130"/>
+    <hyperlink ref="G27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId131"/>
+    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId132"/>
+    <hyperlink ref="B28" display=".jpg" r:id="rId133"/>
+    <hyperlink ref="D28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId134"/>
+    <hyperlink ref="F28" display="PartialConfigPullServer.jpg" r:id="rId135"/>
+    <hyperlink ref="G28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId136"/>
+    <hyperlink ref="A29" display="Pull.png" r:id="rId137"/>
+    <hyperlink ref="B29" display=".png" r:id="rId138"/>
+    <hyperlink ref="D29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId139"/>
+    <hyperlink ref="F29" display="Pull.png" r:id="rId140"/>
+    <hyperlink ref="G29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId141"/>
+    <hyperlink ref="A30" display="Push.png" r:id="rId142"/>
+    <hyperlink ref="B30" display=".png" r:id="rId143"/>
+    <hyperlink ref="D30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId144"/>
+    <hyperlink ref="F30" display="Push.png" r:id="rId145"/>
+    <hyperlink ref="G30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId146"/>
+    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId147"/>
+    <hyperlink ref="B31" display=".md" r:id="rId148"/>
+    <hyperlink ref="D31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="lnxArchiveResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId152"/>
+    <hyperlink ref="B32" display=".md" r:id="rId153"/>
+    <hyperlink ref="D32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="lnxBuiltInResources.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId157"/>
+    <hyperlink ref="B33" display=".md" r:id="rId158"/>
+    <hyperlink ref="D33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="lnxEnvironmentResource.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId162"/>
+    <hyperlink ref="B34" display=".md" r:id="rId163"/>
+    <hyperlink ref="D34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="lnxFileLineResource.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId167"/>
+    <hyperlink ref="B35" display=".md" r:id="rId168"/>
+    <hyperlink ref="D35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="lnxFileResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId172"/>
+    <hyperlink ref="B36" display=".md" r:id="rId173"/>
+    <hyperlink ref="D36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="lnxGroupResource.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId177"/>
+    <hyperlink ref="B37" display=".md" r:id="rId178"/>
+    <hyperlink ref="D37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="lnxPackageResource.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId182"/>
+    <hyperlink ref="B38" display=".md" r:id="rId183"/>
+    <hyperlink ref="D38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="lnxScriptResource.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId187"/>
+    <hyperlink ref="B39" display=".md" r:id="rId188"/>
+    <hyperlink ref="D39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="lnxServiceResource.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId192"/>
+    <hyperlink ref="B40" display=".md" r:id="rId193"/>
+    <hyperlink ref="D40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="lnxSshAuthorizedKeysResource.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId197"/>
+    <hyperlink ref="B41" display=".md" r:id="rId198"/>
+    <hyperlink ref="D41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="lnxUserResource.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="logResource.md" r:id="rId202"/>
+    <hyperlink ref="B42" display=".md" r:id="rId203"/>
+    <hyperlink ref="D42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="logResource.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="metaConfig.md" r:id="rId207"/>
+    <hyperlink ref="B43" display=".md" r:id="rId208"/>
+    <hyperlink ref="D43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="metaConfig.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId212"/>
+    <hyperlink ref="B44" display=".md" r:id="rId213"/>
+    <hyperlink ref="D44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="metaConfig4.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="overview.md" r:id="rId217"/>
+    <hyperlink ref="B45" display=".md" r:id="rId218"/>
+    <hyperlink ref="D45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="overview.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="packageResource.md" r:id="rId222"/>
+    <hyperlink ref="B46" display=".md" r:id="rId223"/>
+    <hyperlink ref="D46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="packageResource.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId227"/>
+    <hyperlink ref="B47" display=".md" r:id="rId228"/>
+    <hyperlink ref="D47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="partialConfigs.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId231"/>
+    <hyperlink ref="A48" display="pullClient.md" r:id="rId232"/>
+    <hyperlink ref="B48" display=".md" r:id="rId233"/>
+    <hyperlink ref="D48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId234"/>
+    <hyperlink ref="F48" display="pullClient.md" r:id="rId235"/>
+    <hyperlink ref="G48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId237"/>
+    <hyperlink ref="B49" display=".md" r:id="rId238"/>
+    <hyperlink ref="D49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="pullClientConfigID.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId241"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId242"/>
+    <hyperlink ref="B50" display=".md" r:id="rId243"/>
+    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId244"/>
+    <hyperlink ref="F50" display="queryServerNodes.md" r:id="rId245"/>
+    <hyperlink ref="G50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId246"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId247"/>
+    <hyperlink ref="B51" display=".md" r:id="rId248"/>
+    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId249"/>
+    <hyperlink ref="F51" display="registryResource.md" r:id="rId250"/>
+    <hyperlink ref="G51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId251"/>
+    <hyperlink ref="A52" display="reportServer.md" r:id="rId252"/>
+    <hyperlink ref="B52" display=".md" r:id="rId253"/>
+    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId254"/>
+    <hyperlink ref="F52" display="reportServer.md" r:id="rId255"/>
+    <hyperlink ref="G52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId256"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
+    <hyperlink ref="B53" display=".md" r:id="rId258"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId259"/>
+    <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId261"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
+    <hyperlink ref="B54" display=".md" r:id="rId263"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId264"/>
+    <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId266"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
+    <hyperlink ref="B55" display=".md" r:id="rId268"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId269"/>
+    <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId271"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
+    <hyperlink ref="B56" display=".md" r:id="rId273"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId274"/>
+    <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId276"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
+    <hyperlink ref="B57" display=".md" r:id="rId278"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId279"/>
+    <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId281"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
+    <hyperlink ref="B58" display=".md" r:id="rId283"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId284"/>
+    <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId286"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
+    <hyperlink ref="B59" display=".md" r:id="rId288"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId289"/>
+    <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId291"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
+    <hyperlink ref="B2" display=".md" r:id="rId3"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf" r:id="rId4"/>
+    <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf" r:id="rId6"/>
+    <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
+    <hyperlink ref="B3" display=".md" r:id="rId8"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf" r:id="rId9"/>
+    <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf" r:id="rId11"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
+    <hyperlink ref="B4" display=".md" r:id="rId13"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
+    <hyperlink ref="B5" display=".md" r:id="rId18"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf" r:id="rId19"/>
+    <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf" r:id="rId21"/>
+    <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId22"/>
+    <hyperlink ref="B6" display=".md" r:id="rId23"/>
+    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf" r:id="rId24"/>
+    <hyperlink ref="F6" display="lnxGettingStarted.md" r:id="rId25"/>
+    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf" r:id="rId26"/>
+    <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId27"/>
+    <hyperlink ref="B7" display=".md" r:id="rId28"/>
+    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf" r:id="rId29"/>
+    <hyperlink ref="F7" display="pullClientConfigID4.md" r:id="rId30"/>
+    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf" r:id="rId31"/>
+    <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId32"/>
+    <hyperlink ref="B8" display=".md" r:id="rId33"/>
+    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf" r:id="rId34"/>
+    <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId35"/>
+    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf" r:id="rId36"/>
+    <hyperlink ref="A9" display="pullServer.md" r:id="rId37"/>
+    <hyperlink ref="B9" display=".md" r:id="rId38"/>
+    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="pullServer.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="secureMOF.md" r:id="rId42"/>
+    <hyperlink ref="B10" display=".md" r:id="rId43"/>
+    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="secureMOF.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="troubleshooting.md" r:id="rId47"/>
+    <hyperlink ref="B11" display=".md" r:id="rId48"/>
+    <hyperlink ref="D11" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf" r:id="rId49"/>
+    <hyperlink ref="F11" display="troubleshooting.md" r:id="rId50"/>
+    <hyperlink ref="G11" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf" r:id="rId51"/>
+    <hyperlink ref="A12" display="archiveResource.md" r:id="rId52"/>
+    <hyperlink ref="B12" display=".md" r:id="rId53"/>
+    <hyperlink ref="D12" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf" r:id="rId54"/>
+    <hyperlink ref="F12" display="archiveResource.md" r:id="rId55"/>
+    <hyperlink ref="G12" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf" r:id="rId56"/>
+    <hyperlink ref="A13" display="authoringResource.md" r:id="rId57"/>
+    <hyperlink ref="B13" display=".md" r:id="rId58"/>
+    <hyperlink ref="D13" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf" r:id="rId59"/>
+    <hyperlink ref="F13" display="authoringResource.md" r:id="rId60"/>
+    <hyperlink ref="G13" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf" r:id="rId61"/>
+    <hyperlink ref="A14" display="authoringResourceClass.md" r:id="rId62"/>
+    <hyperlink ref="B14" display=".md" r:id="rId63"/>
+    <hyperlink ref="D14" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf" r:id="rId64"/>
+    <hyperlink ref="F14" display="authoringResourceClass.md" r:id="rId65"/>
+    <hyperlink ref="G14" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf" r:id="rId66"/>
+    <hyperlink ref="A15" display="authoringResourceComposite.md" r:id="rId67"/>
+    <hyperlink ref="B15" display=".md" r:id="rId68"/>
+    <hyperlink ref="D15" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf" r:id="rId69"/>
+    <hyperlink ref="F15" display="authoringResourceComposite.md" r:id="rId70"/>
+    <hyperlink ref="G15" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf" r:id="rId71"/>
+    <hyperlink ref="A16" display="authoringResourceMOF.md" r:id="rId72"/>
+    <hyperlink ref="B16" display=".md" r:id="rId73"/>
+    <hyperlink ref="D16" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf" r:id="rId74"/>
+    <hyperlink ref="F16" display="authoringResourceMOF.md" r:id="rId75"/>
+    <hyperlink ref="G16" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf" r:id="rId76"/>
+    <hyperlink ref="A17" display="authoringResourceMofCS.md" r:id="rId77"/>
+    <hyperlink ref="B17" display=".md" r:id="rId78"/>
+    <hyperlink ref="D17" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf" r:id="rId79"/>
+    <hyperlink ref="F17" display="authoringResourceMofCS.md" r:id="rId80"/>
+    <hyperlink ref="G17" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf" r:id="rId81"/>
+    <hyperlink ref="A18" display="authoringResourceMofDesigner.md" r:id="rId82"/>
+    <hyperlink ref="B18" display=".md" r:id="rId83"/>
+    <hyperlink ref="D18" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf" r:id="rId84"/>
+    <hyperlink ref="F18" display="authoringResourceMofDesigner.md" r:id="rId85"/>
+    <hyperlink ref="G18" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="configData.md" r:id="rId87"/>
+    <hyperlink ref="B19" display=".md" r:id="rId88"/>
+    <hyperlink ref="D19" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="configData.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="configDataCredentials.md" r:id="rId92"/>
+    <hyperlink ref="B20" display=".md" r:id="rId93"/>
+    <hyperlink ref="D20" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="configDataCredentials.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="configurations.md" r:id="rId97"/>
+    <hyperlink ref="B21" display=".md" r:id="rId98"/>
+    <hyperlink ref="D21" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="configurations.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="enactingConfigurations.md" r:id="rId102"/>
+    <hyperlink ref="B22" display=".md" r:id="rId103"/>
+    <hyperlink ref="D22" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="enactingConfigurations.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="environmentResource.md" r:id="rId107"/>
+    <hyperlink ref="B23" display=".md" r:id="rId108"/>
+    <hyperlink ref="D23" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="environmentResource.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="fileResource.md" r:id="rId112"/>
+    <hyperlink ref="B24" display=".md" r:id="rId113"/>
+    <hyperlink ref="D24" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="fileResource.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="groupResource.md" r:id="rId117"/>
+    <hyperlink ref="B25" display=".md" r:id="rId118"/>
+    <hyperlink ref="D25" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf" r:id="rId119"/>
+    <hyperlink ref="F25" display="groupResource.md" r:id="rId120"/>
+    <hyperlink ref="G25" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf" r:id="rId121"/>
+    <hyperlink ref="A26" display="PartialConfig1.jpg" r:id="rId122"/>
+    <hyperlink ref="B26" display=".jpg" r:id="rId123"/>
+    <hyperlink ref="D26" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId124"/>
+    <hyperlink ref="F26" display="PartialConfig1.jpg" r:id="rId125"/>
+    <hyperlink ref="G26" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId126"/>
+    <hyperlink ref="A27" display="PartialConfigPullServer.jpg" r:id="rId127"/>
+    <hyperlink ref="B27" display=".jpg" r:id="rId128"/>
+    <hyperlink ref="D27" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId129"/>
+    <hyperlink ref="F27" display="PartialConfigPullServer.jpg" r:id="rId130"/>
+    <hyperlink ref="G27" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId131"/>
+    <hyperlink ref="A28" display="Pull.png" r:id="rId132"/>
+    <hyperlink ref="B28" display=".png" r:id="rId133"/>
+    <hyperlink ref="D28" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId134"/>
+    <hyperlink ref="F28" display="Pull.png" r:id="rId135"/>
+    <hyperlink ref="G28" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId136"/>
+    <hyperlink ref="A29" display="Push.png" r:id="rId137"/>
+    <hyperlink ref="B29" display=".png" r:id="rId138"/>
+    <hyperlink ref="D29" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId139"/>
+    <hyperlink ref="F29" display="Push.png" r:id="rId140"/>
+    <hyperlink ref="G29" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId141"/>
+    <hyperlink ref="A30" display="lnxArchiveResource.md" r:id="rId142"/>
+    <hyperlink ref="B30" display=".md" r:id="rId143"/>
+    <hyperlink ref="D30" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf" r:id="rId144"/>
+    <hyperlink ref="F30" display="lnxArchiveResource.md" r:id="rId145"/>
+    <hyperlink ref="G30" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf" r:id="rId146"/>
+    <hyperlink ref="A31" display="lnxBuiltInResources.md" r:id="rId147"/>
+    <hyperlink ref="B31" display=".md" r:id="rId148"/>
+    <hyperlink ref="D31" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="lnxBuiltInResources.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="lnxEnvironmentResource.md" r:id="rId152"/>
+    <hyperlink ref="B32" display=".md" r:id="rId153"/>
+    <hyperlink ref="D32" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="lnxEnvironmentResource.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="lnxFileResource.md" r:id="rId157"/>
+    <hyperlink ref="B33" display=".md" r:id="rId158"/>
+    <hyperlink ref="D33" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="lnxFileResource.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="lnxGroupResource.md" r:id="rId162"/>
+    <hyperlink ref="B34" display=".md" r:id="rId163"/>
+    <hyperlink ref="D34" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="lnxGroupResource.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="lnxPackageResource.md" r:id="rId167"/>
+    <hyperlink ref="B35" display=".md" r:id="rId168"/>
+    <hyperlink ref="D35" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="lnxPackageResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="lnxScriptResource.md" r:id="rId172"/>
+    <hyperlink ref="B36" display=".md" r:id="rId173"/>
+    <hyperlink ref="D36" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="lnxScriptResource.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="lnxServiceResource.md" r:id="rId177"/>
+    <hyperlink ref="B37" display=".md" r:id="rId178"/>
+    <hyperlink ref="D37" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="lnxServiceResource.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="lnxSshAuthorizedKeysResource.md" r:id="rId182"/>
+    <hyperlink ref="B38" display=".md" r:id="rId183"/>
+    <hyperlink ref="D38" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="lnxSshAuthorizedKeysResource.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="lnxUserResource.md" r:id="rId187"/>
+    <hyperlink ref="B39" display=".md" r:id="rId188"/>
+    <hyperlink ref="D39" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="lnxUserResource.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="logResource.md" r:id="rId192"/>
+    <hyperlink ref="B40" display=".md" r:id="rId193"/>
+    <hyperlink ref="D40" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="logResource.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="metaConfig.md" r:id="rId197"/>
+    <hyperlink ref="B41" display=".md" r:id="rId198"/>
+    <hyperlink ref="D41" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="metaConfig.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="metaConfig4.md" r:id="rId202"/>
+    <hyperlink ref="B42" display=".md" r:id="rId203"/>
+    <hyperlink ref="D42" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="metaConfig4.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="overview.md" r:id="rId207"/>
+    <hyperlink ref="B43" display=".md" r:id="rId208"/>
+    <hyperlink ref="D43" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="overview.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="packageResource.md" r:id="rId212"/>
+    <hyperlink ref="B44" display=".md" r:id="rId213"/>
+    <hyperlink ref="D44" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="packageResource.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="partialConfigs.md" r:id="rId217"/>
+    <hyperlink ref="B45" display=".md" r:id="rId218"/>
+    <hyperlink ref="D45" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="partialConfigs.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="pullClient.md" r:id="rId222"/>
+    <hyperlink ref="B46" display=".md" r:id="rId223"/>
+    <hyperlink ref="D46" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="pullClient.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="pullClientConfigID.md" r:id="rId227"/>
+    <hyperlink ref="B47" display=".md" r:id="rId228"/>
+    <hyperlink ref="D47" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="pullClientConfigID.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf" r:id="rId231"/>
+    <hyperlink ref="A48" display="queryServerNodes.md" r:id="rId232"/>
+    <hyperlink ref="B48" display=".md" r:id="rId233"/>
+    <hyperlink ref="D48" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf" r:id="rId234"/>
+    <hyperlink ref="F48" display="queryServerNodes.md" r:id="rId235"/>
+    <hyperlink ref="G48" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="registryResource.md" r:id="rId237"/>
+    <hyperlink ref="B49" display=".md" r:id="rId238"/>
+    <hyperlink ref="D49" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="registryResource.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf" r:id="rId241"/>
+    <hyperlink ref="A50" display="reportServer.md" r:id="rId242"/>
+    <hyperlink ref="B50" display=".md" r:id="rId243"/>
+    <hyperlink ref="D50" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf" r:id="rId244"/>
+    <hyperlink ref="F50" display="reportServer.md" r:id="rId245"/>
+    <hyperlink ref="G50" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf" r:id="rId246"/>
+    <hyperlink ref="A51" display="resources.md" r:id="rId247"/>
+    <hyperlink ref="B51" display=".md" r:id="rId248"/>
+    <hyperlink ref="D51" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf" r:id="rId249"/>
+    <hyperlink ref="F51" display="resources.md" r:id="rId250"/>
+    <hyperlink ref="G51" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf" r:id="rId251"/>
+    <hyperlink ref="A52" display="scriptResource.md" r:id="rId252"/>
+    <hyperlink ref="B52" display=".md" r:id="rId253"/>
+    <hyperlink ref="D52" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf" r:id="rId254"/>
+    <hyperlink ref="F52" display="scriptResource.md" r:id="rId255"/>
+    <hyperlink ref="G52" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf" r:id="rId256"/>
+    <hyperlink ref="A53" display="secureServer.md" r:id="rId257"/>
+    <hyperlink ref="B53" display=".md" r:id="rId258"/>
+    <hyperlink ref="D53" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf" r:id="rId259"/>
+    <hyperlink ref="F53" display="secureServer.md" r:id="rId260"/>
+    <hyperlink ref="G53" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf" r:id="rId261"/>
+    <hyperlink ref="A54" display="serviceResource.md" r:id="rId262"/>
+    <hyperlink ref="B54" display=".md" r:id="rId263"/>
+    <hyperlink ref="D54" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf" r:id="rId264"/>
+    <hyperlink ref="F54" display="serviceResource.md" r:id="rId265"/>
+    <hyperlink ref="G54" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf" r:id="rId266"/>
+    <hyperlink ref="A55" display="userResource.md" r:id="rId267"/>
+    <hyperlink ref="B55" display=".md" r:id="rId268"/>
+    <hyperlink ref="D55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf" r:id="rId269"/>
+    <hyperlink ref="F55" display="userResource.md" r:id="rId270"/>
+    <hyperlink ref="G55" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf" r:id="rId271"/>
+    <hyperlink ref="A56" display="windowsfeatureResource.md" r:id="rId272"/>
+    <hyperlink ref="B56" display=".md" r:id="rId273"/>
+    <hyperlink ref="D56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf" r:id="rId274"/>
+    <hyperlink ref="F56" display="windowsfeatureResource.md" r:id="rId275"/>
+    <hyperlink ref="G56" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf" r:id="rId276"/>
+    <hyperlink ref="A57" display="windowsProcessResource.md" r:id="rId277"/>
+    <hyperlink ref="B57" display=".md" r:id="rId278"/>
+    <hyperlink ref="D57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf" r:id="rId279"/>
+    <hyperlink ref="F57" display="windowsProcessResource.md" r:id="rId280"/>
+    <hyperlink ref="G57" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf" r:id="rId281"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="it-it" sheetId="2" r:id="rId3"/>
+    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>it-it</t>
+    <t>ja-jp</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -78,15 +78,9 @@
     <t>authoringResourceMofCS.md</t>
   </si>
   <si>
-    <t>authoringResourceMofDesigner.md</t>
-  </si>
-  <si>
     <t>configData.md</t>
   </si>
   <si>
-    <t>configDataCredentials.md</t>
-  </si>
-  <si>
     <t>configurations.md</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>lnxPackageResource.md</t>
   </si>
   <si>
-    <t>lnxScriptResource.md</t>
-  </si>
-  <si>
     <t>lnxServiceResource.md</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
     <t>registryResource.md</t>
   </si>
   <si>
-    <t>reportServer.md</t>
-  </si>
-  <si>
     <t>resources.md</t>
   </si>
   <si>
@@ -237,94 +225,88 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:03:15</t>
-  </si>
-  <si>
-    <t>2016-03-22 01:23:06</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:00</t>
+  </si>
+  <si>
+    <t>2016-03-22 00:30:47</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-22 01:50:28</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:44:06</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-22 04:28:44</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:35</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -333,10 +315,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:04:01</t>
-  </si>
-  <si>
-    <t>2016-03-17 01:40:10</t>
+    <t>2016-03-11 01:02:12</t>
+  </si>
+  <si>
+    <t>2016-03-17 01:31:01</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -354,91 +336,85 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf</t>
   </si>
 </sst>
 </file>
@@ -495,7 +471,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -518,7 +494,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="it-it"/>
+    <tableColumn id="2" name="ja-jp"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -527,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -974,38 +950,6 @@
         <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1028,47 +972,43 @@
     <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId16"/>
     <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId17"/>
     <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="configData.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="configurations.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="environmentResource.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="fileResource.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="groupResource.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId27"/>
-    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId28"/>
-    <hyperlink ref="A29" display="Pull.png" r:id="rId29"/>
-    <hyperlink ref="A30" display="Push.png" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="logResource.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="metaConfig.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="overview.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="packageResource.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="pullClient.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="registryResource.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="reportServer.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="resources.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="scriptResource.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="secureServer.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="serviceResource.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="userResource.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId59"/>
+    <hyperlink ref="A19" display="configData.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="configurations.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="environmentResource.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="fileResource.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="groupResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="PartialConfig1.jpg" r:id="rId25"/>
+    <hyperlink ref="A26" display="PartialConfigPullServer.jpg" r:id="rId26"/>
+    <hyperlink ref="A27" display="Pull.png" r:id="rId27"/>
+    <hyperlink ref="A28" display="Push.png" r:id="rId28"/>
+    <hyperlink ref="A29" display="lnxArchiveResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="lnxBuiltInResources.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="lnxEnvironmentResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="lnxFileLineResource.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="lnxFileResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="lnxGroupResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="lnxPackageResource.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="logResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="metaConfig.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="metaConfig4.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="overview.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="packageResource.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="partialConfigs.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="pullClient.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="pullClientConfigID.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="queryServerNodes.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="registryResource.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="resources.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="scriptResource.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="secureServer.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="serviceResource.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="userResource.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="windowsfeatureResource.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="windowsProcessResource.md" r:id="rId55"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1079,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1100,37 +1040,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1138,28 +1078,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1167,28 +1107,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -1196,28 +1136,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1225,28 +1165,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1254,28 +1194,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1283,28 +1223,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1312,28 +1252,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1341,28 +1281,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1370,28 +1310,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1399,28 +1339,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -1428,28 +1368,28 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1457,28 +1397,28 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -1486,28 +1426,28 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -1515,28 +1455,28 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1544,28 +1484,28 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -1573,28 +1513,28 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -1602,28 +1542,28 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -1631,28 +1571,28 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -1660,28 +1600,28 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -1689,28 +1629,28 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -1718,28 +1658,28 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -1747,28 +1687,28 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -1776,28 +1716,28 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -1805,28 +1745,28 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -1834,7 +1774,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>15</v>
@@ -1843,7 +1783,7 @@
         <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
@@ -1852,10 +1792,10 @@
         <v>103</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -1872,7 +1812,7 @@
         <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>29</v>
@@ -1881,10 +1821,10 @@
         <v>105</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -1898,22 +1838,22 @@
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -1921,28 +1861,28 @@
         <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -1950,28 +1890,28 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -1979,28 +1919,28 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -2008,28 +1948,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -2037,28 +1977,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -2066,28 +2006,28 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
@@ -2095,28 +2035,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
@@ -2124,28 +2064,28 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -2153,28 +2093,28 @@
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
@@ -2182,28 +2122,28 @@
         <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -2211,28 +2151,28 @@
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -2240,28 +2180,28 @@
         <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -2269,28 +2209,28 @@
         <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
@@ -2298,28 +2238,28 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
@@ -2327,28 +2267,28 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -2356,28 +2296,28 @@
         <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
@@ -2385,28 +2325,28 @@
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
@@ -2414,28 +2354,28 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
@@ -2443,28 +2383,28 @@
         <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -2472,28 +2412,28 @@
         <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
@@ -2501,28 +2441,28 @@
         <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
@@ -2530,28 +2470,28 @@
         <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
@@ -2559,28 +2499,28 @@
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
@@ -2588,28 +2528,28 @@
         <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
@@ -2617,28 +2557,28 @@
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
@@ -2646,28 +2586,28 @@
         <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
@@ -2675,438 +2615,302 @@
         <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf" r:id="rId6"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf" r:id="rId6"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf" r:id="rId9"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf" r:id="rId11"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf" r:id="rId11"/>
     <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf" r:id="rId14"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf" r:id="rId14"/>
     <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf" r:id="rId16"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf" r:id="rId16"/>
     <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf" r:id="rId19"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf" r:id="rId19"/>
     <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf" r:id="rId21"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf" r:id="rId21"/>
     <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf" r:id="rId24"/>
     <hyperlink ref="F6" display="lnxGettingStarted.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf" r:id="rId26"/>
+    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf" r:id="rId26"/>
     <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf" r:id="rId29"/>
+    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId29"/>
     <hyperlink ref="F7" display="pullClientConfigID4.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf" r:id="rId31"/>
+    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId31"/>
     <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf" r:id="rId34"/>
+    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId34"/>
     <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf" r:id="rId36"/>
+    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId36"/>
     <hyperlink ref="A9" display="pullServer.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf" r:id="rId39"/>
+    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId39"/>
     <hyperlink ref="F9" display="pullServer.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf" r:id="rId41"/>
+    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId41"/>
     <hyperlink ref="A10" display="secureMOF.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf" r:id="rId44"/>
+    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId44"/>
     <hyperlink ref="F10" display="secureMOF.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf" r:id="rId46"/>
+    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId46"/>
     <hyperlink ref="A11" display="TOC.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf" r:id="rId49"/>
+    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId49"/>
     <hyperlink ref="F11" display="TOC.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf" r:id="rId51"/>
+    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId51"/>
     <hyperlink ref="A12" display="troubleshooting.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf" r:id="rId54"/>
+    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId54"/>
     <hyperlink ref="F12" display="troubleshooting.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf" r:id="rId56"/>
+    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId56"/>
     <hyperlink ref="A13" display="archiveResource.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf" r:id="rId59"/>
+    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf" r:id="rId59"/>
     <hyperlink ref="F13" display="archiveResource.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf" r:id="rId61"/>
+    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf" r:id="rId61"/>
     <hyperlink ref="A14" display="authoringResource.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf" r:id="rId64"/>
+    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId64"/>
     <hyperlink ref="F14" display="authoringResource.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf" r:id="rId66"/>
+    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId66"/>
     <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf" r:id="rId69"/>
+    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId69"/>
     <hyperlink ref="F15" display="authoringResourceClass.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf" r:id="rId71"/>
+    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId71"/>
     <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf" r:id="rId74"/>
+    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId74"/>
     <hyperlink ref="F16" display="authoringResourceComposite.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf" r:id="rId76"/>
+    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId76"/>
     <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf" r:id="rId79"/>
+    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf" r:id="rId79"/>
     <hyperlink ref="F17" display="authoringResourceMOF.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf" r:id="rId81"/>
+    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf" r:id="rId81"/>
     <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf" r:id="rId84"/>
+    <hyperlink ref="D18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf" r:id="rId84"/>
     <hyperlink ref="F18" display="authoringResourceMofCS.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf" r:id="rId86"/>
-    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId87"/>
+    <hyperlink ref="G18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="configData.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf" r:id="rId89"/>
-    <hyperlink ref="F19" display="authoringResourceMofDesigner.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf" r:id="rId91"/>
-    <hyperlink ref="A20" display="configData.md" r:id="rId92"/>
+    <hyperlink ref="D19" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="configData.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="configurations.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf" r:id="rId94"/>
-    <hyperlink ref="F20" display="configData.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf" r:id="rId96"/>
-    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId97"/>
+    <hyperlink ref="D20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="configurations.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf" r:id="rId99"/>
-    <hyperlink ref="F21" display="configDataCredentials.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf" r:id="rId101"/>
-    <hyperlink ref="A22" display="configurations.md" r:id="rId102"/>
+    <hyperlink ref="D21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="enactingConfigurations.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="environmentResource.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf" r:id="rId104"/>
-    <hyperlink ref="F22" display="configurations.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf" r:id="rId106"/>
-    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId107"/>
+    <hyperlink ref="D22" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="environmentResource.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="fileResource.md" r:id="rId107"/>
     <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf" r:id="rId109"/>
-    <hyperlink ref="F23" display="enactingConfigurations.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf" r:id="rId111"/>
-    <hyperlink ref="A24" display="environmentResource.md" r:id="rId112"/>
+    <hyperlink ref="D23" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="fileResource.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="groupResource.md" r:id="rId112"/>
     <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf" r:id="rId114"/>
-    <hyperlink ref="F24" display="environmentResource.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf" r:id="rId116"/>
-    <hyperlink ref="A25" display="fileResource.md" r:id="rId117"/>
-    <hyperlink ref="B25" display=".md" r:id="rId118"/>
-    <hyperlink ref="D25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf" r:id="rId119"/>
-    <hyperlink ref="F25" display="fileResource.md" r:id="rId120"/>
-    <hyperlink ref="G25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf" r:id="rId121"/>
-    <hyperlink ref="A26" display="groupResource.md" r:id="rId122"/>
-    <hyperlink ref="B26" display=".md" r:id="rId123"/>
-    <hyperlink ref="D26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf" r:id="rId124"/>
-    <hyperlink ref="F26" display="groupResource.md" r:id="rId125"/>
-    <hyperlink ref="G26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf" r:id="rId126"/>
-    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId127"/>
-    <hyperlink ref="B27" display=".jpg" r:id="rId128"/>
-    <hyperlink ref="D27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId129"/>
-    <hyperlink ref="F27" display="PartialConfig1.jpg" r:id="rId130"/>
-    <hyperlink ref="G27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId131"/>
-    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId132"/>
-    <hyperlink ref="B28" display=".jpg" r:id="rId133"/>
-    <hyperlink ref="D28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId134"/>
-    <hyperlink ref="F28" display="PartialConfigPullServer.jpg" r:id="rId135"/>
-    <hyperlink ref="G28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId136"/>
-    <hyperlink ref="A29" display="Pull.png" r:id="rId137"/>
-    <hyperlink ref="B29" display=".png" r:id="rId138"/>
-    <hyperlink ref="D29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId139"/>
-    <hyperlink ref="F29" display="Pull.png" r:id="rId140"/>
-    <hyperlink ref="G29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId141"/>
-    <hyperlink ref="A30" display="Push.png" r:id="rId142"/>
-    <hyperlink ref="B30" display=".png" r:id="rId143"/>
-    <hyperlink ref="D30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId144"/>
-    <hyperlink ref="F30" display="Push.png" r:id="rId145"/>
-    <hyperlink ref="G30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId146"/>
-    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId147"/>
+    <hyperlink ref="D24" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="groupResource.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="PartialConfig1.jpg" r:id="rId117"/>
+    <hyperlink ref="B25" display=".jpg" r:id="rId118"/>
+    <hyperlink ref="D25" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId119"/>
+    <hyperlink ref="F25" display="PartialConfig1.jpg" r:id="rId120"/>
+    <hyperlink ref="G25" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId121"/>
+    <hyperlink ref="A26" display="PartialConfigPullServer.jpg" r:id="rId122"/>
+    <hyperlink ref="B26" display=".jpg" r:id="rId123"/>
+    <hyperlink ref="D26" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId124"/>
+    <hyperlink ref="F26" display="PartialConfigPullServer.jpg" r:id="rId125"/>
+    <hyperlink ref="G26" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId126"/>
+    <hyperlink ref="A27" display="Pull.png" r:id="rId127"/>
+    <hyperlink ref="B27" display=".png" r:id="rId128"/>
+    <hyperlink ref="D27" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId129"/>
+    <hyperlink ref="F27" display="Pull.png" r:id="rId130"/>
+    <hyperlink ref="G27" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId131"/>
+    <hyperlink ref="A28" display="Push.png" r:id="rId132"/>
+    <hyperlink ref="B28" display=".png" r:id="rId133"/>
+    <hyperlink ref="D28" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId134"/>
+    <hyperlink ref="F28" display="Push.png" r:id="rId135"/>
+    <hyperlink ref="G28" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId136"/>
+    <hyperlink ref="A29" display="lnxArchiveResource.md" r:id="rId137"/>
+    <hyperlink ref="B29" display=".md" r:id="rId138"/>
+    <hyperlink ref="D29" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf" r:id="rId139"/>
+    <hyperlink ref="F29" display="lnxArchiveResource.md" r:id="rId140"/>
+    <hyperlink ref="G29" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf" r:id="rId141"/>
+    <hyperlink ref="A30" display="lnxBuiltInResources.md" r:id="rId142"/>
+    <hyperlink ref="B30" display=".md" r:id="rId143"/>
+    <hyperlink ref="D30" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf" r:id="rId144"/>
+    <hyperlink ref="F30" display="lnxBuiltInResources.md" r:id="rId145"/>
+    <hyperlink ref="G30" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf" r:id="rId146"/>
+    <hyperlink ref="A31" display="lnxEnvironmentResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf" r:id="rId149"/>
-    <hyperlink ref="F31" display="lnxArchiveResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf" r:id="rId151"/>
-    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId152"/>
+    <hyperlink ref="D31" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="lnxEnvironmentResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="lnxFileLineResource.md" r:id="rId152"/>
     <hyperlink ref="B32" display=".md" r:id="rId153"/>
-    <hyperlink ref="D32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf" r:id="rId154"/>
-    <hyperlink ref="F32" display="lnxBuiltInResources.md" r:id="rId155"/>
-    <hyperlink ref="G32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf" r:id="rId156"/>
-    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId157"/>
+    <hyperlink ref="D32" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="lnxFileLineResource.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="lnxFileResource.md" r:id="rId157"/>
     <hyperlink ref="B33" display=".md" r:id="rId158"/>
-    <hyperlink ref="D33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf" r:id="rId159"/>
-    <hyperlink ref="F33" display="lnxEnvironmentResource.md" r:id="rId160"/>
-    <hyperlink ref="G33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf" r:id="rId161"/>
-    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId162"/>
+    <hyperlink ref="D33" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="lnxFileResource.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="lnxGroupResource.md" r:id="rId162"/>
     <hyperlink ref="B34" display=".md" r:id="rId163"/>
-    <hyperlink ref="D34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf" r:id="rId164"/>
-    <hyperlink ref="F34" display="lnxFileLineResource.md" r:id="rId165"/>
-    <hyperlink ref="G34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf" r:id="rId166"/>
-    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId167"/>
+    <hyperlink ref="D34" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="lnxGroupResource.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="lnxPackageResource.md" r:id="rId167"/>
     <hyperlink ref="B35" display=".md" r:id="rId168"/>
-    <hyperlink ref="D35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf" r:id="rId169"/>
-    <hyperlink ref="F35" display="lnxFileResource.md" r:id="rId170"/>
-    <hyperlink ref="G35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf" r:id="rId171"/>
-    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId172"/>
+    <hyperlink ref="D35" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="lnxPackageResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf" r:id="rId174"/>
-    <hyperlink ref="F36" display="lnxGroupResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf" r:id="rId176"/>
-    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId177"/>
+    <hyperlink ref="D36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="lnxServiceResource.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf" r:id="rId179"/>
-    <hyperlink ref="F37" display="lnxPackageResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf" r:id="rId181"/>
-    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId182"/>
+    <hyperlink ref="D37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="lnxSshAuthorizedKeysResource.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf" r:id="rId184"/>
-    <hyperlink ref="F38" display="lnxScriptResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf" r:id="rId186"/>
-    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId187"/>
+    <hyperlink ref="D38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="lnxUserResource.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="logResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf" r:id="rId189"/>
-    <hyperlink ref="F39" display="lnxServiceResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf" r:id="rId191"/>
-    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId192"/>
+    <hyperlink ref="D39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="logResource.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="metaConfig.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf" r:id="rId194"/>
-    <hyperlink ref="F40" display="lnxSshAuthorizedKeysResource.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf" r:id="rId196"/>
-    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId197"/>
+    <hyperlink ref="D40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="metaConfig.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="metaConfig4.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf" r:id="rId199"/>
-    <hyperlink ref="F41" display="lnxUserResource.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf" r:id="rId201"/>
-    <hyperlink ref="A42" display="logResource.md" r:id="rId202"/>
+    <hyperlink ref="D41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="metaConfig4.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="overview.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf" r:id="rId204"/>
-    <hyperlink ref="F42" display="logResource.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf" r:id="rId206"/>
-    <hyperlink ref="A43" display="metaConfig.md" r:id="rId207"/>
+    <hyperlink ref="D42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="overview.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="packageResource.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf" r:id="rId209"/>
-    <hyperlink ref="F43" display="metaConfig.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf" r:id="rId211"/>
-    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId212"/>
+    <hyperlink ref="D43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="packageResource.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="partialConfigs.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf" r:id="rId214"/>
-    <hyperlink ref="F44" display="metaConfig4.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf" r:id="rId216"/>
-    <hyperlink ref="A45" display="overview.md" r:id="rId217"/>
+    <hyperlink ref="D44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="partialConfigs.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="pullClient.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf" r:id="rId219"/>
-    <hyperlink ref="F45" display="overview.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf" r:id="rId221"/>
-    <hyperlink ref="A46" display="packageResource.md" r:id="rId222"/>
+    <hyperlink ref="D45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="pullClient.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="pullClientConfigID.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf" r:id="rId224"/>
-    <hyperlink ref="F46" display="packageResource.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf" r:id="rId226"/>
-    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId227"/>
+    <hyperlink ref="D46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="pullClientConfigID.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="queryServerNodes.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf" r:id="rId229"/>
-    <hyperlink ref="F47" display="partialConfigs.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf" r:id="rId231"/>
-    <hyperlink ref="A48" display="pullClient.md" r:id="rId232"/>
+    <hyperlink ref="D47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="queryServerNodes.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId231"/>
+    <hyperlink ref="A48" display="registryResource.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf" r:id="rId234"/>
-    <hyperlink ref="F48" display="pullClient.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf" r:id="rId236"/>
-    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId237"/>
+    <hyperlink ref="D48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId234"/>
+    <hyperlink ref="F48" display="registryResource.md" r:id="rId235"/>
+    <hyperlink ref="G48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="resources.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf" r:id="rId239"/>
-    <hyperlink ref="F49" display="pullClientConfigID.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf" r:id="rId241"/>
-    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId242"/>
+    <hyperlink ref="D49" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="resources.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId241"/>
+    <hyperlink ref="A50" display="scriptResource.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf" r:id="rId244"/>
-    <hyperlink ref="F50" display="queryServerNodes.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf" r:id="rId246"/>
-    <hyperlink ref="A51" display="registryResource.md" r:id="rId247"/>
+    <hyperlink ref="D50" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId244"/>
+    <hyperlink ref="F50" display="scriptResource.md" r:id="rId245"/>
+    <hyperlink ref="G50" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId246"/>
+    <hyperlink ref="A51" display="secureServer.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf" r:id="rId249"/>
-    <hyperlink ref="F51" display="registryResource.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf" r:id="rId251"/>
-    <hyperlink ref="A52" display="reportServer.md" r:id="rId252"/>
+    <hyperlink ref="D51" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId249"/>
+    <hyperlink ref="F51" display="secureServer.md" r:id="rId250"/>
+    <hyperlink ref="G51" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId251"/>
+    <hyperlink ref="A52" display="serviceResource.md" r:id="rId252"/>
     <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf" r:id="rId254"/>
-    <hyperlink ref="F52" display="reportServer.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf" r:id="rId256"/>
-    <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
+    <hyperlink ref="D52" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId254"/>
+    <hyperlink ref="F52" display="serviceResource.md" r:id="rId255"/>
+    <hyperlink ref="G52" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId256"/>
+    <hyperlink ref="A53" display="userResource.md" r:id="rId257"/>
     <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf" r:id="rId259"/>
-    <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf" r:id="rId261"/>
-    <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
+    <hyperlink ref="D53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId259"/>
+    <hyperlink ref="F53" display="userResource.md" r:id="rId260"/>
+    <hyperlink ref="G53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId261"/>
+    <hyperlink ref="A54" display="windowsfeatureResource.md" r:id="rId262"/>
     <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf" r:id="rId264"/>
-    <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf" r:id="rId266"/>
-    <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
+    <hyperlink ref="D54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId264"/>
+    <hyperlink ref="F54" display="windowsfeatureResource.md" r:id="rId265"/>
+    <hyperlink ref="G54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId266"/>
+    <hyperlink ref="A55" display="windowsProcessResource.md" r:id="rId267"/>
     <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf" r:id="rId269"/>
-    <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf" r:id="rId271"/>
-    <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
-    <hyperlink ref="B56" display=".md" r:id="rId273"/>
-    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf" r:id="rId274"/>
-    <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
-    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf" r:id="rId276"/>
-    <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
-    <hyperlink ref="B57" display=".md" r:id="rId278"/>
-    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf" r:id="rId279"/>
-    <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
-    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf" r:id="rId281"/>
-    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
-    <hyperlink ref="B58" display=".md" r:id="rId283"/>
-    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf" r:id="rId284"/>
-    <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
-    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf" r:id="rId286"/>
-    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
-    <hyperlink ref="B59" display=".md" r:id="rId288"/>
-    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf" r:id="rId289"/>
-    <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
-    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf" r:id="rId291"/>
+    <hyperlink ref="D55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId269"/>
+    <hyperlink ref="F55" display="windowsProcessResource.md" r:id="rId270"/>
+    <hyperlink ref="G55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId271"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
+    <sheet name="ko-kr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ja-jp</t>
+    <t>ko-kr</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -48,15 +48,9 @@
     <t>pullServer.md</t>
   </si>
   <si>
-    <t>secureMOF.md</t>
-  </si>
-  <si>
     <t>TOC.md</t>
   </si>
   <si>
-    <t>troubleshooting.md</t>
-  </si>
-  <si>
     <t>archiveResource.md</t>
   </si>
   <si>
@@ -78,18 +72,21 @@
     <t>authoringResourceMofCS.md</t>
   </si>
   <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
     <t>configData.md</t>
   </si>
   <si>
+    <t>configDataCredentials.md</t>
+  </si>
+  <si>
     <t>configurations.md</t>
   </si>
   <si>
     <t>enactingConfigurations.md</t>
   </si>
   <si>
-    <t>environmentResource.md</t>
-  </si>
-  <si>
     <t>fileResource.md</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
     <t>lnxPackageResource.md</t>
   </si>
   <si>
+    <t>lnxScriptResource.md</t>
+  </si>
+  <si>
     <t>lnxServiceResource.md</t>
   </si>
   <si>
@@ -168,7 +168,7 @@
     <t>registryResource.md</t>
   </si>
   <si>
-    <t>resources.md</t>
+    <t>reportServer.md</t>
   </si>
   <si>
     <t>scriptResource.md</t>
@@ -225,88 +225,82 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:00</t>
-  </si>
-  <si>
-    <t>2016-03-22 00:30:47</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:35</t>
+  </si>
+  <si>
+    <t>2016-03-22 07:00:42</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-22 04:28:44</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:35</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:43:45</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -315,10 +309,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:12</t>
-  </si>
-  <si>
-    <t>2016-03-17 01:31:01</t>
+    <t>2016-03-11 01:03:30</t>
+  </si>
+  <si>
+    <t>2016-03-19 01:30:54</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -336,85 +330,88 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf</t>
   </si>
 </sst>
 </file>
@@ -471,7 +468,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ko-kr" displayName="ko_kr" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -494,7 +491,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ja-jp"/>
+    <tableColumn id="2" name="ko-kr"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -598,23 +595,23 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -622,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -630,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -646,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -654,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -662,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -670,7 +667,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -678,7 +675,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +683,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -694,7 +691,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -702,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -710,7 +707,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -718,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -726,7 +723,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -734,7 +731,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -742,7 +739,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -750,7 +747,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -758,7 +755,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -766,7 +763,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -774,7 +771,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -782,7 +779,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -790,7 +787,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -798,7 +795,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -806,7 +803,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -814,7 +811,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +819,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -830,7 +827,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -838,7 +835,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -846,7 +843,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -854,7 +851,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -862,7 +859,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -870,7 +867,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -878,7 +875,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -886,7 +883,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -894,7 +891,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -902,7 +899,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -910,7 +907,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -918,7 +915,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -926,7 +923,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -934,7 +931,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -942,7 +939,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -950,7 +947,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -963,32 +960,32 @@
     <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId7"/>
     <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId8"/>
     <hyperlink ref="A9" display="pullServer.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="secureMOF.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="TOC.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="troubleshooting.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="archiveResource.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="authoringResource.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="configData.md" r:id="rId19"/>
+    <hyperlink ref="A10" display="TOC.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="archiveResource.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="authoringResource.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="authoringResourceClass.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="authoringResourceComposite.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="authoringResourceMOF.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="authoringResourceMofCS.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="authoringResourceMofDesigner.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="configData.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="configDataCredentials.md" r:id="rId19"/>
     <hyperlink ref="A20" display="configurations.md" r:id="rId20"/>
     <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="environmentResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="fileResource.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="groupResource.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="PartialConfig1.jpg" r:id="rId25"/>
-    <hyperlink ref="A26" display="PartialConfigPullServer.jpg" r:id="rId26"/>
-    <hyperlink ref="A27" display="Pull.png" r:id="rId27"/>
-    <hyperlink ref="A28" display="Push.png" r:id="rId28"/>
-    <hyperlink ref="A29" display="lnxArchiveResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="lnxBuiltInResources.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxEnvironmentResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="lnxFileLineResource.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="lnxFileResource.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="lnxGroupResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="lnxPackageResource.md" r:id="rId35"/>
+    <hyperlink ref="A22" display="fileResource.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="groupResource.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="PartialConfig1.jpg" r:id="rId24"/>
+    <hyperlink ref="A25" display="PartialConfigPullServer.jpg" r:id="rId25"/>
+    <hyperlink ref="A26" display="Pull.png" r:id="rId26"/>
+    <hyperlink ref="A27" display="Push.png" r:id="rId27"/>
+    <hyperlink ref="A28" display="lnxArchiveResource.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="lnxBuiltInResources.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="lnxEnvironmentResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="lnxFileLineResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="lnxFileResource.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="lnxGroupResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId35"/>
     <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId36"/>
     <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId37"/>
     <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId38"/>
@@ -1002,7 +999,7 @@
     <hyperlink ref="A46" display="pullClientConfigID.md" r:id="rId46"/>
     <hyperlink ref="A47" display="queryServerNodes.md" r:id="rId47"/>
     <hyperlink ref="A48" display="registryResource.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="resources.md" r:id="rId49"/>
+    <hyperlink ref="A49" display="reportServer.md" r:id="rId49"/>
     <hyperlink ref="A50" display="scriptResource.md" r:id="rId50"/>
     <hyperlink ref="A51" display="secureServer.md" r:id="rId51"/>
     <hyperlink ref="A52" display="serviceResource.md" r:id="rId52"/>
@@ -1125,7 +1122,7 @@
         <v>74</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>73</v>
@@ -1142,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>71</v>
@@ -1151,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>72</v>
@@ -1171,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>71</v>
@@ -1180,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>72</v>
@@ -1200,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>71</v>
@@ -1209,10 +1206,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>73</v>
@@ -1229,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>71</v>
@@ -1238,7 +1235,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>72</v>
@@ -1258,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>71</v>
@@ -1267,10 +1264,10 @@
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>73</v>
@@ -1287,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>71</v>
@@ -1296,10 +1293,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>73</v>
@@ -1316,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>71</v>
@@ -1325,7 +1322,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>72</v>
@@ -1342,10 +1339,10 @@
         <v>69</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>71</v>
@@ -1354,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>72</v>
@@ -1365,25 +1362,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>72</v>
@@ -1394,25 +1391,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>72</v>
@@ -1429,7 +1426,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>86</v>
@@ -1458,13 +1455,13 @@
         <v>69</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
@@ -1487,10 +1484,10 @@
         <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>71</v>
@@ -1499,10 +1496,10 @@
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>73</v>
@@ -1516,10 +1513,10 @@
         <v>69</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>71</v>
@@ -1528,10 +1525,10 @@
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>73</v>
@@ -1545,10 +1542,10 @@
         <v>69</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>71</v>
@@ -1557,10 +1554,10 @@
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>73</v>
@@ -1574,10 +1571,10 @@
         <v>69</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>71</v>
@@ -1586,10 +1583,10 @@
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>73</v>
@@ -1603,10 +1600,10 @@
         <v>69</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>71</v>
@@ -1615,10 +1612,10 @@
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>73</v>
@@ -1632,10 +1629,10 @@
         <v>69</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>71</v>
@@ -1644,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>73</v>
@@ -1661,10 +1658,10 @@
         <v>69</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>71</v>
@@ -1673,10 +1670,10 @@
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>73</v>
@@ -1690,10 +1687,10 @@
         <v>69</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>71</v>
@@ -1702,7 +1699,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>72</v>
@@ -1716,16 +1713,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
@@ -1734,10 +1731,10 @@
         <v>97</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -1745,28 +1742,28 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="I25" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -1774,16 +1771,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
@@ -1792,10 +1789,10 @@
         <v>103</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -1803,28 +1800,28 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -1832,28 +1829,28 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1864,10 +1861,10 @@
         <v>69</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1876,7 +1873,7 @@
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>72</v>
@@ -1893,10 +1890,10 @@
         <v>69</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
@@ -1905,7 +1902,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>72</v>
@@ -1922,10 +1919,10 @@
         <v>69</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
@@ -1934,7 +1931,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>72</v>
@@ -1951,10 +1948,10 @@
         <v>69</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>71</v>
@@ -1963,7 +1960,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>72</v>
@@ -1980,10 +1977,10 @@
         <v>69</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
@@ -1992,7 +1989,7 @@
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>72</v>
@@ -2009,10 +2006,10 @@
         <v>69</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>71</v>
@@ -2021,7 +2018,7 @@
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>72</v>
@@ -2038,10 +2035,10 @@
         <v>69</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>71</v>
@@ -2050,10 +2047,10 @@
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>73</v>
@@ -2067,19 +2064,19 @@
         <v>69</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>72</v>
@@ -2096,10 +2093,10 @@
         <v>69</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>71</v>
@@ -2108,7 +2105,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>72</v>
@@ -2125,10 +2122,10 @@
         <v>69</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>71</v>
@@ -2137,10 +2134,10 @@
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>73</v>
@@ -2154,10 +2151,10 @@
         <v>69</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>71</v>
@@ -2166,7 +2163,7 @@
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>72</v>
@@ -2183,10 +2180,10 @@
         <v>69</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>71</v>
@@ -2195,7 +2192,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>72</v>
@@ -2212,10 +2209,10 @@
         <v>69</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>71</v>
@@ -2224,7 +2221,7 @@
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>72</v>
@@ -2241,10 +2238,10 @@
         <v>69</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>71</v>
@@ -2253,7 +2250,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>72</v>
@@ -2270,10 +2267,10 @@
         <v>69</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>71</v>
@@ -2282,10 +2279,10 @@
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>73</v>
@@ -2299,10 +2296,10 @@
         <v>69</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>71</v>
@@ -2311,7 +2308,7 @@
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>72</v>
@@ -2328,10 +2325,10 @@
         <v>69</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>71</v>
@@ -2340,7 +2337,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>72</v>
@@ -2357,10 +2354,10 @@
         <v>69</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>71</v>
@@ -2369,10 +2366,10 @@
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>73</v>
@@ -2386,10 +2383,10 @@
         <v>69</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>71</v>
@@ -2398,7 +2395,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>72</v>
@@ -2415,10 +2412,10 @@
         <v>69</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>71</v>
@@ -2427,10 +2424,10 @@
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>73</v>
@@ -2444,10 +2441,10 @@
         <v>69</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>71</v>
@@ -2456,10 +2453,10 @@
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>73</v>
@@ -2473,10 +2470,10 @@
         <v>69</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>71</v>
@@ -2485,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>72</v>
@@ -2502,10 +2499,10 @@
         <v>69</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>71</v>
@@ -2514,7 +2511,7 @@
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>72</v>
@@ -2531,10 +2528,10 @@
         <v>69</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>71</v>
@@ -2543,10 +2540,10 @@
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>73</v>
@@ -2560,10 +2557,10 @@
         <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>71</v>
@@ -2572,7 +2569,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>72</v>
@@ -2589,10 +2586,10 @@
         <v>69</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>71</v>
@@ -2601,7 +2598,7 @@
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>72</v>
@@ -2618,10 +2615,10 @@
         <v>69</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>71</v>
@@ -2630,7 +2627,7 @@
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>72</v>
@@ -2643,274 +2640,274 @@
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ja-jp.xlf" r:id="rId6"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId6"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId11"/>
     <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf" r:id="rId14"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId14"/>
     <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ja-jp.xlf" r:id="rId16"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId16"/>
     <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId19"/>
     <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ja-jp.xlf" r:id="rId21"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId21"/>
     <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId24"/>
     <hyperlink ref="F6" display="lnxGettingStarted.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ja-jp.xlf" r:id="rId26"/>
+    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId26"/>
     <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId29"/>
+    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId29"/>
     <hyperlink ref="F7" display="pullClientConfigID4.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ja-jp.xlf" r:id="rId31"/>
+    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId31"/>
     <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId34"/>
+    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId34"/>
     <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ja-jp.xlf" r:id="rId36"/>
+    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId36"/>
     <hyperlink ref="A9" display="pullServer.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId39"/>
+    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId39"/>
     <hyperlink ref="F9" display="pullServer.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ja-jp.xlf" r:id="rId41"/>
-    <hyperlink ref="A10" display="secureMOF.md" r:id="rId42"/>
+    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="TOC.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId44"/>
-    <hyperlink ref="F10" display="secureMOF.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ja-jp.xlf" r:id="rId46"/>
-    <hyperlink ref="A11" display="TOC.md" r:id="rId47"/>
+    <hyperlink ref="D10" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="TOC.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="archiveResource.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId49"/>
-    <hyperlink ref="F11" display="TOC.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ja-jp.xlf" r:id="rId51"/>
-    <hyperlink ref="A12" display="troubleshooting.md" r:id="rId52"/>
+    <hyperlink ref="D11" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId49"/>
+    <hyperlink ref="F11" display="archiveResource.md" r:id="rId50"/>
+    <hyperlink ref="G11" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId51"/>
+    <hyperlink ref="A12" display="authoringResource.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId54"/>
-    <hyperlink ref="F12" display="troubleshooting.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ja-jp.xlf" r:id="rId56"/>
-    <hyperlink ref="A13" display="archiveResource.md" r:id="rId57"/>
+    <hyperlink ref="D12" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId54"/>
+    <hyperlink ref="F12" display="authoringResource.md" r:id="rId55"/>
+    <hyperlink ref="G12" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId56"/>
+    <hyperlink ref="A13" display="authoringResourceClass.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf" r:id="rId59"/>
-    <hyperlink ref="F13" display="archiveResource.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ja-jp.xlf" r:id="rId61"/>
-    <hyperlink ref="A14" display="authoringResource.md" r:id="rId62"/>
+    <hyperlink ref="D13" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId59"/>
+    <hyperlink ref="F13" display="authoringResourceClass.md" r:id="rId60"/>
+    <hyperlink ref="G13" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId61"/>
+    <hyperlink ref="A14" display="authoringResourceComposite.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId64"/>
-    <hyperlink ref="F14" display="authoringResource.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ja-jp.xlf" r:id="rId66"/>
-    <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId67"/>
+    <hyperlink ref="D14" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId64"/>
+    <hyperlink ref="F14" display="authoringResourceComposite.md" r:id="rId65"/>
+    <hyperlink ref="G14" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId66"/>
+    <hyperlink ref="A15" display="authoringResourceMOF.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId69"/>
-    <hyperlink ref="F15" display="authoringResourceClass.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ja-jp.xlf" r:id="rId71"/>
-    <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId72"/>
+    <hyperlink ref="D15" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId69"/>
+    <hyperlink ref="F15" display="authoringResourceMOF.md" r:id="rId70"/>
+    <hyperlink ref="G15" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId71"/>
+    <hyperlink ref="A16" display="authoringResourceMofCS.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId74"/>
-    <hyperlink ref="F16" display="authoringResourceComposite.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ja-jp.xlf" r:id="rId76"/>
-    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId77"/>
+    <hyperlink ref="D16" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId74"/>
+    <hyperlink ref="F16" display="authoringResourceMofCS.md" r:id="rId75"/>
+    <hyperlink ref="G16" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId76"/>
+    <hyperlink ref="A17" display="authoringResourceMofDesigner.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf" r:id="rId79"/>
-    <hyperlink ref="F17" display="authoringResourceMOF.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ja-jp.xlf" r:id="rId81"/>
-    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId82"/>
+    <hyperlink ref="D17" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId79"/>
+    <hyperlink ref="F17" display="authoringResourceMofDesigner.md" r:id="rId80"/>
+    <hyperlink ref="G17" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId81"/>
+    <hyperlink ref="A18" display="configData.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf" r:id="rId84"/>
-    <hyperlink ref="F18" display="authoringResourceMofCS.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ja-jp.xlf" r:id="rId86"/>
-    <hyperlink ref="A19" display="configData.md" r:id="rId87"/>
+    <hyperlink ref="D18" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId84"/>
+    <hyperlink ref="F18" display="configData.md" r:id="rId85"/>
+    <hyperlink ref="G18" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="configDataCredentials.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf" r:id="rId89"/>
-    <hyperlink ref="F19" display="configData.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ja-jp.xlf" r:id="rId91"/>
+    <hyperlink ref="D19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="configDataCredentials.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId91"/>
     <hyperlink ref="A20" display="configurations.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf" r:id="rId94"/>
+    <hyperlink ref="D20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId94"/>
     <hyperlink ref="F20" display="configurations.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ja-jp.xlf" r:id="rId96"/>
+    <hyperlink ref="G20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId96"/>
     <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf" r:id="rId99"/>
+    <hyperlink ref="D21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId99"/>
     <hyperlink ref="F21" display="enactingConfigurations.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ja-jp.xlf" r:id="rId101"/>
-    <hyperlink ref="A22" display="environmentResource.md" r:id="rId102"/>
+    <hyperlink ref="G21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="fileResource.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf" r:id="rId104"/>
-    <hyperlink ref="F22" display="environmentResource.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ja-jp.xlf" r:id="rId106"/>
-    <hyperlink ref="A23" display="fileResource.md" r:id="rId107"/>
+    <hyperlink ref="D22" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="fileResource.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="groupResource.md" r:id="rId107"/>
     <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf" r:id="rId109"/>
-    <hyperlink ref="F23" display="fileResource.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ja-jp.xlf" r:id="rId111"/>
-    <hyperlink ref="A24" display="groupResource.md" r:id="rId112"/>
-    <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf" r:id="rId114"/>
-    <hyperlink ref="F24" display="groupResource.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ja-jp.xlf" r:id="rId116"/>
-    <hyperlink ref="A25" display="PartialConfig1.jpg" r:id="rId117"/>
+    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="groupResource.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="PartialConfig1.jpg" r:id="rId112"/>
+    <hyperlink ref="B24" display=".jpg" r:id="rId113"/>
+    <hyperlink ref="D24" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId114"/>
+    <hyperlink ref="F24" display="PartialConfig1.jpg" r:id="rId115"/>
+    <hyperlink ref="G24" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId116"/>
+    <hyperlink ref="A25" display="PartialConfigPullServer.jpg" r:id="rId117"/>
     <hyperlink ref="B25" display=".jpg" r:id="rId118"/>
-    <hyperlink ref="D25" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId119"/>
-    <hyperlink ref="F25" display="PartialConfig1.jpg" r:id="rId120"/>
-    <hyperlink ref="G25" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId121"/>
-    <hyperlink ref="A26" display="PartialConfigPullServer.jpg" r:id="rId122"/>
-    <hyperlink ref="B26" display=".jpg" r:id="rId123"/>
-    <hyperlink ref="D26" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId124"/>
-    <hyperlink ref="F26" display="PartialConfigPullServer.jpg" r:id="rId125"/>
-    <hyperlink ref="G26" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId126"/>
-    <hyperlink ref="A27" display="Pull.png" r:id="rId127"/>
+    <hyperlink ref="D25" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId119"/>
+    <hyperlink ref="F25" display="PartialConfigPullServer.jpg" r:id="rId120"/>
+    <hyperlink ref="G25" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId121"/>
+    <hyperlink ref="A26" display="Pull.png" r:id="rId122"/>
+    <hyperlink ref="B26" display=".png" r:id="rId123"/>
+    <hyperlink ref="D26" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId124"/>
+    <hyperlink ref="F26" display="Pull.png" r:id="rId125"/>
+    <hyperlink ref="G26" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId126"/>
+    <hyperlink ref="A27" display="Push.png" r:id="rId127"/>
     <hyperlink ref="B27" display=".png" r:id="rId128"/>
-    <hyperlink ref="D27" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId129"/>
-    <hyperlink ref="F27" display="Pull.png" r:id="rId130"/>
-    <hyperlink ref="G27" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId131"/>
-    <hyperlink ref="A28" display="Push.png" r:id="rId132"/>
-    <hyperlink ref="B28" display=".png" r:id="rId133"/>
-    <hyperlink ref="D28" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId134"/>
-    <hyperlink ref="F28" display="Push.png" r:id="rId135"/>
-    <hyperlink ref="G28" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId136"/>
-    <hyperlink ref="A29" display="lnxArchiveResource.md" r:id="rId137"/>
+    <hyperlink ref="D27" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId129"/>
+    <hyperlink ref="F27" display="Push.png" r:id="rId130"/>
+    <hyperlink ref="G27" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId131"/>
+    <hyperlink ref="A28" display="lnxArchiveResource.md" r:id="rId132"/>
+    <hyperlink ref="B28" display=".md" r:id="rId133"/>
+    <hyperlink ref="D28" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId134"/>
+    <hyperlink ref="F28" display="lnxArchiveResource.md" r:id="rId135"/>
+    <hyperlink ref="G28" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId136"/>
+    <hyperlink ref="A29" display="lnxBuiltInResources.md" r:id="rId137"/>
     <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf" r:id="rId139"/>
-    <hyperlink ref="F29" display="lnxArchiveResource.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ja-jp.xlf" r:id="rId141"/>
-    <hyperlink ref="A30" display="lnxBuiltInResources.md" r:id="rId142"/>
+    <hyperlink ref="D29" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId139"/>
+    <hyperlink ref="F29" display="lnxBuiltInResources.md" r:id="rId140"/>
+    <hyperlink ref="G29" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId141"/>
+    <hyperlink ref="A30" display="lnxEnvironmentResource.md" r:id="rId142"/>
     <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf" r:id="rId144"/>
-    <hyperlink ref="F30" display="lnxBuiltInResources.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ja-jp.xlf" r:id="rId146"/>
-    <hyperlink ref="A31" display="lnxEnvironmentResource.md" r:id="rId147"/>
+    <hyperlink ref="D30" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId144"/>
+    <hyperlink ref="F30" display="lnxEnvironmentResource.md" r:id="rId145"/>
+    <hyperlink ref="G30" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId146"/>
+    <hyperlink ref="A31" display="lnxFileLineResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf" r:id="rId149"/>
-    <hyperlink ref="F31" display="lnxEnvironmentResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ja-jp.xlf" r:id="rId151"/>
-    <hyperlink ref="A32" display="lnxFileLineResource.md" r:id="rId152"/>
+    <hyperlink ref="D31" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="lnxFileLineResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="lnxFileResource.md" r:id="rId152"/>
     <hyperlink ref="B32" display=".md" r:id="rId153"/>
-    <hyperlink ref="D32" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf" r:id="rId154"/>
-    <hyperlink ref="F32" display="lnxFileLineResource.md" r:id="rId155"/>
-    <hyperlink ref="G32" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ja-jp.xlf" r:id="rId156"/>
-    <hyperlink ref="A33" display="lnxFileResource.md" r:id="rId157"/>
+    <hyperlink ref="D32" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="lnxFileResource.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="lnxGroupResource.md" r:id="rId157"/>
     <hyperlink ref="B33" display=".md" r:id="rId158"/>
-    <hyperlink ref="D33" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf" r:id="rId159"/>
-    <hyperlink ref="F33" display="lnxFileResource.md" r:id="rId160"/>
-    <hyperlink ref="G33" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ja-jp.xlf" r:id="rId161"/>
-    <hyperlink ref="A34" display="lnxGroupResource.md" r:id="rId162"/>
+    <hyperlink ref="D33" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="lnxGroupResource.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId162"/>
     <hyperlink ref="B34" display=".md" r:id="rId163"/>
-    <hyperlink ref="D34" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf" r:id="rId164"/>
-    <hyperlink ref="F34" display="lnxGroupResource.md" r:id="rId165"/>
-    <hyperlink ref="G34" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ja-jp.xlf" r:id="rId166"/>
-    <hyperlink ref="A35" display="lnxPackageResource.md" r:id="rId167"/>
+    <hyperlink ref="D34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="lnxPackageResource.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId167"/>
     <hyperlink ref="B35" display=".md" r:id="rId168"/>
-    <hyperlink ref="D35" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf" r:id="rId169"/>
-    <hyperlink ref="F35" display="lnxPackageResource.md" r:id="rId170"/>
-    <hyperlink ref="G35" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ja-jp.xlf" r:id="rId171"/>
+    <hyperlink ref="D35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="lnxScriptResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId171"/>
     <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf" r:id="rId174"/>
+    <hyperlink ref="D36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId174"/>
     <hyperlink ref="F36" display="lnxServiceResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ja-jp.xlf" r:id="rId176"/>
+    <hyperlink ref="G36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId176"/>
     <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf" r:id="rId179"/>
+    <hyperlink ref="D37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId179"/>
     <hyperlink ref="F37" display="lnxSshAuthorizedKeysResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ja-jp.xlf" r:id="rId181"/>
+    <hyperlink ref="G37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId181"/>
     <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf" r:id="rId184"/>
+    <hyperlink ref="D38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId184"/>
     <hyperlink ref="F38" display="lnxUserResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ja-jp.xlf" r:id="rId186"/>
+    <hyperlink ref="G38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId186"/>
     <hyperlink ref="A39" display="logResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf" r:id="rId189"/>
+    <hyperlink ref="D39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId189"/>
     <hyperlink ref="F39" display="logResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ja-jp.xlf" r:id="rId191"/>
+    <hyperlink ref="G39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId191"/>
     <hyperlink ref="A40" display="metaConfig.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf" r:id="rId194"/>
+    <hyperlink ref="D40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId194"/>
     <hyperlink ref="F40" display="metaConfig.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ja-jp.xlf" r:id="rId196"/>
+    <hyperlink ref="G40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId196"/>
     <hyperlink ref="A41" display="metaConfig4.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId199"/>
+    <hyperlink ref="D41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId199"/>
     <hyperlink ref="F41" display="metaConfig4.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ja-jp.xlf" r:id="rId201"/>
+    <hyperlink ref="G41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId201"/>
     <hyperlink ref="A42" display="overview.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf" r:id="rId204"/>
+    <hyperlink ref="D42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId204"/>
     <hyperlink ref="F42" display="overview.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ja-jp.xlf" r:id="rId206"/>
+    <hyperlink ref="G42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId206"/>
     <hyperlink ref="A43" display="packageResource.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId209"/>
+    <hyperlink ref="D43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId209"/>
     <hyperlink ref="F43" display="packageResource.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ja-jp.xlf" r:id="rId211"/>
+    <hyperlink ref="G43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId211"/>
     <hyperlink ref="A44" display="partialConfigs.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId214"/>
+    <hyperlink ref="D44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId214"/>
     <hyperlink ref="F44" display="partialConfigs.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ja-jp.xlf" r:id="rId216"/>
+    <hyperlink ref="G44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId216"/>
     <hyperlink ref="A45" display="pullClient.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId219"/>
+    <hyperlink ref="D45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId219"/>
     <hyperlink ref="F45" display="pullClient.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ja-jp.xlf" r:id="rId221"/>
+    <hyperlink ref="G45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId221"/>
     <hyperlink ref="A46" display="pullClientConfigID.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId224"/>
+    <hyperlink ref="D46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId224"/>
     <hyperlink ref="F46" display="pullClientConfigID.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ja-jp.xlf" r:id="rId226"/>
+    <hyperlink ref="G46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId226"/>
     <hyperlink ref="A47" display="queryServerNodes.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId229"/>
+    <hyperlink ref="D47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId229"/>
     <hyperlink ref="F47" display="queryServerNodes.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ja-jp.xlf" r:id="rId231"/>
+    <hyperlink ref="G47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId231"/>
     <hyperlink ref="A48" display="registryResource.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId234"/>
+    <hyperlink ref="D48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId234"/>
     <hyperlink ref="F48" display="registryResource.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ja-jp.xlf" r:id="rId236"/>
-    <hyperlink ref="A49" display="resources.md" r:id="rId237"/>
+    <hyperlink ref="G48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="reportServer.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId239"/>
-    <hyperlink ref="F49" display="resources.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ja-jp.xlf" r:id="rId241"/>
+    <hyperlink ref="D49" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="reportServer.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId241"/>
     <hyperlink ref="A50" display="scriptResource.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId244"/>
+    <hyperlink ref="D50" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId244"/>
     <hyperlink ref="F50" display="scriptResource.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ja-jp.xlf" r:id="rId246"/>
+    <hyperlink ref="G50" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId246"/>
     <hyperlink ref="A51" display="secureServer.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId249"/>
+    <hyperlink ref="D51" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId249"/>
     <hyperlink ref="F51" display="secureServer.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ja-jp.xlf" r:id="rId251"/>
+    <hyperlink ref="G51" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId251"/>
     <hyperlink ref="A52" display="serviceResource.md" r:id="rId252"/>
     <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId254"/>
+    <hyperlink ref="D52" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId254"/>
     <hyperlink ref="F52" display="serviceResource.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ja-jp.xlf" r:id="rId256"/>
+    <hyperlink ref="G52" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId256"/>
     <hyperlink ref="A53" display="userResource.md" r:id="rId257"/>
     <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId259"/>
+    <hyperlink ref="D53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId259"/>
     <hyperlink ref="F53" display="userResource.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ja-jp.xlf" r:id="rId261"/>
+    <hyperlink ref="G53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId261"/>
     <hyperlink ref="A54" display="windowsfeatureResource.md" r:id="rId262"/>
     <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId264"/>
+    <hyperlink ref="D54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId264"/>
     <hyperlink ref="F54" display="windowsfeatureResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ja-jp.xlf" r:id="rId266"/>
+    <hyperlink ref="G54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId266"/>
     <hyperlink ref="A55" display="windowsProcessResource.md" r:id="rId267"/>
     <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId269"/>
+    <hyperlink ref="D55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId269"/>
     <hyperlink ref="F55" display="windowsProcessResource.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ja-jp.xlf" r:id="rId271"/>
+    <hyperlink ref="G55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId271"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ko-kr" sheetId="2" r:id="rId3"/>
+    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ko-kr</t>
+    <t>fr-fr</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -30,9 +30,6 @@
     <t>debugResource.md</t>
   </si>
   <si>
-    <t>decisionMaker.md</t>
-  </si>
-  <si>
     <t>gettingStarted.md</t>
   </si>
   <si>
@@ -48,18 +45,21 @@
     <t>pullServer.md</t>
   </si>
   <si>
+    <t>secureMOF.md</t>
+  </si>
+  <si>
     <t>TOC.md</t>
   </si>
   <si>
+    <t>troubleshooting.md</t>
+  </si>
+  <si>
     <t>archiveResource.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>authoringResource.md</t>
-  </si>
-  <si>
     <t>authoringResourceClass.md</t>
   </si>
   <si>
@@ -81,9 +81,6 @@
     <t>configDataCredentials.md</t>
   </si>
   <si>
-    <t>configurations.md</t>
-  </si>
-  <si>
     <t>enactingConfigurations.md</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>lnxEnvironmentResource.md</t>
   </si>
   <si>
-    <t>lnxFileLineResource.md</t>
-  </si>
-  <si>
     <t>lnxFileResource.md</t>
   </si>
   <si>
@@ -129,15 +123,9 @@
     <t>lnxScriptResource.md</t>
   </si>
   <si>
-    <t>lnxServiceResource.md</t>
-  </si>
-  <si>
     <t>lnxSshAuthorizedKeysResource.md</t>
   </si>
   <si>
-    <t>lnxUserResource.md</t>
-  </si>
-  <si>
     <t>logResource.md</t>
   </si>
   <si>
@@ -165,12 +153,12 @@
     <t>queryServerNodes.md</t>
   </si>
   <si>
-    <t>registryResource.md</t>
-  </si>
-  <si>
     <t>reportServer.md</t>
   </si>
   <si>
+    <t>resources.md</t>
+  </si>
+  <si>
     <t>scriptResource.md</t>
   </si>
   <si>
@@ -225,82 +213,79 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:02:35</t>
-  </si>
-  <si>
-    <t>2016-03-22 07:00:42</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:38</t>
+  </si>
+  <si>
+    <t>2016-03-22 07:10:00</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:43:45</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:52</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -309,10 +294,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:03:30</t>
-  </si>
-  <si>
-    <t>2016-03-19 01:30:54</t>
+    <t>2016-03-11 01:02:43</t>
+  </si>
+  <si>
+    <t>2016-03-17 17:12:56</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -330,88 +315,79 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf</t>
   </si>
 </sst>
 </file>
@@ -468,7 +444,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ko-kr" displayName="ko_kr" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -491,7 +467,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ko-kr"/>
+    <tableColumn id="2" name="fr-fr"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -500,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -595,15 +571,15 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -611,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -619,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +603,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -635,7 +611,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -643,7 +619,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -651,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -659,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -667,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -675,7 +651,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -683,7 +659,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -691,7 +667,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -699,7 +675,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -707,7 +683,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -715,7 +691,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -723,7 +699,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -731,7 +707,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -739,7 +715,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -747,7 +723,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -755,7 +731,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -763,7 +739,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -771,7 +747,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -779,7 +755,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -787,7 +763,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -795,7 +771,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -803,7 +779,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -811,7 +787,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -819,7 +795,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -827,7 +803,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -835,7 +811,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -843,7 +819,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -851,7 +827,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -859,7 +835,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -867,7 +843,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -875,7 +851,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -883,7 +859,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -891,7 +867,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -899,7 +875,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -907,7 +883,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -915,54 +891,22 @@
         <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="pullServer.md" r:id="rId9"/>
+    <hyperlink ref="A4" display="gettingStarted.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="lnxGettingStarted.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="pullClientConfigID4.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="pullClientConfigNames.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="pullServer.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="secureMOF.md" r:id="rId9"/>
     <hyperlink ref="A10" display="TOC.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="archiveResource.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="authoringResource.md" r:id="rId12"/>
+    <hyperlink ref="A11" display="troubleshooting.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="archiveResource.md" r:id="rId12"/>
     <hyperlink ref="A13" display="authoringResourceClass.md" r:id="rId13"/>
     <hyperlink ref="A14" display="authoringResourceComposite.md" r:id="rId14"/>
     <hyperlink ref="A15" display="authoringResourceMOF.md" r:id="rId15"/>
@@ -970,42 +914,38 @@
     <hyperlink ref="A17" display="authoringResourceMofDesigner.md" r:id="rId17"/>
     <hyperlink ref="A18" display="configData.md" r:id="rId18"/>
     <hyperlink ref="A19" display="configDataCredentials.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="configurations.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="fileResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="groupResource.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="PartialConfig1.jpg" r:id="rId24"/>
-    <hyperlink ref="A25" display="PartialConfigPullServer.jpg" r:id="rId25"/>
-    <hyperlink ref="A26" display="Pull.png" r:id="rId26"/>
-    <hyperlink ref="A27" display="Push.png" r:id="rId27"/>
-    <hyperlink ref="A28" display="lnxArchiveResource.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="lnxBuiltInResources.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="lnxEnvironmentResource.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxFileLineResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="lnxFileResource.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="lnxGroupResource.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="logResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="metaConfig.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="metaConfig4.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="overview.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="packageResource.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="partialConfigs.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="pullClient.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="pullClientConfigID.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="queryServerNodes.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="registryResource.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="reportServer.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="scriptResource.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="secureServer.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="serviceResource.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="userResource.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="windowsfeatureResource.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="windowsProcessResource.md" r:id="rId55"/>
+    <hyperlink ref="A20" display="enactingConfigurations.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="fileResource.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="groupResource.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="PartialConfig1.jpg" r:id="rId23"/>
+    <hyperlink ref="A24" display="PartialConfigPullServer.jpg" r:id="rId24"/>
+    <hyperlink ref="A25" display="Pull.png" r:id="rId25"/>
+    <hyperlink ref="A26" display="Push.png" r:id="rId26"/>
+    <hyperlink ref="A27" display="lnxArchiveResource.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="lnxBuiltInResources.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="lnxEnvironmentResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="lnxFileResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="lnxSshAuthorizedKeysResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="logResource.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="metaConfig.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="metaConfig4.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="overview.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="packageResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="partialConfigs.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="pullClient.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="pullClientConfigID.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="reportServer.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="resources.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="scriptResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="secureServer.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="serviceResource.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="userResource.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="windowsfeatureResource.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="windowsProcessResource.md" r:id="rId51"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1016,7 +956,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1037,37 +977,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -1075,28 +1015,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1104,28 +1044,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -1133,28 +1073,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1162,28 +1102,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1191,28 +1131,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1220,28 +1160,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1249,28 +1189,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1278,28 +1218,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1307,28 +1247,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1336,57 +1276,57 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -1394,28 +1334,28 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -1423,28 +1363,28 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -1452,28 +1392,28 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -1481,28 +1421,28 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -1510,28 +1450,28 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -1539,28 +1479,28 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -1568,28 +1508,28 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -1597,28 +1537,28 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -1626,28 +1566,28 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -1655,28 +1595,28 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1684,28 +1624,28 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -1713,28 +1653,28 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -1742,28 +1682,28 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -1771,28 +1711,28 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -1800,28 +1740,28 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -1829,28 +1769,28 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -1858,28 +1798,28 @@
         <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
@@ -1887,28 +1827,28 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -1916,28 +1856,28 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -1945,28 +1885,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -1974,28 +1914,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -2003,28 +1943,28 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -2032,28 +1972,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -2061,28 +2001,28 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
@@ -2090,28 +2030,28 @@
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
@@ -2119,28 +2059,28 @@
         <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
@@ -2148,28 +2088,28 @@
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
@@ -2177,28 +2117,28 @@
         <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -2206,28 +2146,28 @@
         <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
@@ -2235,28 +2175,28 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -2264,28 +2204,28 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
@@ -2293,28 +2233,28 @@
         <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
@@ -2322,28 +2262,28 @@
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -2351,28 +2291,28 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
@@ -2380,28 +2320,28 @@
         <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -2409,28 +2349,28 @@
         <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -2438,28 +2378,28 @@
         <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -2467,28 +2407,28 @@
         <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
@@ -2496,418 +2436,282 @@
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId6"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId6"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId9"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId11"/>
-    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId11"/>
+    <hyperlink ref="A4" display="gettingStarted.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId14"/>
-    <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId16"/>
-    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
+    <hyperlink ref="D4" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="gettingStarted.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="lnxGettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId19"/>
-    <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId21"/>
-    <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId22"/>
+    <hyperlink ref="D5" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId19"/>
+    <hyperlink ref="F5" display="lnxGettingStarted.md" r:id="rId20"/>
+    <hyperlink ref="G5" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId21"/>
+    <hyperlink ref="A6" display="pullClientConfigID4.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId24"/>
-    <hyperlink ref="F6" display="lnxGettingStarted.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId26"/>
-    <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId27"/>
+    <hyperlink ref="D6" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId24"/>
+    <hyperlink ref="F6" display="pullClientConfigID4.md" r:id="rId25"/>
+    <hyperlink ref="G6" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId26"/>
+    <hyperlink ref="A7" display="pullClientConfigNames.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId29"/>
-    <hyperlink ref="F7" display="pullClientConfigID4.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId31"/>
-    <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId32"/>
+    <hyperlink ref="D7" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId29"/>
+    <hyperlink ref="F7" display="pullClientConfigNames.md" r:id="rId30"/>
+    <hyperlink ref="G7" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId31"/>
+    <hyperlink ref="A8" display="pullServer.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId34"/>
-    <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId36"/>
-    <hyperlink ref="A9" display="pullServer.md" r:id="rId37"/>
+    <hyperlink ref="D8" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId34"/>
+    <hyperlink ref="F8" display="pullServer.md" r:id="rId35"/>
+    <hyperlink ref="G8" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId36"/>
+    <hyperlink ref="A9" display="secureMOF.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId39"/>
-    <hyperlink ref="F9" display="pullServer.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId41"/>
+    <hyperlink ref="D9" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="secureMOF.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId41"/>
     <hyperlink ref="A10" display="TOC.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId44"/>
+    <hyperlink ref="D10" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId44"/>
     <hyperlink ref="F10" display="TOC.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId46"/>
-    <hyperlink ref="A11" display="archiveResource.md" r:id="rId47"/>
+    <hyperlink ref="G10" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="troubleshooting.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId49"/>
-    <hyperlink ref="F11" display="archiveResource.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId51"/>
-    <hyperlink ref="A12" display="authoringResource.md" r:id="rId52"/>
+    <hyperlink ref="D11" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId49"/>
+    <hyperlink ref="F11" display="troubleshooting.md" r:id="rId50"/>
+    <hyperlink ref="G11" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId51"/>
+    <hyperlink ref="A12" display="archiveResource.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId54"/>
-    <hyperlink ref="F12" display="authoringResource.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId56"/>
+    <hyperlink ref="D12" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId54"/>
+    <hyperlink ref="F12" display="archiveResource.md" r:id="rId55"/>
+    <hyperlink ref="G12" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId56"/>
     <hyperlink ref="A13" display="authoringResourceClass.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId59"/>
+    <hyperlink ref="D13" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId59"/>
     <hyperlink ref="F13" display="authoringResourceClass.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId61"/>
+    <hyperlink ref="G13" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId61"/>
     <hyperlink ref="A14" display="authoringResourceComposite.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId64"/>
+    <hyperlink ref="D14" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId64"/>
     <hyperlink ref="F14" display="authoringResourceComposite.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId66"/>
+    <hyperlink ref="G14" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId66"/>
     <hyperlink ref="A15" display="authoringResourceMOF.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId69"/>
+    <hyperlink ref="D15" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId69"/>
     <hyperlink ref="F15" display="authoringResourceMOF.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId71"/>
+    <hyperlink ref="G15" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId71"/>
     <hyperlink ref="A16" display="authoringResourceMofCS.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId74"/>
+    <hyperlink ref="D16" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId74"/>
     <hyperlink ref="F16" display="authoringResourceMofCS.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId76"/>
+    <hyperlink ref="G16" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId76"/>
     <hyperlink ref="A17" display="authoringResourceMofDesigner.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId79"/>
+    <hyperlink ref="D17" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId79"/>
     <hyperlink ref="F17" display="authoringResourceMofDesigner.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId81"/>
+    <hyperlink ref="G17" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId81"/>
     <hyperlink ref="A18" display="configData.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId84"/>
+    <hyperlink ref="D18" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId84"/>
     <hyperlink ref="F18" display="configData.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId86"/>
+    <hyperlink ref="G18" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId86"/>
     <hyperlink ref="A19" display="configDataCredentials.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId89"/>
+    <hyperlink ref="D19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId89"/>
     <hyperlink ref="F19" display="configDataCredentials.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId91"/>
-    <hyperlink ref="A20" display="configurations.md" r:id="rId92"/>
+    <hyperlink ref="G19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="enactingConfigurations.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId94"/>
-    <hyperlink ref="F20" display="configurations.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId96"/>
-    <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId97"/>
+    <hyperlink ref="D20" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="enactingConfigurations.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="fileResource.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId99"/>
-    <hyperlink ref="F21" display="enactingConfigurations.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId101"/>
-    <hyperlink ref="A22" display="fileResource.md" r:id="rId102"/>
+    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="fileResource.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="groupResource.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId104"/>
-    <hyperlink ref="F22" display="fileResource.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId106"/>
-    <hyperlink ref="A23" display="groupResource.md" r:id="rId107"/>
-    <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId109"/>
-    <hyperlink ref="F23" display="groupResource.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId111"/>
-    <hyperlink ref="A24" display="PartialConfig1.jpg" r:id="rId112"/>
+    <hyperlink ref="D22" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="groupResource.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="PartialConfig1.jpg" r:id="rId107"/>
+    <hyperlink ref="B23" display=".jpg" r:id="rId108"/>
+    <hyperlink ref="D23" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId109"/>
+    <hyperlink ref="F23" display="PartialConfig1.jpg" r:id="rId110"/>
+    <hyperlink ref="G23" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId111"/>
+    <hyperlink ref="A24" display="PartialConfigPullServer.jpg" r:id="rId112"/>
     <hyperlink ref="B24" display=".jpg" r:id="rId113"/>
-    <hyperlink ref="D24" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId114"/>
-    <hyperlink ref="F24" display="PartialConfig1.jpg" r:id="rId115"/>
-    <hyperlink ref="G24" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId116"/>
-    <hyperlink ref="A25" display="PartialConfigPullServer.jpg" r:id="rId117"/>
-    <hyperlink ref="B25" display=".jpg" r:id="rId118"/>
-    <hyperlink ref="D25" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId119"/>
-    <hyperlink ref="F25" display="PartialConfigPullServer.jpg" r:id="rId120"/>
-    <hyperlink ref="G25" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId121"/>
-    <hyperlink ref="A26" display="Pull.png" r:id="rId122"/>
+    <hyperlink ref="D24" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId114"/>
+    <hyperlink ref="F24" display="PartialConfigPullServer.jpg" r:id="rId115"/>
+    <hyperlink ref="G24" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId116"/>
+    <hyperlink ref="A25" display="Pull.png" r:id="rId117"/>
+    <hyperlink ref="B25" display=".png" r:id="rId118"/>
+    <hyperlink ref="D25" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId119"/>
+    <hyperlink ref="F25" display="Pull.png" r:id="rId120"/>
+    <hyperlink ref="G25" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId121"/>
+    <hyperlink ref="A26" display="Push.png" r:id="rId122"/>
     <hyperlink ref="B26" display=".png" r:id="rId123"/>
-    <hyperlink ref="D26" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId124"/>
-    <hyperlink ref="F26" display="Pull.png" r:id="rId125"/>
-    <hyperlink ref="G26" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId126"/>
-    <hyperlink ref="A27" display="Push.png" r:id="rId127"/>
-    <hyperlink ref="B27" display=".png" r:id="rId128"/>
-    <hyperlink ref="D27" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId129"/>
-    <hyperlink ref="F27" display="Push.png" r:id="rId130"/>
-    <hyperlink ref="G27" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId131"/>
-    <hyperlink ref="A28" display="lnxArchiveResource.md" r:id="rId132"/>
+    <hyperlink ref="D26" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId124"/>
+    <hyperlink ref="F26" display="Push.png" r:id="rId125"/>
+    <hyperlink ref="G26" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId126"/>
+    <hyperlink ref="A27" display="lnxArchiveResource.md" r:id="rId127"/>
+    <hyperlink ref="B27" display=".md" r:id="rId128"/>
+    <hyperlink ref="D27" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId129"/>
+    <hyperlink ref="F27" display="lnxArchiveResource.md" r:id="rId130"/>
+    <hyperlink ref="G27" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId131"/>
+    <hyperlink ref="A28" display="lnxBuiltInResources.md" r:id="rId132"/>
     <hyperlink ref="B28" display=".md" r:id="rId133"/>
-    <hyperlink ref="D28" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId134"/>
-    <hyperlink ref="F28" display="lnxArchiveResource.md" r:id="rId135"/>
-    <hyperlink ref="G28" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId136"/>
-    <hyperlink ref="A29" display="lnxBuiltInResources.md" r:id="rId137"/>
+    <hyperlink ref="D28" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId134"/>
+    <hyperlink ref="F28" display="lnxBuiltInResources.md" r:id="rId135"/>
+    <hyperlink ref="G28" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId136"/>
+    <hyperlink ref="A29" display="lnxEnvironmentResource.md" r:id="rId137"/>
     <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId139"/>
-    <hyperlink ref="F29" display="lnxBuiltInResources.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId141"/>
-    <hyperlink ref="A30" display="lnxEnvironmentResource.md" r:id="rId142"/>
+    <hyperlink ref="D29" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId139"/>
+    <hyperlink ref="F29" display="lnxEnvironmentResource.md" r:id="rId140"/>
+    <hyperlink ref="G29" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId141"/>
+    <hyperlink ref="A30" display="lnxFileResource.md" r:id="rId142"/>
     <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId144"/>
-    <hyperlink ref="F30" display="lnxEnvironmentResource.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId146"/>
-    <hyperlink ref="A31" display="lnxFileLineResource.md" r:id="rId147"/>
+    <hyperlink ref="D30" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId144"/>
+    <hyperlink ref="F30" display="lnxFileResource.md" r:id="rId145"/>
+    <hyperlink ref="G30" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId146"/>
+    <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId149"/>
-    <hyperlink ref="F31" display="lnxFileLineResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId151"/>
-    <hyperlink ref="A32" display="lnxFileResource.md" r:id="rId152"/>
+    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="lnxGroupResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId152"/>
     <hyperlink ref="B32" display=".md" r:id="rId153"/>
-    <hyperlink ref="D32" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId154"/>
-    <hyperlink ref="F32" display="lnxFileResource.md" r:id="rId155"/>
-    <hyperlink ref="G32" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId156"/>
-    <hyperlink ref="A33" display="lnxGroupResource.md" r:id="rId157"/>
+    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="lnxPackageResource.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId157"/>
     <hyperlink ref="B33" display=".md" r:id="rId158"/>
-    <hyperlink ref="D33" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId159"/>
-    <hyperlink ref="F33" display="lnxGroupResource.md" r:id="rId160"/>
-    <hyperlink ref="G33" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId161"/>
-    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId162"/>
+    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="lnxScriptResource.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="lnxSshAuthorizedKeysResource.md" r:id="rId162"/>
     <hyperlink ref="B34" display=".md" r:id="rId163"/>
-    <hyperlink ref="D34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId164"/>
-    <hyperlink ref="F34" display="lnxPackageResource.md" r:id="rId165"/>
-    <hyperlink ref="G34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId166"/>
-    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId167"/>
+    <hyperlink ref="D34" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="lnxSshAuthorizedKeysResource.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="logResource.md" r:id="rId167"/>
     <hyperlink ref="B35" display=".md" r:id="rId168"/>
-    <hyperlink ref="D35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId169"/>
-    <hyperlink ref="F35" display="lnxScriptResource.md" r:id="rId170"/>
-    <hyperlink ref="G35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId171"/>
-    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId172"/>
+    <hyperlink ref="D35" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="logResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="metaConfig.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId174"/>
-    <hyperlink ref="F36" display="lnxServiceResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId176"/>
-    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId177"/>
+    <hyperlink ref="D36" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="metaConfig.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="metaConfig4.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId179"/>
-    <hyperlink ref="F37" display="lnxSshAuthorizedKeysResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId181"/>
-    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId182"/>
+    <hyperlink ref="D37" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="metaConfig4.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="overview.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId184"/>
-    <hyperlink ref="F38" display="lnxUserResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId186"/>
-    <hyperlink ref="A39" display="logResource.md" r:id="rId187"/>
+    <hyperlink ref="D38" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="overview.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="packageResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId189"/>
-    <hyperlink ref="F39" display="logResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId191"/>
-    <hyperlink ref="A40" display="metaConfig.md" r:id="rId192"/>
+    <hyperlink ref="D39" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="packageResource.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="partialConfigs.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId194"/>
-    <hyperlink ref="F40" display="metaConfig.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId196"/>
-    <hyperlink ref="A41" display="metaConfig4.md" r:id="rId197"/>
+    <hyperlink ref="D40" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="partialConfigs.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="pullClient.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId199"/>
-    <hyperlink ref="F41" display="metaConfig4.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId201"/>
-    <hyperlink ref="A42" display="overview.md" r:id="rId202"/>
+    <hyperlink ref="D41" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="pullClient.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="pullClientConfigID.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId204"/>
-    <hyperlink ref="F42" display="overview.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId206"/>
-    <hyperlink ref="A43" display="packageResource.md" r:id="rId207"/>
+    <hyperlink ref="D42" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="pullClientConfigID.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId209"/>
-    <hyperlink ref="F43" display="packageResource.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId211"/>
-    <hyperlink ref="A44" display="partialConfigs.md" r:id="rId212"/>
+    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="queryServerNodes.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="reportServer.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId214"/>
-    <hyperlink ref="F44" display="partialConfigs.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId216"/>
-    <hyperlink ref="A45" display="pullClient.md" r:id="rId217"/>
+    <hyperlink ref="D44" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="reportServer.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="resources.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId219"/>
-    <hyperlink ref="F45" display="pullClient.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId221"/>
-    <hyperlink ref="A46" display="pullClientConfigID.md" r:id="rId222"/>
+    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="resources.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="scriptResource.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId224"/>
-    <hyperlink ref="F46" display="pullClientConfigID.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId226"/>
-    <hyperlink ref="A47" display="queryServerNodes.md" r:id="rId227"/>
+    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="scriptResource.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="secureServer.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId229"/>
-    <hyperlink ref="F47" display="queryServerNodes.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId231"/>
-    <hyperlink ref="A48" display="registryResource.md" r:id="rId232"/>
+    <hyperlink ref="D47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="secureServer.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId231"/>
+    <hyperlink ref="A48" display="serviceResource.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId234"/>
-    <hyperlink ref="F48" display="registryResource.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId236"/>
-    <hyperlink ref="A49" display="reportServer.md" r:id="rId237"/>
+    <hyperlink ref="D48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId234"/>
+    <hyperlink ref="F48" display="serviceResource.md" r:id="rId235"/>
+    <hyperlink ref="G48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="userResource.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId239"/>
-    <hyperlink ref="F49" display="reportServer.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId241"/>
-    <hyperlink ref="A50" display="scriptResource.md" r:id="rId242"/>
+    <hyperlink ref="D49" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="userResource.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId241"/>
+    <hyperlink ref="A50" display="windowsfeatureResource.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId244"/>
-    <hyperlink ref="F50" display="scriptResource.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId246"/>
-    <hyperlink ref="A51" display="secureServer.md" r:id="rId247"/>
+    <hyperlink ref="D50" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId244"/>
+    <hyperlink ref="F50" display="windowsfeatureResource.md" r:id="rId245"/>
+    <hyperlink ref="G50" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId246"/>
+    <hyperlink ref="A51" display="windowsProcessResource.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId249"/>
-    <hyperlink ref="F51" display="secureServer.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId251"/>
-    <hyperlink ref="A52" display="serviceResource.md" r:id="rId252"/>
-    <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId254"/>
-    <hyperlink ref="F52" display="serviceResource.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId256"/>
-    <hyperlink ref="A53" display="userResource.md" r:id="rId257"/>
-    <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId259"/>
-    <hyperlink ref="F53" display="userResource.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId261"/>
-    <hyperlink ref="A54" display="windowsfeatureResource.md" r:id="rId262"/>
-    <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId264"/>
-    <hyperlink ref="F54" display="windowsfeatureResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId266"/>
-    <hyperlink ref="A55" display="windowsProcessResource.md" r:id="rId267"/>
-    <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId269"/>
-    <hyperlink ref="F55" display="windowsProcessResource.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId271"/>
+    <hyperlink ref="D51" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId249"/>
+    <hyperlink ref="F51" display="windowsProcessResource.md" r:id="rId250"/>
+    <hyperlink ref="G51" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId251"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>File Name</t>
   </si>
@@ -30,6 +30,9 @@
     <t>debugResource.md</t>
   </si>
   <si>
+    <t>decisionMaker.md</t>
+  </si>
+  <si>
     <t>gettingStarted.md</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>authoringResource.md</t>
+  </si>
+  <si>
     <t>authoringResourceClass.md</t>
   </si>
   <si>
@@ -81,9 +87,15 @@
     <t>configDataCredentials.md</t>
   </si>
   <si>
+    <t>configurations.md</t>
+  </si>
+  <si>
     <t>enactingConfigurations.md</t>
   </si>
   <si>
+    <t>environmentResource.md</t>
+  </si>
+  <si>
     <t>fileResource.md</t>
   </si>
   <si>
@@ -111,6 +123,9 @@
     <t>lnxEnvironmentResource.md</t>
   </si>
   <si>
+    <t>lnxFileLineResource.md</t>
+  </si>
+  <si>
     <t>lnxFileResource.md</t>
   </si>
   <si>
@@ -123,9 +138,15 @@
     <t>lnxScriptResource.md</t>
   </si>
   <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
     <t>lnxSshAuthorizedKeysResource.md</t>
   </si>
   <si>
+    <t>lnxUserResource.md</t>
+  </si>
+  <si>
     <t>logResource.md</t>
   </si>
   <si>
@@ -153,6 +174,9 @@
     <t>queryServerNodes.md</t>
   </si>
   <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
     <t>reportServer.md</t>
   </si>
   <si>
@@ -228,6 +252,12 @@
     <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf</t>
   </si>
   <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-22 17:02:44</t>
+  </si>
+  <si>
     <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf</t>
   </si>
   <si>
@@ -255,6 +285,9 @@
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
   </si>
   <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
+  </si>
+  <si>
     <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
   </si>
   <si>
@@ -279,9 +312,15 @@
     <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf</t>
   </si>
   <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf</t>
+  </si>
+  <si>
     <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf</t>
   </si>
   <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf</t>
+  </si>
+  <si>
     <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf</t>
   </si>
   <si>
@@ -324,6 +363,9 @@
     <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf</t>
   </si>
   <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf</t>
+  </si>
+  <si>
     <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf</t>
   </si>
   <si>
@@ -336,9 +378,15 @@
     <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf</t>
   </si>
   <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf</t>
+  </si>
+  <si>
     <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf</t>
   </si>
   <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf</t>
+  </si>
+  <si>
     <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf</t>
   </si>
   <si>
@@ -364,6 +412,9 @@
   </si>
   <si>
     <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf</t>
   </si>
   <si>
     <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf</t>
@@ -476,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,15 +630,15 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -595,7 +646,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -603,7 +654,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -611,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -619,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -627,7 +678,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -635,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -643,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -651,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -659,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -667,7 +718,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -675,7 +726,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +734,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -691,7 +742,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -699,7 +750,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +758,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -715,7 +766,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -723,7 +774,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -731,7 +782,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -739,7 +790,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -747,7 +798,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -755,7 +806,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -763,7 +814,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -771,7 +822,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -779,7 +830,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -787,7 +838,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -795,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -803,7 +854,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -811,7 +862,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -819,7 +870,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -827,7 +878,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -835,7 +886,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -843,7 +894,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -851,7 +902,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -859,7 +910,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -867,7 +918,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -875,7 +926,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -883,7 +934,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -891,61 +942,133 @@
         <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="gettingStarted.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="lnxGettingStarted.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="pullClientConfigID4.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="pullClientConfigNames.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="pullServer.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="secureMOF.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="TOC.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="troubleshooting.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="archiveResource.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="authoringResourceClass.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="authoringResourceComposite.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="authoringResourceMOF.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="authoringResourceMofCS.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="authoringResourceMofDesigner.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="configData.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="configDataCredentials.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="enactingConfigurations.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="fileResource.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="groupResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="PartialConfig1.jpg" r:id="rId23"/>
-    <hyperlink ref="A24" display="PartialConfigPullServer.jpg" r:id="rId24"/>
-    <hyperlink ref="A25" display="Pull.png" r:id="rId25"/>
-    <hyperlink ref="A26" display="Push.png" r:id="rId26"/>
-    <hyperlink ref="A27" display="lnxArchiveResource.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="lnxBuiltInResources.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="lnxEnvironmentResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="lnxFileResource.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="lnxSshAuthorizedKeysResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="logResource.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="metaConfig.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="metaConfig4.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="overview.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="packageResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="partialConfigs.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="pullClient.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="pullClientConfigID.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="reportServer.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="secureServer.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="serviceResource.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="userResource.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="windowsfeatureResource.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="windowsProcessResource.md" r:id="rId51"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="pullServer.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="secureMOF.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="TOC.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="troubleshooting.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="archiveResource.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="authoringResource.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="configData.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="configurations.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="environmentResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="fileResource.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="groupResource.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId27"/>
+    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId28"/>
+    <hyperlink ref="A29" display="Pull.png" r:id="rId29"/>
+    <hyperlink ref="A30" display="Push.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="logResource.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="metaConfig.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="overview.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="packageResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="pullClient.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="reportServer.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -956,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -977,37 +1100,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1015,28 +1138,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1044,28 +1167,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1073,28 +1196,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1102,28 +1225,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1131,28 +1254,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1160,28 +1283,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -1189,28 +1312,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -1218,28 +1341,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -1247,28 +1370,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1276,28 +1399,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1305,57 +1428,57 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1363,28 +1486,28 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -1392,28 +1515,28 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1421,28 +1544,28 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -1450,28 +1573,28 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -1479,28 +1602,28 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -1508,28 +1631,28 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -1537,28 +1660,28 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -1566,28 +1689,28 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1595,28 +1718,28 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -1624,28 +1747,28 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -1653,28 +1776,28 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -1682,28 +1805,28 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -1711,28 +1834,28 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -1740,28 +1863,28 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -1769,28 +1892,28 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -1798,28 +1921,28 @@
         <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -1827,28 +1950,28 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -1856,28 +1979,28 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -1885,28 +2008,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -1914,28 +2037,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -1943,28 +2066,28 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -1972,28 +2095,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -2001,28 +2124,28 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -2030,28 +2153,28 @@
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -2059,28 +2182,28 @@
         <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -2088,28 +2211,28 @@
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -2117,28 +2240,28 @@
         <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -2146,28 +2269,28 @@
         <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
@@ -2175,28 +2298,28 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -2204,28 +2327,28 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -2233,28 +2356,28 @@
         <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -2262,28 +2385,28 @@
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -2291,28 +2414,28 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -2320,28 +2443,28 @@
         <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
@@ -2349,28 +2472,28 @@
         <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -2378,28 +2501,28 @@
         <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -2407,28 +2530,28 @@
         <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -2436,28 +2559,260 @@
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2472,246 +2827,286 @@
     <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
     <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId11"/>
-    <hyperlink ref="A4" display="gettingStarted.md" r:id="rId12"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId14"/>
-    <hyperlink ref="F4" display="gettingStarted.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId16"/>
-    <hyperlink ref="A5" display="lnxGettingStarted.md" r:id="rId17"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId19"/>
-    <hyperlink ref="F5" display="lnxGettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId21"/>
-    <hyperlink ref="A6" display="pullClientConfigID4.md" r:id="rId22"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId19"/>
+    <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId21"/>
+    <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId24"/>
-    <hyperlink ref="F6" display="pullClientConfigID4.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId26"/>
-    <hyperlink ref="A7" display="pullClientConfigNames.md" r:id="rId27"/>
+    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId24"/>
+    <hyperlink ref="F6" display="lnxGettingStarted.md" r:id="rId25"/>
+    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId26"/>
+    <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId29"/>
-    <hyperlink ref="F7" display="pullClientConfigNames.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId31"/>
-    <hyperlink ref="A8" display="pullServer.md" r:id="rId32"/>
+    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId29"/>
+    <hyperlink ref="F7" display="pullClientConfigID4.md" r:id="rId30"/>
+    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId31"/>
+    <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId34"/>
-    <hyperlink ref="F8" display="pullServer.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId36"/>
-    <hyperlink ref="A9" display="secureMOF.md" r:id="rId37"/>
+    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId34"/>
+    <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId35"/>
+    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId36"/>
+    <hyperlink ref="A9" display="pullServer.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId39"/>
-    <hyperlink ref="F9" display="secureMOF.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId41"/>
-    <hyperlink ref="A10" display="TOC.md" r:id="rId42"/>
+    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="pullServer.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="secureMOF.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId44"/>
-    <hyperlink ref="F10" display="TOC.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId46"/>
-    <hyperlink ref="A11" display="troubleshooting.md" r:id="rId47"/>
+    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="secureMOF.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="TOC.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId49"/>
-    <hyperlink ref="F11" display="troubleshooting.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId51"/>
-    <hyperlink ref="A12" display="archiveResource.md" r:id="rId52"/>
+    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId49"/>
+    <hyperlink ref="F11" display="TOC.md" r:id="rId50"/>
+    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId51"/>
+    <hyperlink ref="A12" display="troubleshooting.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId54"/>
-    <hyperlink ref="F12" display="archiveResource.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId56"/>
-    <hyperlink ref="A13" display="authoringResourceClass.md" r:id="rId57"/>
+    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId54"/>
+    <hyperlink ref="F12" display="troubleshooting.md" r:id="rId55"/>
+    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId56"/>
+    <hyperlink ref="A13" display="archiveResource.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId59"/>
-    <hyperlink ref="F13" display="authoringResourceClass.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId61"/>
-    <hyperlink ref="A14" display="authoringResourceComposite.md" r:id="rId62"/>
+    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId59"/>
+    <hyperlink ref="F13" display="archiveResource.md" r:id="rId60"/>
+    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId61"/>
+    <hyperlink ref="A14" display="authoringResource.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId64"/>
-    <hyperlink ref="F14" display="authoringResourceComposite.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId66"/>
-    <hyperlink ref="A15" display="authoringResourceMOF.md" r:id="rId67"/>
+    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId64"/>
+    <hyperlink ref="F14" display="authoringResource.md" r:id="rId65"/>
+    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId66"/>
+    <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId69"/>
-    <hyperlink ref="F15" display="authoringResourceMOF.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId71"/>
-    <hyperlink ref="A16" display="authoringResourceMofCS.md" r:id="rId72"/>
+    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId69"/>
+    <hyperlink ref="F15" display="authoringResourceClass.md" r:id="rId70"/>
+    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId71"/>
+    <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId74"/>
-    <hyperlink ref="F16" display="authoringResourceMofCS.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId76"/>
-    <hyperlink ref="A17" display="authoringResourceMofDesigner.md" r:id="rId77"/>
+    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId74"/>
+    <hyperlink ref="F16" display="authoringResourceComposite.md" r:id="rId75"/>
+    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId76"/>
+    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId79"/>
-    <hyperlink ref="F17" display="authoringResourceMofDesigner.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId81"/>
-    <hyperlink ref="A18" display="configData.md" r:id="rId82"/>
+    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId79"/>
+    <hyperlink ref="F17" display="authoringResourceMOF.md" r:id="rId80"/>
+    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId81"/>
+    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId84"/>
-    <hyperlink ref="F18" display="configData.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId86"/>
-    <hyperlink ref="A19" display="configDataCredentials.md" r:id="rId87"/>
+    <hyperlink ref="D18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId84"/>
+    <hyperlink ref="F18" display="authoringResourceMofCS.md" r:id="rId85"/>
+    <hyperlink ref="G18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId89"/>
-    <hyperlink ref="F19" display="configDataCredentials.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId91"/>
-    <hyperlink ref="A20" display="enactingConfigurations.md" r:id="rId92"/>
+    <hyperlink ref="D19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="authoringResourceMofDesigner.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="configData.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId94"/>
-    <hyperlink ref="F20" display="enactingConfigurations.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId96"/>
-    <hyperlink ref="A21" display="fileResource.md" r:id="rId97"/>
+    <hyperlink ref="D20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="configData.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId99"/>
-    <hyperlink ref="F21" display="fileResource.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId101"/>
-    <hyperlink ref="A22" display="groupResource.md" r:id="rId102"/>
+    <hyperlink ref="D21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="configDataCredentials.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="configurations.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId104"/>
-    <hyperlink ref="F22" display="groupResource.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId106"/>
-    <hyperlink ref="A23" display="PartialConfig1.jpg" r:id="rId107"/>
-    <hyperlink ref="B23" display=".jpg" r:id="rId108"/>
-    <hyperlink ref="D23" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId109"/>
-    <hyperlink ref="F23" display="PartialConfig1.jpg" r:id="rId110"/>
-    <hyperlink ref="G23" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId111"/>
-    <hyperlink ref="A24" display="PartialConfigPullServer.jpg" r:id="rId112"/>
-    <hyperlink ref="B24" display=".jpg" r:id="rId113"/>
-    <hyperlink ref="D24" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId114"/>
-    <hyperlink ref="F24" display="PartialConfigPullServer.jpg" r:id="rId115"/>
-    <hyperlink ref="G24" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId116"/>
-    <hyperlink ref="A25" display="Pull.png" r:id="rId117"/>
-    <hyperlink ref="B25" display=".png" r:id="rId118"/>
-    <hyperlink ref="D25" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId119"/>
-    <hyperlink ref="F25" display="Pull.png" r:id="rId120"/>
-    <hyperlink ref="G25" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId121"/>
-    <hyperlink ref="A26" display="Push.png" r:id="rId122"/>
-    <hyperlink ref="B26" display=".png" r:id="rId123"/>
-    <hyperlink ref="D26" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId124"/>
-    <hyperlink ref="F26" display="Push.png" r:id="rId125"/>
-    <hyperlink ref="G26" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId126"/>
-    <hyperlink ref="A27" display="lnxArchiveResource.md" r:id="rId127"/>
-    <hyperlink ref="B27" display=".md" r:id="rId128"/>
-    <hyperlink ref="D27" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId129"/>
-    <hyperlink ref="F27" display="lnxArchiveResource.md" r:id="rId130"/>
-    <hyperlink ref="G27" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId131"/>
-    <hyperlink ref="A28" display="lnxBuiltInResources.md" r:id="rId132"/>
-    <hyperlink ref="B28" display=".md" r:id="rId133"/>
-    <hyperlink ref="D28" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId134"/>
-    <hyperlink ref="F28" display="lnxBuiltInResources.md" r:id="rId135"/>
-    <hyperlink ref="G28" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId136"/>
-    <hyperlink ref="A29" display="lnxEnvironmentResource.md" r:id="rId137"/>
-    <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId139"/>
-    <hyperlink ref="F29" display="lnxEnvironmentResource.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId141"/>
-    <hyperlink ref="A30" display="lnxFileResource.md" r:id="rId142"/>
-    <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId144"/>
-    <hyperlink ref="F30" display="lnxFileResource.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId146"/>
-    <hyperlink ref="A31" display="lnxGroupResource.md" r:id="rId147"/>
+    <hyperlink ref="D22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="configurations.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId107"/>
+    <hyperlink ref="B23" display=".md" r:id="rId108"/>
+    <hyperlink ref="D23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="enactingConfigurations.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="environmentResource.md" r:id="rId112"/>
+    <hyperlink ref="B24" display=".md" r:id="rId113"/>
+    <hyperlink ref="D24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="environmentResource.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="fileResource.md" r:id="rId117"/>
+    <hyperlink ref="B25" display=".md" r:id="rId118"/>
+    <hyperlink ref="D25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId119"/>
+    <hyperlink ref="F25" display="fileResource.md" r:id="rId120"/>
+    <hyperlink ref="G25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId121"/>
+    <hyperlink ref="A26" display="groupResource.md" r:id="rId122"/>
+    <hyperlink ref="B26" display=".md" r:id="rId123"/>
+    <hyperlink ref="D26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId124"/>
+    <hyperlink ref="F26" display="groupResource.md" r:id="rId125"/>
+    <hyperlink ref="G26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId126"/>
+    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId127"/>
+    <hyperlink ref="B27" display=".jpg" r:id="rId128"/>
+    <hyperlink ref="D27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId129"/>
+    <hyperlink ref="F27" display="PartialConfig1.jpg" r:id="rId130"/>
+    <hyperlink ref="G27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId131"/>
+    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId132"/>
+    <hyperlink ref="B28" display=".jpg" r:id="rId133"/>
+    <hyperlink ref="D28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId134"/>
+    <hyperlink ref="F28" display="PartialConfigPullServer.jpg" r:id="rId135"/>
+    <hyperlink ref="G28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId136"/>
+    <hyperlink ref="A29" display="Pull.png" r:id="rId137"/>
+    <hyperlink ref="B29" display=".png" r:id="rId138"/>
+    <hyperlink ref="D29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId139"/>
+    <hyperlink ref="F29" display="Pull.png" r:id="rId140"/>
+    <hyperlink ref="G29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId141"/>
+    <hyperlink ref="A30" display="Push.png" r:id="rId142"/>
+    <hyperlink ref="B30" display=".png" r:id="rId143"/>
+    <hyperlink ref="D30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId144"/>
+    <hyperlink ref="F30" display="Push.png" r:id="rId145"/>
+    <hyperlink ref="G30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId146"/>
+    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId149"/>
-    <hyperlink ref="F31" display="lnxGroupResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId151"/>
-    <hyperlink ref="A32" display="lnxPackageResource.md" r:id="rId152"/>
+    <hyperlink ref="D31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="lnxArchiveResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId152"/>
     <hyperlink ref="B32" display=".md" r:id="rId153"/>
-    <hyperlink ref="D32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId154"/>
-    <hyperlink ref="F32" display="lnxPackageResource.md" r:id="rId155"/>
-    <hyperlink ref="G32" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId156"/>
-    <hyperlink ref="A33" display="lnxScriptResource.md" r:id="rId157"/>
+    <hyperlink ref="D32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="lnxBuiltInResources.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId157"/>
     <hyperlink ref="B33" display=".md" r:id="rId158"/>
-    <hyperlink ref="D33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId159"/>
-    <hyperlink ref="F33" display="lnxScriptResource.md" r:id="rId160"/>
-    <hyperlink ref="G33" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId161"/>
-    <hyperlink ref="A34" display="lnxSshAuthorizedKeysResource.md" r:id="rId162"/>
+    <hyperlink ref="D33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="lnxEnvironmentResource.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId162"/>
     <hyperlink ref="B34" display=".md" r:id="rId163"/>
-    <hyperlink ref="D34" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId164"/>
-    <hyperlink ref="F34" display="lnxSshAuthorizedKeysResource.md" r:id="rId165"/>
-    <hyperlink ref="G34" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId166"/>
-    <hyperlink ref="A35" display="logResource.md" r:id="rId167"/>
+    <hyperlink ref="D34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="lnxFileLineResource.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId167"/>
     <hyperlink ref="B35" display=".md" r:id="rId168"/>
-    <hyperlink ref="D35" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId169"/>
-    <hyperlink ref="F35" display="logResource.md" r:id="rId170"/>
-    <hyperlink ref="G35" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId171"/>
-    <hyperlink ref="A36" display="metaConfig.md" r:id="rId172"/>
+    <hyperlink ref="D35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="lnxFileResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId174"/>
-    <hyperlink ref="F36" display="metaConfig.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId176"/>
-    <hyperlink ref="A37" display="metaConfig4.md" r:id="rId177"/>
+    <hyperlink ref="D36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="lnxGroupResource.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId179"/>
-    <hyperlink ref="F37" display="metaConfig4.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId181"/>
-    <hyperlink ref="A38" display="overview.md" r:id="rId182"/>
+    <hyperlink ref="D37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="lnxPackageResource.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId184"/>
-    <hyperlink ref="F38" display="overview.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId186"/>
-    <hyperlink ref="A39" display="packageResource.md" r:id="rId187"/>
+    <hyperlink ref="D38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="lnxScriptResource.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId189"/>
-    <hyperlink ref="F39" display="packageResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId191"/>
-    <hyperlink ref="A40" display="partialConfigs.md" r:id="rId192"/>
+    <hyperlink ref="D39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="lnxServiceResource.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId194"/>
-    <hyperlink ref="F40" display="partialConfigs.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId196"/>
-    <hyperlink ref="A41" display="pullClient.md" r:id="rId197"/>
+    <hyperlink ref="D40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="lnxSshAuthorizedKeysResource.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId199"/>
-    <hyperlink ref="F41" display="pullClient.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId201"/>
-    <hyperlink ref="A42" display="pullClientConfigID.md" r:id="rId202"/>
+    <hyperlink ref="D41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="lnxUserResource.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="logResource.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId204"/>
-    <hyperlink ref="F42" display="pullClientConfigID.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId206"/>
-    <hyperlink ref="A43" display="queryServerNodes.md" r:id="rId207"/>
+    <hyperlink ref="D42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="logResource.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="metaConfig.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId209"/>
-    <hyperlink ref="F43" display="queryServerNodes.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId211"/>
-    <hyperlink ref="A44" display="reportServer.md" r:id="rId212"/>
+    <hyperlink ref="D43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="metaConfig.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId214"/>
-    <hyperlink ref="F44" display="reportServer.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId216"/>
-    <hyperlink ref="A45" display="resources.md" r:id="rId217"/>
+    <hyperlink ref="D44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="metaConfig4.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="overview.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId219"/>
-    <hyperlink ref="F45" display="resources.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId221"/>
-    <hyperlink ref="A46" display="scriptResource.md" r:id="rId222"/>
+    <hyperlink ref="D45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="overview.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="packageResource.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId224"/>
-    <hyperlink ref="F46" display="scriptResource.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId226"/>
-    <hyperlink ref="A47" display="secureServer.md" r:id="rId227"/>
+    <hyperlink ref="D46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="packageResource.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId229"/>
-    <hyperlink ref="F47" display="secureServer.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId231"/>
-    <hyperlink ref="A48" display="serviceResource.md" r:id="rId232"/>
+    <hyperlink ref="D47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="partialConfigs.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId231"/>
+    <hyperlink ref="A48" display="pullClient.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId234"/>
-    <hyperlink ref="F48" display="serviceResource.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId236"/>
-    <hyperlink ref="A49" display="userResource.md" r:id="rId237"/>
+    <hyperlink ref="D48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId234"/>
+    <hyperlink ref="F48" display="pullClient.md" r:id="rId235"/>
+    <hyperlink ref="G48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId239"/>
-    <hyperlink ref="F49" display="userResource.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId241"/>
-    <hyperlink ref="A50" display="windowsfeatureResource.md" r:id="rId242"/>
+    <hyperlink ref="D49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="pullClientConfigID.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId241"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId244"/>
-    <hyperlink ref="F50" display="windowsfeatureResource.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId246"/>
-    <hyperlink ref="A51" display="windowsProcessResource.md" r:id="rId247"/>
+    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId244"/>
+    <hyperlink ref="F50" display="queryServerNodes.md" r:id="rId245"/>
+    <hyperlink ref="G50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId246"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId249"/>
-    <hyperlink ref="F51" display="windowsProcessResource.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId251"/>
+    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId249"/>
+    <hyperlink ref="F51" display="registryResource.md" r:id="rId250"/>
+    <hyperlink ref="G51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId251"/>
+    <hyperlink ref="A52" display="reportServer.md" r:id="rId252"/>
+    <hyperlink ref="B52" display=".md" r:id="rId253"/>
+    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId254"/>
+    <hyperlink ref="F52" display="reportServer.md" r:id="rId255"/>
+    <hyperlink ref="G52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId256"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
+    <hyperlink ref="B53" display=".md" r:id="rId258"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId259"/>
+    <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId261"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
+    <hyperlink ref="B54" display=".md" r:id="rId263"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId264"/>
+    <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId266"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
+    <hyperlink ref="B55" display=".md" r:id="rId268"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId269"/>
+    <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId271"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
+    <hyperlink ref="B56" display=".md" r:id="rId273"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId274"/>
+    <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId276"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
+    <hyperlink ref="B57" display=".md" r:id="rId278"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId279"/>
+    <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId281"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
+    <hyperlink ref="B58" display=".md" r:id="rId283"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId284"/>
+    <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId286"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
+    <hyperlink ref="B59" display=".md" r:id="rId288"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId289"/>
+    <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId291"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>fr-fr</t>
+    <t>de-de</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -72,18 +72,12 @@
     <t>authoringResourceComposite.md</t>
   </si>
   <si>
-    <t>authoringResourceMOF.md</t>
-  </si>
-  <si>
     <t>authoringResourceMofCS.md</t>
   </si>
   <si>
     <t>authoringResourceMofDesigner.md</t>
   </si>
   <si>
-    <t>configData.md</t>
-  </si>
-  <si>
     <t>configDataCredentials.md</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>lnxFileResource.md</t>
   </si>
   <si>
-    <t>lnxGroupResource.md</t>
-  </si>
-  <si>
     <t>lnxPackageResource.md</t>
   </si>
   <si>
@@ -198,9 +189,6 @@
     <t>windowsfeatureResource.md</t>
   </si>
   <si>
-    <t>windowsProcessResource.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -237,94 +225,91 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:38</t>
-  </si>
-  <si>
-    <t>2016-03-22 07:10:00</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:20</t>
+  </si>
+  <si>
+    <t>2016-03-22 17:21:05</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-22 17:02:44</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:52</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:14:51</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:11:44</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:44</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -333,10 +318,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:43</t>
-  </si>
-  <si>
-    <t>2016-03-17 17:12:56</t>
+    <t>2016-03-11 01:02:28</t>
+  </si>
+  <si>
+    <t>2016-03-17 02:07:40</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -354,91 +339,88 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 22:37:42</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -495,7 +477,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -518,7 +500,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="fr-fr"/>
+    <tableColumn id="2" name="de-de"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -527,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -974,38 +956,6 @@
         <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1026,49 +976,45 @@
     <hyperlink ref="A14" display="authoringResource.md" r:id="rId14"/>
     <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId15"/>
     <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="configData.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="configurations.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="environmentResource.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="fileResource.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="groupResource.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId27"/>
-    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId28"/>
-    <hyperlink ref="A29" display="Pull.png" r:id="rId29"/>
-    <hyperlink ref="A30" display="Push.png" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="logResource.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="metaConfig.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="overview.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="packageResource.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="pullClient.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="registryResource.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="reportServer.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="resources.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="scriptResource.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="secureServer.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="serviceResource.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="userResource.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId59"/>
+    <hyperlink ref="A17" display="authoringResourceMofCS.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="authoringResourceMofDesigner.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="configDataCredentials.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="configurations.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="environmentResource.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="fileResource.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="groupResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="PartialConfig1.jpg" r:id="rId25"/>
+    <hyperlink ref="A26" display="PartialConfigPullServer.jpg" r:id="rId26"/>
+    <hyperlink ref="A27" display="Pull.png" r:id="rId27"/>
+    <hyperlink ref="A28" display="Push.png" r:id="rId28"/>
+    <hyperlink ref="A29" display="lnxArchiveResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="lnxBuiltInResources.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="lnxEnvironmentResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="lnxFileLineResource.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="lnxFileResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="logResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="metaConfig.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="metaConfig4.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="overview.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="packageResource.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="partialConfigs.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="pullClient.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="pullClientConfigID.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="queryServerNodes.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="registryResource.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="reportServer.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="resources.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="scriptResource.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="secureServer.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="serviceResource.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="userResource.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId55"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1079,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1100,37 +1046,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1138,28 +1084,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1167,28 +1113,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -1196,28 +1142,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1225,28 +1171,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1254,28 +1200,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1283,28 +1229,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1312,28 +1258,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1341,28 +1287,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1370,28 +1316,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1399,28 +1345,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -1428,28 +1374,28 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -1457,28 +1403,28 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -1486,28 +1432,28 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -1515,28 +1461,28 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1544,28 +1490,28 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -1573,28 +1519,28 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -1602,28 +1548,28 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -1631,28 +1577,28 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -1660,28 +1606,28 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -1689,28 +1635,28 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -1718,28 +1664,28 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -1747,28 +1693,28 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -1776,28 +1722,28 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -1805,28 +1751,28 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="I25" s="0" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1834,28 +1780,28 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -1863,28 +1809,28 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -1892,28 +1838,28 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -1921,28 +1867,28 @@
         <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -1950,28 +1896,28 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -1979,28 +1925,28 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -2008,28 +1954,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -2037,28 +1983,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -2066,28 +2012,28 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
@@ -2095,28 +2041,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
@@ -2124,28 +2070,28 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -2153,28 +2099,28 @@
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
@@ -2182,28 +2128,28 @@
         <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -2211,28 +2157,28 @@
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -2240,28 +2186,28 @@
         <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -2269,28 +2215,28 @@
         <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
@@ -2298,28 +2244,28 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
@@ -2327,28 +2273,28 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -2356,28 +2302,28 @@
         <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
@@ -2385,28 +2331,28 @@
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
@@ -2414,28 +2360,28 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
@@ -2443,28 +2389,28 @@
         <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -2472,28 +2418,28 @@
         <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
@@ -2501,28 +2447,28 @@
         <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
@@ -2530,28 +2476,28 @@
         <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
@@ -2559,28 +2505,28 @@
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
@@ -2588,28 +2534,28 @@
         <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
@@ -2617,28 +2563,28 @@
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
@@ -2646,28 +2592,28 @@
         <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
@@ -2675,438 +2621,302 @@
         <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId6"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId6"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId9"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId11"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId14"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId14"/>
     <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId16"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId16"/>
     <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId19"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId19"/>
     <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId21"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId24"/>
     <hyperlink ref="F6" display="lnxGettingStarted.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId26"/>
+    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId26"/>
     <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId29"/>
+    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId29"/>
     <hyperlink ref="F7" display="pullClientConfigID4.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId31"/>
+    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId31"/>
     <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId34"/>
+    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId34"/>
     <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId36"/>
+    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId36"/>
     <hyperlink ref="A9" display="pullServer.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId39"/>
+    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId39"/>
     <hyperlink ref="F9" display="pullServer.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId41"/>
+    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId41"/>
     <hyperlink ref="A10" display="secureMOF.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId44"/>
+    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId44"/>
     <hyperlink ref="F10" display="secureMOF.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId46"/>
+    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId46"/>
     <hyperlink ref="A11" display="TOC.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId49"/>
+    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId49"/>
     <hyperlink ref="F11" display="TOC.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId51"/>
+    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId51"/>
     <hyperlink ref="A12" display="troubleshooting.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId54"/>
+    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId54"/>
     <hyperlink ref="F12" display="troubleshooting.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId56"/>
+    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId56"/>
     <hyperlink ref="A13" display="archiveResource.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId59"/>
+    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId59"/>
     <hyperlink ref="F13" display="archiveResource.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId61"/>
+    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId61"/>
     <hyperlink ref="A14" display="authoringResource.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId64"/>
+    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId64"/>
     <hyperlink ref="F14" display="authoringResource.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId66"/>
+    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId66"/>
     <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId69"/>
+    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId69"/>
     <hyperlink ref="F15" display="authoringResourceClass.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId71"/>
+    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId71"/>
     <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId74"/>
+    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId74"/>
     <hyperlink ref="F16" display="authoringResourceComposite.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId76"/>
-    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId77"/>
+    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId76"/>
+    <hyperlink ref="A17" display="authoringResourceMofCS.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId79"/>
-    <hyperlink ref="F17" display="authoringResourceMOF.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId81"/>
-    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId82"/>
+    <hyperlink ref="D17" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId79"/>
+    <hyperlink ref="F17" display="authoringResourceMofCS.md" r:id="rId80"/>
+    <hyperlink ref="G17" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId81"/>
+    <hyperlink ref="A18" display="authoringResourceMofDesigner.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId84"/>
-    <hyperlink ref="F18" display="authoringResourceMofCS.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId86"/>
-    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId87"/>
+    <hyperlink ref="D18" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId84"/>
+    <hyperlink ref="F18" display="authoringResourceMofDesigner.md" r:id="rId85"/>
+    <hyperlink ref="G18" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="configDataCredentials.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId89"/>
-    <hyperlink ref="F19" display="authoringResourceMofDesigner.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId91"/>
-    <hyperlink ref="A20" display="configData.md" r:id="rId92"/>
+    <hyperlink ref="D19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="configDataCredentials.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="configurations.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId94"/>
-    <hyperlink ref="F20" display="configData.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId96"/>
-    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId97"/>
+    <hyperlink ref="D20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="configurations.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId99"/>
-    <hyperlink ref="F21" display="configDataCredentials.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId101"/>
-    <hyperlink ref="A22" display="configurations.md" r:id="rId102"/>
+    <hyperlink ref="D21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="enactingConfigurations.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="environmentResource.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId104"/>
-    <hyperlink ref="F22" display="configurations.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId106"/>
-    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId107"/>
+    <hyperlink ref="D22" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="environmentResource.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="fileResource.md" r:id="rId107"/>
     <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId109"/>
-    <hyperlink ref="F23" display="enactingConfigurations.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId111"/>
-    <hyperlink ref="A24" display="environmentResource.md" r:id="rId112"/>
+    <hyperlink ref="D23" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="fileResource.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="groupResource.md" r:id="rId112"/>
     <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId114"/>
-    <hyperlink ref="F24" display="environmentResource.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId116"/>
-    <hyperlink ref="A25" display="fileResource.md" r:id="rId117"/>
-    <hyperlink ref="B25" display=".md" r:id="rId118"/>
-    <hyperlink ref="D25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId119"/>
-    <hyperlink ref="F25" display="fileResource.md" r:id="rId120"/>
-    <hyperlink ref="G25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId121"/>
-    <hyperlink ref="A26" display="groupResource.md" r:id="rId122"/>
-    <hyperlink ref="B26" display=".md" r:id="rId123"/>
-    <hyperlink ref="D26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId124"/>
-    <hyperlink ref="F26" display="groupResource.md" r:id="rId125"/>
-    <hyperlink ref="G26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId126"/>
-    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId127"/>
-    <hyperlink ref="B27" display=".jpg" r:id="rId128"/>
-    <hyperlink ref="D27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId129"/>
-    <hyperlink ref="F27" display="PartialConfig1.jpg" r:id="rId130"/>
-    <hyperlink ref="G27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId131"/>
-    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId132"/>
-    <hyperlink ref="B28" display=".jpg" r:id="rId133"/>
-    <hyperlink ref="D28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId134"/>
-    <hyperlink ref="F28" display="PartialConfigPullServer.jpg" r:id="rId135"/>
-    <hyperlink ref="G28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId136"/>
-    <hyperlink ref="A29" display="Pull.png" r:id="rId137"/>
-    <hyperlink ref="B29" display=".png" r:id="rId138"/>
-    <hyperlink ref="D29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId139"/>
-    <hyperlink ref="F29" display="Pull.png" r:id="rId140"/>
-    <hyperlink ref="G29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId141"/>
-    <hyperlink ref="A30" display="Push.png" r:id="rId142"/>
-    <hyperlink ref="B30" display=".png" r:id="rId143"/>
-    <hyperlink ref="D30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId144"/>
-    <hyperlink ref="F30" display="Push.png" r:id="rId145"/>
-    <hyperlink ref="G30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId146"/>
-    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId147"/>
+    <hyperlink ref="D24" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="groupResource.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="PartialConfig1.jpg" r:id="rId117"/>
+    <hyperlink ref="B25" display=".jpg" r:id="rId118"/>
+    <hyperlink ref="D25" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId119"/>
+    <hyperlink ref="F25" display="PartialConfig1.jpg" r:id="rId120"/>
+    <hyperlink ref="G25" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId121"/>
+    <hyperlink ref="A26" display="PartialConfigPullServer.jpg" r:id="rId122"/>
+    <hyperlink ref="B26" display=".jpg" r:id="rId123"/>
+    <hyperlink ref="D26" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId124"/>
+    <hyperlink ref="F26" display="PartialConfigPullServer.jpg" r:id="rId125"/>
+    <hyperlink ref="G26" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId126"/>
+    <hyperlink ref="A27" display="Pull.png" r:id="rId127"/>
+    <hyperlink ref="B27" display=".png" r:id="rId128"/>
+    <hyperlink ref="D27" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId129"/>
+    <hyperlink ref="F27" display="Pull.png" r:id="rId130"/>
+    <hyperlink ref="G27" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId131"/>
+    <hyperlink ref="A28" display="Push.png" r:id="rId132"/>
+    <hyperlink ref="B28" display=".png" r:id="rId133"/>
+    <hyperlink ref="D28" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId134"/>
+    <hyperlink ref="F28" display="Push.png" r:id="rId135"/>
+    <hyperlink ref="G28" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId136"/>
+    <hyperlink ref="A29" display="lnxArchiveResource.md" r:id="rId137"/>
+    <hyperlink ref="B29" display=".md" r:id="rId138"/>
+    <hyperlink ref="D29" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId139"/>
+    <hyperlink ref="F29" display="lnxArchiveResource.md" r:id="rId140"/>
+    <hyperlink ref="G29" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId141"/>
+    <hyperlink ref="A30" display="lnxBuiltInResources.md" r:id="rId142"/>
+    <hyperlink ref="B30" display=".md" r:id="rId143"/>
+    <hyperlink ref="D30" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId144"/>
+    <hyperlink ref="F30" display="lnxBuiltInResources.md" r:id="rId145"/>
+    <hyperlink ref="G30" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId146"/>
+    <hyperlink ref="A31" display="lnxEnvironmentResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId149"/>
-    <hyperlink ref="F31" display="lnxArchiveResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId151"/>
-    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId152"/>
+    <hyperlink ref="D31" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="lnxEnvironmentResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="lnxFileLineResource.md" r:id="rId152"/>
     <hyperlink ref="B32" display=".md" r:id="rId153"/>
-    <hyperlink ref="D32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId154"/>
-    <hyperlink ref="F32" display="lnxBuiltInResources.md" r:id="rId155"/>
-    <hyperlink ref="G32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId156"/>
-    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId157"/>
+    <hyperlink ref="D32" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="lnxFileLineResource.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="lnxFileResource.md" r:id="rId157"/>
     <hyperlink ref="B33" display=".md" r:id="rId158"/>
-    <hyperlink ref="D33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId159"/>
-    <hyperlink ref="F33" display="lnxEnvironmentResource.md" r:id="rId160"/>
-    <hyperlink ref="G33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId161"/>
-    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId162"/>
+    <hyperlink ref="D33" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="lnxFileResource.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId162"/>
     <hyperlink ref="B34" display=".md" r:id="rId163"/>
-    <hyperlink ref="D34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId164"/>
-    <hyperlink ref="F34" display="lnxFileLineResource.md" r:id="rId165"/>
-    <hyperlink ref="G34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId166"/>
-    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId167"/>
+    <hyperlink ref="D34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="lnxPackageResource.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId167"/>
     <hyperlink ref="B35" display=".md" r:id="rId168"/>
-    <hyperlink ref="D35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId169"/>
-    <hyperlink ref="F35" display="lnxFileResource.md" r:id="rId170"/>
-    <hyperlink ref="G35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId171"/>
-    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId172"/>
+    <hyperlink ref="D35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="lnxScriptResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId174"/>
-    <hyperlink ref="F36" display="lnxGroupResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId176"/>
-    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId177"/>
+    <hyperlink ref="D36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="lnxServiceResource.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId179"/>
-    <hyperlink ref="F37" display="lnxPackageResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId181"/>
-    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId182"/>
+    <hyperlink ref="D37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="lnxSshAuthorizedKeysResource.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId184"/>
-    <hyperlink ref="F38" display="lnxScriptResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId186"/>
-    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId187"/>
+    <hyperlink ref="D38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="lnxUserResource.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="logResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId189"/>
-    <hyperlink ref="F39" display="lnxServiceResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId191"/>
-    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId192"/>
+    <hyperlink ref="D39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="logResource.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="metaConfig.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId194"/>
-    <hyperlink ref="F40" display="lnxSshAuthorizedKeysResource.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId196"/>
-    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId197"/>
+    <hyperlink ref="D40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="metaConfig.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="metaConfig4.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId199"/>
-    <hyperlink ref="F41" display="lnxUserResource.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId201"/>
-    <hyperlink ref="A42" display="logResource.md" r:id="rId202"/>
+    <hyperlink ref="D41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="metaConfig4.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="overview.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId204"/>
-    <hyperlink ref="F42" display="logResource.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId206"/>
-    <hyperlink ref="A43" display="metaConfig.md" r:id="rId207"/>
+    <hyperlink ref="D42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="overview.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="packageResource.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId209"/>
-    <hyperlink ref="F43" display="metaConfig.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId211"/>
-    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId212"/>
+    <hyperlink ref="D43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="packageResource.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="partialConfigs.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId214"/>
-    <hyperlink ref="F44" display="metaConfig4.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId216"/>
-    <hyperlink ref="A45" display="overview.md" r:id="rId217"/>
+    <hyperlink ref="D44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="partialConfigs.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="pullClient.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId219"/>
-    <hyperlink ref="F45" display="overview.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId221"/>
-    <hyperlink ref="A46" display="packageResource.md" r:id="rId222"/>
+    <hyperlink ref="D45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="pullClient.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="pullClientConfigID.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId224"/>
-    <hyperlink ref="F46" display="packageResource.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId226"/>
-    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId227"/>
+    <hyperlink ref="D46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="pullClientConfigID.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="queryServerNodes.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId229"/>
-    <hyperlink ref="F47" display="partialConfigs.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId231"/>
-    <hyperlink ref="A48" display="pullClient.md" r:id="rId232"/>
+    <hyperlink ref="D47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="queryServerNodes.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId231"/>
+    <hyperlink ref="A48" display="registryResource.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId234"/>
-    <hyperlink ref="F48" display="pullClient.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId236"/>
-    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId237"/>
+    <hyperlink ref="D48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId234"/>
+    <hyperlink ref="F48" display="registryResource.md" r:id="rId235"/>
+    <hyperlink ref="G48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="reportServer.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId239"/>
-    <hyperlink ref="F49" display="pullClientConfigID.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId241"/>
-    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId242"/>
+    <hyperlink ref="D49" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="reportServer.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId241"/>
+    <hyperlink ref="A50" display="resources.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId244"/>
-    <hyperlink ref="F50" display="queryServerNodes.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId246"/>
-    <hyperlink ref="A51" display="registryResource.md" r:id="rId247"/>
+    <hyperlink ref="D50" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId244"/>
+    <hyperlink ref="F50" display="resources.md" r:id="rId245"/>
+    <hyperlink ref="G50" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId246"/>
+    <hyperlink ref="A51" display="scriptResource.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId249"/>
-    <hyperlink ref="F51" display="registryResource.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId251"/>
-    <hyperlink ref="A52" display="reportServer.md" r:id="rId252"/>
+    <hyperlink ref="D51" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId249"/>
+    <hyperlink ref="F51" display="scriptResource.md" r:id="rId250"/>
+    <hyperlink ref="G51" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId251"/>
+    <hyperlink ref="A52" display="secureServer.md" r:id="rId252"/>
     <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId254"/>
-    <hyperlink ref="F52" display="reportServer.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId256"/>
-    <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
+    <hyperlink ref="D52" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId254"/>
+    <hyperlink ref="F52" display="secureServer.md" r:id="rId255"/>
+    <hyperlink ref="G52" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId256"/>
+    <hyperlink ref="A53" display="serviceResource.md" r:id="rId257"/>
     <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId259"/>
-    <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId261"/>
-    <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
+    <hyperlink ref="D53" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId259"/>
+    <hyperlink ref="F53" display="serviceResource.md" r:id="rId260"/>
+    <hyperlink ref="G53" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId261"/>
+    <hyperlink ref="A54" display="userResource.md" r:id="rId262"/>
     <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId264"/>
-    <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId266"/>
-    <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
+    <hyperlink ref="D54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId264"/>
+    <hyperlink ref="F54" display="userResource.md" r:id="rId265"/>
+    <hyperlink ref="G54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId266"/>
+    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId267"/>
     <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId269"/>
-    <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId271"/>
-    <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
-    <hyperlink ref="B56" display=".md" r:id="rId273"/>
-    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId274"/>
-    <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
-    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId276"/>
-    <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
-    <hyperlink ref="B57" display=".md" r:id="rId278"/>
-    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId279"/>
-    <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
-    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId281"/>
-    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
-    <hyperlink ref="B58" display=".md" r:id="rId283"/>
-    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId284"/>
-    <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
-    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId286"/>
-    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
-    <hyperlink ref="B59" display=".md" r:id="rId288"/>
-    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId289"/>
-    <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
-    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId291"/>
+    <hyperlink ref="D55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId269"/>
+    <hyperlink ref="F55" display="windowsfeatureResource.md" r:id="rId270"/>
+    <hyperlink ref="G55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId271"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="es-es" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>es-es</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -72,12 +72,18 @@
     <t>authoringResourceComposite.md</t>
   </si>
   <si>
+    <t>authoringResourceMOF.md</t>
+  </si>
+  <si>
     <t>authoringResourceMofCS.md</t>
   </si>
   <si>
     <t>authoringResourceMofDesigner.md</t>
   </si>
   <si>
+    <t>configData.md</t>
+  </si>
+  <si>
     <t>configDataCredentials.md</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
     <t>lnxFileResource.md</t>
   </si>
   <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
     <t>lnxPackageResource.md</t>
   </si>
   <si>
@@ -189,6 +198,9 @@
     <t>windowsfeatureResource.md</t>
   </si>
   <si>
+    <t>windowsProcessResource.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -225,91 +237,91 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:20</t>
-  </si>
-  <si>
-    <t>2016-03-22 17:21:05</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:55</t>
+  </si>
+  <si>
+    <t>2016-03-22 17:36:49</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:14:51</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:11:44</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:44</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:43:56</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -318,10 +330,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:28</t>
-  </si>
-  <si>
-    <t>2016-03-17 02:07:40</t>
+    <t>2016-03-11 01:03:45</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:55:10</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -339,88 +351,91 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 22:37:42</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf</t>
   </si>
 </sst>
 </file>
@@ -477,7 +492,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="es-es" displayName="es_es" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -500,7 +515,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="de-de"/>
+    <tableColumn id="2" name="es-es"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -509,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -956,6 +971,38 @@
         <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -976,45 +1023,49 @@
     <hyperlink ref="A14" display="authoringResource.md" r:id="rId14"/>
     <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId15"/>
     <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="authoringResourceMofCS.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="authoringResourceMofDesigner.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="configDataCredentials.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="configurations.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="environmentResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="fileResource.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="groupResource.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="PartialConfig1.jpg" r:id="rId25"/>
-    <hyperlink ref="A26" display="PartialConfigPullServer.jpg" r:id="rId26"/>
-    <hyperlink ref="A27" display="Pull.png" r:id="rId27"/>
-    <hyperlink ref="A28" display="Push.png" r:id="rId28"/>
-    <hyperlink ref="A29" display="lnxArchiveResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="lnxBuiltInResources.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxEnvironmentResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="lnxFileLineResource.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="lnxFileResource.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="logResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="metaConfig.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="metaConfig4.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="overview.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="packageResource.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="partialConfigs.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="pullClient.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="pullClientConfigID.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="queryServerNodes.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="registryResource.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="reportServer.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="resources.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="scriptResource.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="secureServer.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="serviceResource.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="userResource.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId55"/>
+    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="configData.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="configurations.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="environmentResource.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="fileResource.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="groupResource.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId27"/>
+    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId28"/>
+    <hyperlink ref="A29" display="Pull.png" r:id="rId29"/>
+    <hyperlink ref="A30" display="Push.png" r:id="rId30"/>
+    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="logResource.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="metaConfig.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="overview.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="packageResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="pullClient.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="reportServer.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1025,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1046,37 +1097,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1084,28 +1135,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1113,28 +1164,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1142,28 +1193,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1171,28 +1222,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1200,28 +1251,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1229,28 +1280,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -1258,28 +1309,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -1287,28 +1338,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -1316,28 +1367,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1345,28 +1396,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1374,28 +1425,28 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1403,28 +1454,28 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1432,28 +1483,28 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -1461,28 +1512,28 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1490,28 +1541,28 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -1519,28 +1570,28 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -1548,28 +1599,28 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -1577,28 +1628,28 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -1606,28 +1657,28 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -1635,28 +1686,28 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1664,28 +1715,28 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -1693,28 +1744,28 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -1722,28 +1773,28 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -1751,28 +1802,28 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -1780,28 +1831,28 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -1809,28 +1860,28 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="I27" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
@@ -1838,28 +1889,28 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -1867,28 +1918,28 @@
         <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -1896,28 +1947,28 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -1925,28 +1976,28 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -1954,28 +2005,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -1983,28 +2034,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -2012,28 +2063,28 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -2041,28 +2092,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -2070,28 +2121,28 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -2099,28 +2150,28 @@
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -2128,28 +2179,28 @@
         <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -2157,28 +2208,28 @@
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -2186,28 +2237,28 @@
         <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -2215,28 +2266,28 @@
         <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
@@ -2244,28 +2295,28 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -2273,28 +2324,28 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -2302,28 +2353,28 @@
         <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -2331,28 +2382,28 @@
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -2360,28 +2411,28 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -2389,28 +2440,28 @@
         <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
@@ -2418,28 +2469,28 @@
         <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -2447,28 +2498,28 @@
         <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -2476,28 +2527,28 @@
         <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -2505,28 +2556,28 @@
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -2534,28 +2585,28 @@
         <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -2563,28 +2614,28 @@
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -2592,28 +2643,28 @@
         <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
@@ -2621,302 +2672,438 @@
         <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId6"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId6"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId11"/>
     <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId14"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId14"/>
     <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId16"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId16"/>
     <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId19"/>
     <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId21"/>
     <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId24"/>
     <hyperlink ref="F6" display="lnxGettingStarted.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId26"/>
+    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId26"/>
     <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId29"/>
     <hyperlink ref="F7" display="pullClientConfigID4.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId31"/>
     <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId34"/>
+    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId34"/>
     <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId36"/>
+    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId36"/>
     <hyperlink ref="A9" display="pullServer.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId39"/>
     <hyperlink ref="F9" display="pullServer.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId41"/>
     <hyperlink ref="A10" display="secureMOF.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId44"/>
+    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId44"/>
     <hyperlink ref="F10" display="secureMOF.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId46"/>
+    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId46"/>
     <hyperlink ref="A11" display="TOC.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId49"/>
+    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId49"/>
     <hyperlink ref="F11" display="TOC.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId51"/>
+    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId51"/>
     <hyperlink ref="A12" display="troubleshooting.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId54"/>
+    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId54"/>
     <hyperlink ref="F12" display="troubleshooting.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId56"/>
+    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId56"/>
     <hyperlink ref="A13" display="archiveResource.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId59"/>
+    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId59"/>
     <hyperlink ref="F13" display="archiveResource.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId61"/>
+    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId61"/>
     <hyperlink ref="A14" display="authoringResource.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId64"/>
+    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId64"/>
     <hyperlink ref="F14" display="authoringResource.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId66"/>
+    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId66"/>
     <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId69"/>
+    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId69"/>
     <hyperlink ref="F15" display="authoringResourceClass.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId71"/>
+    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId71"/>
     <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId74"/>
+    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId74"/>
     <hyperlink ref="F16" display="authoringResourceComposite.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId76"/>
-    <hyperlink ref="A17" display="authoringResourceMofCS.md" r:id="rId77"/>
+    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId76"/>
+    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId79"/>
-    <hyperlink ref="F17" display="authoringResourceMofCS.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId81"/>
-    <hyperlink ref="A18" display="authoringResourceMofDesigner.md" r:id="rId82"/>
+    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId79"/>
+    <hyperlink ref="F17" display="authoringResourceMOF.md" r:id="rId80"/>
+    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId81"/>
+    <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId84"/>
-    <hyperlink ref="F18" display="authoringResourceMofDesigner.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId86"/>
-    <hyperlink ref="A19" display="configDataCredentials.md" r:id="rId87"/>
+    <hyperlink ref="D18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId84"/>
+    <hyperlink ref="F18" display="authoringResourceMofCS.md" r:id="rId85"/>
+    <hyperlink ref="G18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId89"/>
-    <hyperlink ref="F19" display="configDataCredentials.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId91"/>
-    <hyperlink ref="A20" display="configurations.md" r:id="rId92"/>
+    <hyperlink ref="D19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="authoringResourceMofDesigner.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="configData.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId94"/>
-    <hyperlink ref="F20" display="configurations.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId96"/>
-    <hyperlink ref="A21" display="enactingConfigurations.md" r:id="rId97"/>
+    <hyperlink ref="D20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="configData.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId99"/>
-    <hyperlink ref="F21" display="enactingConfigurations.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId101"/>
-    <hyperlink ref="A22" display="environmentResource.md" r:id="rId102"/>
+    <hyperlink ref="D21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="configDataCredentials.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="configurations.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId104"/>
-    <hyperlink ref="F22" display="environmentResource.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId106"/>
-    <hyperlink ref="A23" display="fileResource.md" r:id="rId107"/>
+    <hyperlink ref="D22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="configurations.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId107"/>
     <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId109"/>
-    <hyperlink ref="F23" display="fileResource.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId111"/>
-    <hyperlink ref="A24" display="groupResource.md" r:id="rId112"/>
+    <hyperlink ref="D23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="enactingConfigurations.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="environmentResource.md" r:id="rId112"/>
     <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId114"/>
-    <hyperlink ref="F24" display="groupResource.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId116"/>
-    <hyperlink ref="A25" display="PartialConfig1.jpg" r:id="rId117"/>
-    <hyperlink ref="B25" display=".jpg" r:id="rId118"/>
-    <hyperlink ref="D25" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId119"/>
-    <hyperlink ref="F25" display="PartialConfig1.jpg" r:id="rId120"/>
-    <hyperlink ref="G25" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId121"/>
-    <hyperlink ref="A26" display="PartialConfigPullServer.jpg" r:id="rId122"/>
-    <hyperlink ref="B26" display=".jpg" r:id="rId123"/>
-    <hyperlink ref="D26" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId124"/>
-    <hyperlink ref="F26" display="PartialConfigPullServer.jpg" r:id="rId125"/>
-    <hyperlink ref="G26" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId126"/>
-    <hyperlink ref="A27" display="Pull.png" r:id="rId127"/>
-    <hyperlink ref="B27" display=".png" r:id="rId128"/>
-    <hyperlink ref="D27" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId129"/>
-    <hyperlink ref="F27" display="Pull.png" r:id="rId130"/>
-    <hyperlink ref="G27" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId131"/>
-    <hyperlink ref="A28" display="Push.png" r:id="rId132"/>
-    <hyperlink ref="B28" display=".png" r:id="rId133"/>
-    <hyperlink ref="D28" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId134"/>
-    <hyperlink ref="F28" display="Push.png" r:id="rId135"/>
-    <hyperlink ref="G28" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId136"/>
-    <hyperlink ref="A29" display="lnxArchiveResource.md" r:id="rId137"/>
-    <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId139"/>
-    <hyperlink ref="F29" display="lnxArchiveResource.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId141"/>
-    <hyperlink ref="A30" display="lnxBuiltInResources.md" r:id="rId142"/>
-    <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId144"/>
-    <hyperlink ref="F30" display="lnxBuiltInResources.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId146"/>
-    <hyperlink ref="A31" display="lnxEnvironmentResource.md" r:id="rId147"/>
+    <hyperlink ref="D24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="environmentResource.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="fileResource.md" r:id="rId117"/>
+    <hyperlink ref="B25" display=".md" r:id="rId118"/>
+    <hyperlink ref="D25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId119"/>
+    <hyperlink ref="F25" display="fileResource.md" r:id="rId120"/>
+    <hyperlink ref="G25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId121"/>
+    <hyperlink ref="A26" display="groupResource.md" r:id="rId122"/>
+    <hyperlink ref="B26" display=".md" r:id="rId123"/>
+    <hyperlink ref="D26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId124"/>
+    <hyperlink ref="F26" display="groupResource.md" r:id="rId125"/>
+    <hyperlink ref="G26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId126"/>
+    <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId127"/>
+    <hyperlink ref="B27" display=".jpg" r:id="rId128"/>
+    <hyperlink ref="D27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId129"/>
+    <hyperlink ref="F27" display="PartialConfig1.jpg" r:id="rId130"/>
+    <hyperlink ref="G27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId131"/>
+    <hyperlink ref="A28" display="PartialConfigPullServer.jpg" r:id="rId132"/>
+    <hyperlink ref="B28" display=".jpg" r:id="rId133"/>
+    <hyperlink ref="D28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId134"/>
+    <hyperlink ref="F28" display="PartialConfigPullServer.jpg" r:id="rId135"/>
+    <hyperlink ref="G28" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId136"/>
+    <hyperlink ref="A29" display="Pull.png" r:id="rId137"/>
+    <hyperlink ref="B29" display=".png" r:id="rId138"/>
+    <hyperlink ref="D29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId139"/>
+    <hyperlink ref="F29" display="Pull.png" r:id="rId140"/>
+    <hyperlink ref="G29" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId141"/>
+    <hyperlink ref="A30" display="Push.png" r:id="rId142"/>
+    <hyperlink ref="B30" display=".png" r:id="rId143"/>
+    <hyperlink ref="D30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId144"/>
+    <hyperlink ref="F30" display="Push.png" r:id="rId145"/>
+    <hyperlink ref="G30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId146"/>
+    <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId149"/>
-    <hyperlink ref="F31" display="lnxEnvironmentResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId151"/>
-    <hyperlink ref="A32" display="lnxFileLineResource.md" r:id="rId152"/>
+    <hyperlink ref="D31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="lnxArchiveResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId152"/>
     <hyperlink ref="B32" display=".md" r:id="rId153"/>
-    <hyperlink ref="D32" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId154"/>
-    <hyperlink ref="F32" display="lnxFileLineResource.md" r:id="rId155"/>
-    <hyperlink ref="G32" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId156"/>
-    <hyperlink ref="A33" display="lnxFileResource.md" r:id="rId157"/>
+    <hyperlink ref="D32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId154"/>
+    <hyperlink ref="F32" display="lnxBuiltInResources.md" r:id="rId155"/>
+    <hyperlink ref="G32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId156"/>
+    <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId157"/>
     <hyperlink ref="B33" display=".md" r:id="rId158"/>
-    <hyperlink ref="D33" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId159"/>
-    <hyperlink ref="F33" display="lnxFileResource.md" r:id="rId160"/>
-    <hyperlink ref="G33" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId161"/>
-    <hyperlink ref="A34" display="lnxPackageResource.md" r:id="rId162"/>
+    <hyperlink ref="D33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId159"/>
+    <hyperlink ref="F33" display="lnxEnvironmentResource.md" r:id="rId160"/>
+    <hyperlink ref="G33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId161"/>
+    <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId162"/>
     <hyperlink ref="B34" display=".md" r:id="rId163"/>
-    <hyperlink ref="D34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId164"/>
-    <hyperlink ref="F34" display="lnxPackageResource.md" r:id="rId165"/>
-    <hyperlink ref="G34" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId166"/>
-    <hyperlink ref="A35" display="lnxScriptResource.md" r:id="rId167"/>
+    <hyperlink ref="D34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId164"/>
+    <hyperlink ref="F34" display="lnxFileLineResource.md" r:id="rId165"/>
+    <hyperlink ref="G34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId166"/>
+    <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId167"/>
     <hyperlink ref="B35" display=".md" r:id="rId168"/>
-    <hyperlink ref="D35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId169"/>
-    <hyperlink ref="F35" display="lnxScriptResource.md" r:id="rId170"/>
-    <hyperlink ref="G35" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId171"/>
-    <hyperlink ref="A36" display="lnxServiceResource.md" r:id="rId172"/>
+    <hyperlink ref="D35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId169"/>
+    <hyperlink ref="F35" display="lnxFileResource.md" r:id="rId170"/>
+    <hyperlink ref="G35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId171"/>
+    <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId174"/>
-    <hyperlink ref="F36" display="lnxServiceResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId176"/>
-    <hyperlink ref="A37" display="lnxSshAuthorizedKeysResource.md" r:id="rId177"/>
+    <hyperlink ref="D36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="lnxGroupResource.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId179"/>
-    <hyperlink ref="F37" display="lnxSshAuthorizedKeysResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId181"/>
-    <hyperlink ref="A38" display="lnxUserResource.md" r:id="rId182"/>
+    <hyperlink ref="D37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="lnxPackageResource.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId184"/>
-    <hyperlink ref="F38" display="lnxUserResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId186"/>
-    <hyperlink ref="A39" display="logResource.md" r:id="rId187"/>
+    <hyperlink ref="D38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="lnxScriptResource.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId189"/>
-    <hyperlink ref="F39" display="logResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId191"/>
-    <hyperlink ref="A40" display="metaConfig.md" r:id="rId192"/>
+    <hyperlink ref="D39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="lnxServiceResource.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId194"/>
-    <hyperlink ref="F40" display="metaConfig.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId196"/>
-    <hyperlink ref="A41" display="metaConfig4.md" r:id="rId197"/>
+    <hyperlink ref="D40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="lnxSshAuthorizedKeysResource.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId199"/>
-    <hyperlink ref="F41" display="metaConfig4.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId201"/>
-    <hyperlink ref="A42" display="overview.md" r:id="rId202"/>
+    <hyperlink ref="D41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="lnxUserResource.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="logResource.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId204"/>
-    <hyperlink ref="F42" display="overview.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId206"/>
-    <hyperlink ref="A43" display="packageResource.md" r:id="rId207"/>
+    <hyperlink ref="D42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="logResource.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="metaConfig.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId209"/>
-    <hyperlink ref="F43" display="packageResource.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId211"/>
-    <hyperlink ref="A44" display="partialConfigs.md" r:id="rId212"/>
+    <hyperlink ref="D43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="metaConfig.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="metaConfig4.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId214"/>
-    <hyperlink ref="F44" display="partialConfigs.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId216"/>
-    <hyperlink ref="A45" display="pullClient.md" r:id="rId217"/>
+    <hyperlink ref="D44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="metaConfig4.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="overview.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId219"/>
-    <hyperlink ref="F45" display="pullClient.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId221"/>
-    <hyperlink ref="A46" display="pullClientConfigID.md" r:id="rId222"/>
+    <hyperlink ref="D45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="overview.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="packageResource.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId224"/>
-    <hyperlink ref="F46" display="pullClientConfigID.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId226"/>
-    <hyperlink ref="A47" display="queryServerNodes.md" r:id="rId227"/>
+    <hyperlink ref="D46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="packageResource.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="partialConfigs.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId229"/>
-    <hyperlink ref="F47" display="queryServerNodes.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId231"/>
-    <hyperlink ref="A48" display="registryResource.md" r:id="rId232"/>
+    <hyperlink ref="D47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="partialConfigs.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId231"/>
+    <hyperlink ref="A48" display="pullClient.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId234"/>
-    <hyperlink ref="F48" display="registryResource.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId236"/>
-    <hyperlink ref="A49" display="reportServer.md" r:id="rId237"/>
+    <hyperlink ref="D48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId234"/>
+    <hyperlink ref="F48" display="pullClient.md" r:id="rId235"/>
+    <hyperlink ref="G48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId239"/>
-    <hyperlink ref="F49" display="reportServer.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId241"/>
-    <hyperlink ref="A50" display="resources.md" r:id="rId242"/>
+    <hyperlink ref="D49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="pullClientConfigID.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId241"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId244"/>
-    <hyperlink ref="F50" display="resources.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId246"/>
-    <hyperlink ref="A51" display="scriptResource.md" r:id="rId247"/>
+    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId244"/>
+    <hyperlink ref="F50" display="queryServerNodes.md" r:id="rId245"/>
+    <hyperlink ref="G50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId246"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId249"/>
-    <hyperlink ref="F51" display="scriptResource.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId251"/>
-    <hyperlink ref="A52" display="secureServer.md" r:id="rId252"/>
+    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId249"/>
+    <hyperlink ref="F51" display="registryResource.md" r:id="rId250"/>
+    <hyperlink ref="G51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId251"/>
+    <hyperlink ref="A52" display="reportServer.md" r:id="rId252"/>
     <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId254"/>
-    <hyperlink ref="F52" display="secureServer.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId256"/>
-    <hyperlink ref="A53" display="serviceResource.md" r:id="rId257"/>
+    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId254"/>
+    <hyperlink ref="F52" display="reportServer.md" r:id="rId255"/>
+    <hyperlink ref="G52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId256"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
     <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId259"/>
-    <hyperlink ref="F53" display="serviceResource.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId261"/>
-    <hyperlink ref="A54" display="userResource.md" r:id="rId262"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId259"/>
+    <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId261"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
     <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId264"/>
-    <hyperlink ref="F54" display="userResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId266"/>
-    <hyperlink ref="A55" display="windowsfeatureResource.md" r:id="rId267"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId264"/>
+    <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId266"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
     <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId269"/>
-    <hyperlink ref="F55" display="windowsfeatureResource.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId271"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId269"/>
+    <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId271"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
+    <hyperlink ref="B56" display=".md" r:id="rId273"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId274"/>
+    <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId276"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
+    <hyperlink ref="B57" display=".md" r:id="rId278"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId279"/>
+    <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId281"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
+    <hyperlink ref="B58" display=".md" r:id="rId283"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId284"/>
+    <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId286"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
+    <hyperlink ref="B59" display=".md" r:id="rId288"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId289"/>
+    <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId291"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="es-es" sheetId="2" r:id="rId3"/>
+    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>es-es</t>
+    <t>fr-fr</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -237,91 +237,94 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:02:55</t>
-  </si>
-  <si>
-    <t>2016-03-22 17:36:49</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:38</t>
+  </si>
+  <si>
+    <t>2016-03-22 17:43:05</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:43:56</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-22 07:10:00</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:52</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -330,10 +333,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:03:45</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:55:10</t>
+    <t>2016-03-11 01:02:43</t>
+  </si>
+  <si>
+    <t>2016-03-17 17:12:56</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -351,91 +354,94 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-22 17:02:44</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="es-es" displayName="es_es" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -515,7 +521,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="es-es"/>
+    <tableColumn id="2" name="fr-fr"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1269,7 +1275,7 @@
         <v>81</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>77</v>
@@ -1286,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>75</v>
@@ -1295,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>76</v>
@@ -1315,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>75</v>
@@ -1324,7 +1330,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>76</v>
@@ -1344,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>75</v>
@@ -1353,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>77</v>
@@ -1373,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>75</v>
@@ -1382,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>76</v>
@@ -1402,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>75</v>
@@ -1411,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>76</v>
@@ -1431,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>75</v>
@@ -1440,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>76</v>
@@ -1460,7 +1466,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>75</v>
@@ -1469,7 +1475,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>76</v>
@@ -1489,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>75</v>
@@ -1498,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>76</v>
@@ -1518,16 +1524,16 @@
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>76</v>
@@ -1547,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>75</v>
@@ -1556,7 +1562,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>76</v>
@@ -1576,7 +1582,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>75</v>
@@ -1585,7 +1591,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>76</v>
@@ -1605,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>75</v>
@@ -1614,10 +1620,10 @@
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>77</v>
@@ -1634,7 +1640,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>75</v>
@@ -1643,7 +1649,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>76</v>
@@ -1663,7 +1669,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>75</v>
@@ -1672,7 +1678,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>76</v>
@@ -1692,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>75</v>
@@ -1701,7 +1707,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>76</v>
@@ -1721,7 +1727,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>75</v>
@@ -1730,7 +1736,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>76</v>
@@ -1750,7 +1756,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>75</v>
@@ -1759,7 +1765,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>76</v>
@@ -1779,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>75</v>
@@ -1788,7 +1794,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>76</v>
@@ -1808,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>75</v>
@@ -1817,7 +1823,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>76</v>
@@ -1837,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>75</v>
@@ -1846,7 +1852,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>76</v>
@@ -1860,28 +1866,28 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -1889,28 +1895,28 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1918,28 +1924,28 @@
         <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -1947,28 +1953,28 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -1982,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1991,7 +1997,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>76</v>
@@ -2011,7 +2017,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>75</v>
@@ -2020,7 +2026,7 @@
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>76</v>
@@ -2040,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>75</v>
@@ -2049,7 +2055,7 @@
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>76</v>
@@ -2069,7 +2075,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>75</v>
@@ -2078,10 +2084,10 @@
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>77</v>
@@ -2098,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>75</v>
@@ -2107,7 +2113,7 @@
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>76</v>
@@ -2127,7 +2133,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>75</v>
@@ -2136,7 +2142,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>76</v>
@@ -2156,7 +2162,7 @@
         <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>75</v>
@@ -2165,7 +2171,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>76</v>
@@ -2185,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>75</v>
@@ -2194,10 +2200,10 @@
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>77</v>
@@ -2214,16 +2220,16 @@
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>76</v>
@@ -2243,7 +2249,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>75</v>
@@ -2252,10 +2258,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>77</v>
@@ -2272,7 +2278,7 @@
         <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>75</v>
@@ -2281,7 +2287,7 @@
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>76</v>
@@ -2301,7 +2307,7 @@
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>75</v>
@@ -2310,7 +2316,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>76</v>
@@ -2330,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>75</v>
@@ -2339,7 +2345,7 @@
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>76</v>
@@ -2359,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>75</v>
@@ -2368,7 +2374,7 @@
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>76</v>
@@ -2388,7 +2394,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>75</v>
@@ -2397,7 +2403,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>76</v>
@@ -2417,7 +2423,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>75</v>
@@ -2426,7 +2432,7 @@
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>76</v>
@@ -2446,7 +2452,7 @@
         <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>75</v>
@@ -2455,7 +2461,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>76</v>
@@ -2475,7 +2481,7 @@
         <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>75</v>
@@ -2484,7 +2490,7 @@
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>76</v>
@@ -2504,7 +2510,7 @@
         <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>75</v>
@@ -2513,7 +2519,7 @@
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>76</v>
@@ -2533,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>75</v>
@@ -2542,7 +2548,7 @@
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>76</v>
@@ -2562,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>75</v>
@@ -2571,7 +2577,7 @@
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>76</v>
@@ -2591,7 +2597,7 @@
         <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>75</v>
@@ -2600,7 +2606,7 @@
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>76</v>
@@ -2620,7 +2626,7 @@
         <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>75</v>
@@ -2629,7 +2635,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>76</v>
@@ -2649,7 +2655,7 @@
         <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -2658,7 +2664,7 @@
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>76</v>
@@ -2678,7 +2684,7 @@
         <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>75</v>
@@ -2687,7 +2693,7 @@
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>76</v>
@@ -2707,7 +2713,7 @@
         <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>75</v>
@@ -2716,7 +2722,7 @@
         <v>58</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>76</v>
@@ -2736,7 +2742,7 @@
         <v>15</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>75</v>
@@ -2745,7 +2751,7 @@
         <v>59</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>76</v>
@@ -2765,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>75</v>
@@ -2774,7 +2780,7 @@
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>76</v>
@@ -2794,7 +2800,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
@@ -2803,7 +2809,7 @@
         <v>61</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>76</v>
@@ -2816,129 +2822,129 @@
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.es-es.xlf" r:id="rId6"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId6"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId9"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.es-es.xlf" r:id="rId11"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId11"/>
     <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId14"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId14"/>
     <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.es-es.xlf" r:id="rId16"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId16"/>
     <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId19"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId19"/>
     <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.es-es.xlf" r:id="rId21"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId21"/>
     <hyperlink ref="A6" display="lnxGettingStarted.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId24"/>
     <hyperlink ref="F6" display="lnxGettingStarted.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.es-es.xlf" r:id="rId26"/>
+    <hyperlink ref="G6" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId26"/>
     <hyperlink ref="A7" display="pullClientConfigID4.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId29"/>
+    <hyperlink ref="D7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId29"/>
     <hyperlink ref="F7" display="pullClientConfigID4.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.es-es.xlf" r:id="rId31"/>
+    <hyperlink ref="G7" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId31"/>
     <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId34"/>
+    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId34"/>
     <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.es-es.xlf" r:id="rId36"/>
+    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId36"/>
     <hyperlink ref="A9" display="pullServer.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId39"/>
+    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId39"/>
     <hyperlink ref="F9" display="pullServer.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.es-es.xlf" r:id="rId41"/>
+    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId41"/>
     <hyperlink ref="A10" display="secureMOF.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId44"/>
+    <hyperlink ref="D10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId44"/>
     <hyperlink ref="F10" display="secureMOF.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.es-es.xlf" r:id="rId46"/>
+    <hyperlink ref="G10" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId46"/>
     <hyperlink ref="A11" display="TOC.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId49"/>
+    <hyperlink ref="D11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId49"/>
     <hyperlink ref="F11" display="TOC.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.es-es.xlf" r:id="rId51"/>
+    <hyperlink ref="G11" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId51"/>
     <hyperlink ref="A12" display="troubleshooting.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId54"/>
+    <hyperlink ref="D12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId54"/>
     <hyperlink ref="F12" display="troubleshooting.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.es-es.xlf" r:id="rId56"/>
+    <hyperlink ref="G12" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId56"/>
     <hyperlink ref="A13" display="archiveResource.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId59"/>
+    <hyperlink ref="D13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId59"/>
     <hyperlink ref="F13" display="archiveResource.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.es-es.xlf" r:id="rId61"/>
+    <hyperlink ref="G13" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId61"/>
     <hyperlink ref="A14" display="authoringResource.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId64"/>
+    <hyperlink ref="D14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId64"/>
     <hyperlink ref="F14" display="authoringResource.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.es-es.xlf" r:id="rId66"/>
+    <hyperlink ref="G14" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId66"/>
     <hyperlink ref="A15" display="authoringResourceClass.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId69"/>
+    <hyperlink ref="D15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId69"/>
     <hyperlink ref="F15" display="authoringResourceClass.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.es-es.xlf" r:id="rId71"/>
+    <hyperlink ref="G15" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId71"/>
     <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId74"/>
+    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId74"/>
     <hyperlink ref="F16" display="authoringResourceComposite.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.es-es.xlf" r:id="rId76"/>
+    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId76"/>
     <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId79"/>
+    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId79"/>
     <hyperlink ref="F17" display="authoringResourceMOF.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.es-es.xlf" r:id="rId81"/>
+    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId81"/>
     <hyperlink ref="A18" display="authoringResourceMofCS.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId84"/>
+    <hyperlink ref="D18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId84"/>
     <hyperlink ref="F18" display="authoringResourceMofCS.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.es-es.xlf" r:id="rId86"/>
+    <hyperlink ref="G18" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId86"/>
     <hyperlink ref="A19" display="authoringResourceMofDesigner.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId89"/>
+    <hyperlink ref="D19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId89"/>
     <hyperlink ref="F19" display="authoringResourceMofDesigner.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.es-es.xlf" r:id="rId91"/>
+    <hyperlink ref="G19" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId91"/>
     <hyperlink ref="A20" display="configData.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId94"/>
+    <hyperlink ref="D20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId94"/>
     <hyperlink ref="F20" display="configData.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.es-es.xlf" r:id="rId96"/>
+    <hyperlink ref="G20" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId96"/>
     <hyperlink ref="A21" display="configDataCredentials.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId99"/>
+    <hyperlink ref="D21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId99"/>
     <hyperlink ref="F21" display="configDataCredentials.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.es-es.xlf" r:id="rId101"/>
+    <hyperlink ref="G21" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId101"/>
     <hyperlink ref="A22" display="configurations.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId104"/>
+    <hyperlink ref="D22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId104"/>
     <hyperlink ref="F22" display="configurations.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.es-es.xlf" r:id="rId106"/>
+    <hyperlink ref="G22" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId106"/>
     <hyperlink ref="A23" display="enactingConfigurations.md" r:id="rId107"/>
     <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId109"/>
+    <hyperlink ref="D23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId109"/>
     <hyperlink ref="F23" display="enactingConfigurations.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.es-es.xlf" r:id="rId111"/>
+    <hyperlink ref="G23" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId111"/>
     <hyperlink ref="A24" display="environmentResource.md" r:id="rId112"/>
     <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId114"/>
+    <hyperlink ref="D24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId114"/>
     <hyperlink ref="F24" display="environmentResource.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.es-es.xlf" r:id="rId116"/>
+    <hyperlink ref="G24" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId116"/>
     <hyperlink ref="A25" display="fileResource.md" r:id="rId117"/>
     <hyperlink ref="B25" display=".md" r:id="rId118"/>
-    <hyperlink ref="D25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId119"/>
+    <hyperlink ref="D25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId119"/>
     <hyperlink ref="F25" display="fileResource.md" r:id="rId120"/>
-    <hyperlink ref="G25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.es-es.xlf" r:id="rId121"/>
+    <hyperlink ref="G25" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId121"/>
     <hyperlink ref="A26" display="groupResource.md" r:id="rId122"/>
     <hyperlink ref="B26" display=".md" r:id="rId123"/>
-    <hyperlink ref="D26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId124"/>
+    <hyperlink ref="D26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId124"/>
     <hyperlink ref="F26" display="groupResource.md" r:id="rId125"/>
-    <hyperlink ref="G26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.es-es.xlf" r:id="rId126"/>
+    <hyperlink ref="G26" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId126"/>
     <hyperlink ref="A27" display="PartialConfig1.jpg" r:id="rId127"/>
     <hyperlink ref="B27" display=".jpg" r:id="rId128"/>
     <hyperlink ref="D27" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId129"/>
@@ -2961,149 +2967,149 @@
     <hyperlink ref="G30" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId146"/>
     <hyperlink ref="A31" display="lnxArchiveResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId149"/>
+    <hyperlink ref="D31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId149"/>
     <hyperlink ref="F31" display="lnxArchiveResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.es-es.xlf" r:id="rId151"/>
+    <hyperlink ref="G31" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId151"/>
     <hyperlink ref="A32" display="lnxBuiltInResources.md" r:id="rId152"/>
     <hyperlink ref="B32" display=".md" r:id="rId153"/>
-    <hyperlink ref="D32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId154"/>
+    <hyperlink ref="D32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId154"/>
     <hyperlink ref="F32" display="lnxBuiltInResources.md" r:id="rId155"/>
-    <hyperlink ref="G32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.es-es.xlf" r:id="rId156"/>
+    <hyperlink ref="G32" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId156"/>
     <hyperlink ref="A33" display="lnxEnvironmentResource.md" r:id="rId157"/>
     <hyperlink ref="B33" display=".md" r:id="rId158"/>
-    <hyperlink ref="D33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId159"/>
+    <hyperlink ref="D33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId159"/>
     <hyperlink ref="F33" display="lnxEnvironmentResource.md" r:id="rId160"/>
-    <hyperlink ref="G33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.es-es.xlf" r:id="rId161"/>
+    <hyperlink ref="G33" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId161"/>
     <hyperlink ref="A34" display="lnxFileLineResource.md" r:id="rId162"/>
     <hyperlink ref="B34" display=".md" r:id="rId163"/>
-    <hyperlink ref="D34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId164"/>
+    <hyperlink ref="D34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId164"/>
     <hyperlink ref="F34" display="lnxFileLineResource.md" r:id="rId165"/>
-    <hyperlink ref="G34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.es-es.xlf" r:id="rId166"/>
+    <hyperlink ref="G34" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId166"/>
     <hyperlink ref="A35" display="lnxFileResource.md" r:id="rId167"/>
     <hyperlink ref="B35" display=".md" r:id="rId168"/>
-    <hyperlink ref="D35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId169"/>
+    <hyperlink ref="D35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId169"/>
     <hyperlink ref="F35" display="lnxFileResource.md" r:id="rId170"/>
-    <hyperlink ref="G35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.es-es.xlf" r:id="rId171"/>
+    <hyperlink ref="G35" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId171"/>
     <hyperlink ref="A36" display="lnxGroupResource.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId174"/>
+    <hyperlink ref="D36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId174"/>
     <hyperlink ref="F36" display="lnxGroupResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.es-es.xlf" r:id="rId176"/>
+    <hyperlink ref="G36" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId176"/>
     <hyperlink ref="A37" display="lnxPackageResource.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId179"/>
+    <hyperlink ref="D37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId179"/>
     <hyperlink ref="F37" display="lnxPackageResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.es-es.xlf" r:id="rId181"/>
+    <hyperlink ref="G37" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId181"/>
     <hyperlink ref="A38" display="lnxScriptResource.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId184"/>
+    <hyperlink ref="D38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId184"/>
     <hyperlink ref="F38" display="lnxScriptResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.es-es.xlf" r:id="rId186"/>
+    <hyperlink ref="G38" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId186"/>
     <hyperlink ref="A39" display="lnxServiceResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId189"/>
+    <hyperlink ref="D39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId189"/>
     <hyperlink ref="F39" display="lnxServiceResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.es-es.xlf" r:id="rId191"/>
+    <hyperlink ref="G39" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId191"/>
     <hyperlink ref="A40" display="lnxSshAuthorizedKeysResource.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId194"/>
+    <hyperlink ref="D40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId194"/>
     <hyperlink ref="F40" display="lnxSshAuthorizedKeysResource.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.es-es.xlf" r:id="rId196"/>
+    <hyperlink ref="G40" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId196"/>
     <hyperlink ref="A41" display="lnxUserResource.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId199"/>
+    <hyperlink ref="D41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId199"/>
     <hyperlink ref="F41" display="lnxUserResource.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.es-es.xlf" r:id="rId201"/>
+    <hyperlink ref="G41" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId201"/>
     <hyperlink ref="A42" display="logResource.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId204"/>
+    <hyperlink ref="D42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId204"/>
     <hyperlink ref="F42" display="logResource.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.es-es.xlf" r:id="rId206"/>
+    <hyperlink ref="G42" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId206"/>
     <hyperlink ref="A43" display="metaConfig.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId209"/>
+    <hyperlink ref="D43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId209"/>
     <hyperlink ref="F43" display="metaConfig.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.es-es.xlf" r:id="rId211"/>
+    <hyperlink ref="G43" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId211"/>
     <hyperlink ref="A44" display="metaConfig4.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId214"/>
+    <hyperlink ref="D44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId214"/>
     <hyperlink ref="F44" display="metaConfig4.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.es-es.xlf" r:id="rId216"/>
+    <hyperlink ref="G44" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId216"/>
     <hyperlink ref="A45" display="overview.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId219"/>
+    <hyperlink ref="D45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId219"/>
     <hyperlink ref="F45" display="overview.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.es-es.xlf" r:id="rId221"/>
+    <hyperlink ref="G45" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId221"/>
     <hyperlink ref="A46" display="packageResource.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId224"/>
+    <hyperlink ref="D46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId224"/>
     <hyperlink ref="F46" display="packageResource.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.es-es.xlf" r:id="rId226"/>
+    <hyperlink ref="G46" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId226"/>
     <hyperlink ref="A47" display="partialConfigs.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId229"/>
+    <hyperlink ref="D47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId229"/>
     <hyperlink ref="F47" display="partialConfigs.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.es-es.xlf" r:id="rId231"/>
+    <hyperlink ref="G47" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId231"/>
     <hyperlink ref="A48" display="pullClient.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId234"/>
+    <hyperlink ref="D48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId234"/>
     <hyperlink ref="F48" display="pullClient.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.es-es.xlf" r:id="rId236"/>
+    <hyperlink ref="G48" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId236"/>
     <hyperlink ref="A49" display="pullClientConfigID.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId239"/>
+    <hyperlink ref="D49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId239"/>
     <hyperlink ref="F49" display="pullClientConfigID.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.es-es.xlf" r:id="rId241"/>
+    <hyperlink ref="G49" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId241"/>
     <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId244"/>
+    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId244"/>
     <hyperlink ref="F50" display="queryServerNodes.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.es-es.xlf" r:id="rId246"/>
+    <hyperlink ref="G50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId246"/>
     <hyperlink ref="A51" display="registryResource.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId249"/>
+    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId249"/>
     <hyperlink ref="F51" display="registryResource.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.es-es.xlf" r:id="rId251"/>
+    <hyperlink ref="G51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId251"/>
     <hyperlink ref="A52" display="reportServer.md" r:id="rId252"/>
     <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId254"/>
+    <hyperlink ref="D52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId254"/>
     <hyperlink ref="F52" display="reportServer.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.es-es.xlf" r:id="rId256"/>
+    <hyperlink ref="G52" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId256"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
     <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId259"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId259"/>
     <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.es-es.xlf" r:id="rId261"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId261"/>
     <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
     <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId264"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId264"/>
     <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.es-es.xlf" r:id="rId266"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId266"/>
     <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
     <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId269"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId269"/>
     <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.es-es.xlf" r:id="rId271"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId271"/>
     <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
     <hyperlink ref="B56" display=".md" r:id="rId273"/>
-    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId274"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId274"/>
     <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
-    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.es-es.xlf" r:id="rId276"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId276"/>
     <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
     <hyperlink ref="B57" display=".md" r:id="rId278"/>
-    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId279"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId279"/>
     <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
-    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.es-es.xlf" r:id="rId281"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId281"/>
     <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
     <hyperlink ref="B58" display=".md" r:id="rId283"/>
-    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId284"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId284"/>
     <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
-    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.es-es.xlf" r:id="rId286"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId286"/>
     <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
     <hyperlink ref="B59" display=".md" r:id="rId288"/>
-    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId289"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId289"/>
     <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
-    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.es-es.xlf" r:id="rId291"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId291"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ru-ru" sheetId="2" r:id="rId3"/>
+    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ru-ru</t>
+    <t>fr-fr</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -27,36 +27,78 @@
     <t>Handed back: not in sync with en-US</t>
   </si>
   <si>
+    <t>debugResource.md</t>
+  </si>
+  <si>
     <t>decisionMaker.md</t>
   </si>
   <si>
+    <t>gettingStarted.md</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.md</t>
+  </si>
+  <si>
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
+    <t>metaConfig.md</t>
+  </si>
+  <si>
+    <t>pullClient.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.md</t>
+  </si>
+  <si>
     <t>pullClientConfigID4.md</t>
   </si>
   <si>
     <t>pullClientConfigNames.md</t>
   </si>
   <si>
+    <t>pullServer.md</t>
+  </si>
+  <si>
+    <t>reportServer.md</t>
+  </si>
+  <si>
     <t>secureMOF.md</t>
   </si>
   <si>
     <t>TOC.md</t>
   </si>
   <si>
+    <t>troubleshooting.md</t>
+  </si>
+  <si>
+    <t>archiveResource.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>authoringResource.md</t>
+  </si>
+  <si>
     <t>authoringResourceClass.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>authoringResourceComposite.md</t>
   </si>
   <si>
     <t>authoringResourceMOF.md</t>
   </si>
   <si>
+    <t>authoringResourceMofCS.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
+    <t>configData.md</t>
+  </si>
+  <si>
     <t>configDataCredentials.md</t>
   </si>
   <si>
@@ -72,6 +114,9 @@
     <t>fileResource.md</t>
   </si>
   <si>
+    <t>groupResource.md</t>
+  </si>
+  <si>
     <t>PartialConfig1.jpg</t>
   </si>
   <si>
@@ -84,7 +129,7 @@
     <t>Push.png</t>
   </si>
   <si>
-    <t>lnxBuiltInResources.md</t>
+    <t>lnxArchiveResource.md</t>
   </si>
   <si>
     <t>lnxEnvironmentResource.md</t>
@@ -93,13 +138,34 @@
     <t>lnxFileLineResource.md</t>
   </si>
   <si>
+    <t>lnxFileResource.md</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.md</t>
+  </si>
+  <si>
     <t>lnxScriptResource.md</t>
   </si>
   <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.md</t>
+  </si>
+  <si>
     <t>lnxUserResource.md</t>
   </si>
   <si>
-    <t>metaConfig.md</t>
+    <t>logResource.md</t>
+  </si>
+  <si>
+    <t>metaConfig4.md</t>
+  </si>
+  <si>
+    <t>overview.md</t>
   </si>
   <si>
     <t>packageResource.md</t>
@@ -108,15 +174,18 @@
     <t>partialConfigs.md</t>
   </si>
   <si>
-    <t>pullClientConfigID.md</t>
-  </si>
-  <si>
     <t>queryServerNodes.md</t>
   </si>
   <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
     <t>resources.md</t>
   </si>
   <si>
+    <t>scriptResource.md</t>
+  </si>
+  <si>
     <t>secureServer.md</t>
   </si>
   <si>
@@ -129,6 +198,9 @@
     <t>windowsfeatureResource.md</t>
   </si>
   <si>
+    <t>windowsProcessResource.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -165,61 +237,109 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:03:35</t>
-  </si>
-  <si>
-    <t>2016-03-22 19:28:02</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:38</t>
+  </si>
+  <si>
+    <t>2016-03-22 17:43:05</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:44:15</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ru-ru.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-22 23:29:23</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:52</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -228,10 +348,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:04:17</t>
-  </si>
-  <si>
-    <t>2016-03-16 23:59:51</t>
+    <t>2016-03-11 01:02:43</t>
+  </si>
+  <si>
+    <t>2016-03-17 17:12:56</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -246,55 +366,82 @@
     <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
   </si>
   <si>
-    <t>2016-03-17 16:45:12</t>
-  </si>
-  <si>
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ru-ru.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ru-ru.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-22 17:02:44</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf</t>
   </si>
 </sst>
 </file>
@@ -351,7 +498,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ru-ru" displayName="ru_ru" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -374,7 +521,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ru-ru"/>
+    <tableColumn id="2" name="fr-fr"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -383,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,79 +609,79 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -542,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -550,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -558,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -566,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -574,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -582,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -590,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -598,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -606,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -614,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -622,7 +769,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -630,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -638,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -646,7 +793,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -654,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -662,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -670,45 +817,261 @@
         <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="decisionMaker.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="lnxGettingStarted.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="pullClientConfigID4.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="pullClientConfigNames.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="secureMOF.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="TOC.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="authoringResourceClass.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="authoringResourceComposite.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="authoringResourceMOF.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="configDataCredentials.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="configurations.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="environmentResource.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="fileResource.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId17"/>
-    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId18"/>
-    <hyperlink ref="A19" display="Pull.png" r:id="rId19"/>
-    <hyperlink ref="A20" display="Push.png" r:id="rId20"/>
-    <hyperlink ref="A21" display="lnxBuiltInResources.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="lnxEnvironmentResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="lnxFileLineResource.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="lnxScriptResource.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="lnxUserResource.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="metaConfig.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="packageResource.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="partialConfigs.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="pullClientConfigID.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="queryServerNodes.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="resources.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="secureServer.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="serviceResource.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="userResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="windowsfeatureResource.md" r:id="rId35"/>
+    <hyperlink ref="A3" display="debugResource.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="metaConfig.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="pullClient.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="pullServer.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="reportServer.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="secureMOF.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="TOC.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="troubleshooting.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="archiveResource.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="authoringResource.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="configData.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="configurations.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="environmentResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="fileResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="groupResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId32"/>
+    <hyperlink ref="A33" display="PartialConfigPullServer.jpg" r:id="rId33"/>
+    <hyperlink ref="A34" display="Pull.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="Push.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="logResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="metaConfig4.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="overview.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="packageResource.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="partialConfigs.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="registryResource.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -719,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -740,37 +1103,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -778,28 +1141,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -807,28 +1170,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -836,28 +1199,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -865,28 +1228,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -894,28 +1257,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -923,28 +1286,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -952,28 +1315,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -981,289 +1344,289 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -1271,28 +1634,28 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -1300,28 +1663,28 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -1329,28 +1692,28 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1358,28 +1721,28 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -1387,28 +1750,28 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -1416,28 +1779,28 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -1445,28 +1808,28 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -1474,28 +1837,28 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -1503,28 +1866,28 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -1532,28 +1895,28 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -1561,28 +1924,28 @@
         <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -1590,28 +1953,28 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -1619,28 +1982,28 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -1648,28 +2011,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -1677,28 +2040,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1706,28 +2069,28 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -1735,202 +2098,1018 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="H35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="B50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ru-ru.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ru-ru.xlf" r:id="rId6"/>
-    <hyperlink ref="A3" display="decisionMaker.md" r:id="rId7"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId6"/>
+    <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ru-ru.xlf" r:id="rId9"/>
-    <hyperlink ref="F3" display="decisionMaker.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ru-ru.xlf" r:id="rId11"/>
-    <hyperlink ref="A4" display="lnxGettingStarted.md" r:id="rId12"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId9"/>
+    <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId11"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ru-ru.xlf" r:id="rId14"/>
-    <hyperlink ref="F4" display="lnxGettingStarted.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ru-ru.xlf" r:id="rId16"/>
-    <hyperlink ref="A5" display="pullClientConfigID4.md" r:id="rId17"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId14"/>
+    <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId16"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ru-ru.xlf" r:id="rId19"/>
-    <hyperlink ref="F5" display="pullClientConfigID4.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ru-ru.xlf" r:id="rId21"/>
-    <hyperlink ref="A6" display="pullClientConfigNames.md" r:id="rId22"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId19"/>
+    <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId21"/>
+    <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ru-ru.xlf" r:id="rId24"/>
-    <hyperlink ref="F6" display="pullClientConfigNames.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ru-ru.xlf" r:id="rId26"/>
-    <hyperlink ref="A7" display="secureMOF.md" r:id="rId27"/>
+    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId24"/>
+    <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId25"/>
+    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId26"/>
+    <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ru-ru.xlf" r:id="rId29"/>
-    <hyperlink ref="F7" display="secureMOF.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ru-ru.xlf" r:id="rId31"/>
-    <hyperlink ref="A8" display="TOC.md" r:id="rId32"/>
+    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId29"/>
+    <hyperlink ref="F7" display="lnxGettingStarted.md" r:id="rId30"/>
+    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId31"/>
+    <hyperlink ref="A8" display="metaConfig.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ru-ru.xlf" r:id="rId34"/>
-    <hyperlink ref="F8" display="TOC.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ru-ru.xlf" r:id="rId36"/>
-    <hyperlink ref="A9" display="authoringResourceClass.md" r:id="rId37"/>
+    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId34"/>
+    <hyperlink ref="F8" display="metaConfig.md" r:id="rId35"/>
+    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId36"/>
+    <hyperlink ref="A9" display="pullClient.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ru-ru.xlf" r:id="rId39"/>
-    <hyperlink ref="F9" display="authoringResourceClass.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ru-ru.xlf" r:id="rId41"/>
-    <hyperlink ref="A10" display="authoringResourceComposite.md" r:id="rId42"/>
+    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId39"/>
+    <hyperlink ref="F9" display="pullClient.md" r:id="rId40"/>
+    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId41"/>
+    <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ru-ru.xlf" r:id="rId44"/>
-    <hyperlink ref="F10" display="authoringResourceComposite.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ru-ru.xlf" r:id="rId46"/>
-    <hyperlink ref="A11" display="authoringResourceMOF.md" r:id="rId47"/>
+    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId44"/>
+    <hyperlink ref="F10" display="pullClientConfigID.md" r:id="rId45"/>
+    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId46"/>
+    <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ru-ru.xlf" r:id="rId49"/>
-    <hyperlink ref="F11" display="authoringResourceMOF.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ru-ru.xlf" r:id="rId51"/>
-    <hyperlink ref="A12" display="configDataCredentials.md" r:id="rId52"/>
+    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId49"/>
+    <hyperlink ref="F11" display="pullClientConfigID4.md" r:id="rId50"/>
+    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId51"/>
+    <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ru-ru.xlf" r:id="rId54"/>
-    <hyperlink ref="F12" display="configDataCredentials.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ru-ru.xlf" r:id="rId56"/>
-    <hyperlink ref="A13" display="configurations.md" r:id="rId57"/>
+    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId54"/>
+    <hyperlink ref="F12" display="pullClientConfigNames.md" r:id="rId55"/>
+    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId56"/>
+    <hyperlink ref="A13" display="pullServer.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ru-ru.xlf" r:id="rId59"/>
-    <hyperlink ref="F13" display="configurations.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ru-ru.xlf" r:id="rId61"/>
-    <hyperlink ref="A14" display="enactingConfigurations.md" r:id="rId62"/>
+    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId59"/>
+    <hyperlink ref="F13" display="pullServer.md" r:id="rId60"/>
+    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId61"/>
+    <hyperlink ref="A14" display="reportServer.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ru-ru.xlf" r:id="rId64"/>
-    <hyperlink ref="F14" display="enactingConfigurations.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ru-ru.xlf" r:id="rId66"/>
-    <hyperlink ref="A15" display="environmentResource.md" r:id="rId67"/>
+    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId64"/>
+    <hyperlink ref="F14" display="reportServer.md" r:id="rId65"/>
+    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId66"/>
+    <hyperlink ref="A15" display="secureMOF.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ru-ru.xlf" r:id="rId69"/>
-    <hyperlink ref="F15" display="environmentResource.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ru-ru.xlf" r:id="rId71"/>
-    <hyperlink ref="A16" display="fileResource.md" r:id="rId72"/>
+    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId69"/>
+    <hyperlink ref="F15" display="secureMOF.md" r:id="rId70"/>
+    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId71"/>
+    <hyperlink ref="A16" display="TOC.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ru-ru.xlf" r:id="rId74"/>
-    <hyperlink ref="F16" display="fileResource.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ru-ru.xlf" r:id="rId76"/>
-    <hyperlink ref="A17" display="PartialConfig1.jpg" r:id="rId77"/>
-    <hyperlink ref="B17" display=".jpg" r:id="rId78"/>
-    <hyperlink ref="D17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId79"/>
-    <hyperlink ref="F17" display="PartialConfig1.jpg" r:id="rId80"/>
-    <hyperlink ref="G17" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId81"/>
-    <hyperlink ref="A18" display="PartialConfigPullServer.jpg" r:id="rId82"/>
-    <hyperlink ref="B18" display=".jpg" r:id="rId83"/>
-    <hyperlink ref="D18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId84"/>
-    <hyperlink ref="F18" display="PartialConfigPullServer.jpg" r:id="rId85"/>
-    <hyperlink ref="G18" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId86"/>
-    <hyperlink ref="A19" display="Pull.png" r:id="rId87"/>
-    <hyperlink ref="B19" display=".png" r:id="rId88"/>
-    <hyperlink ref="D19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId89"/>
-    <hyperlink ref="F19" display="Pull.png" r:id="rId90"/>
-    <hyperlink ref="G19" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId91"/>
-    <hyperlink ref="A20" display="Push.png" r:id="rId92"/>
-    <hyperlink ref="B20" display=".png" r:id="rId93"/>
-    <hyperlink ref="D20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId94"/>
-    <hyperlink ref="F20" display="Push.png" r:id="rId95"/>
-    <hyperlink ref="G20" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId96"/>
-    <hyperlink ref="A21" display="lnxBuiltInResources.md" r:id="rId97"/>
+    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId74"/>
+    <hyperlink ref="F16" display="TOC.md" r:id="rId75"/>
+    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId76"/>
+    <hyperlink ref="A17" display="troubleshooting.md" r:id="rId77"/>
+    <hyperlink ref="B17" display=".md" r:id="rId78"/>
+    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId79"/>
+    <hyperlink ref="F17" display="troubleshooting.md" r:id="rId80"/>
+    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId81"/>
+    <hyperlink ref="A18" display="archiveResource.md" r:id="rId82"/>
+    <hyperlink ref="B18" display=".md" r:id="rId83"/>
+    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId84"/>
+    <hyperlink ref="F18" display="archiveResource.md" r:id="rId85"/>
+    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId86"/>
+    <hyperlink ref="A19" display="authoringResource.md" r:id="rId87"/>
+    <hyperlink ref="B19" display=".md" r:id="rId88"/>
+    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId89"/>
+    <hyperlink ref="F19" display="authoringResource.md" r:id="rId90"/>
+    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId91"/>
+    <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId92"/>
+    <hyperlink ref="B20" display=".md" r:id="rId93"/>
+    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId94"/>
+    <hyperlink ref="F20" display="authoringResourceClass.md" r:id="rId95"/>
+    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId96"/>
+    <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ru-ru.xlf" r:id="rId99"/>
-    <hyperlink ref="F21" display="lnxBuiltInResources.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ru-ru.xlf" r:id="rId101"/>
-    <hyperlink ref="A22" display="lnxEnvironmentResource.md" r:id="rId102"/>
+    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId99"/>
+    <hyperlink ref="F21" display="authoringResourceComposite.md" r:id="rId100"/>
+    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId101"/>
+    <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ru-ru.xlf" r:id="rId104"/>
-    <hyperlink ref="F22" display="lnxEnvironmentResource.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ru-ru.xlf" r:id="rId106"/>
-    <hyperlink ref="A23" display="lnxFileLineResource.md" r:id="rId107"/>
+    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId104"/>
+    <hyperlink ref="F22" display="authoringResourceMOF.md" r:id="rId105"/>
+    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId106"/>
+    <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId107"/>
     <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ru-ru.xlf" r:id="rId109"/>
-    <hyperlink ref="F23" display="lnxFileLineResource.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ru-ru.xlf" r:id="rId111"/>
-    <hyperlink ref="A24" display="lnxScriptResource.md" r:id="rId112"/>
+    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId109"/>
+    <hyperlink ref="F23" display="authoringResourceMofCS.md" r:id="rId110"/>
+    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId111"/>
+    <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId112"/>
     <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ru-ru.xlf" r:id="rId114"/>
-    <hyperlink ref="F24" display="lnxScriptResource.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ru-ru.xlf" r:id="rId116"/>
-    <hyperlink ref="A25" display="lnxUserResource.md" r:id="rId117"/>
+    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId114"/>
+    <hyperlink ref="F24" display="authoringResourceMofDesigner.md" r:id="rId115"/>
+    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId116"/>
+    <hyperlink ref="A25" display="configData.md" r:id="rId117"/>
     <hyperlink ref="B25" display=".md" r:id="rId118"/>
-    <hyperlink ref="D25" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ru-ru.xlf" r:id="rId119"/>
-    <hyperlink ref="F25" display="lnxUserResource.md" r:id="rId120"/>
-    <hyperlink ref="G25" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ru-ru.xlf" r:id="rId121"/>
-    <hyperlink ref="A26" display="metaConfig.md" r:id="rId122"/>
+    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId119"/>
+    <hyperlink ref="F25" display="configData.md" r:id="rId120"/>
+    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId121"/>
+    <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId122"/>
     <hyperlink ref="B26" display=".md" r:id="rId123"/>
-    <hyperlink ref="D26" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ru-ru.xlf" r:id="rId124"/>
-    <hyperlink ref="F26" display="metaConfig.md" r:id="rId125"/>
-    <hyperlink ref="G26" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ru-ru.xlf" r:id="rId126"/>
-    <hyperlink ref="A27" display="packageResource.md" r:id="rId127"/>
+    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId124"/>
+    <hyperlink ref="F26" display="configDataCredentials.md" r:id="rId125"/>
+    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId126"/>
+    <hyperlink ref="A27" display="configurations.md" r:id="rId127"/>
     <hyperlink ref="B27" display=".md" r:id="rId128"/>
-    <hyperlink ref="D27" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ru-ru.xlf" r:id="rId129"/>
-    <hyperlink ref="F27" display="packageResource.md" r:id="rId130"/>
-    <hyperlink ref="G27" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ru-ru.xlf" r:id="rId131"/>
-    <hyperlink ref="A28" display="partialConfigs.md" r:id="rId132"/>
+    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId129"/>
+    <hyperlink ref="F27" display="configurations.md" r:id="rId130"/>
+    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId131"/>
+    <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId132"/>
     <hyperlink ref="B28" display=".md" r:id="rId133"/>
-    <hyperlink ref="D28" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ru-ru.xlf" r:id="rId134"/>
-    <hyperlink ref="F28" display="partialConfigs.md" r:id="rId135"/>
-    <hyperlink ref="G28" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ru-ru.xlf" r:id="rId136"/>
-    <hyperlink ref="A29" display="pullClientConfigID.md" r:id="rId137"/>
+    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId134"/>
+    <hyperlink ref="F28" display="enactingConfigurations.md" r:id="rId135"/>
+    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId136"/>
+    <hyperlink ref="A29" display="environmentResource.md" r:id="rId137"/>
     <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ru-ru.xlf" r:id="rId139"/>
-    <hyperlink ref="F29" display="pullClientConfigID.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ru-ru.xlf" r:id="rId141"/>
-    <hyperlink ref="A30" display="queryServerNodes.md" r:id="rId142"/>
+    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId139"/>
+    <hyperlink ref="F29" display="environmentResource.md" r:id="rId140"/>
+    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId141"/>
+    <hyperlink ref="A30" display="fileResource.md" r:id="rId142"/>
     <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ru-ru.xlf" r:id="rId144"/>
-    <hyperlink ref="F30" display="queryServerNodes.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ru-ru.xlf" r:id="rId146"/>
-    <hyperlink ref="A31" display="resources.md" r:id="rId147"/>
+    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId144"/>
+    <hyperlink ref="F30" display="fileResource.md" r:id="rId145"/>
+    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId146"/>
+    <hyperlink ref="A31" display="groupResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ru-ru.xlf" r:id="rId149"/>
-    <hyperlink ref="F31" display="resources.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ru-ru.xlf" r:id="rId151"/>
-    <hyperlink ref="A32" display="secureServer.md" r:id="rId152"/>
-    <hyperlink ref="B32" display=".md" r:id="rId153"/>
-    <hyperlink ref="D32" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ru-ru.xlf" r:id="rId154"/>
-    <hyperlink ref="F32" display="secureServer.md" r:id="rId155"/>
-    <hyperlink ref="G32" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ru-ru.xlf" r:id="rId156"/>
-    <hyperlink ref="A33" display="serviceResource.md" r:id="rId157"/>
-    <hyperlink ref="B33" display=".md" r:id="rId158"/>
-    <hyperlink ref="D33" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ru-ru.xlf" r:id="rId159"/>
-    <hyperlink ref="F33" display="serviceResource.md" r:id="rId160"/>
-    <hyperlink ref="G33" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ru-ru.xlf" r:id="rId161"/>
-    <hyperlink ref="A34" display="userResource.md" r:id="rId162"/>
-    <hyperlink ref="B34" display=".md" r:id="rId163"/>
-    <hyperlink ref="D34" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ru-ru.xlf" r:id="rId164"/>
-    <hyperlink ref="F34" display="userResource.md" r:id="rId165"/>
-    <hyperlink ref="G34" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ru-ru.xlf" r:id="rId166"/>
-    <hyperlink ref="A35" display="windowsfeatureResource.md" r:id="rId167"/>
-    <hyperlink ref="B35" display=".md" r:id="rId168"/>
-    <hyperlink ref="D35" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ru-ru.xlf" r:id="rId169"/>
-    <hyperlink ref="F35" display="windowsfeatureResource.md" r:id="rId170"/>
-    <hyperlink ref="G35" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ru-ru.xlf" r:id="rId171"/>
+    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId149"/>
+    <hyperlink ref="F31" display="groupResource.md" r:id="rId150"/>
+    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId151"/>
+    <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId152"/>
+    <hyperlink ref="B32" display=".jpg" r:id="rId153"/>
+    <hyperlink ref="D32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId154"/>
+    <hyperlink ref="F32" display="PartialConfig1.jpg" r:id="rId155"/>
+    <hyperlink ref="G32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId156"/>
+    <hyperlink ref="A33" display="PartialConfigPullServer.jpg" r:id="rId157"/>
+    <hyperlink ref="B33" display=".jpg" r:id="rId158"/>
+    <hyperlink ref="D33" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId159"/>
+    <hyperlink ref="F33" display="PartialConfigPullServer.jpg" r:id="rId160"/>
+    <hyperlink ref="G33" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId161"/>
+    <hyperlink ref="A34" display="Pull.png" r:id="rId162"/>
+    <hyperlink ref="B34" display=".png" r:id="rId163"/>
+    <hyperlink ref="D34" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId164"/>
+    <hyperlink ref="F34" display="Pull.png" r:id="rId165"/>
+    <hyperlink ref="G34" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId166"/>
+    <hyperlink ref="A35" display="Push.png" r:id="rId167"/>
+    <hyperlink ref="B35" display=".png" r:id="rId168"/>
+    <hyperlink ref="D35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId169"/>
+    <hyperlink ref="F35" display="Push.png" r:id="rId170"/>
+    <hyperlink ref="G35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId171"/>
+    <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId172"/>
+    <hyperlink ref="B36" display=".md" r:id="rId173"/>
+    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId174"/>
+    <hyperlink ref="F36" display="lnxArchiveResource.md" r:id="rId175"/>
+    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId176"/>
+    <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId177"/>
+    <hyperlink ref="B37" display=".md" r:id="rId178"/>
+    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId179"/>
+    <hyperlink ref="F37" display="lnxEnvironmentResource.md" r:id="rId180"/>
+    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId181"/>
+    <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId182"/>
+    <hyperlink ref="B38" display=".md" r:id="rId183"/>
+    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId184"/>
+    <hyperlink ref="F38" display="lnxFileLineResource.md" r:id="rId185"/>
+    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId186"/>
+    <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId187"/>
+    <hyperlink ref="B39" display=".md" r:id="rId188"/>
+    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId189"/>
+    <hyperlink ref="F39" display="lnxFileResource.md" r:id="rId190"/>
+    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId191"/>
+    <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId192"/>
+    <hyperlink ref="B40" display=".md" r:id="rId193"/>
+    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId194"/>
+    <hyperlink ref="F40" display="lnxGroupResource.md" r:id="rId195"/>
+    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId196"/>
+    <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId197"/>
+    <hyperlink ref="B41" display=".md" r:id="rId198"/>
+    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId199"/>
+    <hyperlink ref="F41" display="lnxPackageResource.md" r:id="rId200"/>
+    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId201"/>
+    <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId202"/>
+    <hyperlink ref="B42" display=".md" r:id="rId203"/>
+    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId204"/>
+    <hyperlink ref="F42" display="lnxScriptResource.md" r:id="rId205"/>
+    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId206"/>
+    <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId207"/>
+    <hyperlink ref="B43" display=".md" r:id="rId208"/>
+    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId209"/>
+    <hyperlink ref="F43" display="lnxServiceResource.md" r:id="rId210"/>
+    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId211"/>
+    <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId212"/>
+    <hyperlink ref="B44" display=".md" r:id="rId213"/>
+    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId214"/>
+    <hyperlink ref="F44" display="lnxSshAuthorizedKeysResource.md" r:id="rId215"/>
+    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId216"/>
+    <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId217"/>
+    <hyperlink ref="B45" display=".md" r:id="rId218"/>
+    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId219"/>
+    <hyperlink ref="F45" display="lnxUserResource.md" r:id="rId220"/>
+    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId221"/>
+    <hyperlink ref="A46" display="logResource.md" r:id="rId222"/>
+    <hyperlink ref="B46" display=".md" r:id="rId223"/>
+    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId224"/>
+    <hyperlink ref="F46" display="logResource.md" r:id="rId225"/>
+    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId226"/>
+    <hyperlink ref="A47" display="metaConfig4.md" r:id="rId227"/>
+    <hyperlink ref="B47" display=".md" r:id="rId228"/>
+    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId229"/>
+    <hyperlink ref="F47" display="metaConfig4.md" r:id="rId230"/>
+    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId231"/>
+    <hyperlink ref="A48" display="overview.md" r:id="rId232"/>
+    <hyperlink ref="B48" display=".md" r:id="rId233"/>
+    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId234"/>
+    <hyperlink ref="F48" display="overview.md" r:id="rId235"/>
+    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId236"/>
+    <hyperlink ref="A49" display="packageResource.md" r:id="rId237"/>
+    <hyperlink ref="B49" display=".md" r:id="rId238"/>
+    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId239"/>
+    <hyperlink ref="F49" display="packageResource.md" r:id="rId240"/>
+    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId241"/>
+    <hyperlink ref="A50" display="partialConfigs.md" r:id="rId242"/>
+    <hyperlink ref="B50" display=".md" r:id="rId243"/>
+    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId244"/>
+    <hyperlink ref="F50" display="partialConfigs.md" r:id="rId245"/>
+    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId246"/>
+    <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId247"/>
+    <hyperlink ref="B51" display=".md" r:id="rId248"/>
+    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId249"/>
+    <hyperlink ref="F51" display="queryServerNodes.md" r:id="rId250"/>
+    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId251"/>
+    <hyperlink ref="A52" display="registryResource.md" r:id="rId252"/>
+    <hyperlink ref="B52" display=".md" r:id="rId253"/>
+    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId254"/>
+    <hyperlink ref="F52" display="registryResource.md" r:id="rId255"/>
+    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId256"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
+    <hyperlink ref="B53" display=".md" r:id="rId258"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId259"/>
+    <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId261"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
+    <hyperlink ref="B54" display=".md" r:id="rId263"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId264"/>
+    <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId266"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
+    <hyperlink ref="B55" display=".md" r:id="rId268"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId269"/>
+    <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId271"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
+    <hyperlink ref="B56" display=".md" r:id="rId273"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId274"/>
+    <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId276"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
+    <hyperlink ref="B57" display=".md" r:id="rId278"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId279"/>
+    <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId281"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
+    <hyperlink ref="B58" display=".md" r:id="rId283"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId284"/>
+    <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId286"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
+    <hyperlink ref="B59" display=".md" r:id="rId288"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId289"/>
+    <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId291"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
+    <sheet name="ko-kr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>fr-fr</t>
+    <t>ko-kr</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -237,109 +237,109 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:38</t>
-  </si>
-  <si>
-    <t>2016-03-22 17:43:05</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:35</t>
+  </si>
+  <si>
+    <t>2016-03-22 07:00:42</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-22 23:29:23</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:52</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-23 03:13:47</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:43:45</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -348,10 +348,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:43</t>
-  </si>
-  <si>
-    <t>2016-03-17 17:12:56</t>
+    <t>2016-03-11 01:03:30</t>
+  </si>
+  <si>
+    <t>2016-03-19 01:30:54</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -369,79 +369,76 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-22 17:02:44</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf</t>
   </si>
 </sst>
 </file>
@@ -498,7 +495,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ko-kr" displayName="ko_kr" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -521,7 +518,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="fr-fr"/>
+    <tableColumn id="2" name="ko-kr"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1304,7 +1301,7 @@
         <v>82</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>77</v>
@@ -1321,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>75</v>
@@ -1330,7 +1327,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>76</v>
@@ -1350,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>75</v>
@@ -1359,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>76</v>
@@ -1379,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>75</v>
@@ -1388,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>76</v>
@@ -1408,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>75</v>
@@ -1417,7 +1414,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>76</v>
@@ -1437,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>75</v>
@@ -1446,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>76</v>
@@ -1466,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>75</v>
@@ -1475,10 +1472,10 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>77</v>
@@ -1495,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>75</v>
@@ -1504,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>76</v>
@@ -1524,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>75</v>
@@ -1533,10 +1530,10 @@
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>77</v>
@@ -1594,7 +1591,7 @@
         <v>93</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>77</v>
@@ -1768,7 +1765,7 @@
         <v>100</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>77</v>
@@ -1942,7 +1939,7 @@
         <v>106</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>77</v>
@@ -2203,7 +2200,7 @@
         <v>120</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>77</v>
@@ -2220,7 +2217,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>75</v>
@@ -2229,7 +2226,7 @@
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>76</v>
@@ -2249,7 +2246,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>75</v>
@@ -2258,7 +2255,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>76</v>
@@ -2278,7 +2275,7 @@
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>75</v>
@@ -2287,7 +2284,7 @@
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>76</v>
@@ -2307,7 +2304,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>75</v>
@@ -2316,10 +2313,10 @@
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>77</v>
@@ -2336,7 +2333,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>97</v>
@@ -2345,7 +2342,7 @@
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>76</v>
@@ -2365,7 +2362,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>75</v>
@@ -2374,10 +2371,10 @@
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>77</v>
@@ -2394,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>75</v>
@@ -2403,7 +2400,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>76</v>
@@ -2423,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>75</v>
@@ -2432,7 +2429,7 @@
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>76</v>
@@ -2452,7 +2449,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>75</v>
@@ -2461,7 +2458,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>76</v>
@@ -2481,7 +2478,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>75</v>
@@ -2490,7 +2487,7 @@
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>76</v>
@@ -2510,7 +2507,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>75</v>
@@ -2519,7 +2516,7 @@
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>76</v>
@@ -2539,7 +2536,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>75</v>
@@ -2548,7 +2545,7 @@
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>76</v>
@@ -2568,7 +2565,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>75</v>
@@ -2577,7 +2574,7 @@
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>76</v>
@@ -2597,7 +2594,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>75</v>
@@ -2606,7 +2603,7 @@
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>76</v>
@@ -2626,7 +2623,7 @@
         <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>75</v>
@@ -2635,10 +2632,10 @@
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>77</v>
@@ -2655,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -2664,7 +2661,7 @@
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>76</v>
@@ -2684,7 +2681,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>75</v>
@@ -2693,7 +2690,7 @@
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>76</v>
@@ -2713,7 +2710,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>75</v>
@@ -2722,7 +2719,7 @@
         <v>58</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>76</v>
@@ -2742,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>75</v>
@@ -2751,7 +2748,7 @@
         <v>59</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>76</v>
@@ -2771,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>75</v>
@@ -2780,7 +2777,7 @@
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>76</v>
@@ -2800,7 +2797,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
@@ -2809,7 +2806,7 @@
         <v>61</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>76</v>
@@ -2822,154 +2819,154 @@
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId6"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId6"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId9"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId11"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId11"/>
     <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId14"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId14"/>
     <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId16"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId16"/>
     <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId19"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId19"/>
     <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId21"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId21"/>
     <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId24"/>
     <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId26"/>
+    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId26"/>
     <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId29"/>
+    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId29"/>
     <hyperlink ref="F7" display="lnxGettingStarted.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId31"/>
+    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId31"/>
     <hyperlink ref="A8" display="metaConfig.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId34"/>
+    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId34"/>
     <hyperlink ref="F8" display="metaConfig.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId36"/>
+    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId36"/>
     <hyperlink ref="A9" display="pullClient.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId39"/>
+    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId39"/>
     <hyperlink ref="F9" display="pullClient.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId41"/>
+    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId41"/>
     <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId44"/>
+    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId44"/>
     <hyperlink ref="F10" display="pullClientConfigID.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId46"/>
+    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId46"/>
     <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId49"/>
+    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId49"/>
     <hyperlink ref="F11" display="pullClientConfigID4.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId51"/>
+    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId51"/>
     <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId54"/>
+    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId54"/>
     <hyperlink ref="F12" display="pullClientConfigNames.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId56"/>
+    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId56"/>
     <hyperlink ref="A13" display="pullServer.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId59"/>
+    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId59"/>
     <hyperlink ref="F13" display="pullServer.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId61"/>
+    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId61"/>
     <hyperlink ref="A14" display="reportServer.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId64"/>
+    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId64"/>
     <hyperlink ref="F14" display="reportServer.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId66"/>
+    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId66"/>
     <hyperlink ref="A15" display="secureMOF.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId69"/>
+    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf" r:id="rId69"/>
     <hyperlink ref="F15" display="secureMOF.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId71"/>
+    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf" r:id="rId71"/>
     <hyperlink ref="A16" display="TOC.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId74"/>
+    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId74"/>
     <hyperlink ref="F16" display="TOC.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId76"/>
+    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId76"/>
     <hyperlink ref="A17" display="troubleshooting.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId79"/>
+    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf" r:id="rId79"/>
     <hyperlink ref="F17" display="troubleshooting.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId81"/>
+    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf" r:id="rId81"/>
     <hyperlink ref="A18" display="archiveResource.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId84"/>
+    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId84"/>
     <hyperlink ref="F18" display="archiveResource.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId86"/>
+    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId86"/>
     <hyperlink ref="A19" display="authoringResource.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId89"/>
+    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId89"/>
     <hyperlink ref="F19" display="authoringResource.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId91"/>
+    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId91"/>
     <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId94"/>
+    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId94"/>
     <hyperlink ref="F20" display="authoringResourceClass.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId96"/>
+    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId96"/>
     <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId99"/>
+    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId99"/>
     <hyperlink ref="F21" display="authoringResourceComposite.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId101"/>
+    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId101"/>
     <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId104"/>
+    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId104"/>
     <hyperlink ref="F22" display="authoringResourceMOF.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId106"/>
+    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId106"/>
     <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId107"/>
     <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId109"/>
+    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId109"/>
     <hyperlink ref="F23" display="authoringResourceMofCS.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId111"/>
+    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId111"/>
     <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId112"/>
     <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId114"/>
+    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId114"/>
     <hyperlink ref="F24" display="authoringResourceMofDesigner.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId116"/>
+    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId116"/>
     <hyperlink ref="A25" display="configData.md" r:id="rId117"/>
     <hyperlink ref="B25" display=".md" r:id="rId118"/>
-    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId119"/>
+    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId119"/>
     <hyperlink ref="F25" display="configData.md" r:id="rId120"/>
-    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId121"/>
+    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId121"/>
     <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId122"/>
     <hyperlink ref="B26" display=".md" r:id="rId123"/>
-    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId124"/>
+    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId124"/>
     <hyperlink ref="F26" display="configDataCredentials.md" r:id="rId125"/>
-    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId126"/>
+    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId126"/>
     <hyperlink ref="A27" display="configurations.md" r:id="rId127"/>
     <hyperlink ref="B27" display=".md" r:id="rId128"/>
-    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId129"/>
+    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId129"/>
     <hyperlink ref="F27" display="configurations.md" r:id="rId130"/>
-    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId131"/>
+    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId131"/>
     <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId132"/>
     <hyperlink ref="B28" display=".md" r:id="rId133"/>
-    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId134"/>
+    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId134"/>
     <hyperlink ref="F28" display="enactingConfigurations.md" r:id="rId135"/>
-    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId136"/>
+    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId136"/>
     <hyperlink ref="A29" display="environmentResource.md" r:id="rId137"/>
     <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId139"/>
+    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf" r:id="rId139"/>
     <hyperlink ref="F29" display="environmentResource.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId141"/>
+    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf" r:id="rId141"/>
     <hyperlink ref="A30" display="fileResource.md" r:id="rId142"/>
     <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId144"/>
+    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId144"/>
     <hyperlink ref="F30" display="fileResource.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId146"/>
+    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId146"/>
     <hyperlink ref="A31" display="groupResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId149"/>
+    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId149"/>
     <hyperlink ref="F31" display="groupResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId151"/>
+    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId151"/>
     <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId152"/>
     <hyperlink ref="B32" display=".jpg" r:id="rId153"/>
     <hyperlink ref="D32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId154"/>
@@ -2992,124 +2989,124 @@
     <hyperlink ref="G35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId171"/>
     <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId174"/>
+    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId174"/>
     <hyperlink ref="F36" display="lnxArchiveResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId176"/>
+    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId176"/>
     <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId179"/>
+    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId179"/>
     <hyperlink ref="F37" display="lnxEnvironmentResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId181"/>
+    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId181"/>
     <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId184"/>
+    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId184"/>
     <hyperlink ref="F38" display="lnxFileLineResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId186"/>
+    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId186"/>
     <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId189"/>
+    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId189"/>
     <hyperlink ref="F39" display="lnxFileResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId191"/>
+    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId191"/>
     <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId194"/>
+    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId194"/>
     <hyperlink ref="F40" display="lnxGroupResource.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId196"/>
+    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId196"/>
     <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId199"/>
+    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId199"/>
     <hyperlink ref="F41" display="lnxPackageResource.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId201"/>
+    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId201"/>
     <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId204"/>
+    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId204"/>
     <hyperlink ref="F42" display="lnxScriptResource.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId206"/>
+    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId206"/>
     <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId209"/>
+    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId209"/>
     <hyperlink ref="F43" display="lnxServiceResource.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId211"/>
+    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId211"/>
     <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId214"/>
+    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId214"/>
     <hyperlink ref="F44" display="lnxSshAuthorizedKeysResource.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId216"/>
+    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId216"/>
     <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId219"/>
+    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId219"/>
     <hyperlink ref="F45" display="lnxUserResource.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId221"/>
+    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId221"/>
     <hyperlink ref="A46" display="logResource.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId224"/>
+    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId224"/>
     <hyperlink ref="F46" display="logResource.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId226"/>
+    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId226"/>
     <hyperlink ref="A47" display="metaConfig4.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId229"/>
+    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId229"/>
     <hyperlink ref="F47" display="metaConfig4.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId231"/>
+    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId231"/>
     <hyperlink ref="A48" display="overview.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId234"/>
+    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId234"/>
     <hyperlink ref="F48" display="overview.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId236"/>
+    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId236"/>
     <hyperlink ref="A49" display="packageResource.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId239"/>
+    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId239"/>
     <hyperlink ref="F49" display="packageResource.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId241"/>
+    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId241"/>
     <hyperlink ref="A50" display="partialConfigs.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId244"/>
+    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId244"/>
     <hyperlink ref="F50" display="partialConfigs.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId246"/>
+    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId246"/>
     <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId249"/>
+    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId249"/>
     <hyperlink ref="F51" display="queryServerNodes.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId251"/>
+    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId251"/>
     <hyperlink ref="A52" display="registryResource.md" r:id="rId252"/>
     <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId254"/>
+    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId254"/>
     <hyperlink ref="F52" display="registryResource.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId256"/>
+    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId256"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
     <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId259"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf" r:id="rId259"/>
     <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId261"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf" r:id="rId261"/>
     <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
     <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId264"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId264"/>
     <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId266"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId266"/>
     <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
     <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId269"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId269"/>
     <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId271"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId271"/>
     <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
     <hyperlink ref="B56" display=".md" r:id="rId273"/>
-    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId274"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId274"/>
     <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
-    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId276"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId276"/>
     <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
     <hyperlink ref="B57" display=".md" r:id="rId278"/>
-    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId279"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId279"/>
     <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
-    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId281"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId281"/>
     <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
     <hyperlink ref="B58" display=".md" r:id="rId283"/>
-    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId284"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId284"/>
     <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
-    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId286"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId286"/>
     <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
     <hyperlink ref="B59" display=".md" r:id="rId288"/>
-    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId289"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId289"/>
     <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
-    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId291"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId291"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ko-kr" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ko-kr</t>
+    <t>de-de</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -237,109 +237,118 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:02:35</t>
-  </si>
-  <si>
-    <t>2016-03-22 07:00:42</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:20</t>
+  </si>
+  <si>
+    <t>2016-03-22 17:21:05</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-23 03:13:47</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:43:45</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 22:37:42</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:14:51</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:11:44</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:44</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-23 03:44:37</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -348,10 +357,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:03:30</t>
-  </si>
-  <si>
-    <t>2016-03-19 01:30:54</t>
+    <t>2016-03-11 01:02:28</t>
+  </si>
+  <si>
+    <t>2016-03-17 02:07:40</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -369,76 +378,76 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -495,7 +504,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ko-kr" displayName="ko_kr" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -518,7 +527,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ko-kr"/>
+    <tableColumn id="2" name="de-de"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1272,7 +1281,7 @@
         <v>81</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>77</v>
@@ -1289,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>75</v>
@@ -1298,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>76</v>
@@ -1318,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>75</v>
@@ -1327,10 +1336,10 @@
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>77</v>
@@ -1347,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>75</v>
@@ -1356,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>76</v>
@@ -1376,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>75</v>
@@ -1385,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>76</v>
@@ -1405,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>75</v>
@@ -1414,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>76</v>
@@ -1434,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>75</v>
@@ -1443,10 +1452,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>77</v>
@@ -1463,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>75</v>
@@ -1472,10 +1481,10 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>77</v>
@@ -1492,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>75</v>
@@ -1501,7 +1510,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>76</v>
@@ -1521,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>75</v>
@@ -1530,10 +1539,10 @@
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>77</v>
@@ -1550,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>75</v>
@@ -1559,7 +1568,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>76</v>
@@ -1579,7 +1588,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>75</v>
@@ -1588,7 +1597,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>91</v>
@@ -1608,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>75</v>
@@ -1617,7 +1626,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>76</v>
@@ -1637,7 +1646,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>75</v>
@@ -1646,7 +1655,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>76</v>
@@ -1666,16 +1675,16 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>76</v>
@@ -1695,7 +1704,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>75</v>
@@ -1704,7 +1713,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>76</v>
@@ -1724,7 +1733,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>75</v>
@@ -1733,10 +1742,10 @@
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>77</v>
@@ -1753,7 +1762,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>75</v>
@@ -1762,7 +1771,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>76</v>
@@ -1782,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>75</v>
@@ -1791,7 +1800,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>76</v>
@@ -1811,7 +1820,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>75</v>
@@ -1820,10 +1829,10 @@
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>77</v>
@@ -1840,7 +1849,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>75</v>
@@ -1849,7 +1858,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>76</v>
@@ -1869,7 +1878,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>75</v>
@@ -1878,7 +1887,7 @@
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>76</v>
@@ -1898,7 +1907,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>75</v>
@@ -1907,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>76</v>
@@ -1927,7 +1936,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>75</v>
@@ -1936,10 +1945,10 @@
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>77</v>
@@ -1956,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>75</v>
@@ -1965,7 +1974,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>76</v>
@@ -1985,7 +1994,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1994,7 +2003,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>76</v>
@@ -2008,28 +2017,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -2037,28 +2046,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -2066,28 +2075,28 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -2095,28 +2104,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -2130,7 +2139,7 @@
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>75</v>
@@ -2139,7 +2148,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>76</v>
@@ -2159,7 +2168,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>75</v>
@@ -2168,7 +2177,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>76</v>
@@ -2188,7 +2197,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>75</v>
@@ -2197,7 +2206,7 @@
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>76</v>
@@ -2217,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>75</v>
@@ -2226,7 +2235,7 @@
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>76</v>
@@ -2246,7 +2255,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>75</v>
@@ -2255,10 +2264,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>77</v>
@@ -2275,7 +2284,7 @@
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>75</v>
@@ -2284,7 +2293,7 @@
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>76</v>
@@ -2304,7 +2313,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>75</v>
@@ -2313,7 +2322,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>76</v>
@@ -2333,16 +2342,16 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>76</v>
@@ -2362,7 +2371,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>75</v>
@@ -2371,7 +2380,7 @@
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>76</v>
@@ -2391,7 +2400,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>75</v>
@@ -2400,7 +2409,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>76</v>
@@ -2420,7 +2429,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>75</v>
@@ -2429,7 +2438,7 @@
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>76</v>
@@ -2449,7 +2458,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>75</v>
@@ -2458,7 +2467,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>76</v>
@@ -2478,7 +2487,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>75</v>
@@ -2487,7 +2496,7 @@
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>76</v>
@@ -2507,7 +2516,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>75</v>
@@ -2516,7 +2525,7 @@
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>76</v>
@@ -2536,7 +2545,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>75</v>
@@ -2545,7 +2554,7 @@
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>76</v>
@@ -2565,7 +2574,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>75</v>
@@ -2574,7 +2583,7 @@
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>76</v>
@@ -2594,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>75</v>
@@ -2603,7 +2612,7 @@
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>76</v>
@@ -2623,7 +2632,7 @@
         <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>75</v>
@@ -2632,10 +2641,10 @@
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>77</v>
@@ -2652,7 +2661,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -2661,7 +2670,7 @@
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>76</v>
@@ -2681,7 +2690,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>75</v>
@@ -2690,7 +2699,7 @@
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>76</v>
@@ -2710,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>75</v>
@@ -2719,7 +2728,7 @@
         <v>58</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>76</v>
@@ -2739,7 +2748,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>75</v>
@@ -2748,7 +2757,7 @@
         <v>59</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>76</v>
@@ -2768,7 +2777,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>75</v>
@@ -2777,10 +2786,10 @@
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>77</v>
@@ -2797,7 +2806,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
@@ -2806,10 +2815,10 @@
         <v>61</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>77</v>
@@ -2819,154 +2828,154 @@
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId6"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId6"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId9"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId11"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId14"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId14"/>
     <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId16"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId16"/>
     <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId19"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId19"/>
     <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId21"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId24"/>
     <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId26"/>
+    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId26"/>
     <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId29"/>
+    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId29"/>
     <hyperlink ref="F7" display="lnxGettingStarted.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId31"/>
+    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId31"/>
     <hyperlink ref="A8" display="metaConfig.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId34"/>
+    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId34"/>
     <hyperlink ref="F8" display="metaConfig.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId36"/>
+    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId36"/>
     <hyperlink ref="A9" display="pullClient.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId39"/>
+    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId39"/>
     <hyperlink ref="F9" display="pullClient.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId41"/>
+    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId41"/>
     <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId44"/>
+    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId44"/>
     <hyperlink ref="F10" display="pullClientConfigID.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId46"/>
+    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId46"/>
     <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId49"/>
+    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId49"/>
     <hyperlink ref="F11" display="pullClientConfigID4.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId51"/>
+    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId51"/>
     <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId54"/>
+    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId54"/>
     <hyperlink ref="F12" display="pullClientConfigNames.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId56"/>
+    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId56"/>
     <hyperlink ref="A13" display="pullServer.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId59"/>
+    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId59"/>
     <hyperlink ref="F13" display="pullServer.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId61"/>
+    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId61"/>
     <hyperlink ref="A14" display="reportServer.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId64"/>
+    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId64"/>
     <hyperlink ref="F14" display="reportServer.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId66"/>
+    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId66"/>
     <hyperlink ref="A15" display="secureMOF.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf" r:id="rId69"/>
+    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId69"/>
     <hyperlink ref="F15" display="secureMOF.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf" r:id="rId71"/>
+    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId71"/>
     <hyperlink ref="A16" display="TOC.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId74"/>
+    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId74"/>
     <hyperlink ref="F16" display="TOC.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId76"/>
+    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId76"/>
     <hyperlink ref="A17" display="troubleshooting.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf" r:id="rId79"/>
+    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId79"/>
     <hyperlink ref="F17" display="troubleshooting.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf" r:id="rId81"/>
+    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId81"/>
     <hyperlink ref="A18" display="archiveResource.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId84"/>
+    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId84"/>
     <hyperlink ref="F18" display="archiveResource.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId86"/>
+    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId86"/>
     <hyperlink ref="A19" display="authoringResource.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId89"/>
+    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId89"/>
     <hyperlink ref="F19" display="authoringResource.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId91"/>
+    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId91"/>
     <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId94"/>
+    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId94"/>
     <hyperlink ref="F20" display="authoringResourceClass.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId96"/>
+    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId96"/>
     <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId99"/>
+    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId99"/>
     <hyperlink ref="F21" display="authoringResourceComposite.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId101"/>
+    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId101"/>
     <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId104"/>
+    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId104"/>
     <hyperlink ref="F22" display="authoringResourceMOF.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId106"/>
+    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId106"/>
     <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId107"/>
     <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId109"/>
+    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId109"/>
     <hyperlink ref="F23" display="authoringResourceMofCS.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId111"/>
+    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId111"/>
     <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId112"/>
     <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId114"/>
+    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId114"/>
     <hyperlink ref="F24" display="authoringResourceMofDesigner.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId116"/>
+    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId116"/>
     <hyperlink ref="A25" display="configData.md" r:id="rId117"/>
     <hyperlink ref="B25" display=".md" r:id="rId118"/>
-    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId119"/>
+    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId119"/>
     <hyperlink ref="F25" display="configData.md" r:id="rId120"/>
-    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId121"/>
+    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId121"/>
     <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId122"/>
     <hyperlink ref="B26" display=".md" r:id="rId123"/>
-    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId124"/>
+    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId124"/>
     <hyperlink ref="F26" display="configDataCredentials.md" r:id="rId125"/>
-    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId126"/>
+    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId126"/>
     <hyperlink ref="A27" display="configurations.md" r:id="rId127"/>
     <hyperlink ref="B27" display=".md" r:id="rId128"/>
-    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId129"/>
+    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId129"/>
     <hyperlink ref="F27" display="configurations.md" r:id="rId130"/>
-    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId131"/>
+    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId131"/>
     <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId132"/>
     <hyperlink ref="B28" display=".md" r:id="rId133"/>
-    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId134"/>
+    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId134"/>
     <hyperlink ref="F28" display="enactingConfigurations.md" r:id="rId135"/>
-    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId136"/>
+    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId136"/>
     <hyperlink ref="A29" display="environmentResource.md" r:id="rId137"/>
     <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf" r:id="rId139"/>
+    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId139"/>
     <hyperlink ref="F29" display="environmentResource.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf" r:id="rId141"/>
+    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId141"/>
     <hyperlink ref="A30" display="fileResource.md" r:id="rId142"/>
     <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId144"/>
+    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId144"/>
     <hyperlink ref="F30" display="fileResource.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId146"/>
+    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId146"/>
     <hyperlink ref="A31" display="groupResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId149"/>
+    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId149"/>
     <hyperlink ref="F31" display="groupResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId151"/>
+    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId151"/>
     <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId152"/>
     <hyperlink ref="B32" display=".jpg" r:id="rId153"/>
     <hyperlink ref="D32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId154"/>
@@ -2989,124 +2998,124 @@
     <hyperlink ref="G35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId171"/>
     <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId174"/>
+    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId174"/>
     <hyperlink ref="F36" display="lnxArchiveResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId176"/>
+    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId176"/>
     <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId179"/>
+    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId179"/>
     <hyperlink ref="F37" display="lnxEnvironmentResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId181"/>
+    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId181"/>
     <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId184"/>
+    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId184"/>
     <hyperlink ref="F38" display="lnxFileLineResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId186"/>
+    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId186"/>
     <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId189"/>
+    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId189"/>
     <hyperlink ref="F39" display="lnxFileResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId191"/>
+    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId191"/>
     <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId194"/>
+    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId194"/>
     <hyperlink ref="F40" display="lnxGroupResource.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId196"/>
+    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId196"/>
     <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId199"/>
+    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId199"/>
     <hyperlink ref="F41" display="lnxPackageResource.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId201"/>
+    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId201"/>
     <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId204"/>
+    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId204"/>
     <hyperlink ref="F42" display="lnxScriptResource.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId206"/>
+    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId206"/>
     <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId209"/>
+    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId209"/>
     <hyperlink ref="F43" display="lnxServiceResource.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId211"/>
+    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId211"/>
     <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId214"/>
+    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId214"/>
     <hyperlink ref="F44" display="lnxSshAuthorizedKeysResource.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId216"/>
+    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId216"/>
     <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId219"/>
+    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId219"/>
     <hyperlink ref="F45" display="lnxUserResource.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId221"/>
+    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId221"/>
     <hyperlink ref="A46" display="logResource.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId224"/>
+    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId224"/>
     <hyperlink ref="F46" display="logResource.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId226"/>
+    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId226"/>
     <hyperlink ref="A47" display="metaConfig4.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId229"/>
+    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId229"/>
     <hyperlink ref="F47" display="metaConfig4.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId231"/>
+    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId231"/>
     <hyperlink ref="A48" display="overview.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId234"/>
+    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId234"/>
     <hyperlink ref="F48" display="overview.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId236"/>
+    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId236"/>
     <hyperlink ref="A49" display="packageResource.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId239"/>
+    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId239"/>
     <hyperlink ref="F49" display="packageResource.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId241"/>
+    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId241"/>
     <hyperlink ref="A50" display="partialConfigs.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId244"/>
+    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId244"/>
     <hyperlink ref="F50" display="partialConfigs.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId246"/>
+    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId246"/>
     <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId249"/>
+    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId249"/>
     <hyperlink ref="F51" display="queryServerNodes.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId251"/>
+    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId251"/>
     <hyperlink ref="A52" display="registryResource.md" r:id="rId252"/>
     <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId254"/>
+    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId254"/>
     <hyperlink ref="F52" display="registryResource.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId256"/>
+    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId256"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
     <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf" r:id="rId259"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId259"/>
     <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf" r:id="rId261"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId261"/>
     <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
     <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId264"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId264"/>
     <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId266"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId266"/>
     <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
     <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId269"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId269"/>
     <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId271"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId271"/>
     <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
     <hyperlink ref="B56" display=".md" r:id="rId273"/>
-    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId274"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId274"/>
     <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
-    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId276"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId276"/>
     <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
     <hyperlink ref="B57" display=".md" r:id="rId278"/>
-    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId279"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId279"/>
     <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
-    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId281"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId281"/>
     <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
     <hyperlink ref="B58" display=".md" r:id="rId283"/>
-    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId284"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId284"/>
     <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
-    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId286"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId286"/>
     <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
     <hyperlink ref="B59" display=".md" r:id="rId288"/>
-    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId289"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId289"/>
     <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
-    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId291"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId291"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="it-it" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>it-it</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -237,118 +237,109 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:20</t>
-  </si>
-  <si>
-    <t>2016-03-22 17:21:05</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:03:15</t>
+  </si>
+  <si>
+    <t>2016-03-23 04:12:30</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 22:37:42</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:14:51</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:11:44</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:44</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-23 03:44:37</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-22 01:23:06</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:44:06</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -357,10 +348,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:28</t>
-  </si>
-  <si>
-    <t>2016-03-17 02:07:40</t>
+    <t>2016-03-11 01:04:01</t>
+  </si>
+  <si>
+    <t>2016-03-17 01:40:10</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -378,76 +369,76 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf</t>
   </si>
 </sst>
 </file>
@@ -504,7 +495,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -527,7 +518,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="de-de"/>
+    <tableColumn id="2" name="it-it"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1223,7 +1214,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>77</v>
@@ -1240,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>75</v>
@@ -1249,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>76</v>
@@ -1269,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>75</v>
@@ -1278,10 +1269,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>77</v>
@@ -1339,7 +1330,7 @@
         <v>84</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>77</v>
@@ -1356,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>75</v>
@@ -1365,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>76</v>
@@ -1385,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>75</v>
@@ -1394,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>76</v>
@@ -1414,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>75</v>
@@ -1423,7 +1414,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>76</v>
@@ -1443,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>75</v>
@@ -1452,10 +1443,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>77</v>
@@ -1472,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>75</v>
@@ -1481,10 +1472,10 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>77</v>
@@ -1501,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>75</v>
@@ -1510,7 +1501,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>76</v>
@@ -1530,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>75</v>
@@ -1539,7 +1530,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>76</v>
@@ -1559,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>75</v>
@@ -1568,7 +1559,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>76</v>
@@ -1588,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>75</v>
@@ -1597,10 +1588,10 @@
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>77</v>
@@ -1617,7 +1608,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>75</v>
@@ -1626,7 +1617,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>76</v>
@@ -1646,7 +1637,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>75</v>
@@ -1655,7 +1646,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>76</v>
@@ -1675,16 +1666,16 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>76</v>
@@ -1704,7 +1695,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>75</v>
@@ -1713,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>76</v>
@@ -1733,7 +1724,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>75</v>
@@ -1742,10 +1733,10 @@
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>77</v>
@@ -1762,7 +1753,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>75</v>
@@ -1771,7 +1762,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>76</v>
@@ -1791,7 +1782,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>75</v>
@@ -1800,7 +1791,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>76</v>
@@ -1820,7 +1811,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>75</v>
@@ -1829,10 +1820,10 @@
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>77</v>
@@ -1849,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>75</v>
@@ -1858,7 +1849,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>76</v>
@@ -1878,7 +1869,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>75</v>
@@ -1887,10 +1878,10 @@
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>77</v>
@@ -1907,7 +1898,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>75</v>
@@ -1916,7 +1907,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>76</v>
@@ -1936,7 +1927,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>75</v>
@@ -1945,7 +1936,7 @@
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>76</v>
@@ -1965,7 +1956,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>75</v>
@@ -1974,10 +1965,10 @@
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>77</v>
@@ -1994,7 +1985,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -2003,7 +1994,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>76</v>
@@ -2017,28 +2008,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -2046,28 +2037,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -2075,28 +2066,28 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -2104,28 +2095,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -2139,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>75</v>
@@ -2148,7 +2139,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>76</v>
@@ -2168,7 +2159,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>75</v>
@@ -2177,7 +2168,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>76</v>
@@ -2197,7 +2188,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>75</v>
@@ -2206,7 +2197,7 @@
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>76</v>
@@ -2226,7 +2217,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>75</v>
@@ -2235,7 +2226,7 @@
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>76</v>
@@ -2255,7 +2246,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>75</v>
@@ -2264,10 +2255,10 @@
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>77</v>
@@ -2284,7 +2275,7 @@
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>75</v>
@@ -2293,7 +2284,7 @@
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>76</v>
@@ -2313,7 +2304,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>75</v>
@@ -2322,7 +2313,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>76</v>
@@ -2342,16 +2333,16 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>76</v>
@@ -2371,7 +2362,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>75</v>
@@ -2380,7 +2371,7 @@
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>76</v>
@@ -2400,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>75</v>
@@ -2409,7 +2400,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>76</v>
@@ -2429,7 +2420,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>75</v>
@@ -2438,7 +2429,7 @@
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>76</v>
@@ -2458,7 +2449,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>75</v>
@@ -2467,7 +2458,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>76</v>
@@ -2487,7 +2478,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>75</v>
@@ -2496,7 +2487,7 @@
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>76</v>
@@ -2516,7 +2507,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>75</v>
@@ -2525,7 +2516,7 @@
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>76</v>
@@ -2545,7 +2536,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>75</v>
@@ -2554,7 +2545,7 @@
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>76</v>
@@ -2574,7 +2565,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>75</v>
@@ -2583,7 +2574,7 @@
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>76</v>
@@ -2603,7 +2594,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>75</v>
@@ -2612,7 +2603,7 @@
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>76</v>
@@ -2632,7 +2623,7 @@
         <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>75</v>
@@ -2641,7 +2632,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>76</v>
@@ -2661,7 +2652,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -2670,7 +2661,7 @@
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>76</v>
@@ -2690,7 +2681,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>75</v>
@@ -2699,7 +2690,7 @@
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>76</v>
@@ -2719,7 +2710,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>75</v>
@@ -2728,7 +2719,7 @@
         <v>58</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>76</v>
@@ -2748,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>75</v>
@@ -2757,7 +2748,7 @@
         <v>59</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>76</v>
@@ -2777,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>75</v>
@@ -2786,10 +2777,10 @@
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>77</v>
@@ -2806,7 +2797,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
@@ -2815,10 +2806,10 @@
         <v>61</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>77</v>
@@ -2828,154 +2819,154 @@
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId6"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf" r:id="rId6"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf" r:id="rId11"/>
     <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId14"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf" r:id="rId14"/>
     <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId16"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf" r:id="rId16"/>
     <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf" r:id="rId19"/>
     <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf" r:id="rId21"/>
     <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf" r:id="rId24"/>
     <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId26"/>
+    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf" r:id="rId26"/>
     <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf" r:id="rId29"/>
     <hyperlink ref="F7" display="lnxGettingStarted.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf" r:id="rId31"/>
     <hyperlink ref="A8" display="metaConfig.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId34"/>
+    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf" r:id="rId34"/>
     <hyperlink ref="F8" display="metaConfig.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId36"/>
+    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf" r:id="rId36"/>
     <hyperlink ref="A9" display="pullClient.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf" r:id="rId39"/>
     <hyperlink ref="F9" display="pullClient.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf" r:id="rId41"/>
     <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId44"/>
+    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf" r:id="rId44"/>
     <hyperlink ref="F10" display="pullClientConfigID.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId46"/>
+    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf" r:id="rId46"/>
     <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId49"/>
+    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf" r:id="rId49"/>
     <hyperlink ref="F11" display="pullClientConfigID4.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId51"/>
+    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf" r:id="rId51"/>
     <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId54"/>
+    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf" r:id="rId54"/>
     <hyperlink ref="F12" display="pullClientConfigNames.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId56"/>
+    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf" r:id="rId56"/>
     <hyperlink ref="A13" display="pullServer.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId59"/>
+    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf" r:id="rId59"/>
     <hyperlink ref="F13" display="pullServer.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId61"/>
+    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf" r:id="rId61"/>
     <hyperlink ref="A14" display="reportServer.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId64"/>
+    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf" r:id="rId64"/>
     <hyperlink ref="F14" display="reportServer.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId66"/>
+    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf" r:id="rId66"/>
     <hyperlink ref="A15" display="secureMOF.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId69"/>
+    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf" r:id="rId69"/>
     <hyperlink ref="F15" display="secureMOF.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId71"/>
+    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf" r:id="rId71"/>
     <hyperlink ref="A16" display="TOC.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId74"/>
+    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf" r:id="rId74"/>
     <hyperlink ref="F16" display="TOC.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId76"/>
+    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf" r:id="rId76"/>
     <hyperlink ref="A17" display="troubleshooting.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId79"/>
+    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf" r:id="rId79"/>
     <hyperlink ref="F17" display="troubleshooting.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId81"/>
+    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf" r:id="rId81"/>
     <hyperlink ref="A18" display="archiveResource.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId84"/>
+    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf" r:id="rId84"/>
     <hyperlink ref="F18" display="archiveResource.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId86"/>
+    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf" r:id="rId86"/>
     <hyperlink ref="A19" display="authoringResource.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId89"/>
+    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf" r:id="rId89"/>
     <hyperlink ref="F19" display="authoringResource.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId91"/>
+    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf" r:id="rId91"/>
     <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId94"/>
+    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf" r:id="rId94"/>
     <hyperlink ref="F20" display="authoringResourceClass.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId96"/>
+    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf" r:id="rId96"/>
     <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId99"/>
+    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf" r:id="rId99"/>
     <hyperlink ref="F21" display="authoringResourceComposite.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId101"/>
+    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf" r:id="rId101"/>
     <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId104"/>
+    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf" r:id="rId104"/>
     <hyperlink ref="F22" display="authoringResourceMOF.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId106"/>
+    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf" r:id="rId106"/>
     <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId107"/>
     <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId109"/>
+    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf" r:id="rId109"/>
     <hyperlink ref="F23" display="authoringResourceMofCS.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId111"/>
+    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf" r:id="rId111"/>
     <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId112"/>
     <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId114"/>
+    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf" r:id="rId114"/>
     <hyperlink ref="F24" display="authoringResourceMofDesigner.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId116"/>
+    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf" r:id="rId116"/>
     <hyperlink ref="A25" display="configData.md" r:id="rId117"/>
     <hyperlink ref="B25" display=".md" r:id="rId118"/>
-    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId119"/>
+    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf" r:id="rId119"/>
     <hyperlink ref="F25" display="configData.md" r:id="rId120"/>
-    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId121"/>
+    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf" r:id="rId121"/>
     <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId122"/>
     <hyperlink ref="B26" display=".md" r:id="rId123"/>
-    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId124"/>
+    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf" r:id="rId124"/>
     <hyperlink ref="F26" display="configDataCredentials.md" r:id="rId125"/>
-    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId126"/>
+    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf" r:id="rId126"/>
     <hyperlink ref="A27" display="configurations.md" r:id="rId127"/>
     <hyperlink ref="B27" display=".md" r:id="rId128"/>
-    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId129"/>
+    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf" r:id="rId129"/>
     <hyperlink ref="F27" display="configurations.md" r:id="rId130"/>
-    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId131"/>
+    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf" r:id="rId131"/>
     <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId132"/>
     <hyperlink ref="B28" display=".md" r:id="rId133"/>
-    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId134"/>
+    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf" r:id="rId134"/>
     <hyperlink ref="F28" display="enactingConfigurations.md" r:id="rId135"/>
-    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId136"/>
+    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf" r:id="rId136"/>
     <hyperlink ref="A29" display="environmentResource.md" r:id="rId137"/>
     <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId139"/>
+    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf" r:id="rId139"/>
     <hyperlink ref="F29" display="environmentResource.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId141"/>
+    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf" r:id="rId141"/>
     <hyperlink ref="A30" display="fileResource.md" r:id="rId142"/>
     <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId144"/>
+    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf" r:id="rId144"/>
     <hyperlink ref="F30" display="fileResource.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId146"/>
+    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf" r:id="rId146"/>
     <hyperlink ref="A31" display="groupResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId149"/>
+    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf" r:id="rId149"/>
     <hyperlink ref="F31" display="groupResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId151"/>
+    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf" r:id="rId151"/>
     <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId152"/>
     <hyperlink ref="B32" display=".jpg" r:id="rId153"/>
     <hyperlink ref="D32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId154"/>
@@ -2998,124 +2989,124 @@
     <hyperlink ref="G35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId171"/>
     <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId174"/>
+    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf" r:id="rId174"/>
     <hyperlink ref="F36" display="lnxArchiveResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId176"/>
+    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf" r:id="rId176"/>
     <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId179"/>
+    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf" r:id="rId179"/>
     <hyperlink ref="F37" display="lnxEnvironmentResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId181"/>
+    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf" r:id="rId181"/>
     <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId184"/>
+    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf" r:id="rId184"/>
     <hyperlink ref="F38" display="lnxFileLineResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId186"/>
+    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf" r:id="rId186"/>
     <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId189"/>
+    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf" r:id="rId189"/>
     <hyperlink ref="F39" display="lnxFileResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId191"/>
+    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf" r:id="rId191"/>
     <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId194"/>
+    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf" r:id="rId194"/>
     <hyperlink ref="F40" display="lnxGroupResource.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId196"/>
+    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf" r:id="rId196"/>
     <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId199"/>
+    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf" r:id="rId199"/>
     <hyperlink ref="F41" display="lnxPackageResource.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId201"/>
+    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf" r:id="rId201"/>
     <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId204"/>
+    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf" r:id="rId204"/>
     <hyperlink ref="F42" display="lnxScriptResource.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId206"/>
+    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf" r:id="rId206"/>
     <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId209"/>
+    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf" r:id="rId209"/>
     <hyperlink ref="F43" display="lnxServiceResource.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId211"/>
+    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf" r:id="rId211"/>
     <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId214"/>
+    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf" r:id="rId214"/>
     <hyperlink ref="F44" display="lnxSshAuthorizedKeysResource.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId216"/>
+    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf" r:id="rId216"/>
     <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId219"/>
+    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf" r:id="rId219"/>
     <hyperlink ref="F45" display="lnxUserResource.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId221"/>
+    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf" r:id="rId221"/>
     <hyperlink ref="A46" display="logResource.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId224"/>
+    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf" r:id="rId224"/>
     <hyperlink ref="F46" display="logResource.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId226"/>
+    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf" r:id="rId226"/>
     <hyperlink ref="A47" display="metaConfig4.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId229"/>
+    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf" r:id="rId229"/>
     <hyperlink ref="F47" display="metaConfig4.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId231"/>
+    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf" r:id="rId231"/>
     <hyperlink ref="A48" display="overview.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId234"/>
+    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf" r:id="rId234"/>
     <hyperlink ref="F48" display="overview.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId236"/>
+    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf" r:id="rId236"/>
     <hyperlink ref="A49" display="packageResource.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId239"/>
+    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf" r:id="rId239"/>
     <hyperlink ref="F49" display="packageResource.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId241"/>
+    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf" r:id="rId241"/>
     <hyperlink ref="A50" display="partialConfigs.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId244"/>
+    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf" r:id="rId244"/>
     <hyperlink ref="F50" display="partialConfigs.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId246"/>
+    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf" r:id="rId246"/>
     <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId249"/>
+    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf" r:id="rId249"/>
     <hyperlink ref="F51" display="queryServerNodes.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId251"/>
+    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf" r:id="rId251"/>
     <hyperlink ref="A52" display="registryResource.md" r:id="rId252"/>
     <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId254"/>
+    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf" r:id="rId254"/>
     <hyperlink ref="F52" display="registryResource.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId256"/>
+    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf" r:id="rId256"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
     <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId259"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf" r:id="rId259"/>
     <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId261"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf" r:id="rId261"/>
     <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
     <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId264"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf" r:id="rId264"/>
     <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId266"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf" r:id="rId266"/>
     <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
     <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId269"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf" r:id="rId269"/>
     <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId271"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf" r:id="rId271"/>
     <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
     <hyperlink ref="B56" display=".md" r:id="rId273"/>
-    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId274"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf" r:id="rId274"/>
     <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
-    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId276"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf" r:id="rId276"/>
     <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
     <hyperlink ref="B57" display=".md" r:id="rId278"/>
-    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId279"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf" r:id="rId279"/>
     <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
-    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId281"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf" r:id="rId281"/>
     <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
     <hyperlink ref="B58" display=".md" r:id="rId283"/>
-    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId284"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf" r:id="rId284"/>
     <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
-    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId286"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf" r:id="rId286"/>
     <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
     <hyperlink ref="B59" display=".md" r:id="rId288"/>
-    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId289"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf" r:id="rId289"/>
     <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
-    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId291"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf" r:id="rId291"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>File Name</t>
   </si>
@@ -255,88 +255,91 @@
     <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf</t>
   </si>
   <si>
+    <t>2016-03-23 04:56:13</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:44:06</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf</t>
+  </si>
+  <si>
     <t>2016-03-22 01:23:06</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:44:06</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf</t>
   </si>
   <si>
     <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf</t>
@@ -1968,7 +1971,7 @@
         <v>107</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>77</v>
@@ -1985,7 +1988,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1994,7 +1997,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>76</v>
@@ -2008,28 +2011,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -2037,28 +2040,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -2066,28 +2069,28 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -2095,28 +2098,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -2130,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>75</v>
@@ -2139,7 +2142,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>76</v>
@@ -2159,7 +2162,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>75</v>
@@ -2168,7 +2171,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>76</v>
@@ -2188,7 +2191,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>75</v>
@@ -2197,7 +2200,7 @@
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>76</v>
@@ -2217,7 +2220,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>75</v>
@@ -2226,7 +2229,7 @@
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>76</v>
@@ -2246,7 +2249,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>75</v>
@@ -2255,7 +2258,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>76</v>
@@ -2275,7 +2278,7 @@
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>75</v>
@@ -2284,7 +2287,7 @@
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>76</v>
@@ -2304,7 +2307,7 @@
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>75</v>
@@ -2313,7 +2316,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>76</v>
@@ -2333,7 +2336,7 @@
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>97</v>
@@ -2342,7 +2345,7 @@
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>76</v>
@@ -2362,7 +2365,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>75</v>
@@ -2371,7 +2374,7 @@
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>76</v>
@@ -2391,7 +2394,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>75</v>
@@ -2400,7 +2403,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>76</v>
@@ -2420,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>75</v>
@@ -2429,7 +2432,7 @@
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>76</v>
@@ -2449,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>75</v>
@@ -2458,7 +2461,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>76</v>
@@ -2478,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>75</v>
@@ -2487,7 +2490,7 @@
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>76</v>
@@ -2507,7 +2510,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>75</v>
@@ -2516,7 +2519,7 @@
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>76</v>
@@ -2536,7 +2539,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>75</v>
@@ -2545,7 +2548,7 @@
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>76</v>
@@ -2565,7 +2568,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>75</v>
@@ -2574,7 +2577,7 @@
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>76</v>
@@ -2594,7 +2597,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>75</v>
@@ -2603,7 +2606,7 @@
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>76</v>
@@ -2623,7 +2626,7 @@
         <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>75</v>
@@ -2632,7 +2635,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>76</v>
@@ -2652,7 +2655,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>75</v>
@@ -2661,7 +2664,7 @@
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>76</v>
@@ -2681,7 +2684,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>75</v>
@@ -2690,7 +2693,7 @@
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>76</v>
@@ -2710,7 +2713,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>75</v>
@@ -2719,7 +2722,7 @@
         <v>58</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>76</v>
@@ -2739,7 +2742,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>75</v>
@@ -2748,7 +2751,7 @@
         <v>59</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>76</v>
@@ -2768,7 +2771,7 @@
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>75</v>
@@ -2777,7 +2780,7 @@
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>76</v>
@@ -2797,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>75</v>
@@ -2806,7 +2809,7 @@
         <v>61</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>76</v>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -339,7 +339,7 @@
     <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf</t>
   </si>
   <si>
-    <t>2016-03-22 01:23:06</t>
+    <t>2016-03-23 08:28:53</t>
   </si>
   <si>
     <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf</t>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,7 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="it-it" sheetId="2" r:id="rId3"/>
+    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>it-it</t>
+    <t>fr-fr</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -237,112 +237,109 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:03:15</t>
-  </si>
-  <si>
-    <t>2016-03-23 04:12:30</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:38</t>
+  </si>
+  <si>
+    <t>2016-03-22 17:43:05</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-23 04:56:13</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:44:06</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-23 08:28:53</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-22 23:29:23</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:52</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -351,10 +348,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:04:01</t>
-  </si>
-  <si>
-    <t>2016-03-17 01:40:10</t>
+    <t>2016-03-11 01:02:43</t>
+  </si>
+  <si>
+    <t>2016-03-17 17:12:56</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -372,76 +369,79 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-23 08:35:07</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="it-it" displayName="it_it" ref="A1:L1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -521,7 +521,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="it-it"/>
+    <tableColumn id="2" name="fr-fr"/>
     <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1217,7 +1217,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>77</v>
@@ -1234,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>75</v>
@@ -1243,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>76</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>75</v>
@@ -1272,10 +1272,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>77</v>
@@ -1292,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>75</v>
@@ -1301,10 +1301,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>77</v>
@@ -1478,7 +1478,7 @@
         <v>89</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>77</v>
@@ -1768,7 +1768,7 @@
         <v>100</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>77</v>
@@ -1884,7 +1884,7 @@
         <v>104</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>77</v>
@@ -1971,7 +1971,7 @@
         <v>107</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>77</v>
@@ -1988,7 +1988,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1997,7 +1997,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>76</v>
@@ -2011,28 +2011,28 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -2040,28 +2040,28 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -2069,28 +2069,28 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H34" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -2098,28 +2098,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -2133,7 +2133,7 @@
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>75</v>
@@ -2142,7 +2142,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>76</v>
@@ -2162,7 +2162,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>75</v>
@@ -2171,7 +2171,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>76</v>
@@ -2191,7 +2191,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>75</v>
@@ -2200,10 +2200,10 @@
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>77</v>
@@ -2319,7 +2319,7 @@
         <v>125</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>77</v>
@@ -2377,7 +2377,7 @@
         <v>127</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>77</v>
@@ -2822,154 +2822,154 @@
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf" r:id="rId4"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId4"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.it-it.xlf" r:id="rId6"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId6"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
     <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf" r:id="rId9"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId9"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.it-it.xlf" r:id="rId11"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId11"/>
     <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
     <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf" r:id="rId14"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId14"/>
     <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.it-it.xlf" r:id="rId16"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId16"/>
     <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
     <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf" r:id="rId19"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId19"/>
     <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.it-it.xlf" r:id="rId21"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId21"/>
     <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId22"/>
     <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf" r:id="rId24"/>
+    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId24"/>
     <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.it-it.xlf" r:id="rId26"/>
+    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId26"/>
     <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId27"/>
     <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf" r:id="rId29"/>
+    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId29"/>
     <hyperlink ref="F7" display="lnxGettingStarted.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.it-it.xlf" r:id="rId31"/>
+    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId31"/>
     <hyperlink ref="A8" display="metaConfig.md" r:id="rId32"/>
     <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf" r:id="rId34"/>
+    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId34"/>
     <hyperlink ref="F8" display="metaConfig.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.it-it.xlf" r:id="rId36"/>
+    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId36"/>
     <hyperlink ref="A9" display="pullClient.md" r:id="rId37"/>
     <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf" r:id="rId39"/>
+    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId39"/>
     <hyperlink ref="F9" display="pullClient.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.it-it.xlf" r:id="rId41"/>
+    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId41"/>
     <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId42"/>
     <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf" r:id="rId44"/>
+    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId44"/>
     <hyperlink ref="F10" display="pullClientConfigID.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.it-it.xlf" r:id="rId46"/>
+    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId46"/>
     <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId47"/>
     <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf" r:id="rId49"/>
+    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId49"/>
     <hyperlink ref="F11" display="pullClientConfigID4.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.it-it.xlf" r:id="rId51"/>
+    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId51"/>
     <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId52"/>
     <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf" r:id="rId54"/>
+    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId54"/>
     <hyperlink ref="F12" display="pullClientConfigNames.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.it-it.xlf" r:id="rId56"/>
+    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId56"/>
     <hyperlink ref="A13" display="pullServer.md" r:id="rId57"/>
     <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf" r:id="rId59"/>
+    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId59"/>
     <hyperlink ref="F13" display="pullServer.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.it-it.xlf" r:id="rId61"/>
+    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId61"/>
     <hyperlink ref="A14" display="reportServer.md" r:id="rId62"/>
     <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf" r:id="rId64"/>
+    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId64"/>
     <hyperlink ref="F14" display="reportServer.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.it-it.xlf" r:id="rId66"/>
+    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId66"/>
     <hyperlink ref="A15" display="secureMOF.md" r:id="rId67"/>
     <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf" r:id="rId69"/>
+    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId69"/>
     <hyperlink ref="F15" display="secureMOF.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.it-it.xlf" r:id="rId71"/>
+    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId71"/>
     <hyperlink ref="A16" display="TOC.md" r:id="rId72"/>
     <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf" r:id="rId74"/>
+    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId74"/>
     <hyperlink ref="F16" display="TOC.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.it-it.xlf" r:id="rId76"/>
+    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId76"/>
     <hyperlink ref="A17" display="troubleshooting.md" r:id="rId77"/>
     <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf" r:id="rId79"/>
+    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId79"/>
     <hyperlink ref="F17" display="troubleshooting.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.it-it.xlf" r:id="rId81"/>
+    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId81"/>
     <hyperlink ref="A18" display="archiveResource.md" r:id="rId82"/>
     <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf" r:id="rId84"/>
+    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId84"/>
     <hyperlink ref="F18" display="archiveResource.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.it-it.xlf" r:id="rId86"/>
+    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId86"/>
     <hyperlink ref="A19" display="authoringResource.md" r:id="rId87"/>
     <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf" r:id="rId89"/>
+    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId89"/>
     <hyperlink ref="F19" display="authoringResource.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.it-it.xlf" r:id="rId91"/>
+    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId91"/>
     <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId92"/>
     <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf" r:id="rId94"/>
+    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId94"/>
     <hyperlink ref="F20" display="authoringResourceClass.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.it-it.xlf" r:id="rId96"/>
+    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId96"/>
     <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId97"/>
     <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf" r:id="rId99"/>
+    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId99"/>
     <hyperlink ref="F21" display="authoringResourceComposite.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.it-it.xlf" r:id="rId101"/>
+    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId101"/>
     <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId102"/>
     <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf" r:id="rId104"/>
+    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId104"/>
     <hyperlink ref="F22" display="authoringResourceMOF.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.it-it.xlf" r:id="rId106"/>
+    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId106"/>
     <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId107"/>
     <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf" r:id="rId109"/>
+    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId109"/>
     <hyperlink ref="F23" display="authoringResourceMofCS.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.it-it.xlf" r:id="rId111"/>
+    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId111"/>
     <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId112"/>
     <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf" r:id="rId114"/>
+    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId114"/>
     <hyperlink ref="F24" display="authoringResourceMofDesigner.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.it-it.xlf" r:id="rId116"/>
+    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId116"/>
     <hyperlink ref="A25" display="configData.md" r:id="rId117"/>
     <hyperlink ref="B25" display=".md" r:id="rId118"/>
-    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf" r:id="rId119"/>
+    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId119"/>
     <hyperlink ref="F25" display="configData.md" r:id="rId120"/>
-    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.it-it.xlf" r:id="rId121"/>
+    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId121"/>
     <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId122"/>
     <hyperlink ref="B26" display=".md" r:id="rId123"/>
-    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf" r:id="rId124"/>
+    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId124"/>
     <hyperlink ref="F26" display="configDataCredentials.md" r:id="rId125"/>
-    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.it-it.xlf" r:id="rId126"/>
+    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId126"/>
     <hyperlink ref="A27" display="configurations.md" r:id="rId127"/>
     <hyperlink ref="B27" display=".md" r:id="rId128"/>
-    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf" r:id="rId129"/>
+    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId129"/>
     <hyperlink ref="F27" display="configurations.md" r:id="rId130"/>
-    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.it-it.xlf" r:id="rId131"/>
+    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId131"/>
     <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId132"/>
     <hyperlink ref="B28" display=".md" r:id="rId133"/>
-    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf" r:id="rId134"/>
+    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId134"/>
     <hyperlink ref="F28" display="enactingConfigurations.md" r:id="rId135"/>
-    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.it-it.xlf" r:id="rId136"/>
+    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId136"/>
     <hyperlink ref="A29" display="environmentResource.md" r:id="rId137"/>
     <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf" r:id="rId139"/>
+    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId139"/>
     <hyperlink ref="F29" display="environmentResource.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.it-it.xlf" r:id="rId141"/>
+    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId141"/>
     <hyperlink ref="A30" display="fileResource.md" r:id="rId142"/>
     <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf" r:id="rId144"/>
+    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId144"/>
     <hyperlink ref="F30" display="fileResource.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.it-it.xlf" r:id="rId146"/>
+    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId146"/>
     <hyperlink ref="A31" display="groupResource.md" r:id="rId147"/>
     <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf" r:id="rId149"/>
+    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId149"/>
     <hyperlink ref="F31" display="groupResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.it-it.xlf" r:id="rId151"/>
+    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId151"/>
     <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId152"/>
     <hyperlink ref="B32" display=".jpg" r:id="rId153"/>
     <hyperlink ref="D32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId154"/>
@@ -2992,124 +2992,124 @@
     <hyperlink ref="G35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId171"/>
     <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId172"/>
     <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf" r:id="rId174"/>
+    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId174"/>
     <hyperlink ref="F36" display="lnxArchiveResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.it-it.xlf" r:id="rId176"/>
+    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId176"/>
     <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId177"/>
     <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf" r:id="rId179"/>
+    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId179"/>
     <hyperlink ref="F37" display="lnxEnvironmentResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.it-it.xlf" r:id="rId181"/>
+    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId181"/>
     <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId182"/>
     <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf" r:id="rId184"/>
+    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId184"/>
     <hyperlink ref="F38" display="lnxFileLineResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.it-it.xlf" r:id="rId186"/>
+    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId186"/>
     <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId187"/>
     <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf" r:id="rId189"/>
+    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId189"/>
     <hyperlink ref="F39" display="lnxFileResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.it-it.xlf" r:id="rId191"/>
+    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId191"/>
     <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId192"/>
     <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf" r:id="rId194"/>
+    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId194"/>
     <hyperlink ref="F40" display="lnxGroupResource.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.it-it.xlf" r:id="rId196"/>
+    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId196"/>
     <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId197"/>
     <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf" r:id="rId199"/>
+    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId199"/>
     <hyperlink ref="F41" display="lnxPackageResource.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.it-it.xlf" r:id="rId201"/>
+    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId201"/>
     <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId202"/>
     <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf" r:id="rId204"/>
+    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId204"/>
     <hyperlink ref="F42" display="lnxScriptResource.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.it-it.xlf" r:id="rId206"/>
+    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId206"/>
     <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId207"/>
     <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf" r:id="rId209"/>
+    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId209"/>
     <hyperlink ref="F43" display="lnxServiceResource.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.it-it.xlf" r:id="rId211"/>
+    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId211"/>
     <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId212"/>
     <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf" r:id="rId214"/>
+    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId214"/>
     <hyperlink ref="F44" display="lnxSshAuthorizedKeysResource.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.it-it.xlf" r:id="rId216"/>
+    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId216"/>
     <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId217"/>
     <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf" r:id="rId219"/>
+    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId219"/>
     <hyperlink ref="F45" display="lnxUserResource.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.it-it.xlf" r:id="rId221"/>
+    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId221"/>
     <hyperlink ref="A46" display="logResource.md" r:id="rId222"/>
     <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf" r:id="rId224"/>
+    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId224"/>
     <hyperlink ref="F46" display="logResource.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.it-it.xlf" r:id="rId226"/>
+    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId226"/>
     <hyperlink ref="A47" display="metaConfig4.md" r:id="rId227"/>
     <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf" r:id="rId229"/>
+    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId229"/>
     <hyperlink ref="F47" display="metaConfig4.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.it-it.xlf" r:id="rId231"/>
+    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId231"/>
     <hyperlink ref="A48" display="overview.md" r:id="rId232"/>
     <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf" r:id="rId234"/>
+    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId234"/>
     <hyperlink ref="F48" display="overview.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.it-it.xlf" r:id="rId236"/>
+    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId236"/>
     <hyperlink ref="A49" display="packageResource.md" r:id="rId237"/>
     <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf" r:id="rId239"/>
+    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId239"/>
     <hyperlink ref="F49" display="packageResource.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.it-it.xlf" r:id="rId241"/>
+    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId241"/>
     <hyperlink ref="A50" display="partialConfigs.md" r:id="rId242"/>
     <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf" r:id="rId244"/>
+    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId244"/>
     <hyperlink ref="F50" display="partialConfigs.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.it-it.xlf" r:id="rId246"/>
+    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId246"/>
     <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId247"/>
     <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf" r:id="rId249"/>
+    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId249"/>
     <hyperlink ref="F51" display="queryServerNodes.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.it-it.xlf" r:id="rId251"/>
+    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId251"/>
     <hyperlink ref="A52" display="registryResource.md" r:id="rId252"/>
     <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf" r:id="rId254"/>
+    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId254"/>
     <hyperlink ref="F52" display="registryResource.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.it-it.xlf" r:id="rId256"/>
+    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId256"/>
     <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
     <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf" r:id="rId259"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId259"/>
     <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.it-it.xlf" r:id="rId261"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId261"/>
     <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
     <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf" r:id="rId264"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId264"/>
     <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.it-it.xlf" r:id="rId266"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId266"/>
     <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
     <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf" r:id="rId269"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId269"/>
     <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.it-it.xlf" r:id="rId271"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId271"/>
     <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
     <hyperlink ref="B56" display=".md" r:id="rId273"/>
-    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf" r:id="rId274"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId274"/>
     <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
-    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.it-it.xlf" r:id="rId276"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId276"/>
     <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
     <hyperlink ref="B57" display=".md" r:id="rId278"/>
-    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf" r:id="rId279"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId279"/>
     <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
-    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.it-it.xlf" r:id="rId281"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId281"/>
     <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
     <hyperlink ref="B58" display=".md" r:id="rId283"/>
-    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf" r:id="rId284"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId284"/>
     <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
-    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.it-it.xlf" r:id="rId286"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId286"/>
     <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
     <hyperlink ref="B59" display=".md" r:id="rId288"/>
-    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf" r:id="rId289"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId289"/>
     <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
-    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.it-it.xlf" r:id="rId291"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId291"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="fr-fr" sheetId="2" r:id="rId3"/>
+    <sheet name="ko-kr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>fr-fr</t>
+    <t>ko-kr</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -225,6 +225,9 @@
     <t>Correspond Handback DateTime</t>
   </si>
   <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
     <t>Handoff Reason</t>
   </si>
   <si>
@@ -237,109 +240,106 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:38</t>
-  </si>
-  <si>
-    <t>2016-03-22 17:43:05</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:35</t>
+  </si>
+  <si>
+    <t>2016-03-23 17:27:44</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-22 23:29:23</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:52:52</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:43:45</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -348,15 +348,18 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:43</t>
-  </si>
-  <si>
-    <t>2016-03-17 17:12:56</t>
+    <t>2016-03-11 01:03:30</t>
+  </si>
+  <si>
+    <t>2016-03-19 01:30:54</t>
   </si>
   <si>
     <t>IsDependency</t>
   </si>
   <si>
+    <t>dsc\partialConfigs.md</t>
+  </si>
+  <si>
     <t>1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg</t>
   </si>
   <si>
@@ -366,82 +369,85 @@
     <t>86d829b1fcdd41e648ed0594eaf337b3726c143c.png</t>
   </si>
   <si>
+    <t>dsc\enactingConfigurations.md</t>
+  </si>
+  <si>
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-23 08:35:07</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-22 07:00:42</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf</t>
   </si>
 </sst>
 </file>
@@ -498,8 +504,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="fr-fr" displayName="fr_fr" ref="A1:L1" headerRowCount="0">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ko-kr" displayName="ko_kr" ref="A1:M1" headerRowCount="0">
+  <tableColumns count="13">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
     <tableColumn id="3" name="Status"/>
@@ -508,21 +514,21 @@
     <tableColumn id="6" name="Target File"/>
     <tableColumn id="7" name="Correspond Handback File"/>
     <tableColumn id="8" name="Correspond Handback DateTime"/>
-    <tableColumn id="9" name="Handoff Reason"/>
-    <tableColumn id="10" name="Dependency From"/>
-    <tableColumn id="11" name="Error Detail"/>
-    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+    <tableColumn id="13" name="Column13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
+  <tableColumns count="2">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="fr-fr"/>
-    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="2" name="ko-kr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1082,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1099,6 +1105,7 @@
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1135,187 +1142,190 @@
       <c r="K1" s="0" t="s">
         <v>72</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>73</v>
+      <c r="B2" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
+      <c r="B3" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>73</v>
+      <c r="B4" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
+      <c r="B5" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>73</v>
+      <c r="B6" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>73</v>
+      <c r="B7" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>77</v>
+      <c r="H7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>73</v>
+      <c r="B8" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
@@ -1324,7 +1334,7 @@
         <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -1332,19 +1342,19 @@
       <c r="G8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>77</v>
+      <c r="H8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>73</v>
+      <c r="B9" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
@@ -1353,7 +1363,7 @@
         <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1361,19 +1371,19 @@
       <c r="G9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>77</v>
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>73</v>
+      <c r="B10" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
@@ -1382,7 +1392,7 @@
         <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -1390,19 +1400,19 @@
       <c r="G10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>77</v>
+      <c r="H10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>73</v>
+      <c r="B11" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
@@ -1411,7 +1421,7 @@
         <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -1419,19 +1429,19 @@
       <c r="G11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>77</v>
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>73</v>
+      <c r="B12" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
@@ -1440,7 +1450,7 @@
         <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -1448,19 +1458,19 @@
       <c r="G12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>77</v>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
+      <c r="B13" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3</v>
@@ -1469,7 +1479,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
@@ -1477,19 +1487,19 @@
       <c r="G13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>77</v>
+      <c r="H13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>73</v>
+      <c r="B14" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>3</v>
@@ -1498,7 +1508,7 @@
         <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
@@ -1506,19 +1516,19 @@
       <c r="G14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>77</v>
+      <c r="H14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
+      <c r="B15" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>3</v>
@@ -1527,7 +1537,7 @@
         <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
@@ -1535,19 +1545,19 @@
       <c r="G15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>77</v>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>73</v>
+      <c r="B16" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>3</v>
@@ -1556,7 +1566,7 @@
         <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>17</v>
@@ -1564,19 +1574,19 @@
       <c r="G16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>77</v>
+      <c r="H16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>73</v>
+      <c r="B17" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>3</v>
@@ -1585,7 +1595,7 @@
         <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>18</v>
@@ -1593,19 +1603,19 @@
       <c r="G17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>77</v>
+      <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
+      <c r="B18" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>20</v>
@@ -1614,7 +1624,7 @@
         <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>19</v>
@@ -1622,19 +1632,19 @@
       <c r="G18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>77</v>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>73</v>
+      <c r="B19" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>20</v>
@@ -1643,7 +1653,7 @@
         <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
@@ -1651,19 +1661,19 @@
       <c r="G19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>77</v>
+      <c r="H19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>73</v>
+      <c r="B20" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>20</v>
@@ -1680,19 +1690,19 @@
       <c r="G20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>77</v>
+      <c r="H20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>73</v>
+      <c r="B21" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>20</v>
@@ -1701,7 +1711,7 @@
         <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
@@ -1709,19 +1719,19 @@
       <c r="G21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>77</v>
+      <c r="H21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>73</v>
+      <c r="B22" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>20</v>
@@ -1730,7 +1740,7 @@
         <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
@@ -1738,19 +1748,19 @@
       <c r="G22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>77</v>
+      <c r="H22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>73</v>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>20</v>
@@ -1759,7 +1769,7 @@
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
@@ -1767,19 +1777,19 @@
       <c r="G23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>77</v>
+      <c r="H23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>20</v>
@@ -1788,7 +1798,7 @@
         <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
@@ -1796,19 +1806,19 @@
       <c r="G24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>77</v>
+      <c r="H24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
+      <c r="B25" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>20</v>
@@ -1817,7 +1827,7 @@
         <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
@@ -1825,19 +1835,19 @@
       <c r="G25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>77</v>
+      <c r="H25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
+      <c r="B26" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>20</v>
@@ -1846,7 +1856,7 @@
         <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
@@ -1854,19 +1864,19 @@
       <c r="G26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>77</v>
+      <c r="H26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>73</v>
+      <c r="B27" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>20</v>
@@ -1875,7 +1885,7 @@
         <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>29</v>
@@ -1883,19 +1893,19 @@
       <c r="G27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>77</v>
+      <c r="H27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>73</v>
+      <c r="B28" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>20</v>
@@ -1904,7 +1914,7 @@
         <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
@@ -1912,19 +1922,19 @@
       <c r="G28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>77</v>
+      <c r="H28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
+      <c r="B29" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>20</v>
@@ -1933,7 +1943,7 @@
         <v>106</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>31</v>
@@ -1941,19 +1951,19 @@
       <c r="G29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>77</v>
+      <c r="H29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>73</v>
+      <c r="B30" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>20</v>
@@ -1962,7 +1972,7 @@
         <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
@@ -1970,19 +1980,19 @@
       <c r="G30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>77</v>
+      <c r="H30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>73</v>
+      <c r="B31" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>20</v>
@@ -1991,7 +2001,7 @@
         <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
@@ -1999,18 +2009,18 @@
       <c r="G31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>77</v>
+      <c r="H31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="0" t="s">
         <v>109</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -2028,25 +2038,28 @@
       <c r="G32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>113</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="0" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>111</v>
@@ -2055,27 +2068,30 @@
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>115</v>
+      <c r="B34" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>111</v>
@@ -2084,27 +2100,30 @@
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="J34" s="0" t="s">
         <v>113</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>115</v>
+      <c r="B35" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>111</v>
@@ -2113,230 +2132,233 @@
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="J35" s="0" t="s">
         <v>113</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>73</v>
+      <c r="B36" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>77</v>
+        <v>120</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
+      <c r="B37" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>77</v>
+        <v>121</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>73</v>
+      <c r="B38" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>77</v>
+        <v>122</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>73</v>
+      <c r="B39" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>77</v>
+        <v>123</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>73</v>
+      <c r="B40" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>77</v>
+        <v>124</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>73</v>
+      <c r="B41" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>77</v>
+        <v>125</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>73</v>
+      <c r="B42" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>77</v>
+        <v>126</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>73</v>
+      <c r="B43" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>97</v>
@@ -2345,771 +2367,713 @@
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>77</v>
+        <v>127</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>73</v>
+      <c r="B44" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>77</v>
+        <v>128</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>73</v>
+      <c r="B45" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>77</v>
+        <v>129</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>73</v>
+      <c r="B46" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>77</v>
+        <v>130</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>73</v>
+      <c r="B47" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>77</v>
+        <v>131</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>73</v>
+      <c r="B48" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>77</v>
+        <v>132</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>73</v>
+      <c r="B49" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>77</v>
+        <v>133</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>73</v>
+      <c r="B50" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>77</v>
+        <v>134</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>73</v>
+      <c r="B51" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>77</v>
+        <v>135</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>73</v>
+      <c r="B52" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>77</v>
+        <v>136</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>73</v>
+      <c r="B53" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>77</v>
+        <v>138</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>73</v>
+      <c r="B54" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>77</v>
+        <v>139</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>73</v>
+      <c r="B55" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>77</v>
+        <v>140</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>73</v>
+      <c r="B56" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>77</v>
+        <v>141</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>73</v>
+      <c r="B57" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>77</v>
+        <v>142</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>73</v>
+      <c r="B58" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>77</v>
+        <v>143</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>73</v>
+      <c r="B59" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>77</v>
+        <v>144</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
-    <hyperlink ref="B2" display=".md" r:id="rId3"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId4"/>
-    <hyperlink ref="F2" display="builtInResource.md" r:id="rId5"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.fr-fr.xlf" r:id="rId6"/>
-    <hyperlink ref="A3" display="debugResource.md" r:id="rId7"/>
-    <hyperlink ref="B3" display=".md" r:id="rId8"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId9"/>
-    <hyperlink ref="F3" display="debugResource.md" r:id="rId10"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.fr-fr.xlf" r:id="rId11"/>
-    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId12"/>
-    <hyperlink ref="B4" display=".md" r:id="rId13"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId14"/>
-    <hyperlink ref="F4" display="decisionMaker.md" r:id="rId15"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.fr-fr.xlf" r:id="rId16"/>
-    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId17"/>
-    <hyperlink ref="B5" display=".md" r:id="rId18"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId19"/>
-    <hyperlink ref="F5" display="gettingStarted.md" r:id="rId20"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.fr-fr.xlf" r:id="rId21"/>
-    <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId22"/>
-    <hyperlink ref="B6" display=".md" r:id="rId23"/>
-    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId24"/>
-    <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId25"/>
-    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.fr-fr.xlf" r:id="rId26"/>
-    <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId27"/>
-    <hyperlink ref="B7" display=".md" r:id="rId28"/>
-    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId29"/>
-    <hyperlink ref="F7" display="lnxGettingStarted.md" r:id="rId30"/>
-    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.fr-fr.xlf" r:id="rId31"/>
-    <hyperlink ref="A8" display="metaConfig.md" r:id="rId32"/>
-    <hyperlink ref="B8" display=".md" r:id="rId33"/>
-    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId34"/>
-    <hyperlink ref="F8" display="metaConfig.md" r:id="rId35"/>
-    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.fr-fr.xlf" r:id="rId36"/>
-    <hyperlink ref="A9" display="pullClient.md" r:id="rId37"/>
-    <hyperlink ref="B9" display=".md" r:id="rId38"/>
-    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId39"/>
-    <hyperlink ref="F9" display="pullClient.md" r:id="rId40"/>
-    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.fr-fr.xlf" r:id="rId41"/>
-    <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId42"/>
-    <hyperlink ref="B10" display=".md" r:id="rId43"/>
-    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId44"/>
-    <hyperlink ref="F10" display="pullClientConfigID.md" r:id="rId45"/>
-    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.fr-fr.xlf" r:id="rId46"/>
-    <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId47"/>
-    <hyperlink ref="B11" display=".md" r:id="rId48"/>
-    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId49"/>
-    <hyperlink ref="F11" display="pullClientConfigID4.md" r:id="rId50"/>
-    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.fr-fr.xlf" r:id="rId51"/>
-    <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId52"/>
-    <hyperlink ref="B12" display=".md" r:id="rId53"/>
-    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId54"/>
-    <hyperlink ref="F12" display="pullClientConfigNames.md" r:id="rId55"/>
-    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.fr-fr.xlf" r:id="rId56"/>
-    <hyperlink ref="A13" display="pullServer.md" r:id="rId57"/>
-    <hyperlink ref="B13" display=".md" r:id="rId58"/>
-    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId59"/>
-    <hyperlink ref="F13" display="pullServer.md" r:id="rId60"/>
-    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.fr-fr.xlf" r:id="rId61"/>
-    <hyperlink ref="A14" display="reportServer.md" r:id="rId62"/>
-    <hyperlink ref="B14" display=".md" r:id="rId63"/>
-    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId64"/>
-    <hyperlink ref="F14" display="reportServer.md" r:id="rId65"/>
-    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.fr-fr.xlf" r:id="rId66"/>
-    <hyperlink ref="A15" display="secureMOF.md" r:id="rId67"/>
-    <hyperlink ref="B15" display=".md" r:id="rId68"/>
-    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId69"/>
-    <hyperlink ref="F15" display="secureMOF.md" r:id="rId70"/>
-    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.fr-fr.xlf" r:id="rId71"/>
-    <hyperlink ref="A16" display="TOC.md" r:id="rId72"/>
-    <hyperlink ref="B16" display=".md" r:id="rId73"/>
-    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId74"/>
-    <hyperlink ref="F16" display="TOC.md" r:id="rId75"/>
-    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.fr-fr.xlf" r:id="rId76"/>
-    <hyperlink ref="A17" display="troubleshooting.md" r:id="rId77"/>
-    <hyperlink ref="B17" display=".md" r:id="rId78"/>
-    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId79"/>
-    <hyperlink ref="F17" display="troubleshooting.md" r:id="rId80"/>
-    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.fr-fr.xlf" r:id="rId81"/>
-    <hyperlink ref="A18" display="archiveResource.md" r:id="rId82"/>
-    <hyperlink ref="B18" display=".md" r:id="rId83"/>
-    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId84"/>
-    <hyperlink ref="F18" display="archiveResource.md" r:id="rId85"/>
-    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.fr-fr.xlf" r:id="rId86"/>
-    <hyperlink ref="A19" display="authoringResource.md" r:id="rId87"/>
-    <hyperlink ref="B19" display=".md" r:id="rId88"/>
-    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId89"/>
-    <hyperlink ref="F19" display="authoringResource.md" r:id="rId90"/>
-    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.fr-fr.xlf" r:id="rId91"/>
-    <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId92"/>
-    <hyperlink ref="B20" display=".md" r:id="rId93"/>
-    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId94"/>
-    <hyperlink ref="F20" display="authoringResourceClass.md" r:id="rId95"/>
-    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.fr-fr.xlf" r:id="rId96"/>
-    <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId97"/>
-    <hyperlink ref="B21" display=".md" r:id="rId98"/>
-    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId99"/>
-    <hyperlink ref="F21" display="authoringResourceComposite.md" r:id="rId100"/>
-    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.fr-fr.xlf" r:id="rId101"/>
-    <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId102"/>
-    <hyperlink ref="B22" display=".md" r:id="rId103"/>
-    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId104"/>
-    <hyperlink ref="F22" display="authoringResourceMOF.md" r:id="rId105"/>
-    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.fr-fr.xlf" r:id="rId106"/>
-    <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId107"/>
-    <hyperlink ref="B23" display=".md" r:id="rId108"/>
-    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId109"/>
-    <hyperlink ref="F23" display="authoringResourceMofCS.md" r:id="rId110"/>
-    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.fr-fr.xlf" r:id="rId111"/>
-    <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId112"/>
-    <hyperlink ref="B24" display=".md" r:id="rId113"/>
-    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId114"/>
-    <hyperlink ref="F24" display="authoringResourceMofDesigner.md" r:id="rId115"/>
-    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.fr-fr.xlf" r:id="rId116"/>
-    <hyperlink ref="A25" display="configData.md" r:id="rId117"/>
-    <hyperlink ref="B25" display=".md" r:id="rId118"/>
-    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId119"/>
-    <hyperlink ref="F25" display="configData.md" r:id="rId120"/>
-    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.fr-fr.xlf" r:id="rId121"/>
-    <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId122"/>
-    <hyperlink ref="B26" display=".md" r:id="rId123"/>
-    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId124"/>
-    <hyperlink ref="F26" display="configDataCredentials.md" r:id="rId125"/>
-    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.fr-fr.xlf" r:id="rId126"/>
-    <hyperlink ref="A27" display="configurations.md" r:id="rId127"/>
-    <hyperlink ref="B27" display=".md" r:id="rId128"/>
-    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId129"/>
-    <hyperlink ref="F27" display="configurations.md" r:id="rId130"/>
-    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.fr-fr.xlf" r:id="rId131"/>
-    <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId132"/>
-    <hyperlink ref="B28" display=".md" r:id="rId133"/>
-    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId134"/>
-    <hyperlink ref="F28" display="enactingConfigurations.md" r:id="rId135"/>
-    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.fr-fr.xlf" r:id="rId136"/>
-    <hyperlink ref="A29" display="environmentResource.md" r:id="rId137"/>
-    <hyperlink ref="B29" display=".md" r:id="rId138"/>
-    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId139"/>
-    <hyperlink ref="F29" display="environmentResource.md" r:id="rId140"/>
-    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.fr-fr.xlf" r:id="rId141"/>
-    <hyperlink ref="A30" display="fileResource.md" r:id="rId142"/>
-    <hyperlink ref="B30" display=".md" r:id="rId143"/>
-    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId144"/>
-    <hyperlink ref="F30" display="fileResource.md" r:id="rId145"/>
-    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.fr-fr.xlf" r:id="rId146"/>
-    <hyperlink ref="A31" display="groupResource.md" r:id="rId147"/>
-    <hyperlink ref="B31" display=".md" r:id="rId148"/>
-    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId149"/>
-    <hyperlink ref="F31" display="groupResource.md" r:id="rId150"/>
-    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.fr-fr.xlf" r:id="rId151"/>
-    <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId152"/>
-    <hyperlink ref="B32" display=".jpg" r:id="rId153"/>
-    <hyperlink ref="D32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId154"/>
-    <hyperlink ref="F32" display="PartialConfig1.jpg" r:id="rId155"/>
-    <hyperlink ref="G32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId156"/>
-    <hyperlink ref="A33" display="PartialConfigPullServer.jpg" r:id="rId157"/>
-    <hyperlink ref="B33" display=".jpg" r:id="rId158"/>
-    <hyperlink ref="D33" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId159"/>
-    <hyperlink ref="F33" display="PartialConfigPullServer.jpg" r:id="rId160"/>
-    <hyperlink ref="G33" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId161"/>
-    <hyperlink ref="A34" display="Pull.png" r:id="rId162"/>
-    <hyperlink ref="B34" display=".png" r:id="rId163"/>
-    <hyperlink ref="D34" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId164"/>
-    <hyperlink ref="F34" display="Pull.png" r:id="rId165"/>
-    <hyperlink ref="G34" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId166"/>
-    <hyperlink ref="A35" display="Push.png" r:id="rId167"/>
-    <hyperlink ref="B35" display=".png" r:id="rId168"/>
-    <hyperlink ref="D35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId169"/>
-    <hyperlink ref="F35" display="Push.png" r:id="rId170"/>
-    <hyperlink ref="G35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId171"/>
-    <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId172"/>
-    <hyperlink ref="B36" display=".md" r:id="rId173"/>
-    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId174"/>
-    <hyperlink ref="F36" display="lnxArchiveResource.md" r:id="rId175"/>
-    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.fr-fr.xlf" r:id="rId176"/>
-    <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId177"/>
-    <hyperlink ref="B37" display=".md" r:id="rId178"/>
-    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId179"/>
-    <hyperlink ref="F37" display="lnxEnvironmentResource.md" r:id="rId180"/>
-    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.fr-fr.xlf" r:id="rId181"/>
-    <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId182"/>
-    <hyperlink ref="B38" display=".md" r:id="rId183"/>
-    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId184"/>
-    <hyperlink ref="F38" display="lnxFileLineResource.md" r:id="rId185"/>
-    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.fr-fr.xlf" r:id="rId186"/>
-    <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId187"/>
-    <hyperlink ref="B39" display=".md" r:id="rId188"/>
-    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId189"/>
-    <hyperlink ref="F39" display="lnxFileResource.md" r:id="rId190"/>
-    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.fr-fr.xlf" r:id="rId191"/>
-    <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId192"/>
-    <hyperlink ref="B40" display=".md" r:id="rId193"/>
-    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId194"/>
-    <hyperlink ref="F40" display="lnxGroupResource.md" r:id="rId195"/>
-    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.fr-fr.xlf" r:id="rId196"/>
-    <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId197"/>
-    <hyperlink ref="B41" display=".md" r:id="rId198"/>
-    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId199"/>
-    <hyperlink ref="F41" display="lnxPackageResource.md" r:id="rId200"/>
-    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.fr-fr.xlf" r:id="rId201"/>
-    <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId202"/>
-    <hyperlink ref="B42" display=".md" r:id="rId203"/>
-    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId204"/>
-    <hyperlink ref="F42" display="lnxScriptResource.md" r:id="rId205"/>
-    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.fr-fr.xlf" r:id="rId206"/>
-    <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId207"/>
-    <hyperlink ref="B43" display=".md" r:id="rId208"/>
-    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId209"/>
-    <hyperlink ref="F43" display="lnxServiceResource.md" r:id="rId210"/>
-    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.fr-fr.xlf" r:id="rId211"/>
-    <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId212"/>
-    <hyperlink ref="B44" display=".md" r:id="rId213"/>
-    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId214"/>
-    <hyperlink ref="F44" display="lnxSshAuthorizedKeysResource.md" r:id="rId215"/>
-    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.fr-fr.xlf" r:id="rId216"/>
-    <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId217"/>
-    <hyperlink ref="B45" display=".md" r:id="rId218"/>
-    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId219"/>
-    <hyperlink ref="F45" display="lnxUserResource.md" r:id="rId220"/>
-    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.fr-fr.xlf" r:id="rId221"/>
-    <hyperlink ref="A46" display="logResource.md" r:id="rId222"/>
-    <hyperlink ref="B46" display=".md" r:id="rId223"/>
-    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId224"/>
-    <hyperlink ref="F46" display="logResource.md" r:id="rId225"/>
-    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.fr-fr.xlf" r:id="rId226"/>
-    <hyperlink ref="A47" display="metaConfig4.md" r:id="rId227"/>
-    <hyperlink ref="B47" display=".md" r:id="rId228"/>
-    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId229"/>
-    <hyperlink ref="F47" display="metaConfig4.md" r:id="rId230"/>
-    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.fr-fr.xlf" r:id="rId231"/>
-    <hyperlink ref="A48" display="overview.md" r:id="rId232"/>
-    <hyperlink ref="B48" display=".md" r:id="rId233"/>
-    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId234"/>
-    <hyperlink ref="F48" display="overview.md" r:id="rId235"/>
-    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.fr-fr.xlf" r:id="rId236"/>
-    <hyperlink ref="A49" display="packageResource.md" r:id="rId237"/>
-    <hyperlink ref="B49" display=".md" r:id="rId238"/>
-    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId239"/>
-    <hyperlink ref="F49" display="packageResource.md" r:id="rId240"/>
-    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.fr-fr.xlf" r:id="rId241"/>
-    <hyperlink ref="A50" display="partialConfigs.md" r:id="rId242"/>
-    <hyperlink ref="B50" display=".md" r:id="rId243"/>
-    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId244"/>
-    <hyperlink ref="F50" display="partialConfigs.md" r:id="rId245"/>
-    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.fr-fr.xlf" r:id="rId246"/>
-    <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId247"/>
-    <hyperlink ref="B51" display=".md" r:id="rId248"/>
-    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId249"/>
-    <hyperlink ref="F51" display="queryServerNodes.md" r:id="rId250"/>
-    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.fr-fr.xlf" r:id="rId251"/>
-    <hyperlink ref="A52" display="registryResource.md" r:id="rId252"/>
-    <hyperlink ref="B52" display=".md" r:id="rId253"/>
-    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId254"/>
-    <hyperlink ref="F52" display="registryResource.md" r:id="rId255"/>
-    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.fr-fr.xlf" r:id="rId256"/>
-    <hyperlink ref="A53" display="resources.md" r:id="rId257"/>
-    <hyperlink ref="B53" display=".md" r:id="rId258"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId259"/>
-    <hyperlink ref="F53" display="resources.md" r:id="rId260"/>
-    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.fr-fr.xlf" r:id="rId261"/>
-    <hyperlink ref="A54" display="scriptResource.md" r:id="rId262"/>
-    <hyperlink ref="B54" display=".md" r:id="rId263"/>
-    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId264"/>
-    <hyperlink ref="F54" display="scriptResource.md" r:id="rId265"/>
-    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.fr-fr.xlf" r:id="rId266"/>
-    <hyperlink ref="A55" display="secureServer.md" r:id="rId267"/>
-    <hyperlink ref="B55" display=".md" r:id="rId268"/>
-    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId269"/>
-    <hyperlink ref="F55" display="secureServer.md" r:id="rId270"/>
-    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.fr-fr.xlf" r:id="rId271"/>
-    <hyperlink ref="A56" display="serviceResource.md" r:id="rId272"/>
-    <hyperlink ref="B56" display=".md" r:id="rId273"/>
-    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId274"/>
-    <hyperlink ref="F56" display="serviceResource.md" r:id="rId275"/>
-    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.fr-fr.xlf" r:id="rId276"/>
-    <hyperlink ref="A57" display="userResource.md" r:id="rId277"/>
-    <hyperlink ref="B57" display=".md" r:id="rId278"/>
-    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId279"/>
-    <hyperlink ref="F57" display="userResource.md" r:id="rId280"/>
-    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.fr-fr.xlf" r:id="rId281"/>
-    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId282"/>
-    <hyperlink ref="B58" display=".md" r:id="rId283"/>
-    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId284"/>
-    <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId285"/>
-    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.fr-fr.xlf" r:id="rId286"/>
-    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId287"/>
-    <hyperlink ref="B59" display=".md" r:id="rId288"/>
-    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId289"/>
-    <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId290"/>
-    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.fr-fr.xlf" r:id="rId291"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="builtInResource.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="debugResource.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="debugResource.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="decisionMaker.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="gettingStarted.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId19"/>
+    <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId20"/>
+    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId22"/>
+    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId23"/>
+    <hyperlink ref="F7" display="lnxGettingStarted.md" r:id="rId24"/>
+    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="metaConfig.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="metaConfig.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="pullClient.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="pullClient.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId34"/>
+    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="pullClientConfigID.md" r:id="rId36"/>
+    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId38"/>
+    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="pullClientConfigID4.md" r:id="rId40"/>
+    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="pullClientConfigNames.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="pullServer.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="pullServer.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="reportServer.md" r:id="rId50"/>
+    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId51"/>
+    <hyperlink ref="F14" display="reportServer.md" r:id="rId52"/>
+    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="secureMOF.md" r:id="rId54"/>
+    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf" r:id="rId55"/>
+    <hyperlink ref="F15" display="secureMOF.md" r:id="rId56"/>
+    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="TOC.md" r:id="rId58"/>
+    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId59"/>
+    <hyperlink ref="F16" display="TOC.md" r:id="rId60"/>
+    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="troubleshooting.md" r:id="rId62"/>
+    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf" r:id="rId63"/>
+    <hyperlink ref="F17" display="troubleshooting.md" r:id="rId64"/>
+    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf" r:id="rId65"/>
+    <hyperlink ref="A18" display="archiveResource.md" r:id="rId66"/>
+    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId67"/>
+    <hyperlink ref="F18" display="archiveResource.md" r:id="rId68"/>
+    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="authoringResource.md" r:id="rId70"/>
+    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId71"/>
+    <hyperlink ref="F19" display="authoringResource.md" r:id="rId72"/>
+    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId73"/>
+    <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId74"/>
+    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId75"/>
+    <hyperlink ref="F20" display="authoringResourceClass.md" r:id="rId76"/>
+    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId77"/>
+    <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="authoringResourceComposite.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId81"/>
+    <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId82"/>
+    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId83"/>
+    <hyperlink ref="F22" display="authoringResourceMOF.md" r:id="rId84"/>
+    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId86"/>
+    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId87"/>
+    <hyperlink ref="F23" display="authoringResourceMofCS.md" r:id="rId88"/>
+    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId90"/>
+    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId91"/>
+    <hyperlink ref="F24" display="authoringResourceMofDesigner.md" r:id="rId92"/>
+    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId93"/>
+    <hyperlink ref="A25" display="configData.md" r:id="rId94"/>
+    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId95"/>
+    <hyperlink ref="F25" display="configData.md" r:id="rId96"/>
+    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId97"/>
+    <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId98"/>
+    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId99"/>
+    <hyperlink ref="F26" display="configDataCredentials.md" r:id="rId100"/>
+    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId101"/>
+    <hyperlink ref="A27" display="configurations.md" r:id="rId102"/>
+    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId103"/>
+    <hyperlink ref="F27" display="configurations.md" r:id="rId104"/>
+    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId105"/>
+    <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId106"/>
+    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId107"/>
+    <hyperlink ref="F28" display="enactingConfigurations.md" r:id="rId108"/>
+    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId109"/>
+    <hyperlink ref="A29" display="environmentResource.md" r:id="rId110"/>
+    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf" r:id="rId111"/>
+    <hyperlink ref="F29" display="environmentResource.md" r:id="rId112"/>
+    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf" r:id="rId113"/>
+    <hyperlink ref="A30" display="fileResource.md" r:id="rId114"/>
+    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId115"/>
+    <hyperlink ref="F30" display="fileResource.md" r:id="rId116"/>
+    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId117"/>
+    <hyperlink ref="A31" display="groupResource.md" r:id="rId118"/>
+    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId119"/>
+    <hyperlink ref="F31" display="groupResource.md" r:id="rId120"/>
+    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId121"/>
+    <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId122"/>
+    <hyperlink ref="D32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId123"/>
+    <hyperlink ref="F32" display="PartialConfig1.jpg" r:id="rId124"/>
+    <hyperlink ref="G32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId125"/>
+    <hyperlink ref="A33" display="PartialConfigPullServer.jpg" r:id="rId126"/>
+    <hyperlink ref="D33" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId127"/>
+    <hyperlink ref="F33" display="PartialConfigPullServer.jpg" r:id="rId128"/>
+    <hyperlink ref="G33" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId129"/>
+    <hyperlink ref="A34" display="Pull.png" r:id="rId130"/>
+    <hyperlink ref="D34" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId131"/>
+    <hyperlink ref="F34" display="Pull.png" r:id="rId132"/>
+    <hyperlink ref="G34" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId133"/>
+    <hyperlink ref="A35" display="Push.png" r:id="rId134"/>
+    <hyperlink ref="D35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId135"/>
+    <hyperlink ref="F35" display="Push.png" r:id="rId136"/>
+    <hyperlink ref="G35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId137"/>
+    <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId138"/>
+    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId139"/>
+    <hyperlink ref="F36" display="lnxArchiveResource.md" r:id="rId140"/>
+    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId141"/>
+    <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId142"/>
+    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId143"/>
+    <hyperlink ref="F37" display="lnxEnvironmentResource.md" r:id="rId144"/>
+    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId145"/>
+    <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId146"/>
+    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId147"/>
+    <hyperlink ref="F38" display="lnxFileLineResource.md" r:id="rId148"/>
+    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId150"/>
+    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId151"/>
+    <hyperlink ref="F39" display="lnxFileResource.md" r:id="rId152"/>
+    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId153"/>
+    <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId154"/>
+    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId155"/>
+    <hyperlink ref="F40" display="lnxGroupResource.md" r:id="rId156"/>
+    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId158"/>
+    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId159"/>
+    <hyperlink ref="F41" display="lnxPackageResource.md" r:id="rId160"/>
+    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId161"/>
+    <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId162"/>
+    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId163"/>
+    <hyperlink ref="F42" display="lnxScriptResource.md" r:id="rId164"/>
+    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId165"/>
+    <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId166"/>
+    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId167"/>
+    <hyperlink ref="F43" display="lnxServiceResource.md" r:id="rId168"/>
+    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId169"/>
+    <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId170"/>
+    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId171"/>
+    <hyperlink ref="F44" display="lnxSshAuthorizedKeysResource.md" r:id="rId172"/>
+    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId174"/>
+    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId175"/>
+    <hyperlink ref="F45" display="lnxUserResource.md" r:id="rId176"/>
+    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="logResource.md" r:id="rId178"/>
+    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId179"/>
+    <hyperlink ref="F46" display="logResource.md" r:id="rId180"/>
+    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="metaConfig4.md" r:id="rId182"/>
+    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId183"/>
+    <hyperlink ref="F47" display="metaConfig4.md" r:id="rId184"/>
+    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="overview.md" r:id="rId186"/>
+    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId187"/>
+    <hyperlink ref="F48" display="overview.md" r:id="rId188"/>
+    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="packageResource.md" r:id="rId190"/>
+    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId191"/>
+    <hyperlink ref="F49" display="packageResource.md" r:id="rId192"/>
+    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="partialConfigs.md" r:id="rId194"/>
+    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId195"/>
+    <hyperlink ref="F50" display="partialConfigs.md" r:id="rId196"/>
+    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId197"/>
+    <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId198"/>
+    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId199"/>
+    <hyperlink ref="F51" display="queryServerNodes.md" r:id="rId200"/>
+    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId201"/>
+    <hyperlink ref="A52" display="registryResource.md" r:id="rId202"/>
+    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId203"/>
+    <hyperlink ref="F52" display="registryResource.md" r:id="rId204"/>
+    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId205"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId206"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf" r:id="rId207"/>
+    <hyperlink ref="F53" display="resources.md" r:id="rId208"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf" r:id="rId209"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId210"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId211"/>
+    <hyperlink ref="F54" display="scriptResource.md" r:id="rId212"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId213"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId214"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId215"/>
+    <hyperlink ref="F55" display="secureServer.md" r:id="rId216"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId217"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId218"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId219"/>
+    <hyperlink ref="F56" display="serviceResource.md" r:id="rId220"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId221"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId222"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId223"/>
+    <hyperlink ref="F57" display="userResource.md" r:id="rId224"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId225"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId226"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId227"/>
+    <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId228"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId229"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId230"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId231"/>
+    <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId232"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId233"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ko-kr" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>ko-kr</t>
+    <t>de-de</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -69,129 +69,129 @@
     <t>TOC.md</t>
   </si>
   <si>
+    <t>archiveResource.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>authoringResource.md</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.md</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
+    <t>configData.md</t>
+  </si>
+  <si>
+    <t>configDataCredentials.md</t>
+  </si>
+  <si>
+    <t>configurations.md</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.md</t>
+  </si>
+  <si>
+    <t>environmentResource.md</t>
+  </si>
+  <si>
+    <t>fileResource.md</t>
+  </si>
+  <si>
+    <t>groupResource.md</t>
+  </si>
+  <si>
+    <t>PartialConfig1.jpg</t>
+  </si>
+  <si>
+    <t>PartialConfigPullServer.jpg</t>
+  </si>
+  <si>
+    <t>Pull.png</t>
+  </si>
+  <si>
+    <t>Push.png</t>
+  </si>
+  <si>
+    <t>lnxArchiveResource.md</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.md</t>
+  </si>
+  <si>
+    <t>lnxFileResource.md</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.md</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.md</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.md</t>
+  </si>
+  <si>
+    <t>lnxUserResource.md</t>
+  </si>
+  <si>
+    <t>logResource.md</t>
+  </si>
+  <si>
+    <t>metaConfig4.md</t>
+  </si>
+  <si>
+    <t>overview.md</t>
+  </si>
+  <si>
+    <t>packageResource.md</t>
+  </si>
+  <si>
+    <t>partialConfigs.md</t>
+  </si>
+  <si>
+    <t>queryServerNodes.md</t>
+  </si>
+  <si>
+    <t>registryResource.md</t>
+  </si>
+  <si>
+    <t>resources.md</t>
+  </si>
+  <si>
+    <t>scriptResource.md</t>
+  </si>
+  <si>
+    <t>secureServer.md</t>
+  </si>
+  <si>
+    <t>serviceResource.md</t>
+  </si>
+  <si>
     <t>troubleshooting.md</t>
   </si>
   <si>
-    <t>archiveResource.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>authoringResource.md</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.md</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.md</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.md</t>
-  </si>
-  <si>
-    <t>configData.md</t>
-  </si>
-  <si>
-    <t>configDataCredentials.md</t>
-  </si>
-  <si>
-    <t>configurations.md</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.md</t>
-  </si>
-  <si>
-    <t>environmentResource.md</t>
-  </si>
-  <si>
-    <t>fileResource.md</t>
-  </si>
-  <si>
-    <t>groupResource.md</t>
-  </si>
-  <si>
-    <t>PartialConfig1.jpg</t>
-  </si>
-  <si>
-    <t>PartialConfigPullServer.jpg</t>
-  </si>
-  <si>
-    <t>Pull.png</t>
-  </si>
-  <si>
-    <t>Push.png</t>
-  </si>
-  <si>
-    <t>lnxArchiveResource.md</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.md</t>
-  </si>
-  <si>
-    <t>lnxFileResource.md</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.md</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.md</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.md</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.md</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.md</t>
-  </si>
-  <si>
-    <t>lnxUserResource.md</t>
-  </si>
-  <si>
-    <t>logResource.md</t>
-  </si>
-  <si>
-    <t>metaConfig4.md</t>
-  </si>
-  <si>
-    <t>overview.md</t>
-  </si>
-  <si>
-    <t>packageResource.md</t>
-  </si>
-  <si>
-    <t>partialConfigs.md</t>
-  </si>
-  <si>
-    <t>queryServerNodes.md</t>
-  </si>
-  <si>
-    <t>registryResource.md</t>
-  </si>
-  <si>
-    <t>resources.md</t>
-  </si>
-  <si>
-    <t>scriptResource.md</t>
-  </si>
-  <si>
-    <t>secureServer.md</t>
-  </si>
-  <si>
-    <t>serviceResource.md</t>
-  </si>
-  <si>
     <t>userResource.md</t>
   </si>
   <si>
@@ -240,106 +240,118 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:02:35</t>
-  </si>
-  <si>
-    <t>2016-03-23 17:27:44</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:01:20</t>
+  </si>
+  <si>
+    <t>2016-03-22 17:21:05</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-02 17:43:45</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 22:37:42</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-21 21:14:51</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 21:11:35</t>
+  </si>
+  <si>
+    <t>2016-03-23 17:39:58</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:52:44</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-23 03:44:37</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -348,10 +360,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:03:30</t>
-  </si>
-  <si>
-    <t>2016-03-19 01:30:54</t>
+    <t>2016-03-11 01:02:28</t>
+  </si>
+  <si>
+    <t>2016-03-17 02:07:40</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -375,79 +387,79 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-22 07:00:42</t>
-  </si>
-  <si>
-    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -504,7 +516,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ko-kr" displayName="ko_kr" ref="A1:M1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:M1" headerRowCount="0">
   <tableColumns count="13">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -528,7 +540,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
   <tableColumns count="2">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ko-kr"/>
+    <tableColumn id="2" name="de-de"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,15 +691,15 @@
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -695,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -703,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -711,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -719,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -727,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -735,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -743,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -751,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -759,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -767,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -775,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -783,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -791,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -799,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -807,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -815,7 +827,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -823,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -831,7 +843,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +851,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -847,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -855,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -863,7 +875,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -871,7 +883,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -879,7 +891,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -887,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -895,7 +907,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -903,7 +915,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -911,7 +923,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -919,7 +931,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
@@ -927,7 +939,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -935,7 +947,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -943,7 +955,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -951,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -959,7 +971,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -967,7 +979,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -975,7 +987,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -983,7 +995,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -991,7 +1003,7 @@
         <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -999,7 +1011,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -1007,7 +1019,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -1015,7 +1027,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1035,46 +1047,46 @@
     <hyperlink ref="A14" display="reportServer.md" r:id="rId14"/>
     <hyperlink ref="A15" display="secureMOF.md" r:id="rId15"/>
     <hyperlink ref="A16" display="TOC.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="troubleshooting.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="archiveResource.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="authoringResource.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="configData.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="configurations.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="environmentResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="fileResource.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="groupResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId32"/>
-    <hyperlink ref="A33" display="PartialConfigPullServer.jpg" r:id="rId33"/>
-    <hyperlink ref="A34" display="Pull.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="Push.png" r:id="rId35"/>
-    <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="logResource.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="metaConfig4.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="overview.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="packageResource.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="partialConfigs.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="registryResource.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="resources.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="scriptResource.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="secureServer.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="serviceResource.md" r:id="rId56"/>
+    <hyperlink ref="A17" display="archiveResource.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="authoringResource.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="authoringResourceClass.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="authoringResourceComposite.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="authoringResourceMOF.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="authoringResourceMofCS.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="authoringResourceMofDesigner.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="configData.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="configDataCredentials.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="configurations.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="enactingConfigurations.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="environmentResource.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="fileResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="groupResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="PartialConfig1.jpg" r:id="rId31"/>
+    <hyperlink ref="A32" display="PartialConfigPullServer.jpg" r:id="rId32"/>
+    <hyperlink ref="A33" display="Pull.png" r:id="rId33"/>
+    <hyperlink ref="A34" display="Push.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="lnxArchiveResource.md" r:id="rId35"/>
+    <hyperlink ref="A36" display="lnxEnvironmentResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="lnxFileLineResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="lnxFileResource.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="lnxGroupResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="lnxPackageResource.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="lnxScriptResource.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="lnxServiceResource.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="lnxSshAuthorizedKeysResource.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="lnxUserResource.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="logResource.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="metaConfig4.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="overview.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="packageResource.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="partialConfigs.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="resources.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="scriptResource.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="secureServer.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="serviceResource.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="troubleshooting.md" r:id="rId56"/>
     <hyperlink ref="A57" display="userResource.md" r:id="rId57"/>
     <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId58"/>
     <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId59"/>
@@ -1285,7 +1297,7 @@
         <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>78</v>
@@ -1302,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>76</v>
@@ -1311,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>77</v>
@@ -1331,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>76</v>
@@ -1340,10 +1352,10 @@
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>78</v>
@@ -1360,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>76</v>
@@ -1369,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>77</v>
@@ -1389,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>76</v>
@@ -1398,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>77</v>
@@ -1418,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>76</v>
@@ -1427,7 +1439,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>77</v>
@@ -1447,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>76</v>
@@ -1456,10 +1468,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>78</v>
@@ -1476,19 +1488,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>78</v>
@@ -1505,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>76</v>
@@ -1514,7 +1526,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>77</v>
@@ -1534,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>76</v>
@@ -1543,7 +1555,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>77</v>
@@ -1563,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>76</v>
@@ -1572,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>77</v>
@@ -1589,10 +1601,10 @@
         <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>76</v>
@@ -1601,7 +1613,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>77</v>
@@ -1612,25 +1624,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
@@ -1647,19 +1659,19 @@
         <v>74</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>77</v>
@@ -1676,19 +1688,19 @@
         <v>74</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>77</v>
@@ -1705,10 +1717,10 @@
         <v>74</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>76</v>
@@ -1717,10 +1729,10 @@
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>78</v>
@@ -1734,10 +1746,10 @@
         <v>74</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>76</v>
@@ -1746,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>77</v>
@@ -1763,10 +1775,10 @@
         <v>74</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>76</v>
@@ -1775,7 +1787,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>77</v>
@@ -1792,10 +1804,10 @@
         <v>74</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>76</v>
@@ -1804,10 +1816,10 @@
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>78</v>
@@ -1821,10 +1833,10 @@
         <v>74</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>76</v>
@@ -1833,7 +1845,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>77</v>
@@ -1850,10 +1862,10 @@
         <v>74</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>76</v>
@@ -1862,7 +1874,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>77</v>
@@ -1879,10 +1891,10 @@
         <v>74</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>76</v>
@@ -1891,7 +1903,7 @@
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>77</v>
@@ -1908,10 +1920,10 @@
         <v>74</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>76</v>
@@ -1920,7 +1932,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>77</v>
@@ -1937,10 +1949,10 @@
         <v>74</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>76</v>
@@ -1949,7 +1961,7 @@
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>77</v>
@@ -1966,10 +1978,10 @@
         <v>74</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>76</v>
@@ -1978,7 +1990,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>77</v>
@@ -1992,28 +2004,31 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>78</v>
+        <v>117</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -2021,31 +2036,31 @@
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -2053,31 +2068,31 @@
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -2085,31 +2100,31 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="K34" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -2117,31 +2132,28 @@
         <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -2152,10 +2164,10 @@
         <v>74</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>76</v>
@@ -2164,7 +2176,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>77</v>
@@ -2181,10 +2193,10 @@
         <v>74</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>76</v>
@@ -2193,7 +2205,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>77</v>
@@ -2210,10 +2222,10 @@
         <v>74</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>76</v>
@@ -2222,7 +2234,7 @@
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>77</v>
@@ -2239,10 +2251,10 @@
         <v>74</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>76</v>
@@ -2251,10 +2263,10 @@
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>78</v>
@@ -2268,10 +2280,10 @@
         <v>74</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>76</v>
@@ -2280,7 +2292,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>77</v>
@@ -2297,10 +2309,10 @@
         <v>74</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>76</v>
@@ -2309,7 +2321,7 @@
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>77</v>
@@ -2326,19 +2338,19 @@
         <v>74</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>77</v>
@@ -2355,19 +2367,19 @@
         <v>74</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>77</v>
@@ -2384,10 +2396,10 @@
         <v>74</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>76</v>
@@ -2396,7 +2408,7 @@
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>77</v>
@@ -2413,10 +2425,10 @@
         <v>74</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>76</v>
@@ -2425,7 +2437,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>77</v>
@@ -2442,10 +2454,10 @@
         <v>74</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>76</v>
@@ -2454,7 +2466,7 @@
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>77</v>
@@ -2471,10 +2483,10 @@
         <v>74</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>76</v>
@@ -2483,7 +2495,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>77</v>
@@ -2500,10 +2512,10 @@
         <v>74</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>76</v>
@@ -2512,7 +2524,7 @@
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>77</v>
@@ -2529,10 +2541,10 @@
         <v>74</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>76</v>
@@ -2541,7 +2553,7 @@
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>77</v>
@@ -2558,10 +2570,10 @@
         <v>74</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>76</v>
@@ -2570,7 +2582,7 @@
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>77</v>
@@ -2587,10 +2599,10 @@
         <v>74</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>76</v>
@@ -2599,7 +2611,7 @@
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>77</v>
@@ -2616,10 +2628,10 @@
         <v>74</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>76</v>
@@ -2628,10 +2640,10 @@
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>78</v>
@@ -2645,10 +2657,10 @@
         <v>74</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>76</v>
@@ -2657,7 +2669,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>77</v>
@@ -2674,10 +2686,10 @@
         <v>74</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>76</v>
@@ -2686,7 +2698,7 @@
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>77</v>
@@ -2703,10 +2715,10 @@
         <v>74</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>76</v>
@@ -2715,7 +2727,7 @@
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>77</v>
@@ -2732,22 +2744,22 @@
         <v>74</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>78</v>
@@ -2761,10 +2773,10 @@
         <v>74</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>76</v>
@@ -2773,7 +2785,7 @@
         <v>59</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>77</v>
@@ -2790,10 +2802,10 @@
         <v>74</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>76</v>
@@ -2802,10 +2814,10 @@
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>78</v>
@@ -2819,10 +2831,10 @@
         <v>74</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>76</v>
@@ -2831,10 +2843,10 @@
         <v>61</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>78</v>
@@ -2843,237 +2855,237 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId3"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId5"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId7"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId8"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId9"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display="decisionMaker.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId11"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="F4" display="decisionMaker.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId13"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A5" display="gettingStarted.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId15"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="F5" display="gettingStarted.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId17"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.de-de.xlf" r:id="rId17"/>
     <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId18"/>
-    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId19"/>
+    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId19"/>
     <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId20"/>
-    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId21"/>
+    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId23"/>
+    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="F7" display="lnxGettingStarted.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId25"/>
+    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf" r:id="rId25"/>
     <hyperlink ref="A8" display="metaConfig.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId27"/>
+    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId27"/>
     <hyperlink ref="F8" display="metaConfig.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId29"/>
+    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf" r:id="rId29"/>
     <hyperlink ref="A9" display="pullClient.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId31"/>
+    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId31"/>
     <hyperlink ref="F9" display="pullClient.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId33"/>
+    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf" r:id="rId33"/>
     <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId35"/>
+    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId35"/>
     <hyperlink ref="F10" display="pullClientConfigID.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId37"/>
+    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.de-de.xlf" r:id="rId37"/>
     <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId38"/>
-    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId39"/>
+    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId39"/>
     <hyperlink ref="F11" display="pullClientConfigID4.md" r:id="rId40"/>
-    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId41"/>
+    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.de-de.xlf" r:id="rId41"/>
     <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId43"/>
+    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId43"/>
     <hyperlink ref="F12" display="pullClientConfigNames.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId45"/>
+    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.de-de.xlf" r:id="rId45"/>
     <hyperlink ref="A13" display="pullServer.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId47"/>
+    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId47"/>
     <hyperlink ref="F13" display="pullServer.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId49"/>
+    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.de-de.xlf" r:id="rId49"/>
     <hyperlink ref="A14" display="reportServer.md" r:id="rId50"/>
-    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId51"/>
+    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId51"/>
     <hyperlink ref="F14" display="reportServer.md" r:id="rId52"/>
-    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId53"/>
+    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.de-de.xlf" r:id="rId53"/>
     <hyperlink ref="A15" display="secureMOF.md" r:id="rId54"/>
-    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf" r:id="rId55"/>
+    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId55"/>
     <hyperlink ref="F15" display="secureMOF.md" r:id="rId56"/>
-    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf" r:id="rId57"/>
+    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.de-de.xlf" r:id="rId57"/>
     <hyperlink ref="A16" display="TOC.md" r:id="rId58"/>
-    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId59"/>
+    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId59"/>
     <hyperlink ref="F16" display="TOC.md" r:id="rId60"/>
-    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="troubleshooting.md" r:id="rId62"/>
-    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf" r:id="rId63"/>
-    <hyperlink ref="F17" display="troubleshooting.md" r:id="rId64"/>
-    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="archiveResource.md" r:id="rId66"/>
-    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId67"/>
-    <hyperlink ref="F18" display="archiveResource.md" r:id="rId68"/>
-    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="authoringResource.md" r:id="rId70"/>
-    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId71"/>
-    <hyperlink ref="F19" display="authoringResource.md" r:id="rId72"/>
-    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId74"/>
-    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId75"/>
-    <hyperlink ref="F20" display="authoringResourceClass.md" r:id="rId76"/>
-    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId78"/>
-    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId79"/>
-    <hyperlink ref="F21" display="authoringResourceComposite.md" r:id="rId80"/>
-    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId82"/>
-    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId83"/>
-    <hyperlink ref="F22" display="authoringResourceMOF.md" r:id="rId84"/>
-    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId85"/>
-    <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId86"/>
-    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId87"/>
-    <hyperlink ref="F23" display="authoringResourceMofCS.md" r:id="rId88"/>
-    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId89"/>
-    <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId90"/>
-    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId91"/>
-    <hyperlink ref="F24" display="authoringResourceMofDesigner.md" r:id="rId92"/>
-    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId93"/>
-    <hyperlink ref="A25" display="configData.md" r:id="rId94"/>
-    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId95"/>
-    <hyperlink ref="F25" display="configData.md" r:id="rId96"/>
-    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId97"/>
-    <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId98"/>
-    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId99"/>
-    <hyperlink ref="F26" display="configDataCredentials.md" r:id="rId100"/>
-    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId101"/>
-    <hyperlink ref="A27" display="configurations.md" r:id="rId102"/>
-    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId103"/>
-    <hyperlink ref="F27" display="configurations.md" r:id="rId104"/>
-    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId105"/>
-    <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId106"/>
-    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId107"/>
-    <hyperlink ref="F28" display="enactingConfigurations.md" r:id="rId108"/>
-    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId109"/>
-    <hyperlink ref="A29" display="environmentResource.md" r:id="rId110"/>
-    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf" r:id="rId111"/>
-    <hyperlink ref="F29" display="environmentResource.md" r:id="rId112"/>
-    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf" r:id="rId113"/>
-    <hyperlink ref="A30" display="fileResource.md" r:id="rId114"/>
-    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId115"/>
-    <hyperlink ref="F30" display="fileResource.md" r:id="rId116"/>
-    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId117"/>
-    <hyperlink ref="A31" display="groupResource.md" r:id="rId118"/>
-    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId119"/>
-    <hyperlink ref="F31" display="groupResource.md" r:id="rId120"/>
-    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId121"/>
-    <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId122"/>
-    <hyperlink ref="D32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId123"/>
-    <hyperlink ref="F32" display="PartialConfig1.jpg" r:id="rId124"/>
-    <hyperlink ref="G32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId125"/>
-    <hyperlink ref="A33" display="PartialConfigPullServer.jpg" r:id="rId126"/>
-    <hyperlink ref="D33" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId127"/>
-    <hyperlink ref="F33" display="PartialConfigPullServer.jpg" r:id="rId128"/>
-    <hyperlink ref="G33" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId129"/>
-    <hyperlink ref="A34" display="Pull.png" r:id="rId130"/>
-    <hyperlink ref="D34" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId131"/>
-    <hyperlink ref="F34" display="Pull.png" r:id="rId132"/>
-    <hyperlink ref="G34" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId133"/>
-    <hyperlink ref="A35" display="Push.png" r:id="rId134"/>
-    <hyperlink ref="D35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId135"/>
-    <hyperlink ref="F35" display="Push.png" r:id="rId136"/>
-    <hyperlink ref="G35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId137"/>
-    <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId138"/>
-    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId139"/>
-    <hyperlink ref="F36" display="lnxArchiveResource.md" r:id="rId140"/>
-    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId141"/>
-    <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId142"/>
-    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId143"/>
-    <hyperlink ref="F37" display="lnxEnvironmentResource.md" r:id="rId144"/>
-    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId146"/>
-    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId147"/>
-    <hyperlink ref="F38" display="lnxFileLineResource.md" r:id="rId148"/>
-    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId150"/>
-    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId151"/>
-    <hyperlink ref="F39" display="lnxFileResource.md" r:id="rId152"/>
-    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId154"/>
-    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId155"/>
-    <hyperlink ref="F40" display="lnxGroupResource.md" r:id="rId156"/>
-    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId157"/>
-    <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId158"/>
-    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId159"/>
-    <hyperlink ref="F41" display="lnxPackageResource.md" r:id="rId160"/>
-    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId161"/>
-    <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId162"/>
-    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId163"/>
-    <hyperlink ref="F42" display="lnxScriptResource.md" r:id="rId164"/>
-    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId165"/>
-    <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId166"/>
-    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId167"/>
-    <hyperlink ref="F43" display="lnxServiceResource.md" r:id="rId168"/>
-    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId169"/>
-    <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId170"/>
-    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId171"/>
-    <hyperlink ref="F44" display="lnxSshAuthorizedKeysResource.md" r:id="rId172"/>
-    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId173"/>
-    <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId174"/>
-    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId175"/>
-    <hyperlink ref="F45" display="lnxUserResource.md" r:id="rId176"/>
-    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId177"/>
-    <hyperlink ref="A46" display="logResource.md" r:id="rId178"/>
-    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId179"/>
-    <hyperlink ref="F46" display="logResource.md" r:id="rId180"/>
-    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId181"/>
-    <hyperlink ref="A47" display="metaConfig4.md" r:id="rId182"/>
-    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId183"/>
-    <hyperlink ref="F47" display="metaConfig4.md" r:id="rId184"/>
-    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId185"/>
-    <hyperlink ref="A48" display="overview.md" r:id="rId186"/>
-    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId187"/>
-    <hyperlink ref="F48" display="overview.md" r:id="rId188"/>
-    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId189"/>
-    <hyperlink ref="A49" display="packageResource.md" r:id="rId190"/>
-    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId191"/>
-    <hyperlink ref="F49" display="packageResource.md" r:id="rId192"/>
-    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId193"/>
-    <hyperlink ref="A50" display="partialConfigs.md" r:id="rId194"/>
-    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId195"/>
-    <hyperlink ref="F50" display="partialConfigs.md" r:id="rId196"/>
-    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId197"/>
-    <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId198"/>
-    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId199"/>
-    <hyperlink ref="F51" display="queryServerNodes.md" r:id="rId200"/>
-    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId201"/>
-    <hyperlink ref="A52" display="registryResource.md" r:id="rId202"/>
-    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId203"/>
-    <hyperlink ref="F52" display="registryResource.md" r:id="rId204"/>
-    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId205"/>
-    <hyperlink ref="A53" display="resources.md" r:id="rId206"/>
-    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf" r:id="rId207"/>
-    <hyperlink ref="F53" display="resources.md" r:id="rId208"/>
-    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf" r:id="rId209"/>
-    <hyperlink ref="A54" display="scriptResource.md" r:id="rId210"/>
-    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId211"/>
-    <hyperlink ref="F54" display="scriptResource.md" r:id="rId212"/>
-    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId213"/>
-    <hyperlink ref="A55" display="secureServer.md" r:id="rId214"/>
-    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId215"/>
-    <hyperlink ref="F55" display="secureServer.md" r:id="rId216"/>
-    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId217"/>
-    <hyperlink ref="A56" display="serviceResource.md" r:id="rId218"/>
-    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId219"/>
-    <hyperlink ref="F56" display="serviceResource.md" r:id="rId220"/>
-    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId221"/>
+    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.de-de.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="archiveResource.md" r:id="rId62"/>
+    <hyperlink ref="D17" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId63"/>
+    <hyperlink ref="F17" display="archiveResource.md" r:id="rId64"/>
+    <hyperlink ref="G17" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.de-de.xlf" r:id="rId65"/>
+    <hyperlink ref="A18" display="authoringResource.md" r:id="rId66"/>
+    <hyperlink ref="D18" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId67"/>
+    <hyperlink ref="F18" display="authoringResource.md" r:id="rId68"/>
+    <hyperlink ref="G18" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.de-de.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="authoringResourceClass.md" r:id="rId70"/>
+    <hyperlink ref="D19" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId71"/>
+    <hyperlink ref="F19" display="authoringResourceClass.md" r:id="rId72"/>
+    <hyperlink ref="G19" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.de-de.xlf" r:id="rId73"/>
+    <hyperlink ref="A20" display="authoringResourceComposite.md" r:id="rId74"/>
+    <hyperlink ref="D20" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId75"/>
+    <hyperlink ref="F20" display="authoringResourceComposite.md" r:id="rId76"/>
+    <hyperlink ref="G20" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.de-de.xlf" r:id="rId77"/>
+    <hyperlink ref="A21" display="authoringResourceMOF.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="authoringResourceMOF.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.de-de.xlf" r:id="rId81"/>
+    <hyperlink ref="A22" display="authoringResourceMofCS.md" r:id="rId82"/>
+    <hyperlink ref="D22" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId83"/>
+    <hyperlink ref="F22" display="authoringResourceMofCS.md" r:id="rId84"/>
+    <hyperlink ref="G22" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.de-de.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="authoringResourceMofDesigner.md" r:id="rId86"/>
+    <hyperlink ref="D23" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId87"/>
+    <hyperlink ref="F23" display="authoringResourceMofDesigner.md" r:id="rId88"/>
+    <hyperlink ref="G23" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.de-de.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="configData.md" r:id="rId90"/>
+    <hyperlink ref="D24" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId91"/>
+    <hyperlink ref="F24" display="configData.md" r:id="rId92"/>
+    <hyperlink ref="G24" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.de-de.xlf" r:id="rId93"/>
+    <hyperlink ref="A25" display="configDataCredentials.md" r:id="rId94"/>
+    <hyperlink ref="D25" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId95"/>
+    <hyperlink ref="F25" display="configDataCredentials.md" r:id="rId96"/>
+    <hyperlink ref="G25" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.de-de.xlf" r:id="rId97"/>
+    <hyperlink ref="A26" display="configurations.md" r:id="rId98"/>
+    <hyperlink ref="D26" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId99"/>
+    <hyperlink ref="F26" display="configurations.md" r:id="rId100"/>
+    <hyperlink ref="G26" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.de-de.xlf" r:id="rId101"/>
+    <hyperlink ref="A27" display="enactingConfigurations.md" r:id="rId102"/>
+    <hyperlink ref="D27" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId103"/>
+    <hyperlink ref="F27" display="enactingConfigurations.md" r:id="rId104"/>
+    <hyperlink ref="G27" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.de-de.xlf" r:id="rId105"/>
+    <hyperlink ref="A28" display="environmentResource.md" r:id="rId106"/>
+    <hyperlink ref="D28" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId107"/>
+    <hyperlink ref="F28" display="environmentResource.md" r:id="rId108"/>
+    <hyperlink ref="G28" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.de-de.xlf" r:id="rId109"/>
+    <hyperlink ref="A29" display="fileResource.md" r:id="rId110"/>
+    <hyperlink ref="D29" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId111"/>
+    <hyperlink ref="F29" display="fileResource.md" r:id="rId112"/>
+    <hyperlink ref="G29" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.de-de.xlf" r:id="rId113"/>
+    <hyperlink ref="A30" display="groupResource.md" r:id="rId114"/>
+    <hyperlink ref="D30" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId115"/>
+    <hyperlink ref="F30" display="groupResource.md" r:id="rId116"/>
+    <hyperlink ref="G30" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.de-de.xlf" r:id="rId117"/>
+    <hyperlink ref="A31" display="PartialConfig1.jpg" r:id="rId118"/>
+    <hyperlink ref="D31" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId119"/>
+    <hyperlink ref="F31" display="PartialConfig1.jpg" r:id="rId120"/>
+    <hyperlink ref="G31" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId121"/>
+    <hyperlink ref="A32" display="PartialConfigPullServer.jpg" r:id="rId122"/>
+    <hyperlink ref="D32" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId123"/>
+    <hyperlink ref="F32" display="PartialConfigPullServer.jpg" r:id="rId124"/>
+    <hyperlink ref="G32" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId125"/>
+    <hyperlink ref="A33" display="Pull.png" r:id="rId126"/>
+    <hyperlink ref="D33" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId127"/>
+    <hyperlink ref="F33" display="Pull.png" r:id="rId128"/>
+    <hyperlink ref="G33" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId129"/>
+    <hyperlink ref="A34" display="Push.png" r:id="rId130"/>
+    <hyperlink ref="D34" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId131"/>
+    <hyperlink ref="F34" display="Push.png" r:id="rId132"/>
+    <hyperlink ref="G34" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId133"/>
+    <hyperlink ref="A35" display="lnxArchiveResource.md" r:id="rId134"/>
+    <hyperlink ref="D35" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId135"/>
+    <hyperlink ref="F35" display="lnxArchiveResource.md" r:id="rId136"/>
+    <hyperlink ref="G35" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.de-de.xlf" r:id="rId137"/>
+    <hyperlink ref="A36" display="lnxEnvironmentResource.md" r:id="rId138"/>
+    <hyperlink ref="D36" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId139"/>
+    <hyperlink ref="F36" display="lnxEnvironmentResource.md" r:id="rId140"/>
+    <hyperlink ref="G36" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.de-de.xlf" r:id="rId141"/>
+    <hyperlink ref="A37" display="lnxFileLineResource.md" r:id="rId142"/>
+    <hyperlink ref="D37" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId143"/>
+    <hyperlink ref="F37" display="lnxFileLineResource.md" r:id="rId144"/>
+    <hyperlink ref="G37" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.de-de.xlf" r:id="rId145"/>
+    <hyperlink ref="A38" display="lnxFileResource.md" r:id="rId146"/>
+    <hyperlink ref="D38" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId147"/>
+    <hyperlink ref="F38" display="lnxFileResource.md" r:id="rId148"/>
+    <hyperlink ref="G38" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.de-de.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="lnxGroupResource.md" r:id="rId150"/>
+    <hyperlink ref="D39" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId151"/>
+    <hyperlink ref="F39" display="lnxGroupResource.md" r:id="rId152"/>
+    <hyperlink ref="G39" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.de-de.xlf" r:id="rId153"/>
+    <hyperlink ref="A40" display="lnxPackageResource.md" r:id="rId154"/>
+    <hyperlink ref="D40" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId155"/>
+    <hyperlink ref="F40" display="lnxPackageResource.md" r:id="rId156"/>
+    <hyperlink ref="G40" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.de-de.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="lnxScriptResource.md" r:id="rId158"/>
+    <hyperlink ref="D41" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId159"/>
+    <hyperlink ref="F41" display="lnxScriptResource.md" r:id="rId160"/>
+    <hyperlink ref="G41" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.de-de.xlf" r:id="rId161"/>
+    <hyperlink ref="A42" display="lnxServiceResource.md" r:id="rId162"/>
+    <hyperlink ref="D42" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId163"/>
+    <hyperlink ref="F42" display="lnxServiceResource.md" r:id="rId164"/>
+    <hyperlink ref="G42" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.de-de.xlf" r:id="rId165"/>
+    <hyperlink ref="A43" display="lnxSshAuthorizedKeysResource.md" r:id="rId166"/>
+    <hyperlink ref="D43" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId167"/>
+    <hyperlink ref="F43" display="lnxSshAuthorizedKeysResource.md" r:id="rId168"/>
+    <hyperlink ref="G43" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.de-de.xlf" r:id="rId169"/>
+    <hyperlink ref="A44" display="lnxUserResource.md" r:id="rId170"/>
+    <hyperlink ref="D44" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId171"/>
+    <hyperlink ref="F44" display="lnxUserResource.md" r:id="rId172"/>
+    <hyperlink ref="G44" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.de-de.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="logResource.md" r:id="rId174"/>
+    <hyperlink ref="D45" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId175"/>
+    <hyperlink ref="F45" display="logResource.md" r:id="rId176"/>
+    <hyperlink ref="G45" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.de-de.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="metaConfig4.md" r:id="rId178"/>
+    <hyperlink ref="D46" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId179"/>
+    <hyperlink ref="F46" display="metaConfig4.md" r:id="rId180"/>
+    <hyperlink ref="G46" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.de-de.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="overview.md" r:id="rId182"/>
+    <hyperlink ref="D47" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId183"/>
+    <hyperlink ref="F47" display="overview.md" r:id="rId184"/>
+    <hyperlink ref="G47" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.de-de.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="packageResource.md" r:id="rId186"/>
+    <hyperlink ref="D48" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId187"/>
+    <hyperlink ref="F48" display="packageResource.md" r:id="rId188"/>
+    <hyperlink ref="G48" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.de-de.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="partialConfigs.md" r:id="rId190"/>
+    <hyperlink ref="D49" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId191"/>
+    <hyperlink ref="F49" display="partialConfigs.md" r:id="rId192"/>
+    <hyperlink ref="G49" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.de-de.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="queryServerNodes.md" r:id="rId194"/>
+    <hyperlink ref="D50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId195"/>
+    <hyperlink ref="F50" display="queryServerNodes.md" r:id="rId196"/>
+    <hyperlink ref="G50" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.de-de.xlf" r:id="rId197"/>
+    <hyperlink ref="A51" display="registryResource.md" r:id="rId198"/>
+    <hyperlink ref="D51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId199"/>
+    <hyperlink ref="F51" display="registryResource.md" r:id="rId200"/>
+    <hyperlink ref="G51" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.de-de.xlf" r:id="rId201"/>
+    <hyperlink ref="A52" display="resources.md" r:id="rId202"/>
+    <hyperlink ref="D52" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId203"/>
+    <hyperlink ref="F52" display="resources.md" r:id="rId204"/>
+    <hyperlink ref="G52" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.de-de.xlf" r:id="rId205"/>
+    <hyperlink ref="A53" display="scriptResource.md" r:id="rId206"/>
+    <hyperlink ref="D53" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId207"/>
+    <hyperlink ref="F53" display="scriptResource.md" r:id="rId208"/>
+    <hyperlink ref="G53" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.de-de.xlf" r:id="rId209"/>
+    <hyperlink ref="A54" display="secureServer.md" r:id="rId210"/>
+    <hyperlink ref="D54" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId211"/>
+    <hyperlink ref="F54" display="secureServer.md" r:id="rId212"/>
+    <hyperlink ref="G54" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.de-de.xlf" r:id="rId213"/>
+    <hyperlink ref="A55" display="serviceResource.md" r:id="rId214"/>
+    <hyperlink ref="D55" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId215"/>
+    <hyperlink ref="F55" display="serviceResource.md" r:id="rId216"/>
+    <hyperlink ref="G55" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.de-de.xlf" r:id="rId217"/>
+    <hyperlink ref="A56" display="troubleshooting.md" r:id="rId218"/>
+    <hyperlink ref="D56" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId219"/>
+    <hyperlink ref="F56" display="troubleshooting.md" r:id="rId220"/>
+    <hyperlink ref="G56" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.de-de.xlf" r:id="rId221"/>
     <hyperlink ref="A57" display="userResource.md" r:id="rId222"/>
-    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId223"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId223"/>
     <hyperlink ref="F57" display="userResource.md" r:id="rId224"/>
-    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId225"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.de-de.xlf" r:id="rId225"/>
     <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId226"/>
-    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId227"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId227"/>
     <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId228"/>
-    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId229"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.de-de.xlf" r:id="rId229"/>
     <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId230"/>
-    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId231"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId231"/>
     <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId232"/>
-    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId233"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.de-de.xlf" r:id="rId233"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>File Name</t>
   </si>
@@ -264,16 +264,13 @@
     <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-21 22:37:42</t>
+    <t>2016-03-23 17:41:02</t>
   </si>
   <si>
     <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.de-de.xlf</t>
   </si>
   <si>
     <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-21 21:14:51</t>
   </si>
   <si>
     <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.de-de.xlf</t>
@@ -1355,7 +1352,7 @@
         <v>85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>78</v>
@@ -1372,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>76</v>
@@ -1381,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>77</v>
@@ -1401,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>76</v>
@@ -1410,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>77</v>
@@ -1430,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>76</v>
@@ -1439,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>77</v>
@@ -1459,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>76</v>
@@ -1468,10 +1465,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>78</v>
@@ -1488,19 +1485,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>78</v>
@@ -1517,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>76</v>
@@ -1526,7 +1523,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>77</v>
@@ -1546,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>76</v>
@@ -1555,7 +1552,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>77</v>
@@ -1575,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>76</v>
@@ -1584,7 +1581,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>77</v>
@@ -1604,7 +1601,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>76</v>
@@ -1613,7 +1610,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>77</v>
@@ -1633,7 +1630,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>76</v>
@@ -1642,7 +1639,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
@@ -1662,16 +1659,16 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>77</v>
@@ -1691,7 +1688,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>76</v>
@@ -1700,7 +1697,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>77</v>
@@ -1720,7 +1717,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>76</v>
@@ -1729,10 +1726,10 @@
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>78</v>
@@ -1749,7 +1746,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>76</v>
@@ -1758,7 +1755,7 @@
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>77</v>
@@ -1778,7 +1775,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>76</v>
@@ -1787,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>77</v>
@@ -1807,7 +1804,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>76</v>
@@ -1816,10 +1813,10 @@
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>78</v>
@@ -1836,7 +1833,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>76</v>
@@ -1845,7 +1842,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>77</v>
@@ -1865,7 +1862,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>76</v>
@@ -1874,7 +1871,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>77</v>
@@ -1894,7 +1891,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>76</v>
@@ -1903,7 +1900,7 @@
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>77</v>
@@ -1923,7 +1920,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>76</v>
@@ -1932,7 +1929,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>77</v>
@@ -1952,7 +1949,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>76</v>
@@ -1961,7 +1958,7 @@
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>77</v>
@@ -1981,7 +1978,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>76</v>
@@ -1990,7 +1987,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>77</v>
@@ -2004,31 +2001,31 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="K31" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -2036,31 +2033,31 @@
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="K32" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -2068,31 +2065,31 @@
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -2100,31 +2097,31 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="J34" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="K34" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -2138,7 +2135,7 @@
         <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>76</v>
@@ -2147,7 +2144,7 @@
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>77</v>
@@ -2167,7 +2164,7 @@
         <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>76</v>
@@ -2176,7 +2173,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>77</v>
@@ -2196,7 +2193,7 @@
         <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>76</v>
@@ -2205,7 +2202,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>77</v>
@@ -2225,7 +2222,7 @@
         <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>76</v>
@@ -2234,7 +2231,7 @@
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>77</v>
@@ -2254,7 +2251,7 @@
         <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>76</v>
@@ -2263,10 +2260,10 @@
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>78</v>
@@ -2283,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>76</v>
@@ -2292,7 +2289,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>77</v>
@@ -2312,7 +2309,7 @@
         <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>76</v>
@@ -2321,7 +2318,7 @@
         <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>77</v>
@@ -2341,16 +2338,16 @@
         <v>19</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>77</v>
@@ -2370,7 +2367,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>76</v>
@@ -2379,7 +2376,7 @@
         <v>45</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>77</v>
@@ -2399,7 +2396,7 @@
         <v>19</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>76</v>
@@ -2408,7 +2405,7 @@
         <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>77</v>
@@ -2428,7 +2425,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>76</v>
@@ -2437,7 +2434,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>77</v>
@@ -2457,7 +2454,7 @@
         <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>76</v>
@@ -2466,7 +2463,7 @@
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>77</v>
@@ -2486,7 +2483,7 @@
         <v>19</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>76</v>
@@ -2495,7 +2492,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>77</v>
@@ -2515,7 +2512,7 @@
         <v>19</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>76</v>
@@ -2524,7 +2521,7 @@
         <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>77</v>
@@ -2544,7 +2541,7 @@
         <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>76</v>
@@ -2553,7 +2550,7 @@
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>77</v>
@@ -2573,7 +2570,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>76</v>
@@ -2582,7 +2579,7 @@
         <v>52</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>77</v>
@@ -2602,7 +2599,7 @@
         <v>19</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>76</v>
@@ -2611,7 +2608,7 @@
         <v>53</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>77</v>
@@ -2631,7 +2628,7 @@
         <v>19</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>76</v>
@@ -2640,7 +2637,7 @@
         <v>54</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>77</v>
@@ -2660,7 +2657,7 @@
         <v>19</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>76</v>
@@ -2669,7 +2666,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>77</v>
@@ -2689,7 +2686,7 @@
         <v>19</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>76</v>
@@ -2698,7 +2695,7 @@
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>77</v>
@@ -2718,7 +2715,7 @@
         <v>19</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>76</v>
@@ -2727,7 +2724,7 @@
         <v>57</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>77</v>
@@ -2747,19 +2744,19 @@
         <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>78</v>
@@ -2776,7 +2773,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>76</v>
@@ -2785,7 +2782,7 @@
         <v>59</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>77</v>
@@ -2805,7 +2802,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>76</v>
@@ -2814,10 +2811,10 @@
         <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>78</v>
@@ -2834,7 +2831,7 @@
         <v>19</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>76</v>
@@ -2843,10 +2840,10 @@
         <v>61</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>78</v>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -6,19 +6,19 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="ko-kr" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>zh-cn</t>
+    <t>ko-kr</t>
   </si>
   <si>
     <t>builtInResource.md</t>
@@ -30,9 +30,15 @@
     <t>debugResource.md</t>
   </si>
   <si>
+    <t>decisionMaker.md</t>
+  </si>
+  <si>
     <t>gettingStarted.md</t>
   </si>
   <si>
+    <t>lnxBuiltInResources.md</t>
+  </si>
+  <si>
     <t>lnxGettingStarted.md</t>
   </si>
   <si>
@@ -42,6 +48,12 @@
     <t>pullClient.md</t>
   </si>
   <si>
+    <t>pullClientConfigID.md</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.md</t>
+  </si>
+  <si>
     <t>pullClientConfigNames.md</t>
   </si>
   <si>
@@ -69,12 +81,24 @@
     <t>authoringResource.md</t>
   </si>
   <si>
+    <t>authoringResourceClass.md</t>
+  </si>
+  <si>
     <t>authoringResourceComposite.md</t>
   </si>
   <si>
     <t>authoringResourceMOF.md</t>
   </si>
   <si>
+    <t>authoringResourceMofCS.md</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.md</t>
+  </si>
+  <si>
+    <t>configData.md</t>
+  </si>
+  <si>
     <t>configDataCredentials.md</t>
   </si>
   <si>
@@ -87,6 +111,9 @@
     <t>environmentResource.md</t>
   </si>
   <si>
+    <t>fileResource.md</t>
+  </si>
+  <si>
     <t>groupResource.md</t>
   </si>
   <si>
@@ -102,6 +129,9 @@
     <t>Push.png</t>
   </si>
   <si>
+    <t>lnxArchiveResource.md</t>
+  </si>
+  <si>
     <t>lnxEnvironmentResource.md</t>
   </si>
   <si>
@@ -111,27 +141,54 @@
     <t>lnxFileResource.md</t>
   </si>
   <si>
+    <t>lnxGroupResource.md</t>
+  </si>
+  <si>
     <t>lnxPackageResource.md</t>
   </si>
   <si>
+    <t>lnxScriptResource.md</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.md</t>
+  </si>
+  <si>
     <t>lnxSshAuthorizedKeysResource.md</t>
   </si>
   <si>
     <t>lnxUserResource.md</t>
   </si>
   <si>
+    <t>logResource.md</t>
+  </si>
+  <si>
     <t>metaConfig4.md</t>
   </si>
   <si>
+    <t>overview.md</t>
+  </si>
+  <si>
     <t>packageResource.md</t>
   </si>
   <si>
+    <t>partialConfigs.md</t>
+  </si>
+  <si>
+    <t>queryServerNodes.md</t>
+  </si>
+  <si>
     <t>registryResource.md</t>
   </si>
   <si>
+    <t>resources.md</t>
+  </si>
+  <si>
     <t>scriptResource.md</t>
   </si>
   <si>
+    <t>secureServer.md</t>
+  </si>
+  <si>
     <t>serviceResource.md</t>
   </si>
   <si>
@@ -183,76 +240,106 @@
     <t>.md</t>
   </si>
   <si>
-    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:01:57</t>
-  </si>
-  <si>
-    <t>2016-03-23 17:56:38</t>
+    <t>builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:02:35</t>
+  </si>
+  <si>
+    <t>2016-03-23 17:27:44</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
-    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf</t>
+    <t>debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-02 17:43:45</t>
+  </si>
+  <si>
+    <t>authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf</t>
   </si>
   <si>
     <t>.jpg</t>
@@ -261,10 +348,10 @@
     <t>3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg</t>
   </si>
   <si>
-    <t>2016-03-11 01:02:59</t>
-  </si>
-  <si>
-    <t>2016-03-18 09:21:04</t>
+    <t>2016-03-11 01:03:30</t>
+  </si>
+  <si>
+    <t>2016-03-19 01:30:54</t>
   </si>
   <si>
     <t>IsDependency</t>
@@ -288,46 +375,79 @@
     <t>d3008e3fe7da4c118c693d2b34a0b329780f8d86.png</t>
   </si>
   <si>
-    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf</t>
+    <t>lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-23 18:52:18</t>
+  </si>
+  <si>
+    <t>resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf</t>
   </si>
 </sst>
 </file>
@@ -384,7 +504,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:M1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ko-kr" displayName="ko_kr" ref="A1:M1" headerRowCount="0">
   <tableColumns count="13">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -408,7 +528,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
   <tableColumns count="2">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="zh-cn"/>
+    <tableColumn id="2" name="ko-kr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -416,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -535,39 +655,39 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -575,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -583,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -591,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -599,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -607,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +735,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -623,7 +743,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -631,7 +751,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -639,7 +759,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -647,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -655,7 +775,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -663,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -671,7 +791,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -679,7 +799,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -687,7 +807,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -695,7 +815,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -703,7 +823,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -711,7 +831,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -719,7 +839,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -727,7 +847,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -735,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -743,50 +863,221 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="gettingStarted.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="lnxGettingStarted.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="metaConfig.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="pullClient.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="pullServer.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="reportServer.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="secureMOF.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="TOC.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="troubleshooting.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="archiveResource.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="authoringResource.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="configDataCredentials.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="configurations.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="enactingConfigurations.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="environmentResource.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="groupResource.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="PartialConfig1.jpg" r:id="rId23"/>
-    <hyperlink ref="A24" display="PartialConfigPullServer.jpg" r:id="rId24"/>
-    <hyperlink ref="A25" display="Pull.png" r:id="rId25"/>
-    <hyperlink ref="A26" display="Push.png" r:id="rId26"/>
-    <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="lnxFileLineResource.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="lnxFileResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="lnxPackageResource.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId32"/>
-    <hyperlink ref="A33" display="metaConfig4.md" r:id="rId33"/>
-    <hyperlink ref="A34" display="packageResource.md" r:id="rId34"/>
-    <hyperlink ref="A35" display="registryResource.md" r:id="rId35"/>
-    <hyperlink ref="A36" display="scriptResource.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="serviceResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="userResource.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="windowsfeatureResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="windowsProcessResource.md" r:id="rId40"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="metaConfig.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="pullClient.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="pullServer.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="reportServer.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="secureMOF.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="TOC.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="troubleshooting.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="archiveResource.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="authoringResource.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="configData.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="configurations.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="environmentResource.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="fileResource.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="groupResource.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId32"/>
+    <hyperlink ref="A33" display="PartialConfigPullServer.jpg" r:id="rId33"/>
+    <hyperlink ref="A34" display="Pull.png" r:id="rId34"/>
+    <hyperlink ref="A35" display="Push.png" r:id="rId35"/>
+    <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId36"/>
+    <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId37"/>
+    <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId38"/>
+    <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="logResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="metaConfig4.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="overview.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="packageResource.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="partialConfigs.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="registryResource.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -797,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -819,40 +1110,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -860,28 +1151,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -889,28 +1180,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -918,28 +1209,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -947,28 +1238,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -976,28 +1267,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1005,28 +1296,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -1034,28 +1325,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1063,28 +1354,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -1092,28 +1383,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -1121,28 +1412,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -1150,28 +1441,28 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -1179,28 +1470,28 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1208,144 +1499,144 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -1353,28 +1644,28 @@
         <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -1382,28 +1673,28 @@
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -1411,28 +1702,28 @@
         <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -1440,28 +1731,28 @@
         <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -1469,31 +1760,28 @@
         <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -1501,31 +1789,28 @@
         <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -1533,31 +1818,28 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -1565,31 +1847,28 @@
         <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -1597,28 +1876,28 @@
         <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -1626,28 +1905,28 @@
         <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -1655,28 +1934,28 @@
         <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -1684,28 +1963,28 @@
         <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -1713,28 +1992,28 @@
         <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -1742,28 +2021,31 @@
         <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1771,28 +2053,31 @@
         <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -1800,28 +2085,31 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -1829,28 +2117,31 @@
         <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -1858,28 +2149,28 @@
         <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -1887,28 +2178,28 @@
         <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -1916,28 +2207,28 @@
         <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -1945,28 +2236,28 @@
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -1974,188 +2265,815 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="B56" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="builtInResource.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="D2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId3"/>
     <hyperlink ref="F2" display="builtInResource.md" r:id="rId4"/>
-    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="G2" display="builtInResource.2f855e1582347e986aa4e5e62b842b886596fdc2.ko-kr.xlf" r:id="rId5"/>
     <hyperlink ref="A3" display="debugResource.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="D3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId7"/>
     <hyperlink ref="F3" display="debugResource.md" r:id="rId8"/>
-    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="gettingStarted.md" r:id="rId10"/>
-    <hyperlink ref="D4" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="gettingStarted.md" r:id="rId12"/>
-    <hyperlink ref="G4" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="lnxGettingStarted.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="lnxGettingStarted.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="metaConfig.md" r:id="rId18"/>
-    <hyperlink ref="D6" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="F6" display="metaConfig.md" r:id="rId20"/>
-    <hyperlink ref="G6" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A7" display="pullClient.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="F7" display="pullClient.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="pullClientConfigNames.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="F8" display="pullClientConfigNames.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="pullServer.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="pullServer.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="reportServer.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.zh-cn.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="reportServer.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.zh-cn.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="secureMOF.md" r:id="rId38"/>
-    <hyperlink ref="D11" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="secureMOF.md" r:id="rId40"/>
-    <hyperlink ref="G11" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.zh-cn.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="TOC.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="TOC.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.zh-cn.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="troubleshooting.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId47"/>
-    <hyperlink ref="F13" display="troubleshooting.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.zh-cn.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="archiveResource.md" r:id="rId50"/>
-    <hyperlink ref="D14" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId51"/>
-    <hyperlink ref="F14" display="archiveResource.md" r:id="rId52"/>
-    <hyperlink ref="G14" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.zh-cn.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="authoringResource.md" r:id="rId54"/>
-    <hyperlink ref="D15" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId55"/>
-    <hyperlink ref="F15" display="authoringResource.md" r:id="rId56"/>
-    <hyperlink ref="G15" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.zh-cn.xlf" r:id="rId57"/>
-    <hyperlink ref="A16" display="authoringResourceComposite.md" r:id="rId58"/>
-    <hyperlink ref="D16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId59"/>
-    <hyperlink ref="F16" display="authoringResourceComposite.md" r:id="rId60"/>
-    <hyperlink ref="G16" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.zh-cn.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="authoringResourceMOF.md" r:id="rId62"/>
-    <hyperlink ref="D17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId63"/>
-    <hyperlink ref="F17" display="authoringResourceMOF.md" r:id="rId64"/>
-    <hyperlink ref="G17" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.zh-cn.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="configDataCredentials.md" r:id="rId66"/>
-    <hyperlink ref="D18" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.zh-cn.xlf" r:id="rId67"/>
-    <hyperlink ref="F18" display="configDataCredentials.md" r:id="rId68"/>
-    <hyperlink ref="G18" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.zh-cn.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="configurations.md" r:id="rId70"/>
-    <hyperlink ref="D19" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId71"/>
-    <hyperlink ref="F19" display="configurations.md" r:id="rId72"/>
-    <hyperlink ref="G19" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.zh-cn.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="enactingConfigurations.md" r:id="rId74"/>
-    <hyperlink ref="D20" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId75"/>
-    <hyperlink ref="F20" display="enactingConfigurations.md" r:id="rId76"/>
-    <hyperlink ref="G20" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.zh-cn.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="environmentResource.md" r:id="rId78"/>
-    <hyperlink ref="D21" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId79"/>
-    <hyperlink ref="F21" display="environmentResource.md" r:id="rId80"/>
-    <hyperlink ref="G21" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.zh-cn.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="groupResource.md" r:id="rId82"/>
-    <hyperlink ref="D22" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId83"/>
-    <hyperlink ref="F22" display="groupResource.md" r:id="rId84"/>
-    <hyperlink ref="G22" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.zh-cn.xlf" r:id="rId85"/>
-    <hyperlink ref="A23" display="PartialConfig1.jpg" r:id="rId86"/>
-    <hyperlink ref="D23" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId87"/>
-    <hyperlink ref="F23" display="PartialConfig1.jpg" r:id="rId88"/>
-    <hyperlink ref="G23" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId89"/>
-    <hyperlink ref="A24" display="PartialConfigPullServer.jpg" r:id="rId90"/>
-    <hyperlink ref="D24" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId91"/>
-    <hyperlink ref="F24" display="PartialConfigPullServer.jpg" r:id="rId92"/>
-    <hyperlink ref="G24" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId93"/>
-    <hyperlink ref="A25" display="Pull.png" r:id="rId94"/>
-    <hyperlink ref="D25" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId95"/>
-    <hyperlink ref="F25" display="Pull.png" r:id="rId96"/>
-    <hyperlink ref="G25" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId97"/>
-    <hyperlink ref="A26" display="Push.png" r:id="rId98"/>
-    <hyperlink ref="D26" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId99"/>
-    <hyperlink ref="F26" display="Push.png" r:id="rId100"/>
-    <hyperlink ref="G26" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId101"/>
-    <hyperlink ref="A27" display="lnxEnvironmentResource.md" r:id="rId102"/>
-    <hyperlink ref="D27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId103"/>
-    <hyperlink ref="F27" display="lnxEnvironmentResource.md" r:id="rId104"/>
-    <hyperlink ref="G27" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.zh-cn.xlf" r:id="rId105"/>
-    <hyperlink ref="A28" display="lnxFileLineResource.md" r:id="rId106"/>
-    <hyperlink ref="D28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId107"/>
-    <hyperlink ref="F28" display="lnxFileLineResource.md" r:id="rId108"/>
-    <hyperlink ref="G28" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.zh-cn.xlf" r:id="rId109"/>
-    <hyperlink ref="A29" display="lnxFileResource.md" r:id="rId110"/>
-    <hyperlink ref="D29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId111"/>
-    <hyperlink ref="F29" display="lnxFileResource.md" r:id="rId112"/>
-    <hyperlink ref="G29" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.zh-cn.xlf" r:id="rId113"/>
-    <hyperlink ref="A30" display="lnxPackageResource.md" r:id="rId114"/>
-    <hyperlink ref="D30" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId115"/>
-    <hyperlink ref="F30" display="lnxPackageResource.md" r:id="rId116"/>
-    <hyperlink ref="G30" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.zh-cn.xlf" r:id="rId117"/>
-    <hyperlink ref="A31" display="lnxSshAuthorizedKeysResource.md" r:id="rId118"/>
-    <hyperlink ref="D31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId119"/>
-    <hyperlink ref="F31" display="lnxSshAuthorizedKeysResource.md" r:id="rId120"/>
-    <hyperlink ref="G31" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.zh-cn.xlf" r:id="rId121"/>
-    <hyperlink ref="A32" display="lnxUserResource.md" r:id="rId122"/>
-    <hyperlink ref="D32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId123"/>
-    <hyperlink ref="F32" display="lnxUserResource.md" r:id="rId124"/>
-    <hyperlink ref="G32" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.zh-cn.xlf" r:id="rId125"/>
-    <hyperlink ref="A33" display="metaConfig4.md" r:id="rId126"/>
-    <hyperlink ref="D33" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId127"/>
-    <hyperlink ref="F33" display="metaConfig4.md" r:id="rId128"/>
-    <hyperlink ref="G33" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.zh-cn.xlf" r:id="rId129"/>
-    <hyperlink ref="A34" display="packageResource.md" r:id="rId130"/>
-    <hyperlink ref="D34" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId131"/>
-    <hyperlink ref="F34" display="packageResource.md" r:id="rId132"/>
-    <hyperlink ref="G34" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.zh-cn.xlf" r:id="rId133"/>
-    <hyperlink ref="A35" display="registryResource.md" r:id="rId134"/>
-    <hyperlink ref="D35" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId135"/>
-    <hyperlink ref="F35" display="registryResource.md" r:id="rId136"/>
-    <hyperlink ref="G35" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.zh-cn.xlf" r:id="rId137"/>
-    <hyperlink ref="A36" display="scriptResource.md" r:id="rId138"/>
-    <hyperlink ref="D36" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId139"/>
-    <hyperlink ref="F36" display="scriptResource.md" r:id="rId140"/>
-    <hyperlink ref="G36" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.zh-cn.xlf" r:id="rId141"/>
-    <hyperlink ref="A37" display="serviceResource.md" r:id="rId142"/>
-    <hyperlink ref="D37" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId143"/>
-    <hyperlink ref="F37" display="serviceResource.md" r:id="rId144"/>
-    <hyperlink ref="G37" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.zh-cn.xlf" r:id="rId145"/>
-    <hyperlink ref="A38" display="userResource.md" r:id="rId146"/>
-    <hyperlink ref="D38" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId147"/>
-    <hyperlink ref="F38" display="userResource.md" r:id="rId148"/>
-    <hyperlink ref="G38" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.zh-cn.xlf" r:id="rId149"/>
-    <hyperlink ref="A39" display="windowsfeatureResource.md" r:id="rId150"/>
-    <hyperlink ref="D39" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId151"/>
-    <hyperlink ref="F39" display="windowsfeatureResource.md" r:id="rId152"/>
-    <hyperlink ref="G39" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.zh-cn.xlf" r:id="rId153"/>
-    <hyperlink ref="A40" display="windowsProcessResource.md" r:id="rId154"/>
-    <hyperlink ref="D40" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId155"/>
-    <hyperlink ref="F40" display="windowsProcessResource.md" r:id="rId156"/>
-    <hyperlink ref="G40" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.zh-cn.xlf" r:id="rId157"/>
+    <hyperlink ref="G3" display="debugResource.ac634156affe5c723cc149a298f5aa4268d17016.ko-kr.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="decisionMaker.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="decisionMaker.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="decisionMaker.01553169f2ba4241995260fad925e2784b5f5567.ko-kr.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="gettingStarted.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="gettingStarted.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="gettingStarted.92e02d8bd273df5c304475a9b4fa251c22a7ea19.ko-kr.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="lnxBuiltInResources.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId19"/>
+    <hyperlink ref="F6" display="lnxBuiltInResources.md" r:id="rId20"/>
+    <hyperlink ref="G6" display="lnxBuiltInResources.12cc0e2a7d17afe6b1e1b9c928760080863926f9.ko-kr.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="lnxGettingStarted.md" r:id="rId22"/>
+    <hyperlink ref="D7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId23"/>
+    <hyperlink ref="F7" display="lnxGettingStarted.md" r:id="rId24"/>
+    <hyperlink ref="G7" display="lnxGettingStarted.1601cf6d0eb8b4f7343575c8fbf2106bfaad8b65.ko-kr.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="metaConfig.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="metaConfig.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="metaConfig.915dba9ed66671e4a41c35a16d5248bb4c94e3d6.ko-kr.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="pullClient.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="pullClient.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="pullClient.4844144e7d40a6e8b1be2cfaa80a5307f19f47f9.ko-kr.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="pullClientConfigID.md" r:id="rId34"/>
+    <hyperlink ref="D10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="pullClientConfigID.md" r:id="rId36"/>
+    <hyperlink ref="G10" display="pullClientConfigID.1b955603d220e49bbe52711bacf74c46feec04cc.ko-kr.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="pullClientConfigID4.md" r:id="rId38"/>
+    <hyperlink ref="D11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="pullClientConfigID4.md" r:id="rId40"/>
+    <hyperlink ref="G11" display="pullClientConfigID4.3556f8028eee8a539990f2895506bcbafb14a012.ko-kr.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="pullClientConfigNames.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="pullClientConfigNames.90531abb3b29bfd751ad2f3a115a4ba02024827e.ko-kr.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="pullServer.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="pullServer.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="pullServer.4b925b277da29998394af746bdbdd508fda48909.ko-kr.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="reportServer.md" r:id="rId50"/>
+    <hyperlink ref="D14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId51"/>
+    <hyperlink ref="F14" display="reportServer.md" r:id="rId52"/>
+    <hyperlink ref="G14" display="reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="secureMOF.md" r:id="rId54"/>
+    <hyperlink ref="D15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf" r:id="rId55"/>
+    <hyperlink ref="F15" display="secureMOF.md" r:id="rId56"/>
+    <hyperlink ref="G15" display="secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="TOC.md" r:id="rId58"/>
+    <hyperlink ref="D16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId59"/>
+    <hyperlink ref="F16" display="TOC.md" r:id="rId60"/>
+    <hyperlink ref="G16" display="TOC.b2a7935bce42ebc7e43bfe65f3058900e2942427.ko-kr.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="troubleshooting.md" r:id="rId62"/>
+    <hyperlink ref="D17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf" r:id="rId63"/>
+    <hyperlink ref="F17" display="troubleshooting.md" r:id="rId64"/>
+    <hyperlink ref="G17" display="troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf" r:id="rId65"/>
+    <hyperlink ref="A18" display="archiveResource.md" r:id="rId66"/>
+    <hyperlink ref="D18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId67"/>
+    <hyperlink ref="F18" display="archiveResource.md" r:id="rId68"/>
+    <hyperlink ref="G18" display="archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="authoringResource.md" r:id="rId70"/>
+    <hyperlink ref="D19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId71"/>
+    <hyperlink ref="F19" display="authoringResource.md" r:id="rId72"/>
+    <hyperlink ref="G19" display="authoringResource.106f1f4d77068b2b95f1927b611b5f405ec7a317.ko-kr.xlf" r:id="rId73"/>
+    <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId74"/>
+    <hyperlink ref="D20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId75"/>
+    <hyperlink ref="F20" display="authoringResourceClass.md" r:id="rId76"/>
+    <hyperlink ref="G20" display="authoringResourceClass.3603134df9ad1cad202d10769ff631a083cc3aae.ko-kr.xlf" r:id="rId77"/>
+    <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="authoringResourceComposite.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="authoringResourceComposite.6d5d1e53e83e25cfc63e26078da390a4fa6737f2.ko-kr.xlf" r:id="rId81"/>
+    <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId82"/>
+    <hyperlink ref="D22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId83"/>
+    <hyperlink ref="F22" display="authoringResourceMOF.md" r:id="rId84"/>
+    <hyperlink ref="G22" display="authoringResourceMOF.1f503c33425780c369e78193e2f2f4e9242c401b.ko-kr.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId86"/>
+    <hyperlink ref="D23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId87"/>
+    <hyperlink ref="F23" display="authoringResourceMofCS.md" r:id="rId88"/>
+    <hyperlink ref="G23" display="authoringResourceMofCS.0647b27b00ec52b2f524a2856e48bc7c29c0f867.ko-kr.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId90"/>
+    <hyperlink ref="D24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId91"/>
+    <hyperlink ref="F24" display="authoringResourceMofDesigner.md" r:id="rId92"/>
+    <hyperlink ref="G24" display="authoringResourceMofDesigner.09b1adffc4afb0d9b1154880e2dab0b25d82d51b.ko-kr.xlf" r:id="rId93"/>
+    <hyperlink ref="A25" display="configData.md" r:id="rId94"/>
+    <hyperlink ref="D25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId95"/>
+    <hyperlink ref="F25" display="configData.md" r:id="rId96"/>
+    <hyperlink ref="G25" display="configData.51d01a46dd9af8b425788cc485523b09f8470b95.ko-kr.xlf" r:id="rId97"/>
+    <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId98"/>
+    <hyperlink ref="D26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId99"/>
+    <hyperlink ref="F26" display="configDataCredentials.md" r:id="rId100"/>
+    <hyperlink ref="G26" display="configDataCredentials.f3e75119e7d93b2f914823c5ea23bfde3935a874.ko-kr.xlf" r:id="rId101"/>
+    <hyperlink ref="A27" display="configurations.md" r:id="rId102"/>
+    <hyperlink ref="D27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId103"/>
+    <hyperlink ref="F27" display="configurations.md" r:id="rId104"/>
+    <hyperlink ref="G27" display="configurations.02626ddbf3a00f8ede56fdfd2e46a027800e75b6.ko-kr.xlf" r:id="rId105"/>
+    <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId106"/>
+    <hyperlink ref="D28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId107"/>
+    <hyperlink ref="F28" display="enactingConfigurations.md" r:id="rId108"/>
+    <hyperlink ref="G28" display="enactingConfigurations.5949c3926cc7d368fa49b0ba340a078984794e5d.ko-kr.xlf" r:id="rId109"/>
+    <hyperlink ref="A29" display="environmentResource.md" r:id="rId110"/>
+    <hyperlink ref="D29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf" r:id="rId111"/>
+    <hyperlink ref="F29" display="environmentResource.md" r:id="rId112"/>
+    <hyperlink ref="G29" display="environmentResource.eb91ffd4cd8bdb9476e5a83de1a20d3b7b502a56.ko-kr.xlf" r:id="rId113"/>
+    <hyperlink ref="A30" display="fileResource.md" r:id="rId114"/>
+    <hyperlink ref="D30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId115"/>
+    <hyperlink ref="F30" display="fileResource.md" r:id="rId116"/>
+    <hyperlink ref="G30" display="fileResource.ad0d9bba41b615db808e5dfc814b50945863b3da.ko-kr.xlf" r:id="rId117"/>
+    <hyperlink ref="A31" display="groupResource.md" r:id="rId118"/>
+    <hyperlink ref="D31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId119"/>
+    <hyperlink ref="F31" display="groupResource.md" r:id="rId120"/>
+    <hyperlink ref="G31" display="groupResource.d19d416269795c92566b62c36b9782062dcea43e.ko-kr.xlf" r:id="rId121"/>
+    <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId122"/>
+    <hyperlink ref="D32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId123"/>
+    <hyperlink ref="F32" display="PartialConfig1.jpg" r:id="rId124"/>
+    <hyperlink ref="G32" display="3e61149f7b05f74d662d3038233013ffdcbed1a3.jpg" r:id="rId125"/>
+    <hyperlink ref="A33" display="PartialConfigPullServer.jpg" r:id="rId126"/>
+    <hyperlink ref="D33" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId127"/>
+    <hyperlink ref="F33" display="PartialConfigPullServer.jpg" r:id="rId128"/>
+    <hyperlink ref="G33" display="1ba842005c2b1ce80a3670429b3e010c7b1c1f59.jpg" r:id="rId129"/>
+    <hyperlink ref="A34" display="Pull.png" r:id="rId130"/>
+    <hyperlink ref="D34" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId131"/>
+    <hyperlink ref="F34" display="Pull.png" r:id="rId132"/>
+    <hyperlink ref="G34" display="86d829b1fcdd41e648ed0594eaf337b3726c143c.png" r:id="rId133"/>
+    <hyperlink ref="A35" display="Push.png" r:id="rId134"/>
+    <hyperlink ref="D35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId135"/>
+    <hyperlink ref="F35" display="Push.png" r:id="rId136"/>
+    <hyperlink ref="G35" display="d3008e3fe7da4c118c693d2b34a0b329780f8d86.png" r:id="rId137"/>
+    <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId138"/>
+    <hyperlink ref="D36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId139"/>
+    <hyperlink ref="F36" display="lnxArchiveResource.md" r:id="rId140"/>
+    <hyperlink ref="G36" display="lnxArchiveResource.095aab7d23720fd394f2573c30223a6bbcc0a4ef.ko-kr.xlf" r:id="rId141"/>
+    <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId142"/>
+    <hyperlink ref="D37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId143"/>
+    <hyperlink ref="F37" display="lnxEnvironmentResource.md" r:id="rId144"/>
+    <hyperlink ref="G37" display="lnxEnvironmentResource.60c6523b1d06708f748c9039105a2042fa341552.ko-kr.xlf" r:id="rId145"/>
+    <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId146"/>
+    <hyperlink ref="D38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId147"/>
+    <hyperlink ref="F38" display="lnxFileLineResource.md" r:id="rId148"/>
+    <hyperlink ref="G38" display="lnxFileLineResource.d91fc802a4c6cdbff5a2e35f92b34c36c6dbf5eb.ko-kr.xlf" r:id="rId149"/>
+    <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId150"/>
+    <hyperlink ref="D39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId151"/>
+    <hyperlink ref="F39" display="lnxFileResource.md" r:id="rId152"/>
+    <hyperlink ref="G39" display="lnxFileResource.1f67ed46e7bb4ac04f73143e1d7ab7e9199d3191.ko-kr.xlf" r:id="rId153"/>
+    <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId154"/>
+    <hyperlink ref="D40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId155"/>
+    <hyperlink ref="F40" display="lnxGroupResource.md" r:id="rId156"/>
+    <hyperlink ref="G40" display="lnxGroupResource.0cedb684d797032bd47cdb852629c36da0884567.ko-kr.xlf" r:id="rId157"/>
+    <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId158"/>
+    <hyperlink ref="D41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId159"/>
+    <hyperlink ref="F41" display="lnxPackageResource.md" r:id="rId160"/>
+    <hyperlink ref="G41" display="lnxPackageResource.db35ab938bbfbb38cae53fe9ae98fd22b5f18009.ko-kr.xlf" r:id="rId161"/>
+    <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId162"/>
+    <hyperlink ref="D42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId163"/>
+    <hyperlink ref="F42" display="lnxScriptResource.md" r:id="rId164"/>
+    <hyperlink ref="G42" display="lnxScriptResource.1344a5d5b807ee53705e93842d9ef5e25a883359.ko-kr.xlf" r:id="rId165"/>
+    <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId166"/>
+    <hyperlink ref="D43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId167"/>
+    <hyperlink ref="F43" display="lnxServiceResource.md" r:id="rId168"/>
+    <hyperlink ref="G43" display="lnxServiceResource.e637c7f7b18939ec8c16eadf2c42ab00e236fb7b.ko-kr.xlf" r:id="rId169"/>
+    <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId170"/>
+    <hyperlink ref="D44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId171"/>
+    <hyperlink ref="F44" display="lnxSshAuthorizedKeysResource.md" r:id="rId172"/>
+    <hyperlink ref="G44" display="lnxSshAuthorizedKeysResource.9a647ff238cd38a2fc7da58f3cc5682acf7d3346.ko-kr.xlf" r:id="rId173"/>
+    <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId174"/>
+    <hyperlink ref="D45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId175"/>
+    <hyperlink ref="F45" display="lnxUserResource.md" r:id="rId176"/>
+    <hyperlink ref="G45" display="lnxUserResource.2376554a25dd8dfad6a78a6180b7c7166e4817e1.ko-kr.xlf" r:id="rId177"/>
+    <hyperlink ref="A46" display="logResource.md" r:id="rId178"/>
+    <hyperlink ref="D46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId179"/>
+    <hyperlink ref="F46" display="logResource.md" r:id="rId180"/>
+    <hyperlink ref="G46" display="logResource.07af9dfcf6076ef19059178c3b404762677920f0.ko-kr.xlf" r:id="rId181"/>
+    <hyperlink ref="A47" display="metaConfig4.md" r:id="rId182"/>
+    <hyperlink ref="D47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId183"/>
+    <hyperlink ref="F47" display="metaConfig4.md" r:id="rId184"/>
+    <hyperlink ref="G47" display="metaConfig4.4ec702d458e6574099cead724f0e57c3c5d262df.ko-kr.xlf" r:id="rId185"/>
+    <hyperlink ref="A48" display="overview.md" r:id="rId186"/>
+    <hyperlink ref="D48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId187"/>
+    <hyperlink ref="F48" display="overview.md" r:id="rId188"/>
+    <hyperlink ref="G48" display="overview.8cc85dd99239e10c76baa6006d906abfd6122c3f.ko-kr.xlf" r:id="rId189"/>
+    <hyperlink ref="A49" display="packageResource.md" r:id="rId190"/>
+    <hyperlink ref="D49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId191"/>
+    <hyperlink ref="F49" display="packageResource.md" r:id="rId192"/>
+    <hyperlink ref="G49" display="packageResource.132c4949cee174dc0dc324456d220436cb9884e6.ko-kr.xlf" r:id="rId193"/>
+    <hyperlink ref="A50" display="partialConfigs.md" r:id="rId194"/>
+    <hyperlink ref="D50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId195"/>
+    <hyperlink ref="F50" display="partialConfigs.md" r:id="rId196"/>
+    <hyperlink ref="G50" display="partialConfigs.f483ab7fa1511b557780a02b5b807245f730c1b6.ko-kr.xlf" r:id="rId197"/>
+    <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId198"/>
+    <hyperlink ref="D51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId199"/>
+    <hyperlink ref="F51" display="queryServerNodes.md" r:id="rId200"/>
+    <hyperlink ref="G51" display="queryServerNodes.bb63da39c46de8db127c93721dcbec9b10f73d2d.ko-kr.xlf" r:id="rId201"/>
+    <hyperlink ref="A52" display="registryResource.md" r:id="rId202"/>
+    <hyperlink ref="D52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId203"/>
+    <hyperlink ref="F52" display="registryResource.md" r:id="rId204"/>
+    <hyperlink ref="G52" display="registryResource.7e5e3fabff013c107bd112ac774a50c9cab7c90a.ko-kr.xlf" r:id="rId205"/>
+    <hyperlink ref="A53" display="resources.md" r:id="rId206"/>
+    <hyperlink ref="D53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf" r:id="rId207"/>
+    <hyperlink ref="F53" display="resources.md" r:id="rId208"/>
+    <hyperlink ref="G53" display="resources.41990b4bc17648676f43a9aedfa72aa3db455ca3.ko-kr.xlf" r:id="rId209"/>
+    <hyperlink ref="A54" display="scriptResource.md" r:id="rId210"/>
+    <hyperlink ref="D54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId211"/>
+    <hyperlink ref="F54" display="scriptResource.md" r:id="rId212"/>
+    <hyperlink ref="G54" display="scriptResource.086a4e23c7f1950435cf115060757fcd9b7f7f5d.ko-kr.xlf" r:id="rId213"/>
+    <hyperlink ref="A55" display="secureServer.md" r:id="rId214"/>
+    <hyperlink ref="D55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId215"/>
+    <hyperlink ref="F55" display="secureServer.md" r:id="rId216"/>
+    <hyperlink ref="G55" display="secureServer.ce207607010d18109152742ba23c923cd3cddba2.ko-kr.xlf" r:id="rId217"/>
+    <hyperlink ref="A56" display="serviceResource.md" r:id="rId218"/>
+    <hyperlink ref="D56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId219"/>
+    <hyperlink ref="F56" display="serviceResource.md" r:id="rId220"/>
+    <hyperlink ref="G56" display="serviceResource.17d839ef9952ec1a45ba971fcff47a80c41593cf.ko-kr.xlf" r:id="rId221"/>
+    <hyperlink ref="A57" display="userResource.md" r:id="rId222"/>
+    <hyperlink ref="D57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId223"/>
+    <hyperlink ref="F57" display="userResource.md" r:id="rId224"/>
+    <hyperlink ref="G57" display="userResource.5de4fbe03e9e06934442ba451eb0564931863f45.ko-kr.xlf" r:id="rId225"/>
+    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId226"/>
+    <hyperlink ref="D58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId227"/>
+    <hyperlink ref="F58" display="windowsfeatureResource.md" r:id="rId228"/>
+    <hyperlink ref="G58" display="windowsfeatureResource.07b968eb71ba947a4bf5fa25add8a0e2c25bcadf.ko-kr.xlf" r:id="rId229"/>
+    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId230"/>
+    <hyperlink ref="D59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId231"/>
+    <hyperlink ref="F59" display="windowsProcessResource.md" r:id="rId232"/>
+    <hyperlink ref="G59" display="windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf" r:id="rId233"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
+++ b/ol-handback/PowerShell/powerShell-Docs/live/handback-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>File Name</t>
   </si>
@@ -63,6 +63,9 @@
     <t>reportServer.md</t>
   </si>
   <si>
+    <t>resourceAuthoringChecklist.md</t>
+  </si>
+  <si>
     <t>secureMOF.md</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>troubleshooting.md</t>
   </si>
   <si>
+    <t>dsc_waitfor.md</t>
+  </si>
+  <si>
     <t>archiveResource.md</t>
   </si>
   <si>
@@ -201,6 +207,237 @@
     <t>windowsProcessResource.md</t>
   </si>
   <si>
+    <t>audit_cms.md</t>
+  </si>
+  <si>
+    <t>audit_overview.md</t>
+  </si>
+  <si>
+    <t>audit_script.md</t>
+  </si>
+  <si>
+    <t>audit_transcript.md</t>
+  </si>
+  <si>
+    <t>class_base.md</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.md</t>
+  </si>
+  <si>
+    <t>class_basemethod.md</t>
+  </si>
+  <si>
+    <t>class_interface.md</t>
+  </si>
+  <si>
+    <t>class_newtype.md</t>
+  </si>
+  <si>
+    <t>class_overview.md</t>
+  </si>
+  <si>
+    <t>debug_overview.md</t>
+  </si>
+  <si>
+    <t>dsc_authoring.md</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.md</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.md</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.md</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.md</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.md</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.md</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.md</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.md</t>
+  </si>
+  <si>
+    <t>dsc_improvements.md</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.md</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.md</t>
+  </si>
+  <si>
+    <t>dsc_newresources.md</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.md</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.md</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.md</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.md</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.md</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.md</t>
+  </si>
+  <si>
+    <t>dsc_reporting.md</t>
+  </si>
+  <si>
+    <t>dsc_repository.md</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.md</t>
+  </si>
+  <si>
+    <t>dsc_runas.md</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.md</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.md</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.md</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.md</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.md</t>
+  </si>
+  <si>
+    <t>dsc_wow64.md</t>
+  </si>
+  <si>
+    <t>feedback.md</t>
+  </si>
+  <si>
+    <t>feedback_archive.md</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.md</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.md</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.md</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.md</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.md</t>
+  </si>
+  <si>
+    <t>feedback_formathex.md</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.md</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.md</t>
+  </si>
+  <si>
+    <t>feedback_newguid.md</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.md</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.md</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.md</t>
+  </si>
+  <si>
+    <t>informationstream_overview.md</t>
+  </si>
+  <si>
+    <t>install.md</t>
+  </si>
+  <si>
+    <t>jea_endpoint.md</t>
+  </si>
+  <si>
+    <t>jea_overview.md</t>
+  </si>
+  <si>
+    <t>jea_report.md</t>
+  </si>
+  <si>
+    <t>limitation_dsc.md</t>
+  </si>
+  <si>
+    <t>limitation_overview.md</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.md</t>
+  </si>
+  <si>
+    <t>odata_overview.md</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.md</t>
+  </si>
+  <si>
+    <t>oneget_overview.md</t>
+  </si>
+  <si>
+    <t>productincompat.md</t>
+  </si>
+  <si>
+    <t>psget_module_overview.md</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.md</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.md</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.md</t>
+  </si>
+  <si>
+    <t>psget_psrepository.md</t>
+  </si>
+  <si>
+    <t>psget_script_overview.md</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.md</t>
+  </si>
+  <si>
+    <t>releasenotes.md</t>
+  </si>
+  <si>
+    <t>requirements.md</t>
+  </si>
+  <si>
+    <t>sil_overview.md</t>
+  </si>
+  <si>
+    <t>uninstall.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -288,6 +525,15 @@
     <t>reportServer.53df4bc8b7b80c0a19c11434bdf5f4304e8248f7.ko-kr.xlf</t>
   </si>
   <si>
+    <t>resourceAuthoringChecklist.3b9ae254d826cc45519d37d06044f28a69bdfa69.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-07 19:32:18</t>
+  </si>
+  <si>
+    <t>2016-03-23 18:56:05</t>
+  </si>
+  <si>
     <t>secureMOF.84bae90620632fc30568f4afa595e2b86e8aa6d1.ko-kr.xlf</t>
   </si>
   <si>
@@ -297,6 +543,15 @@
     <t>troubleshooting.bcb1039de4ec46bfb0ab2d224be50829d0891e7d.ko-kr.xlf</t>
   </si>
   <si>
+    <t>dsc_waitfor.2b09933f08f1020166ce0f0cd7548a5a3845c48f.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 01:13:59</t>
+  </si>
+  <si>
+    <t>TOC.60497266061c38453b3db893ec675eb65584af89.ko-kr.xlf</t>
+  </si>
+  <si>
     <t>archiveResource.b4701b9fe5acf94be3fabf470371d8e47dd154d4.ko-kr.xlf</t>
   </si>
   <si>
@@ -448,6 +703,237 @@
   </si>
   <si>
     <t>windowsProcessResource.d5014f2fde06deea365cd1e64a3587c037999fa7.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>audit_cms.3e422ca243ac938b46bfcf1497a703e55bde970e.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>audit_overview.fc5b51e2734a2af986c9edf42b4395b1aad2435d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>audit_script.e89f3a9316d1125e1efd23b41b756a3a6161016b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>audit_transcript.c21a6554932939cbf4c744bf7c9f07cc4e1e7160.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>class_base.29a9fbe4987503d5575c151f4271f58398cb7e55.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>class_baseconstructor.82f951e800b06ccc68090b1be9923c8210a233ac.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>class_basemethod.6b60292188d0081f30fbaf4b111db8a439348f5b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>class_interface.84a08fd30808364a820bdd4440de18ec4504a6c7.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>class_newtype.a9f52b670970046f8b1147d4ba646b73abb430dc.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>class_overview.91227b885afcb8df385ab601ab970b924eca2533.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>debug_overview.70b71c20b8b625704c25da28a58e804a048bafb0.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_authoring.364878cde8f156d8999773842812e0c08f70191c.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_classbasedresource.a3d6b22652db939b51db1218584247396454ae0f.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_confighelp.bcfa7e85acae98499089edc9fba25b68953d7bbf.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_directaccess.014c91015162b26b678e0a5fdfd453a3bf6e41b0.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_encryptedmof.a35c44de669ea81f25dd29f152f03493e52e327b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_freqnomultiple.2848e52c73280aca59e73136bac0c2c7ae02aad6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_getconfigurationstatus.1705e4bcaa9dfd9d69f00aecdc7ef0d04bf44899.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_identicalduplicate.eb7167ccd4a72d68aa1683327e9b3877927158ab.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_importdscresource.a0169ad862dfcaa5c958c07ecd52c856d5dc8436.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_improvements.d9ed6ffedf9d9650bb6b26b5ed611e420a0aacbb.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_lcmstate.21ea1c36f37c94e8e0363199fbd07bcced3aea40.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_metaconfiguration.e8bbca05aa1692ad54cadd83b93a1902f179f365.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_newresources.b9c40f591f875ea205c834f7675f3edbe1050592.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_nodeid.e3c9049aa6c1d151f8b286f28502537b2f8d22a4.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig.a493787c3f8663ac3e2994162ffd1bee429544d3.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_partialconfig_mixedmode.ff4b9a8a421441da62574192650493bf2407028d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_publishconfig.bfe86d4253abdd777c205caec637c50ec79103ee.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_refreshmode.b0529a06a4d3e07b3fce300f74760d63b27523f6.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_removeconfigdoc.d16cdab7eaedf468bcc38dae34e93be26a204318.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_reporting.b042cd21b9bcfc8e50bc361ddee59333602fad42.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_repository.ec5040a823a6b64e969393e00f3d859fd0b4551c.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_resourcedebugging.95c69e55eb065b349f52e18126d699b1906ba03f.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_runas.9e19a42a6d5e1ea1772358a6fd8ff24b98a5b6ba.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_setdsclcm.1f0e3cab81cf5fc1feda678f202451fe150632e3.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_statestatus.b6f3670f776a8f63a705ba16bed2f20be34fc48f.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_sxsresource.c9d4ce6109370ac1cbc1fb07f191e02f9a61d5d3.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_testconfiguration.b0e5afe2c8f173ebe49c97c9ea9a2f11d81ea5fa.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_updateconfig.a07eb85e3458d42d7ab1ed5c57dcfc70df709d07.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>dsc_wow64.ea039aaa1bd77415311fc30d80fed43cda07a6e3.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback.3662230166299ef7c1fb7a7a7f5cdbd64b1d812a.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_archive.20de26911a704368058401c7e2bd6ebaac692ff5.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_clipboard.872e5c147ef02cb86067651f41e3c00b55386664.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_cmdlets.a4c0dfb806ca0da232eeb75ad3706177b8a5ec48.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertfromString.acdeaa33e8fa59b93649b6abf3a7d5ef64fb7664.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_convertstring.42e964e30093962871c3a4d586ed6c54f25f840d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_fileinfo.0192edad2d6504d26a9632f95fc9e5b66ffd8003.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_formathex.f97931c887efb620e5f4314facc1f0e20e3dffbe.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_getchilditem.ce02ca20cc4417a80fe65eb509a8e92f2cecc79c.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_moduleversionranges.611b3a3219d64dbfa1d01541b60a727b880a0c4b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_newguid.f8756fbdb96e6fe06a7e0cbb6ac4af32b1c64983.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_nonewline.7a9b7e24c50399879089bba2b8eee7dc325572e2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_symbolic.1c3ac8128fb9df60512ec024044d48be7d0cb59f.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>feedback_tempfile.fc029065af6bbba3a8c4abbf36023bede7d1416d.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>informationstream_overview.d2f238b2b4021ccdb7271cf89f53d58970d56cf5.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>install.317fc924c0f766547c4725878af59c3c9d8facba.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>jea_endpoint.1dc052fe583a907a6c090cf8bfd42293d94d2975.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>jea_overview.3fa3008e719be8235adffe51808ac66714940871.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>jea_report.7860cec6e93b7405844ccbbe5bc879921447ac0b.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>limitation_dsc.3684c81bb088cba98089dffdb1a1e56e1c098335.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>limitation_overview.6cc9c8c028f5912636637d836aed7db0614de522.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>networkswitch_overview.7a87eb0741cd43b8b9284ea6cb605920c4961b79.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>odata_overview.c3f7efdde29fe7ac5685a61cd61d75b65524a4c3.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>oneget_cmdlets.469b2350a72495ac2cf62e4130b4df8036f5d135.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>oneget_overview.e71a25f36f957ab7471d259c6e716651f6f23c94.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>productincompat.62bb00299c0283b5297001553476a745e28a49cb.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>psget_module_overview.4149c468ffd0f17a2fabd03f90059c12effc3170.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulecmdlets.1f808cfdf9a9aa920f88e15f7f5fa4701fe805e3.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>psget_moduledependency.89ba9310335ae64db5481a3c02034ac4fe01b6a2.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>psget_modulesxsinstall.110ba80d8f917899ef488b46bd15f5654f6ba06c.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>psget_psrepository.c4381b2ff7bb6496ab74ed8bb2b07325cfbfc056.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>psget_script_overview.f035cc99497d17dc73e3a61f214e40a5860fc70a.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>psget_scriptcmdlets.1762d5f29292d59c1afb37cb29eb11a34cf63990.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>releasenotes.311750b4da54b1d4ef7997b328edd6ff177fb71f.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>requirements.ef8332f358d65b1759bfd4c7336b11d1dc8c2d46.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>sil_overview.a2b1f7c716aad317993a5eaffba21fa28ce0c0d8.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>uninstall.b07adaaaf7f41869dfa201b88e29342aced76c96.ko-kr.xlf</t>
   </si>
 </sst>
 </file>
@@ -536,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -687,335 +1173,975 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>20</v>
+      <c r="B60" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1033,51 +2159,131 @@
     <hyperlink ref="A12" display="pullClientConfigNames.md" r:id="rId12"/>
     <hyperlink ref="A13" display="pullServer.md" r:id="rId13"/>
     <hyperlink ref="A14" display="reportServer.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="secureMOF.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="TOC.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="troubleshooting.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="archiveResource.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="authoringResource.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="authoringResourceClass.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="authoringResourceComposite.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="authoringResourceMOF.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="authoringResourceMofCS.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="authoringResourceMofDesigner.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="configData.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="configDataCredentials.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="configurations.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="enactingConfigurations.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="environmentResource.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="fileResource.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="groupResource.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="PartialConfig1.jpg" r:id="rId32"/>
-    <hyperlink ref="A33" display="PartialConfigPullServer.jpg" r:id="rId33"/>
-    <hyperlink ref="A34" display="Pull.png" r:id="rId34"/>
-    <hyperlink ref="A35" display="Push.png" r:id="rId35"/>
-    <hyperlink ref="A36" display="lnxArchiveResource.md" r:id="rId36"/>
-    <hyperlink ref="A37" display="lnxEnvironmentResource.md" r:id="rId37"/>
-    <hyperlink ref="A38" display="lnxFileLineResource.md" r:id="rId38"/>
-    <hyperlink ref="A39" display="lnxFileResource.md" r:id="rId39"/>
-    <hyperlink ref="A40" display="lnxGroupResource.md" r:id="rId40"/>
-    <hyperlink ref="A41" display="lnxPackageResource.md" r:id="rId41"/>
-    <hyperlink ref="A42" display="lnxScriptResource.md" r:id="rId42"/>
-    <hyperlink ref="A43" display="lnxServiceResource.md" r:id="rId43"/>
-    <hyperlink ref="A44" display="lnxSshAuthorizedKeysResource.md" r:id="rId44"/>
-    <hyperlink ref="A45" display="lnxUserResource.md" r:id="rId45"/>
-    <hyperlink ref="A46" display="logResource.md" r:id="rId46"/>
-    <hyperlink ref="A47" display="metaConfig4.md" r:id="rId47"/>
-    <hyperlink ref="A48" display="overview.md" r:id="rId48"/>
-    <hyperlink ref="A49" display="packageResource.md" r:id="rId49"/>
-    <hyperlink ref="A50" display="partialConfigs.md" r:id="rId50"/>
-    <hyperlink ref="A51" display="queryServerNodes.md" r:id="rId51"/>
-    <hyperlink ref="A52" display="registryResource.md" r:id="rId52"/>
-    <hyperlink ref="A53" display="resources.md" r:id="rId53"/>
-    <hyperlink ref="A54" display="scriptResource.md" r:id="rId54"/>
-    <hyperlink ref="A55" display="secureServer.md" r:id="rId55"/>
-    <hyperlink ref="A56" display="serviceResource.md" r:id="rId56"/>
-    <hyperlink ref="A57" display="userResource.md" r:id="rId57"/>
-    <hyperlink ref="A58" display="windowsfeatureResource.md" r:id="rId58"/>
-    <hyperlink ref="A59" display="windowsProcessResource.md" r:id="rId59"/>
+    <hyperlink ref="A15" display="resourceAuthoringChecklist.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="secureMOF.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="TOC.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="troubleshooting.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="dsc_waitfor.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="TOC.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="archiveResource.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="authoringResource.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="authoringResourceClass.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="authoringResourceComposite.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="authoringResourceMOF.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="authoringResourceMofCS.md" r:id="rId26"/>
+    <hyperlink ref="A27" display="authoringResourceMofDesigner.md" r:id="rId27"/>
+    <hyperlink ref="A28" display="configData.md" r:id="rId28"/>
+    <hyperlink ref="A29" display="configDataCredentials.md" r:id="rId29"/>
+    <hyperlink ref="A30" display="configurations.md" r:id="rId30"/>
+    <hyperlink ref="A31" display="enactingConfigurations.md" r:id="rId31"/>
+    <hyperlink ref="A32" display="environmentResource.md" r:id="rId32"/>
+    <hyperlink ref="A33" display="fileResource.md" r:id="rId33"/>
+    <hyperlink ref="A34" display="groupResource.md" r:id="rId34"/>
+    <hyperlink ref="A35" display="PartialConfig1.jpg" r:id="rId35"/>
+    <hyperlink ref="A36" display="PartialConfigPullServer.jpg" r:id="rId36"/>
+    <hyperlink ref="A37" display="Pull.png" r:id="rId37"/>
+    <hyperlink ref="A38" display="Push.png" r:id="rId38"/>
+    <hyperlink ref="A39" display="lnxArchiveResource.md" r:id="rId39"/>
+    <hyperlink ref="A40" display="lnxEnvironmentResource.md" r:id="rId40"/>
+    <hyperlink ref="A41" display="lnxFileLineResource.md" r:id="rId41"/>
+    <hyperlink ref="A42" display="lnxFileResource.md" r:id="rId42"/>
+    <hyperlink ref="A43" display="lnxGroupResource.md" r:id="rId43"/>
+    <hyperlink ref="A44" display="lnxPackageResource.md" r:id="rId44"/>
+    <hyperlink ref="A45" display="lnxScriptResource.md" r:id="rId45"/>
+    <hyperlink ref="A46" display="lnxServiceResource.md" r:id="rId46"/>
+    <hyperlink ref="A47" display="lnxSshAuthorizedKeysResource.md" r:id="rId47"/>
+    <hyperlink ref="A48" display="lnxUserResource.md" r:id="rId48"/>
+    <hyperlink ref="A49" display="logResource.md" r:id="rId49"/>
+    <hyperlink ref="A50" display="metaConfig4.md" r:id="rId50"/>
+    <hyperlink ref="A51" display="overview.md" r:id="rId51"/>
+    <hyperlink ref="A52" display="packageResource.md" r:id="rId52"/>
+    <hyperlink ref="A53" display="partialConfigs.md" r:id="rId53"/>
+    <hyperlink ref="A54" display="queryServerNodes.md" r:id="rId54"/>
+    <hyperlink ref="A55" display="registryResource.md" r:id="rId55"/>
+    <hyperlink ref="A56" display="resources.md" r:id="rId56"/>
+    <hyperlink ref="A57" display="scriptResource.md" r:id="rId57"/>
+    <hyperlink ref="A58" display="secureServer.md" r:id="rId58"/>
+    <hyperlink ref="A59" display="serviceResource.md" r:id="rId59"/>
+    <hyperlink ref="A60" display="userResource.md" r:id="rId60"/>
+    <hyperlink ref="A61" display="windowsfeatureResource.md" r:id="rId61"/>
+    <hyperlink ref="A62" display="windowsProcessResource.md" r:id="rId62"/>
+    <hyperlink ref="A63" display="audit_cms.md" r:id="rId63"/>
+    <hyperlink ref="A64" display="audit_overview.md" r:id="rId64"/>
+    <hyperlink ref="A65" display="audit_script.md" r:id="rId65"/>
+    <hyperlink ref="A66" display="audit_transcript.md" r:id="rId66"/>
+    <hyperlink ref="A67" display="class_base.md" r:id="rId67"/>
+    <hyperlink ref="A68" display="class_baseconstructor.md" r:id="rId68"/>
+    <hyperlink ref="A69" display="class_basemethod.md" r:id="rId69"/>
+    <hyperlink ref="A70" display="class_interface.md" r:id="rId70"/>
+    <hyperlink ref="A71" display="class_newtype.md" r:id="rId71"/>
+    <hyperlink ref="A72" display="class_overview.md" r:id="rId72"/>
+    <hyperlink ref="A73" display="debug_overview.md" r:id="rId73"/>
+    <hyperlink ref="A74" display="dsc_authoring.md" r:id="rId74"/>
+    <hyperlink ref="A75" display="dsc_classbasedresource.md" r:id="rId75"/>
+    <hyperlink ref="A76" display="dsc_confighelp.md" r:id="rId76"/>
+    <hyperlink ref="A77" display="dsc_directaccess.md" r:id="rId77"/>
+    <hyperlink ref="A78" display="dsc_encryptedmof.md" r:id="rId78"/>
+    <hyperlink ref="A79" display="dsc_freqnomultiple.md" r:id="rId79"/>
+    <hyperlink ref="A80" display="dsc_getconfigurationstatus.md" r:id="rId80"/>
+    <hyperlink ref="A81" display="dsc_identicalduplicate.md" r:id="rId81"/>
+    <hyperlink ref="A82" display="dsc_importdscresource.md" r:id="rId82"/>
+    <hyperlink ref="A83" display="dsc_improvements.md" r:id="rId83"/>
+    <hyperlink ref="A84" display="dsc_lcmstate.md" r:id="rId84"/>
+    <hyperlink ref="A85" display="dsc_metaconfiguration.md" r:id="rId85"/>
+    <hyperlink ref="A86" display="dsc_newresources.md" r:id="rId86"/>
+    <hyperlink ref="A87" display="dsc_nodeid.md" r:id="rId87"/>
+    <hyperlink ref="A88" display="dsc_partialconfig.md" r:id="rId88"/>
+    <hyperlink ref="A89" display="dsc_partialconfig_mixedmode.md" r:id="rId89"/>
+    <hyperlink ref="A90" display="dsc_publishconfig.md" r:id="rId90"/>
+    <hyperlink ref="A91" display="dsc_refreshmode.md" r:id="rId91"/>
+    <hyperlink ref="A92" display="dsc_removeconfigdoc.md" r:id="rId92"/>
+    <hyperlink ref="A93" display="dsc_reporting.md" r:id="rId93"/>
+    <hyperlink ref="A94" display="dsc_repository.md" r:id="rId94"/>
+    <hyperlink ref="A95" display="dsc_resourcedebugging.md" r:id="rId95"/>
+    <hyperlink ref="A96" display="dsc_runas.md" r:id="rId96"/>
+    <hyperlink ref="A97" display="dsc_setdsclcm.md" r:id="rId97"/>
+    <hyperlink ref="A98" display="dsc_statestatus.md" r:id="rId98"/>
+    <hyperlink ref="A99" display="dsc_sxsresource.md" r:id="rId99"/>
+    <hyperlink ref="A100" display="dsc_testconfiguration.md" r:id="rId100"/>
+    <hyperlink ref="A101" display="dsc_updateconfig.md" r:id="rId101"/>
+    <hyperlink ref="A102" display="dsc_wow64.md" r:id="rId102"/>
+    <hyperlink ref="A103" display="feedback.md" r:id="rId103"/>
+    <hyperlink ref="A104" display="feedback_archive.md" r:id="rId104"/>
+    <hyperlink ref="A105" display="feedback_clipboard.md" r:id="rId105"/>
+    <hyperlink ref="A106" display="feedback_cmdlets.md" r:id="rId106"/>
+    <hyperlink ref="A107" display="feedback_convertfromString.md" r:id="rId107"/>
+    <hyperlink ref="A108" display="feedback_convertstring.md" r:id="rId108"/>
+    <hyperlink ref="A109" display="feedback_fileinfo.md" r:id="rId109"/>
+    <hyperlink ref="A110" display="feedback_formathex.md" r:id="rId110"/>
+    <hyperlink ref="A111" display="feedback_getchilditem.md" r:id="rId111"/>
+    <hyperlink ref="A112" display="feedback_moduleversionranges.md" r:id="rId112"/>
+    <hyperlink ref="A113" display="feedback_newguid.md" r:id="rId113"/>
+    <hyperlink ref="A114" display="feedback_nonewline.md" r:id="rId114"/>
+    <hyperlink ref="A115" display="feedback_symbolic.md" r:id="rId115"/>
+    <hyperlink ref="A116" display="feedback_tempfile.md" r:id="rId116"/>
+    <hyperlink ref="A117" display="informationstream_overview.md" r:id="rId117"/>
+    <hyperlink ref="A118" display="install.md" r:id="rId118"/>
+    <hyperlink ref="A119" display="jea_endpoint.md" r:id="rId119"/>
+    <hyperlink ref="A120" display="jea_overview.md" r:id="rId120"/>
+    <hyperlink ref="A121" display="jea_report.md" r:id="rId121"/>
+    <hyperlink ref="A122" display="limitation_dsc.md" r:id="rId122"/>
+    <hyperlink ref="A123" display="limitation_overview.md" r:id="rId123"/>
+    <hyperlink ref="A124" display="networkswitch_overview.md" r:id="rId124"/>
+    <hyperlink ref="A125" display="odata_overview.md" r:id="rId125"/>
+    <hyperlink ref="A126" display="oneget_cmdlets.md" r:id="rId126"/>
+    <hyperlink ref="A127" display="oneget_overview.md" r:id="rId127"/>
+    <hyperlink ref="A128" display="productincompat.md" r:id="rId128"/>
+    <hyperlink ref="A129" display="psget_module_overview.md" r:id="rId129"/>
+    <hyperlink ref="A130" display="psget_modulecmdlets.md" r:id="rId130"/>
+    <hyperlink ref="A131" display="psget_moduledependency.md" r:id="rId131"/>
+    <hyperlink ref="A132" display="psget_modulesxsinstall.md" r:id="rId132"/>
+    <hyperlink ref="A133" display="psget_psrepository.md" r:id="rId133"/>
+    <hyperlink ref="A134" display="psget_script_overview.md" r:id="rId134"/>
+    <hyperlink ref="A135" display="psget_scriptcmdlets.md" r:id="rId135"/>
+    <hyperlink ref="A136" display="releasenotes.md" r:id="rId136"/>
+    <hyperlink ref="A137" display="requirements.md" r:id="rId137"/>
+    <hyperlink ref="A138" display="sil_overview.md" r:id="rId138"/>
+    <hyperlink ref="A139" display="uninstall.md" r:id="rId139"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1088,7 +2294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1110,40 +2316,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
@@ -1151,28 +2357,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
@@ -1180,28 +2386,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
@@ -1209,28 +2415,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
@@ -1238,28 +2444,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -1267,28 +2473,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
@@ -1296,28 +2502,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
@@ -1325,28 +2531,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -1354,28 +2560,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
@@ -1383,28 +2589,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
@@ -1412,28 +2618,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
@@ -1441,28 +2647,28 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
@@ -1470,28 +2676,28 @@
         <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -1499,28 +2705,28 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -1528,28 +2734,28 @@
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -1557,28 +2763,28 @@
         <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
@@ -1586,28 +2792,28 @@
         <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
@@ -1615,1229 +2821,3549 @@
         <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>78</v>
+        <v>198</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>78</v>
+        <v>198</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>78</v>
+        <v>198</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B60" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="B73" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="2" t="s">
+      <c r="B75" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J59" s="0" t="s">
+      <c r="B76" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="1" t="s"